--- a/PNR_Raw_Data/PNR2022_InvertebrateCommunity.xlsx
+++ b/PNR_Raw_Data/PNR2022_InvertebrateCommunity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/PNR_Beetles_github_folder/PNR_Raw_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1848" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D711828-D050-46AC-93A9-7684A94C286B}"/>
+  <xr:revisionPtr revIDLastSave="2019" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB1C6CFC-9FC7-4679-963D-665D7A59A3C2}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -428,7 +428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -499,16 +499,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -532,6 +529,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -892,10 +893,10 @@
   <dimension ref="A1:BH194"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AJ182" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="BD179" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AM188" sqref="AM188"/>
+      <selection pane="bottomRight" activeCell="BE134" sqref="BE134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -936,11 +937,12 @@
     <col min="46" max="47" width="12.1796875" style="4" customWidth="1"/>
     <col min="48" max="48" width="12.26953125" style="4" customWidth="1"/>
     <col min="49" max="49" width="12.1796875" style="4" customWidth="1"/>
-    <col min="50" max="50" width="12.81640625" style="4" customWidth="1"/>
+    <col min="50" max="50" width="12.26953125" style="4" customWidth="1"/>
     <col min="51" max="51" width="11.6328125" style="4" customWidth="1"/>
     <col min="52" max="54" width="12.08984375" style="4" customWidth="1"/>
     <col min="55" max="55" width="12.7265625" style="4" customWidth="1"/>
-    <col min="56" max="57" width="14.08984375" style="4" customWidth="1"/>
+    <col min="56" max="56" width="14.08984375" style="4" customWidth="1"/>
+    <col min="57" max="57" width="13.6328125" style="4" customWidth="1"/>
     <col min="58" max="58" width="12.54296875" style="4" customWidth="1"/>
     <col min="59" max="59" width="10" style="4" customWidth="1"/>
     <col min="60" max="60" width="12" style="4" customWidth="1"/>
@@ -948,185 +950,185 @@
     <col min="63" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" s="27" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:60" s="26" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="25" t="s">
+      <c r="F1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="N1" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="O1" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="P1" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="Q1" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="R1" s="26" t="s">
+      <c r="R1" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="S1" s="26" t="s">
+      <c r="S1" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="T1" s="26" t="s">
+      <c r="T1" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="U1" s="26" t="s">
+      <c r="U1" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="V1" s="26" t="s">
+      <c r="V1" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="W1" s="26" t="s">
+      <c r="W1" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="X1" s="26" t="s">
+      <c r="X1" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="Y1" s="26" t="s">
+      <c r="Y1" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="Z1" s="26" t="s">
+      <c r="Z1" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="AA1" s="26" t="s">
+      <c r="AA1" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="AB1" s="26" t="s">
+      <c r="AB1" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="AC1" s="26" t="s">
+      <c r="AC1" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="26" t="s">
+      <c r="AD1" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="AE1" s="26" t="s">
+      <c r="AE1" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="AF1" s="26" t="s">
+      <c r="AF1" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="AG1" s="26" t="s">
+      <c r="AG1" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="AH1" s="26" t="s">
+      <c r="AH1" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="AI1" s="26" t="s">
+      <c r="AI1" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="AJ1" s="26" t="s">
+      <c r="AJ1" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="AK1" s="26" t="s">
+      <c r="AK1" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="AL1" s="26" t="s">
+      <c r="AL1" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="AM1" s="26" t="s">
+      <c r="AM1" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="AN1" s="26" t="s">
+      <c r="AN1" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="AO1" s="26" t="s">
+      <c r="AO1" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="AP1" s="26" t="s">
+      <c r="AP1" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="AQ1" s="26" t="s">
+      <c r="AQ1" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="AR1" s="26" t="s">
+      <c r="AR1" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="AS1" s="26" t="s">
+      <c r="AS1" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="AT1" s="26" t="s">
+      <c r="AT1" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="AU1" s="26" t="s">
+      <c r="AU1" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="AV1" s="26" t="s">
+      <c r="AV1" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="AW1" s="26" t="s">
+      <c r="AW1" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="AX1" s="26" t="s">
+      <c r="AX1" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="AY1" s="27" t="s">
+      <c r="AY1" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="AZ1" s="27" t="s">
+      <c r="AZ1" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="BA1" s="27" t="s">
+      <c r="BA1" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="BB1" s="27" t="s">
+      <c r="BB1" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="BC1" s="27" t="s">
+      <c r="BC1" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="BD1" s="27" t="s">
+      <c r="BD1" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="BE1" s="27" t="s">
+      <c r="BE1" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="BF1" s="27" t="s">
+      <c r="BF1" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="BG1" s="27" t="s">
+      <c r="BG1" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="BH1" s="27" t="s">
+      <c r="BH1" s="26" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1170,6 +1172,9 @@
       <c r="M2" s="4">
         <v>2</v>
       </c>
+      <c r="BE2" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
@@ -1294,6 +1299,9 @@
       <c r="M5" s="4">
         <v>1</v>
       </c>
+      <c r="AU5" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
@@ -1333,6 +1341,12 @@
       <c r="M6" s="4">
         <v>2</v>
       </c>
+      <c r="AC6" s="4">
+        <v>1</v>
+      </c>
+      <c r="BE6" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
@@ -1371,6 +1385,15 @@
       </c>
       <c r="M7" s="4">
         <v>6</v>
+      </c>
+      <c r="AB7" s="4">
+        <v>3</v>
+      </c>
+      <c r="AQ7" s="4">
+        <v>1</v>
+      </c>
+      <c r="AX7" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:60" x14ac:dyDescent="0.35">
@@ -1486,6 +1509,9 @@
       <c r="O10" s="4">
         <v>3</v>
       </c>
+      <c r="W10" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
@@ -1565,6 +1591,15 @@
       </c>
       <c r="M12" s="4">
         <v>5</v>
+      </c>
+      <c r="W12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AT12" s="4">
+        <v>2</v>
+      </c>
+      <c r="BE12" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:60" s="13" customFormat="1" x14ac:dyDescent="0.35">
@@ -1720,8 +1755,17 @@
       <c r="M16" s="4">
         <v>7</v>
       </c>
+      <c r="T16" s="4">
+        <v>1</v>
+      </c>
       <c r="AA16" s="4">
         <v>1</v>
+      </c>
+      <c r="AT16" s="4">
+        <v>1</v>
+      </c>
+      <c r="BE16" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:60" x14ac:dyDescent="0.35">
@@ -1883,8 +1927,17 @@
       <c r="M20" s="4">
         <v>7</v>
       </c>
+      <c r="V20" s="4">
+        <v>1</v>
+      </c>
       <c r="AI20" s="4">
         <v>1</v>
+      </c>
+      <c r="AU20" s="4">
+        <v>2</v>
+      </c>
+      <c r="BE20" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:60" x14ac:dyDescent="0.35">
@@ -1967,6 +2020,15 @@
       </c>
       <c r="M22" s="4">
         <v>3</v>
+      </c>
+      <c r="AC22" s="4">
+        <v>1</v>
+      </c>
+      <c r="AU22" s="4">
+        <v>1</v>
+      </c>
+      <c r="AV22" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:60" s="17" customFormat="1" x14ac:dyDescent="0.35">
@@ -2040,6 +2102,15 @@
       <c r="M24" s="4">
         <v>5</v>
       </c>
+      <c r="T24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="4">
+        <v>2</v>
+      </c>
+      <c r="AC24" s="4">
+        <v>1</v>
+      </c>
       <c r="AK24" s="4">
         <v>1</v>
       </c>
@@ -2084,6 +2155,15 @@
       <c r="M25" s="4">
         <v>4</v>
       </c>
+      <c r="AT25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AW25" s="4">
+        <v>1</v>
+      </c>
+      <c r="BE25" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="26" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
@@ -2168,6 +2248,9 @@
       <c r="M27" s="4">
         <v>1</v>
       </c>
+      <c r="T27" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
@@ -2256,6 +2339,12 @@
       <c r="M29" s="4">
         <v>2</v>
       </c>
+      <c r="V29" s="4">
+        <v>1</v>
+      </c>
+      <c r="AU29" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
@@ -2295,6 +2384,15 @@
       <c r="M30" s="4">
         <v>5</v>
       </c>
+      <c r="AC30" s="4">
+        <v>1</v>
+      </c>
+      <c r="AQ30" s="4">
+        <v>2</v>
+      </c>
+      <c r="BE30" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
@@ -2334,6 +2432,9 @@
       <c r="M31" s="4">
         <v>1</v>
       </c>
+      <c r="AT31" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
@@ -2373,7 +2474,19 @@
       <c r="M32" s="4">
         <v>6</v>
       </c>
+      <c r="T32" s="4">
+        <v>1</v>
+      </c>
+      <c r="W32" s="4">
+        <v>1</v>
+      </c>
       <c r="AI32" s="4">
+        <v>1</v>
+      </c>
+      <c r="AT32" s="4">
+        <v>1</v>
+      </c>
+      <c r="AU32" s="4">
         <v>1</v>
       </c>
       <c r="BH32" s="4">
@@ -2418,8 +2531,14 @@
       <c r="M33" s="4">
         <v>5</v>
       </c>
+      <c r="V33" s="4">
+        <v>1</v>
+      </c>
       <c r="AE33" s="4">
         <v>3</v>
+      </c>
+      <c r="AU33" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:57" x14ac:dyDescent="0.35">
@@ -2463,7 +2582,16 @@
       <c r="S34" s="4">
         <v>1</v>
       </c>
+      <c r="W34" s="4">
+        <v>1</v>
+      </c>
       <c r="AD34" s="4">
+        <v>1</v>
+      </c>
+      <c r="AX34" s="4">
+        <v>5</v>
+      </c>
+      <c r="BE34" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2505,6 +2633,12 @@
       <c r="M35" s="4">
         <v>4</v>
       </c>
+      <c r="AQ35" s="4">
+        <v>1</v>
+      </c>
+      <c r="AX35" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="36" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
@@ -2647,6 +2781,12 @@
       <c r="M38" s="4">
         <v>2</v>
       </c>
+      <c r="AY38" s="4">
+        <v>1</v>
+      </c>
+      <c r="BE38" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:57" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="15">
@@ -2768,8 +2908,14 @@
       <c r="P41" s="4">
         <v>1</v>
       </c>
+      <c r="T41" s="4">
+        <v>1</v>
+      </c>
       <c r="AE41" s="4">
         <v>2</v>
+      </c>
+      <c r="AT41" s="4">
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:57" x14ac:dyDescent="0.35">
@@ -2905,7 +3051,13 @@
       <c r="M44" s="4">
         <v>4</v>
       </c>
+      <c r="Y44" s="4">
+        <v>1</v>
+      </c>
       <c r="AK44" s="4">
+        <v>1</v>
+      </c>
+      <c r="BE44" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2990,6 +3142,9 @@
       <c r="M46" s="4">
         <v>1</v>
       </c>
+      <c r="BE46" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:57" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="15">
@@ -3105,6 +3260,9 @@
       <c r="M49" s="4">
         <v>2</v>
       </c>
+      <c r="AC49" s="4">
+        <v>1</v>
+      </c>
       <c r="AM49" s="4">
         <v>1</v>
       </c>
@@ -3327,6 +3485,15 @@
       </c>
       <c r="M54" s="4">
         <v>3</v>
+      </c>
+      <c r="AQ54" s="4">
+        <v>1</v>
+      </c>
+      <c r="AV54" s="4">
+        <v>1</v>
+      </c>
+      <c r="BE54" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:57" x14ac:dyDescent="0.35">
@@ -3503,7 +3670,7 @@
         <v>62</v>
       </c>
       <c r="N58" s="4">
-        <f>SUM(T58:BH58)</f>
+        <f t="shared" ref="N58:N69" si="4">SUM(T58:BH58)</f>
         <v>20</v>
       </c>
       <c r="S58" s="4">
@@ -3555,7 +3722,7 @@
         <v>62</v>
       </c>
       <c r="N59" s="4">
-        <f>SUM(T59:BH59)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AC59" s="4">
@@ -3598,7 +3765,7 @@
         <v>62</v>
       </c>
       <c r="N60" s="4">
-        <f>SUM(T60:BH60)</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="W60" s="4">
@@ -3659,7 +3826,7 @@
         <v>62</v>
       </c>
       <c r="N61" s="4">
-        <f>SUM(T61:BH61)</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="T61" s="4">
@@ -3723,7 +3890,7 @@
         <v>62</v>
       </c>
       <c r="N62" s="4">
-        <f>SUM(T62:BH62)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AO62" s="4">
@@ -3769,7 +3936,7 @@
         <v>62</v>
       </c>
       <c r="N63" s="4">
-        <f>SUM(T63:BH63)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AU63" s="4">
@@ -3815,7 +3982,7 @@
         <v>62</v>
       </c>
       <c r="N64" s="4">
-        <f>SUM(T64:BH64)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AT64" s="4">
@@ -3861,7 +4028,7 @@
         <v>62</v>
       </c>
       <c r="N65" s="4">
-        <f>SUM(T65:BH65)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="T65" s="4">
@@ -3888,14 +4055,14 @@
         <v>44755</v>
       </c>
       <c r="C66" s="9" t="str">
-        <f t="shared" ref="C66:C97" si="4">_xlfn.CONCAT(F66, "(", G66, "/", H66, ")")</f>
+        <f t="shared" ref="C66:C97" si="5">_xlfn.CONCAT(F66, "(", G66, "/", H66, ")")</f>
         <v>S(57/16)</v>
       </c>
       <c r="D66" s="6">
         <v>2</v>
       </c>
       <c r="E66" s="4" t="str">
-        <f t="shared" ref="E66:E97" si="5">_xlfn.CONCAT(D66,"_",H66)</f>
+        <f t="shared" ref="E66:E97" si="6">_xlfn.CONCAT(D66,"_",H66)</f>
         <v>2_16</v>
       </c>
       <c r="F66" s="6" t="s">
@@ -3916,7 +4083,7 @@
         <v>62</v>
       </c>
       <c r="N66" s="4">
-        <f>SUM(T66:BH66)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="W66" s="4">
@@ -3940,14 +4107,14 @@
         <v>44755</v>
       </c>
       <c r="C67" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F(58/17)</v>
       </c>
       <c r="D67" s="6">
         <v>2</v>
       </c>
       <c r="E67" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2_17</v>
       </c>
       <c r="F67" s="6" t="s">
@@ -3968,7 +4135,7 @@
         <v>62</v>
       </c>
       <c r="N67" s="4">
-        <f>SUM(T67:BH67)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AV67" s="4">
@@ -3983,14 +4150,14 @@
         <v>44755</v>
       </c>
       <c r="C68" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>W(59/18)</v>
       </c>
       <c r="D68" s="6">
         <v>2</v>
       </c>
       <c r="E68" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2_18</v>
       </c>
       <c r="F68" s="6" t="s">
@@ -4011,7 +4178,7 @@
         <v>62</v>
       </c>
       <c r="N68" s="4">
-        <f>SUM(T68:BH68)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AO68" s="4">
@@ -4029,14 +4196,14 @@
         <v>44755</v>
       </c>
       <c r="C69" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F(60/19)</v>
       </c>
       <c r="D69" s="6">
         <v>2</v>
       </c>
       <c r="E69" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2_19</v>
       </c>
       <c r="F69" s="6" t="s">
@@ -4057,7 +4224,7 @@
         <v>62</v>
       </c>
       <c r="N69" s="4">
-        <f>SUM(T69:BH69)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AO69" s="4">
@@ -4072,14 +4239,14 @@
         <v>44755</v>
       </c>
       <c r="C70" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>S(61/20)</v>
       </c>
       <c r="D70" s="6">
         <v>2</v>
       </c>
       <c r="E70" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2_20</v>
       </c>
       <c r="F70" s="6" t="s">
@@ -4111,14 +4278,14 @@
         <v>44755</v>
       </c>
       <c r="C71" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F(62/21)</v>
       </c>
       <c r="D71" s="6">
         <v>2</v>
       </c>
       <c r="E71" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2_21</v>
       </c>
       <c r="F71" s="6" t="s">
@@ -4139,7 +4306,7 @@
         <v>62</v>
       </c>
       <c r="N71" s="4">
-        <f>SUM(T71:BH71)</f>
+        <f t="shared" ref="N71:N76" si="7">SUM(T71:BH71)</f>
         <v>6</v>
       </c>
       <c r="Y71" s="4">
@@ -4163,14 +4330,14 @@
         <v>44755</v>
       </c>
       <c r="C72" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>W(63/22)</v>
       </c>
       <c r="D72" s="6">
         <v>2</v>
       </c>
       <c r="E72" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2_22</v>
       </c>
       <c r="F72" s="6" t="s">
@@ -4191,7 +4358,7 @@
         <v>62</v>
       </c>
       <c r="N72" s="4">
-        <f>SUM(T72:BH72)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="Y72" s="4">
@@ -4209,14 +4376,14 @@
         <v>44755</v>
       </c>
       <c r="C73" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F(64/23)</v>
       </c>
       <c r="D73" s="6">
         <v>2</v>
       </c>
       <c r="E73" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2_23</v>
       </c>
       <c r="F73" s="6" t="s">
@@ -4239,7 +4406,7 @@
         <v>62</v>
       </c>
       <c r="N73" s="4">
-        <f>SUM(T73:BH73)</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="Y73" s="4">
@@ -4260,14 +4427,14 @@
         <v>44769</v>
       </c>
       <c r="C74" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F(41/0)</v>
       </c>
       <c r="D74" s="6">
         <v>3</v>
       </c>
       <c r="E74" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3_0</v>
       </c>
       <c r="F74" s="6" t="s">
@@ -4288,7 +4455,7 @@
         <v>62</v>
       </c>
       <c r="N74" s="4">
-        <f>SUM(T74:BH74)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="V74" s="4">
@@ -4312,14 +4479,14 @@
         <v>44769</v>
       </c>
       <c r="C75" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>S(42/1)</v>
       </c>
       <c r="D75" s="6">
         <v>3</v>
       </c>
       <c r="E75" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3_1</v>
       </c>
       <c r="F75" s="6" t="s">
@@ -4340,7 +4507,7 @@
         <v>62</v>
       </c>
       <c r="N75" s="4">
-        <f>SUM(T75:BH75)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AO75" s="4">
@@ -4358,14 +4525,14 @@
         <v>44769</v>
       </c>
       <c r="C76" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>W(43/2)</v>
       </c>
       <c r="D76" s="6">
         <v>3</v>
       </c>
       <c r="E76" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3_2</v>
       </c>
       <c r="F76" s="6" t="s">
@@ -4386,7 +4553,7 @@
         <v>62</v>
       </c>
       <c r="N76" s="4">
-        <f>SUM(T76:BH76)</f>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="AT76" s="4">
@@ -4410,14 +4577,14 @@
         <v>44769</v>
       </c>
       <c r="C77" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F(44/3)</v>
       </c>
       <c r="D77" s="12">
         <v>3</v>
       </c>
       <c r="E77" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3_3</v>
       </c>
       <c r="F77" s="12" t="s">
@@ -4434,6 +4601,12 @@
       </c>
       <c r="J77" s="12"/>
       <c r="K77" s="12"/>
+      <c r="V77" s="13">
+        <v>2</v>
+      </c>
+      <c r="AV77" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="78" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A78" s="5">
@@ -4443,14 +4616,14 @@
         <v>44769</v>
       </c>
       <c r="C78" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F(45/4)</v>
       </c>
       <c r="D78" s="6">
         <v>3</v>
       </c>
       <c r="E78" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3_4</v>
       </c>
       <c r="F78" s="6" t="s">
@@ -4486,14 +4659,14 @@
         <v>44769</v>
       </c>
       <c r="C79" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>S(46/5)</v>
       </c>
       <c r="D79" s="12">
         <v>3</v>
       </c>
       <c r="E79" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3_5</v>
       </c>
       <c r="F79" s="12" t="s">
@@ -4510,6 +4683,15 @@
       </c>
       <c r="J79" s="12"/>
       <c r="K79" s="12"/>
+      <c r="AO79" s="13">
+        <v>2</v>
+      </c>
+      <c r="AQ79" s="13">
+        <v>2</v>
+      </c>
+      <c r="AX79" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="80" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A80" s="5">
@@ -4519,14 +4701,14 @@
         <v>44769</v>
       </c>
       <c r="C80" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>W(47/6)</v>
       </c>
       <c r="D80" s="6">
         <v>3</v>
       </c>
       <c r="E80" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3_6</v>
       </c>
       <c r="F80" s="6" t="s">
@@ -4565,14 +4747,14 @@
         <v>44769</v>
       </c>
       <c r="C81" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F(48/7)</v>
       </c>
       <c r="D81" s="6">
         <v>3</v>
       </c>
       <c r="E81" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3_7</v>
       </c>
       <c r="F81" s="6" t="s">
@@ -4614,14 +4796,14 @@
         <v>44769</v>
       </c>
       <c r="C82" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>S(49/8)</v>
       </c>
       <c r="D82" s="6">
         <v>3</v>
       </c>
       <c r="E82" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3_8</v>
       </c>
       <c r="F82" s="6" t="s">
@@ -4663,14 +4845,14 @@
         <v>44769</v>
       </c>
       <c r="C83" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F(50/9)</v>
       </c>
       <c r="D83" s="6">
         <v>3</v>
       </c>
       <c r="E83" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3_9</v>
       </c>
       <c r="F83" s="6" t="s">
@@ -4706,14 +4888,14 @@
         <v>44769</v>
       </c>
       <c r="C84" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>W(51/10)</v>
       </c>
       <c r="D84" s="6">
         <v>3</v>
       </c>
       <c r="E84" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3_10</v>
       </c>
       <c r="F84" s="6" t="s">
@@ -4755,14 +4937,14 @@
         <v>44769</v>
       </c>
       <c r="C85" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F(52/11)</v>
       </c>
       <c r="D85" s="6">
         <v>3</v>
       </c>
       <c r="E85" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3_11</v>
       </c>
       <c r="F85" s="6" t="s">
@@ -4794,14 +4976,14 @@
         <v>44769</v>
       </c>
       <c r="C86" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>S(53/12)</v>
       </c>
       <c r="D86" s="6">
         <v>3</v>
       </c>
       <c r="E86" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3_12</v>
       </c>
       <c r="F86" s="6" t="s">
@@ -4840,14 +5022,14 @@
         <v>44769</v>
       </c>
       <c r="C87" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F(54/13)</v>
       </c>
       <c r="D87" s="12">
         <v>3</v>
       </c>
       <c r="E87" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3_13</v>
       </c>
       <c r="F87" s="12" t="s">
@@ -4873,14 +5055,14 @@
         <v>44769</v>
       </c>
       <c r="C88" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>W(55/14)</v>
       </c>
       <c r="D88" s="6">
         <v>3</v>
       </c>
       <c r="E88" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3_14</v>
       </c>
       <c r="F88" s="6" t="s">
@@ -4901,7 +5083,7 @@
         <v>62</v>
       </c>
       <c r="N88" s="4">
-        <f>SUM(T88:BH88)</f>
+        <f t="shared" ref="N88:N101" si="8">SUM(T88:BH88)</f>
         <v>9</v>
       </c>
       <c r="V88" s="4">
@@ -4928,14 +5110,14 @@
         <v>44769</v>
       </c>
       <c r="C89" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F(56/15)</v>
       </c>
       <c r="D89" s="6">
         <v>3</v>
       </c>
       <c r="E89" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3_15</v>
       </c>
       <c r="F89" s="6" t="s">
@@ -4956,7 +5138,7 @@
         <v>62</v>
       </c>
       <c r="N89" s="4">
-        <f>SUM(T89:BH89)</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="AE89" s="4">
@@ -4977,14 +5159,14 @@
         <v>44769</v>
       </c>
       <c r="C90" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>S(57/16)</v>
       </c>
       <c r="D90" s="6">
         <v>3</v>
       </c>
       <c r="E90" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3_16</v>
       </c>
       <c r="F90" s="6" t="s">
@@ -5005,7 +5187,7 @@
         <v>62</v>
       </c>
       <c r="N90" s="4">
-        <f>SUM(T90:BH90)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="AE90" s="4">
@@ -5032,14 +5214,14 @@
         <v>44769</v>
       </c>
       <c r="C91" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F(58/17)</v>
       </c>
       <c r="D91" s="6">
         <v>3</v>
       </c>
       <c r="E91" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3_17</v>
       </c>
       <c r="F91" s="6" t="s">
@@ -5060,7 +5242,7 @@
         <v>62</v>
       </c>
       <c r="N91" s="4">
-        <f>SUM(T91:BH91)</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="Y91" s="4">
@@ -5081,14 +5263,14 @@
         <v>44769</v>
       </c>
       <c r="C92" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>W(59/18)</v>
       </c>
       <c r="D92" s="6">
         <v>3</v>
       </c>
       <c r="E92" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3_18</v>
       </c>
       <c r="F92" s="6" t="s">
@@ -5109,7 +5291,7 @@
         <v>62</v>
       </c>
       <c r="N92" s="4">
-        <f>SUM(T92:BH92)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="Y92" s="4">
@@ -5133,14 +5315,14 @@
         <v>44769</v>
       </c>
       <c r="C93" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F(60/19)</v>
       </c>
       <c r="D93" s="6">
         <v>3</v>
       </c>
       <c r="E93" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3_19</v>
       </c>
       <c r="F93" s="6" t="s">
@@ -5163,7 +5345,7 @@
         <v>62</v>
       </c>
       <c r="N93" s="4">
-        <f>SUM(T93:BH93)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="V93" s="4">
@@ -5181,14 +5363,14 @@
         <v>44769</v>
       </c>
       <c r="C94" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>S(61/20)</v>
       </c>
       <c r="D94" s="6">
         <v>3</v>
       </c>
       <c r="E94" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3_20</v>
       </c>
       <c r="F94" s="6" t="s">
@@ -5209,7 +5391,7 @@
         <v>62</v>
       </c>
       <c r="N94" s="4">
-        <f>SUM(T94:BH94)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="V94" s="4">
@@ -5227,14 +5409,14 @@
         <v>44769</v>
       </c>
       <c r="C95" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F(62/21)</v>
       </c>
       <c r="D95" s="6">
         <v>3</v>
       </c>
       <c r="E95" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3_21</v>
       </c>
       <c r="F95" s="6" t="s">
@@ -5255,7 +5437,7 @@
         <v>62</v>
       </c>
       <c r="N95" s="4">
-        <f>SUM(T95:BH95)</f>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="S95" s="4">
@@ -5285,14 +5467,14 @@
         <v>44769</v>
       </c>
       <c r="C96" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>W(63/22)</v>
       </c>
       <c r="D96" s="6">
         <v>3</v>
       </c>
       <c r="E96" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3_22</v>
       </c>
       <c r="F96" s="6" t="s">
@@ -5313,7 +5495,7 @@
         <v>62</v>
       </c>
       <c r="N96" s="4">
-        <f>SUM(T96:BH96)</f>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="Y96" s="4">
@@ -5337,14 +5519,14 @@
         <v>44769</v>
       </c>
       <c r="C97" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F(64/23)</v>
       </c>
       <c r="D97" s="6">
         <v>3</v>
       </c>
       <c r="E97" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3_23</v>
       </c>
       <c r="F97" s="6" t="s">
@@ -5365,7 +5547,7 @@
         <v>62</v>
       </c>
       <c r="N97" s="4">
-        <f>SUM(T97:BH97)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="Y97" s="4">
@@ -5383,14 +5565,14 @@
         <v>44784</v>
       </c>
       <c r="C98" s="9" t="str">
-        <f t="shared" ref="C98:C129" si="6">_xlfn.CONCAT(F98, "(", G98, "/", H98, ")")</f>
+        <f t="shared" ref="C98:C129" si="9">_xlfn.CONCAT(F98, "(", G98, "/", H98, ")")</f>
         <v>F(41/0)</v>
       </c>
       <c r="D98" s="6">
         <v>4</v>
       </c>
       <c r="E98" s="4" t="str">
-        <f t="shared" ref="E98:E129" si="7">_xlfn.CONCAT(D98,"_",H98)</f>
+        <f t="shared" ref="E98:E129" si="10">_xlfn.CONCAT(D98,"_",H98)</f>
         <v>4_0</v>
       </c>
       <c r="F98" s="6" t="s">
@@ -5411,7 +5593,7 @@
         <v>62</v>
       </c>
       <c r="N98" s="4">
-        <f>SUM(T98:BH98)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="AO98" s="4">
@@ -5438,14 +5620,14 @@
         <v>44784</v>
       </c>
       <c r="C99" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>S(42/1)</v>
       </c>
       <c r="D99" s="6">
         <v>4</v>
       </c>
       <c r="E99" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4_1</v>
       </c>
       <c r="F99" s="6" t="s">
@@ -5466,7 +5648,7 @@
         <v>62</v>
       </c>
       <c r="N99" s="4">
-        <f>SUM(T99:BH99)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AE99" s="4">
@@ -5481,14 +5663,14 @@
         <v>44784</v>
       </c>
       <c r="C100" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>W(43/2)</v>
       </c>
       <c r="D100" s="6">
         <v>4</v>
       </c>
       <c r="E100" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4_2</v>
       </c>
       <c r="F100" s="6" t="s">
@@ -5509,7 +5691,7 @@
         <v>62</v>
       </c>
       <c r="N100" s="4">
-        <f>SUM(T100:BH100)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="BE100" s="4">
@@ -5524,14 +5706,14 @@
         <v>44784</v>
       </c>
       <c r="C101" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>F(44/3)</v>
       </c>
       <c r="D101" s="6">
         <v>4</v>
       </c>
       <c r="E101" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4_3</v>
       </c>
       <c r="F101" s="6" t="s">
@@ -5552,7 +5734,7 @@
         <v>62</v>
       </c>
       <c r="N101" s="4">
-        <f>SUM(T101:BH101)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AY101" s="4">
@@ -5567,14 +5749,14 @@
         <v>44784</v>
       </c>
       <c r="C102" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>F(45/4)</v>
       </c>
       <c r="D102" s="12">
         <v>4</v>
       </c>
       <c r="E102" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4_4</v>
       </c>
       <c r="F102" s="12" t="s">
@@ -5600,14 +5782,14 @@
         <v>44784</v>
       </c>
       <c r="C103" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>S(46/5)</v>
       </c>
       <c r="D103" s="6">
         <v>4</v>
       </c>
       <c r="E103" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4_5</v>
       </c>
       <c r="F103" s="6" t="s">
@@ -5649,14 +5831,14 @@
         <v>44784</v>
       </c>
       <c r="C104" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>W(47/6)</v>
       </c>
       <c r="D104" s="6">
         <v>4</v>
       </c>
       <c r="E104" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4_6</v>
       </c>
       <c r="F104" s="6" t="s">
@@ -5716,14 +5898,14 @@
         <v>44784</v>
       </c>
       <c r="C105" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>F(48/7)</v>
       </c>
       <c r="D105" s="6">
         <v>4</v>
       </c>
       <c r="E105" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4_7</v>
       </c>
       <c r="F105" s="6" t="s">
@@ -5765,14 +5947,14 @@
         <v>44784</v>
       </c>
       <c r="C106" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>S(49/8)</v>
       </c>
       <c r="D106" s="6">
         <v>4</v>
       </c>
       <c r="E106" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4_8</v>
       </c>
       <c r="F106" s="6" t="s">
@@ -5817,14 +5999,14 @@
         <v>44784</v>
       </c>
       <c r="C107" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>F(50/9)</v>
       </c>
       <c r="D107" s="12">
         <v>4</v>
       </c>
       <c r="E107" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4_9</v>
       </c>
       <c r="F107" s="12" t="s">
@@ -5850,14 +6032,14 @@
         <v>44784</v>
       </c>
       <c r="C108" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>W(51/10)</v>
       </c>
       <c r="D108" s="12">
         <v>4</v>
       </c>
       <c r="E108" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4_10</v>
       </c>
       <c r="F108" s="12" t="s">
@@ -5883,14 +6065,14 @@
         <v>44784</v>
       </c>
       <c r="C109" s="19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>F(52/11)</v>
       </c>
       <c r="D109" s="19">
         <v>4</v>
       </c>
       <c r="E109" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4_11</v>
       </c>
       <c r="F109" s="19" t="s">
@@ -5916,17 +6098,26 @@
         <v>16</v>
       </c>
       <c r="N109" s="20">
-        <f>SUM(T109:BH109)</f>
-        <v>3</v>
+        <f t="shared" ref="N109:N115" si="11">SUM(T109:BH109)</f>
+        <v>14</v>
       </c>
       <c r="S109" s="20">
         <v>1</v>
       </c>
+      <c r="W109" s="20">
+        <v>1</v>
+      </c>
+      <c r="AB109" s="20">
+        <v>4</v>
+      </c>
       <c r="AO109" s="20">
         <v>2</v>
       </c>
+      <c r="AX109" s="20">
+        <v>5</v>
+      </c>
       <c r="BE109" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:57" x14ac:dyDescent="0.35">
@@ -5937,14 +6128,14 @@
         <v>44784</v>
       </c>
       <c r="C110" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>S(53/12)</v>
       </c>
       <c r="D110" s="6">
         <v>4</v>
       </c>
       <c r="E110" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4_12</v>
       </c>
       <c r="F110" s="6" t="s">
@@ -5965,7 +6156,7 @@
         <v>62</v>
       </c>
       <c r="N110" s="4">
-        <f>SUM(T110:BH110)</f>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="Y110" s="4">
@@ -5992,14 +6183,14 @@
         <v>44784</v>
       </c>
       <c r="C111" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>F(54/13)</v>
       </c>
       <c r="D111" s="6">
         <v>4</v>
       </c>
       <c r="E111" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4_13</v>
       </c>
       <c r="F111" s="6" t="s">
@@ -6020,7 +6211,7 @@
         <v>62</v>
       </c>
       <c r="N111" s="4">
-        <f>SUM(T111:BH111)</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="AC111" s="4">
@@ -6041,14 +6232,14 @@
         <v>44784</v>
       </c>
       <c r="C112" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>W(55/14)</v>
       </c>
       <c r="D112" s="6">
         <v>4</v>
       </c>
       <c r="E112" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4_14</v>
       </c>
       <c r="F112" s="6" t="s">
@@ -6069,7 +6260,7 @@
         <v>62</v>
       </c>
       <c r="N112" s="4">
-        <f>SUM(T112:BH112)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="BE112" s="4">
@@ -6084,14 +6275,14 @@
         <v>44784</v>
       </c>
       <c r="C113" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>F(56/15)</v>
       </c>
       <c r="D113" s="6">
         <v>4</v>
       </c>
       <c r="E113" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4_15</v>
       </c>
       <c r="F113" s="6" t="s">
@@ -6112,7 +6303,7 @@
         <v>62</v>
       </c>
       <c r="N113" s="4">
-        <f>SUM(T113:BH113)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -6124,14 +6315,14 @@
         <v>44784</v>
       </c>
       <c r="C114" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>S(57/16)</v>
       </c>
       <c r="D114" s="6">
         <v>4</v>
       </c>
       <c r="E114" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4_16</v>
       </c>
       <c r="F114" s="6" t="s">
@@ -6152,7 +6343,7 @@
         <v>62</v>
       </c>
       <c r="N114" s="4">
-        <f>SUM(T114:BH114)</f>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="T114" s="4">
@@ -6185,14 +6376,14 @@
         <v>44784</v>
       </c>
       <c r="C115" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>F(58/17)</v>
       </c>
       <c r="D115" s="6">
         <v>4</v>
       </c>
       <c r="E115" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4_17</v>
       </c>
       <c r="F115" s="6" t="s">
@@ -6213,7 +6404,7 @@
         <v>62</v>
       </c>
       <c r="N115" s="4">
-        <f>SUM(T115:BH115)</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="V115" s="4">
@@ -6231,14 +6422,14 @@
         <v>44784</v>
       </c>
       <c r="C116" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>W(59/18)</v>
       </c>
       <c r="D116" s="6">
         <v>4</v>
       </c>
       <c r="E116" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4_18</v>
       </c>
       <c r="F116" s="6" t="s">
@@ -6270,14 +6461,14 @@
         <v>44784</v>
       </c>
       <c r="C117" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>F(60/19)</v>
       </c>
       <c r="D117" s="6">
         <v>4</v>
       </c>
       <c r="E117" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4_19</v>
       </c>
       <c r="F117" s="6" t="s">
@@ -6319,14 +6510,14 @@
         <v>44784</v>
       </c>
       <c r="C118" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>S(61/20)</v>
       </c>
       <c r="D118" s="6">
         <v>4</v>
       </c>
       <c r="E118" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4_20</v>
       </c>
       <c r="F118" s="6" t="s">
@@ -6371,14 +6562,14 @@
         <v>44784</v>
       </c>
       <c r="C119" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>F(62/21)</v>
       </c>
       <c r="D119" s="6">
         <v>4</v>
       </c>
       <c r="E119" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4_21</v>
       </c>
       <c r="F119" s="6" t="s">
@@ -6414,14 +6605,14 @@
         <v>44784</v>
       </c>
       <c r="C120" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>W(63/22)</v>
       </c>
       <c r="D120" s="6">
         <v>4</v>
       </c>
       <c r="E120" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4_22</v>
       </c>
       <c r="F120" s="6" t="s">
@@ -6469,14 +6660,14 @@
         <v>44784</v>
       </c>
       <c r="C121" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>F(64/23)</v>
       </c>
       <c r="D121" s="6">
         <v>4</v>
       </c>
       <c r="E121" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4_23</v>
       </c>
       <c r="F121" s="6" t="s">
@@ -6524,14 +6715,14 @@
         <v>44796</v>
       </c>
       <c r="C122" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>F(41/0)</v>
       </c>
       <c r="D122" s="6">
         <v>5</v>
       </c>
       <c r="E122" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5_0</v>
       </c>
       <c r="F122" s="6" t="s">
@@ -6554,6 +6745,9 @@
       <c r="M122" s="4">
         <v>2</v>
       </c>
+      <c r="BE122" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="123" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A123" s="5">
@@ -6563,14 +6757,14 @@
         <v>44796</v>
       </c>
       <c r="C123" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>S(42/1)</v>
       </c>
       <c r="D123" s="6">
         <v>5</v>
       </c>
       <c r="E123" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5_1</v>
       </c>
       <c r="F123" s="6" t="s">
@@ -6593,6 +6787,9 @@
       <c r="M123" s="4">
         <v>1</v>
       </c>
+      <c r="AU123" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="124" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A124" s="5">
@@ -6602,14 +6799,14 @@
         <v>44796</v>
       </c>
       <c r="C124" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>W(43/2)</v>
       </c>
       <c r="D124" s="6">
         <v>5</v>
       </c>
       <c r="E124" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5_2</v>
       </c>
       <c r="F124" s="6" t="s">
@@ -6645,14 +6842,14 @@
         <v>44796</v>
       </c>
       <c r="C125" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>F(44/3)</v>
       </c>
       <c r="D125" s="6">
         <v>5</v>
       </c>
       <c r="E125" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5_3</v>
       </c>
       <c r="F125" s="6" t="s">
@@ -6691,14 +6888,14 @@
         <v>44796</v>
       </c>
       <c r="C126" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>F(45/4)</v>
       </c>
       <c r="D126" s="6">
         <v>5</v>
       </c>
       <c r="E126" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5_4</v>
       </c>
       <c r="F126" s="6" t="s">
@@ -6730,14 +6927,14 @@
         <v>44796</v>
       </c>
       <c r="C127" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>S(46/5)</v>
       </c>
       <c r="D127" s="6">
         <v>5</v>
       </c>
       <c r="E127" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5_5</v>
       </c>
       <c r="F127" s="6" t="s">
@@ -6762,6 +6959,18 @@
       <c r="M127" s="4">
         <v>4</v>
       </c>
+      <c r="AQ127" s="4">
+        <v>1</v>
+      </c>
+      <c r="AU127" s="4">
+        <v>1</v>
+      </c>
+      <c r="AX127" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY127" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="128" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A128" s="5">
@@ -6771,14 +6980,14 @@
         <v>44796</v>
       </c>
       <c r="C128" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>W(47/6)</v>
       </c>
       <c r="D128" s="6">
         <v>5</v>
       </c>
       <c r="E128" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5_6</v>
       </c>
       <c r="F128" s="6" t="s">
@@ -6804,6 +7013,15 @@
       <c r="AK128" s="4">
         <v>1</v>
       </c>
+      <c r="AQ128" s="4">
+        <v>1</v>
+      </c>
+      <c r="AU128" s="4">
+        <v>1</v>
+      </c>
+      <c r="BE128" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="129" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A129" s="5">
@@ -6813,14 +7031,14 @@
         <v>44796</v>
       </c>
       <c r="C129" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>F(48/7)</v>
       </c>
       <c r="D129" s="6">
         <v>5</v>
       </c>
       <c r="E129" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5_7</v>
       </c>
       <c r="F129" s="6" t="s">
@@ -6843,6 +7061,15 @@
       <c r="M129" s="4">
         <v>6</v>
       </c>
+      <c r="V129" s="4">
+        <v>2</v>
+      </c>
+      <c r="AU129" s="4">
+        <v>2</v>
+      </c>
+      <c r="AY129" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="130" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A130" s="5">
@@ -6852,14 +7079,14 @@
         <v>44796</v>
       </c>
       <c r="C130" s="6" t="str">
-        <f t="shared" ref="C130:C161" si="8">_xlfn.CONCAT(F130, "(", G130, "/", H130, ")")</f>
+        <f t="shared" ref="C130:C161" si="12">_xlfn.CONCAT(F130, "(", G130, "/", H130, ")")</f>
         <v>S(49/8)</v>
       </c>
       <c r="D130" s="6">
         <v>5</v>
       </c>
       <c r="E130" s="4" t="str">
-        <f t="shared" ref="E130:E161" si="9">_xlfn.CONCAT(D130,"_",H130)</f>
+        <f t="shared" ref="E130:E161" si="13">_xlfn.CONCAT(D130,"_",H130)</f>
         <v>5_8</v>
       </c>
       <c r="F130" s="6" t="s">
@@ -6882,6 +7109,9 @@
       <c r="M130" s="4">
         <v>11</v>
       </c>
+      <c r="AX130" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="131" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A131" s="5">
@@ -6891,14 +7121,14 @@
         <v>44796</v>
       </c>
       <c r="C131" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>F(50/9)</v>
       </c>
       <c r="D131" s="6">
         <v>5</v>
       </c>
       <c r="E131" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5_9</v>
       </c>
       <c r="F131" s="6" t="s">
@@ -6921,6 +7151,9 @@
       <c r="M131" s="4">
         <v>2</v>
       </c>
+      <c r="AT131" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="132" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A132" s="5">
@@ -6930,14 +7163,14 @@
         <v>44796</v>
       </c>
       <c r="C132" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>W(51/10)</v>
       </c>
       <c r="D132" s="6">
         <v>5</v>
       </c>
       <c r="E132" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5_10</v>
       </c>
       <c r="F132" s="6" t="s">
@@ -6979,14 +7212,14 @@
         <v>44796</v>
       </c>
       <c r="C133" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>F(52/11)</v>
       </c>
       <c r="D133" s="6">
         <v>5</v>
       </c>
       <c r="E133" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5_11</v>
       </c>
       <c r="F133" s="6" t="s">
@@ -7009,7 +7242,16 @@
       <c r="M133" s="4">
         <v>7</v>
       </c>
+      <c r="AC133" s="4">
+        <v>1</v>
+      </c>
       <c r="AK133" s="4">
+        <v>1</v>
+      </c>
+      <c r="AT133" s="4">
+        <v>2</v>
+      </c>
+      <c r="BE133" s="4">
         <v>1</v>
       </c>
     </row>
@@ -7021,14 +7263,14 @@
         <v>44796</v>
       </c>
       <c r="C134" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>S(53/12)</v>
       </c>
       <c r="D134" s="6">
         <v>5</v>
       </c>
       <c r="E134" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5_12</v>
       </c>
       <c r="F134" s="6" t="s">
@@ -7051,6 +7293,18 @@
       <c r="M134" s="4">
         <v>4</v>
       </c>
+      <c r="W134" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO134" s="4">
+        <v>1</v>
+      </c>
+      <c r="AT134" s="4">
+        <v>1</v>
+      </c>
+      <c r="AX134" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="135" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A135" s="5">
@@ -7060,14 +7314,14 @@
         <v>44796</v>
       </c>
       <c r="C135" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>F(54/13)</v>
       </c>
       <c r="D135" s="6">
         <v>5</v>
       </c>
       <c r="E135" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5_13</v>
       </c>
       <c r="F135" s="6" t="s">
@@ -7099,14 +7353,14 @@
         <v>44796</v>
       </c>
       <c r="C136" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>W(55/14)</v>
       </c>
       <c r="D136" s="6">
         <v>5</v>
       </c>
       <c r="E136" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5_14</v>
       </c>
       <c r="F136" s="6" t="s">
@@ -7129,6 +7383,12 @@
       <c r="M136" s="4">
         <v>2</v>
       </c>
+      <c r="AT136" s="4">
+        <v>1</v>
+      </c>
+      <c r="BE136" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="137" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A137" s="5">
@@ -7138,14 +7398,14 @@
         <v>44796</v>
       </c>
       <c r="C137" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>F(56/15)</v>
       </c>
       <c r="D137" s="6">
         <v>5</v>
       </c>
       <c r="E137" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5_15</v>
       </c>
       <c r="F137" s="6" t="s">
@@ -7177,14 +7437,14 @@
         <v>44796</v>
       </c>
       <c r="C138" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>S(57/16)</v>
       </c>
       <c r="D138" s="6">
         <v>5</v>
       </c>
       <c r="E138" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5_16</v>
       </c>
       <c r="F138" s="6" t="s">
@@ -7219,14 +7479,14 @@
         <v>44796</v>
       </c>
       <c r="C139" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>F(58/17)</v>
       </c>
       <c r="D139" s="6">
         <v>5</v>
       </c>
       <c r="E139" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5_17</v>
       </c>
       <c r="F139" s="6" t="s">
@@ -7249,7 +7509,13 @@
       <c r="M139" s="4">
         <v>3</v>
       </c>
+      <c r="V139" s="4">
+        <v>1</v>
+      </c>
       <c r="AK139" s="4">
+        <v>1</v>
+      </c>
+      <c r="AV139" s="4">
         <v>1</v>
       </c>
     </row>
@@ -7261,14 +7527,14 @@
         <v>44796</v>
       </c>
       <c r="C140" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>W(59/18)</v>
       </c>
       <c r="D140" s="6">
         <v>5</v>
       </c>
       <c r="E140" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5_18</v>
       </c>
       <c r="F140" s="6" t="s">
@@ -7303,14 +7569,14 @@
         <v>44796</v>
       </c>
       <c r="C141" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>F(60/19)</v>
       </c>
       <c r="D141" s="6">
         <v>5</v>
       </c>
       <c r="E141" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5_19</v>
       </c>
       <c r="F141" s="6" t="s">
@@ -7333,6 +7599,12 @@
       <c r="M141" s="4">
         <v>3</v>
       </c>
+      <c r="AU141" s="4">
+        <v>1</v>
+      </c>
+      <c r="BE141" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="142" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A142" s="5">
@@ -7342,14 +7614,14 @@
         <v>44796</v>
       </c>
       <c r="C142" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>S(61/20)</v>
       </c>
       <c r="D142" s="6">
         <v>5</v>
       </c>
       <c r="E142" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5_20</v>
       </c>
       <c r="F142" s="6" t="s">
@@ -7391,14 +7663,14 @@
         <v>44796</v>
       </c>
       <c r="C143" s="22" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>F(62/21)</v>
       </c>
       <c r="D143" s="22">
         <v>5</v>
       </c>
       <c r="E143" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5_21</v>
       </c>
       <c r="F143" s="22" t="s">
@@ -7420,6 +7692,15 @@
       <c r="M143" s="23">
         <v>8</v>
       </c>
+      <c r="V143" s="23">
+        <v>1</v>
+      </c>
+      <c r="AY143" s="23">
+        <v>1</v>
+      </c>
+      <c r="BE143" s="23">
+        <v>1</v>
+      </c>
     </row>
     <row r="144" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A144" s="5">
@@ -7429,14 +7710,14 @@
         <v>44796</v>
       </c>
       <c r="C144" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>W(63/22)</v>
       </c>
       <c r="D144" s="6">
         <v>5</v>
       </c>
       <c r="E144" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5_22</v>
       </c>
       <c r="F144" s="6" t="s">
@@ -7459,6 +7740,12 @@
       <c r="M144" s="4">
         <v>5</v>
       </c>
+      <c r="Y144" s="4">
+        <v>1</v>
+      </c>
+      <c r="BE144" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="145" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A145" s="5">
@@ -7468,14 +7755,14 @@
         <v>44796</v>
       </c>
       <c r="C145" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>F(64/23)</v>
       </c>
       <c r="D145" s="6">
         <v>5</v>
       </c>
       <c r="E145" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5_23</v>
       </c>
       <c r="F145" s="6" t="s">
@@ -7498,8 +7785,17 @@
       <c r="M145" s="4">
         <v>9</v>
       </c>
+      <c r="Y145" s="4">
+        <v>2</v>
+      </c>
       <c r="AK145" s="4">
         <v>4</v>
+      </c>
+      <c r="AU145" s="4">
+        <v>1</v>
+      </c>
+      <c r="AX145" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:57" x14ac:dyDescent="0.35">
@@ -7510,14 +7806,14 @@
         <v>44810</v>
       </c>
       <c r="C146" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>F(41/0)</v>
       </c>
       <c r="D146" s="6">
         <v>6</v>
       </c>
       <c r="E146" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6_0</v>
       </c>
       <c r="F146" s="6" t="s">
@@ -7540,6 +7836,12 @@
       <c r="M146" s="4">
         <v>2</v>
       </c>
+      <c r="AV146" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY146" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="147" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A147" s="5">
@@ -7549,14 +7851,14 @@
         <v>44810</v>
       </c>
       <c r="C147" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>S(42/1)</v>
       </c>
       <c r="D147" s="6">
         <v>6</v>
       </c>
       <c r="E147" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6_1</v>
       </c>
       <c r="F147" s="6" t="s">
@@ -7588,14 +7890,14 @@
         <v>44810</v>
       </c>
       <c r="C148" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>W(43/2)</v>
       </c>
       <c r="D148" s="6">
         <v>6</v>
       </c>
       <c r="E148" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6_2</v>
       </c>
       <c r="F148" s="6" t="s">
@@ -7634,14 +7936,14 @@
         <v>44810</v>
       </c>
       <c r="C149" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>F(44/3)</v>
       </c>
       <c r="D149" s="6">
         <v>6</v>
       </c>
       <c r="E149" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6_3</v>
       </c>
       <c r="F149" s="6" t="s">
@@ -7680,14 +7982,14 @@
         <v>44810</v>
       </c>
       <c r="C150" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>F(45/4)</v>
       </c>
       <c r="D150" s="6">
         <v>6</v>
       </c>
       <c r="E150" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6_4</v>
       </c>
       <c r="F150" s="6" t="s">
@@ -7722,14 +8024,14 @@
         <v>44810</v>
       </c>
       <c r="C151" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>S(46/5)</v>
       </c>
       <c r="D151" s="6">
         <v>6</v>
       </c>
       <c r="E151" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6_5</v>
       </c>
       <c r="F151" s="6" t="s">
@@ -7786,14 +8088,14 @@
         <v>44810</v>
       </c>
       <c r="C152" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>W(47/6)</v>
       </c>
       <c r="D152" s="6">
         <v>6</v>
       </c>
       <c r="E152" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6_6</v>
       </c>
       <c r="F152" s="6" t="s">
@@ -7822,6 +8124,9 @@
       <c r="AM152" s="4">
         <v>1</v>
       </c>
+      <c r="AX152" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="153" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A153" s="5">
@@ -7831,14 +8136,14 @@
         <v>44810</v>
       </c>
       <c r="C153" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>F(48/7)</v>
       </c>
       <c r="D153" s="6">
         <v>6</v>
       </c>
       <c r="E153" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6_7</v>
       </c>
       <c r="F153" s="6" t="s">
@@ -7883,14 +8188,14 @@
         <v>44810</v>
       </c>
       <c r="C154" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>S(49/8)</v>
       </c>
       <c r="D154" s="6">
         <v>6</v>
       </c>
       <c r="E154" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6_8</v>
       </c>
       <c r="F154" s="6" t="s">
@@ -7916,6 +8221,9 @@
       <c r="AK154" s="4">
         <v>1</v>
       </c>
+      <c r="AX154" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="155" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A155" s="5">
@@ -7925,14 +8233,14 @@
         <v>44810</v>
       </c>
       <c r="C155" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>F(50/9)</v>
       </c>
       <c r="D155" s="6">
         <v>6</v>
       </c>
       <c r="E155" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6_9</v>
       </c>
       <c r="F155" s="6" t="s">
@@ -7968,14 +8276,14 @@
         <v>44810</v>
       </c>
       <c r="C156" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>W(51/10)</v>
       </c>
       <c r="D156" s="6">
         <v>6</v>
       </c>
       <c r="E156" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6_10</v>
       </c>
       <c r="F156" s="6" t="s">
@@ -7998,6 +8306,15 @@
       <c r="M156" s="4">
         <v>5</v>
       </c>
+      <c r="AT156" s="4">
+        <v>1</v>
+      </c>
+      <c r="AX156" s="4">
+        <v>1</v>
+      </c>
+      <c r="BE156" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="157" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A157" s="5">
@@ -8007,14 +8324,14 @@
         <v>44810</v>
       </c>
       <c r="C157" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>F(52/11)</v>
       </c>
       <c r="D157" s="6">
         <v>6</v>
       </c>
       <c r="E157" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6_11</v>
       </c>
       <c r="F157" s="6" t="s">
@@ -8068,14 +8385,14 @@
         <v>44810</v>
       </c>
       <c r="C158" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>S(53/12)</v>
       </c>
       <c r="D158" s="6">
         <v>6</v>
       </c>
       <c r="E158" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6_12</v>
       </c>
       <c r="F158" s="6" t="s">
@@ -8114,14 +8431,14 @@
         <v>44810</v>
       </c>
       <c r="C159" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>F(54/13)</v>
       </c>
       <c r="D159" s="6">
         <v>6</v>
       </c>
       <c r="E159" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6_13</v>
       </c>
       <c r="F159" s="6" t="s">
@@ -8154,14 +8471,14 @@
         <v>44810</v>
       </c>
       <c r="C160" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>W(55/14)</v>
       </c>
       <c r="D160" s="6">
         <v>6</v>
       </c>
       <c r="E160" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6_14</v>
       </c>
       <c r="F160" s="6" t="s">
@@ -8193,14 +8510,14 @@
         <v>44810</v>
       </c>
       <c r="C161" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>F(56/15)</v>
       </c>
       <c r="D161" s="6">
         <v>6</v>
       </c>
       <c r="E161" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6_15</v>
       </c>
       <c r="F161" s="6" t="s">
@@ -8242,14 +8559,14 @@
         <v>44810</v>
       </c>
       <c r="C162" s="9" t="str">
-        <f t="shared" ref="C162:C193" si="10">_xlfn.CONCAT(F162, "(", G162, "/", H162, ")")</f>
+        <f t="shared" ref="C162:C193" si="14">_xlfn.CONCAT(F162, "(", G162, "/", H162, ")")</f>
         <v>S(57/16)</v>
       </c>
       <c r="D162" s="6">
         <v>6</v>
       </c>
       <c r="E162" s="4" t="str">
-        <f t="shared" ref="E162:E193" si="11">_xlfn.CONCAT(D162,"_",H162)</f>
+        <f t="shared" ref="E162:E193" si="15">_xlfn.CONCAT(D162,"_",H162)</f>
         <v>6_16</v>
       </c>
       <c r="F162" s="6" t="s">
@@ -8288,14 +8605,14 @@
         <v>44810</v>
       </c>
       <c r="C163" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>F(58/17)</v>
       </c>
       <c r="D163" s="6">
         <v>6</v>
       </c>
       <c r="E163" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>6_17</v>
       </c>
       <c r="F163" s="6" t="s">
@@ -8334,14 +8651,14 @@
         <v>44810</v>
       </c>
       <c r="C164" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>W(59/18)</v>
       </c>
       <c r="D164" s="6">
         <v>6</v>
       </c>
       <c r="E164" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>6_18</v>
       </c>
       <c r="F164" s="6" t="s">
@@ -8377,14 +8694,14 @@
         <v>44810</v>
       </c>
       <c r="C165" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>F(60/19)</v>
       </c>
       <c r="D165" s="6">
         <v>6</v>
       </c>
       <c r="E165" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>6_19</v>
       </c>
       <c r="F165" s="6" t="s">
@@ -8423,14 +8740,14 @@
         <v>44810</v>
       </c>
       <c r="C166" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>S(61/20)</v>
       </c>
       <c r="D166" s="6">
         <v>6</v>
       </c>
       <c r="E166" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>6_20</v>
       </c>
       <c r="F166" s="6" t="s">
@@ -8453,6 +8770,9 @@
       <c r="M166" s="4">
         <v>2</v>
       </c>
+      <c r="AY166" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="167" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A167" s="5">
@@ -8462,14 +8782,14 @@
         <v>44810</v>
       </c>
       <c r="C167" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>F(62/21)</v>
       </c>
       <c r="D167" s="6">
         <v>6</v>
       </c>
       <c r="E167" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>6_21</v>
       </c>
       <c r="F167" s="6" t="s">
@@ -8503,14 +8823,14 @@
         <v>44810</v>
       </c>
       <c r="C168" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>W(63/22)</v>
       </c>
       <c r="D168" s="6">
         <v>6</v>
       </c>
       <c r="E168" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>6_22</v>
       </c>
       <c r="F168" s="6" t="s">
@@ -8531,7 +8851,7 @@
         <v>62</v>
       </c>
       <c r="N168" s="4">
-        <f>SUM(T168:BH168)</f>
+        <f t="shared" ref="N168:N179" si="16">SUM(T168:BH168)</f>
         <v>9</v>
       </c>
       <c r="AB168" s="4">
@@ -8558,14 +8878,14 @@
         <v>44810</v>
       </c>
       <c r="C169" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>F(64/23)</v>
       </c>
       <c r="D169" s="6">
         <v>6</v>
       </c>
       <c r="E169" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>6_23</v>
       </c>
       <c r="F169" s="6" t="s">
@@ -8586,7 +8906,7 @@
         <v>62</v>
       </c>
       <c r="N169" s="4">
-        <f>SUM(T169:BH169)</f>
+        <f t="shared" si="16"/>
         <v>15</v>
       </c>
       <c r="U169" s="4">
@@ -8610,14 +8930,14 @@
         <v>44824</v>
       </c>
       <c r="C170" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>F(41/0)</v>
       </c>
       <c r="D170" s="6">
         <v>7</v>
       </c>
       <c r="E170" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>7_0</v>
       </c>
       <c r="F170" s="6" t="s">
@@ -8638,7 +8958,7 @@
         <v>62</v>
       </c>
       <c r="N170" s="4">
-        <f>SUM(T170:BH170)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="AK170" s="4">
@@ -8656,14 +8976,14 @@
         <v>44824</v>
       </c>
       <c r="C171" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>S(42/1)</v>
       </c>
       <c r="D171" s="6">
         <v>7</v>
       </c>
       <c r="E171" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>7_1</v>
       </c>
       <c r="F171" s="6" t="s">
@@ -8684,7 +9004,7 @@
         <v>62</v>
       </c>
       <c r="N171" s="4">
-        <f>SUM(T171:BH171)</f>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="AV171" s="4">
@@ -8705,14 +9025,14 @@
         <v>44824</v>
       </c>
       <c r="C172" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>W(43/2)</v>
       </c>
       <c r="D172" s="6">
         <v>7</v>
       </c>
       <c r="E172" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>7_2</v>
       </c>
       <c r="F172" s="6" t="s">
@@ -8733,7 +9053,7 @@
         <v>62</v>
       </c>
       <c r="N172" s="4">
-        <f>SUM(T172:BH172)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="V172" s="4">
@@ -8748,14 +9068,14 @@
         <v>44824</v>
       </c>
       <c r="C173" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>F(44/3)</v>
       </c>
       <c r="D173" s="6">
         <v>7</v>
       </c>
       <c r="E173" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>7_3</v>
       </c>
       <c r="F173" s="6" t="s">
@@ -8776,7 +9096,7 @@
         <v>62</v>
       </c>
       <c r="N173" s="4">
-        <f>SUM(T173:BH173)</f>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="AY173" s="4">
@@ -8794,14 +9114,14 @@
         <v>44824</v>
       </c>
       <c r="C174" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>F(45/4)</v>
       </c>
       <c r="D174" s="6">
         <v>7</v>
       </c>
       <c r="E174" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>7_4</v>
       </c>
       <c r="F174" s="6" t="s">
@@ -8822,7 +9142,7 @@
         <v>62</v>
       </c>
       <c r="N174" s="4">
-        <f>SUM(T174:BH174)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="AK174" s="4">
@@ -8837,14 +9157,14 @@
         <v>44824</v>
       </c>
       <c r="C175" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>S(46/5)</v>
       </c>
       <c r="D175" s="6">
         <v>7</v>
       </c>
       <c r="E175" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>7_5</v>
       </c>
       <c r="F175" s="6" t="s">
@@ -8865,7 +9185,7 @@
         <v>62</v>
       </c>
       <c r="N175" s="4">
-        <f>SUM(T175:BH175)</f>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="AO175" s="4">
@@ -8889,14 +9209,14 @@
         <v>44824</v>
       </c>
       <c r="C176" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>W(47/6)</v>
       </c>
       <c r="D176" s="6">
         <v>7</v>
       </c>
       <c r="E176" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>7_6</v>
       </c>
       <c r="F176" s="6" t="s">
@@ -8917,7 +9237,7 @@
         <v>62</v>
       </c>
       <c r="N176" s="4">
-        <f>SUM(T176:BH176)</f>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="AK176" s="4">
@@ -8935,14 +9255,14 @@
         <v>44824</v>
       </c>
       <c r="C177" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>F(48/7)</v>
       </c>
       <c r="D177" s="6">
         <v>7</v>
       </c>
       <c r="E177" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>7_7</v>
       </c>
       <c r="F177" s="6" t="s">
@@ -8965,7 +9285,7 @@
         <v>62</v>
       </c>
       <c r="N177" s="4">
-        <f>SUM(T177:BH177)</f>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="V177" s="4">
@@ -8986,14 +9306,14 @@
         <v>44824</v>
       </c>
       <c r="C178" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>S(49/8)</v>
       </c>
       <c r="D178" s="6">
         <v>7</v>
       </c>
       <c r="E178" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>7_8</v>
       </c>
       <c r="F178" s="6" t="s">
@@ -9014,7 +9334,7 @@
         <v>62</v>
       </c>
       <c r="N178" s="4">
-        <f>SUM(T178:BH178)</f>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="R178" s="4">
@@ -9038,14 +9358,14 @@
         <v>44824</v>
       </c>
       <c r="C179" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>F(50/9)</v>
       </c>
       <c r="D179" s="6">
         <v>7</v>
       </c>
       <c r="E179" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>7_9</v>
       </c>
       <c r="F179" s="6" t="s">
@@ -9068,7 +9388,7 @@
         <v>62</v>
       </c>
       <c r="N179" s="4">
-        <f>SUM(T179:BH179)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AK179" s="4">
@@ -9083,14 +9403,14 @@
         <v>44824</v>
       </c>
       <c r="C180" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>W(51/10)</v>
       </c>
       <c r="D180" s="6">
         <v>7</v>
       </c>
       <c r="E180" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>7_10</v>
       </c>
       <c r="F180" s="6" t="s">
@@ -9116,6 +9436,15 @@
       <c r="AE180" s="4">
         <v>1</v>
       </c>
+      <c r="AT180" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY180" s="4">
+        <v>1</v>
+      </c>
+      <c r="BE180" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="181" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A181" s="5">
@@ -9125,14 +9454,14 @@
         <v>44824</v>
       </c>
       <c r="C181" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>F(52/11)</v>
       </c>
       <c r="D181" s="6">
         <v>7</v>
       </c>
       <c r="E181" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>7_11</v>
       </c>
       <c r="F181" s="6" t="s">
@@ -9155,6 +9484,12 @@
       <c r="M181" s="4">
         <v>12</v>
       </c>
+      <c r="V181" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB181" s="4">
+        <v>1</v>
+      </c>
       <c r="AK181" s="4">
         <v>7</v>
       </c>
@@ -9167,14 +9502,14 @@
         <v>44824</v>
       </c>
       <c r="C182" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>S(53/12)</v>
       </c>
       <c r="D182" s="6">
         <v>7</v>
       </c>
       <c r="E182" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>7_12</v>
       </c>
       <c r="F182" s="6" t="s">
@@ -9195,7 +9530,7 @@
         <v>62</v>
       </c>
       <c r="N182" s="4">
-        <f>SUM(T182:BH182)</f>
+        <f t="shared" ref="N182:N193" si="17">SUM(T182:BH182)</f>
         <v>13</v>
       </c>
       <c r="AK182" s="4">
@@ -9228,14 +9563,14 @@
         <v>44824</v>
       </c>
       <c r="C183" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>F(54/13)</v>
       </c>
       <c r="D183" s="6">
         <v>7</v>
       </c>
       <c r="E183" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>7_13</v>
       </c>
       <c r="F183" s="6" t="s">
@@ -9256,7 +9591,7 @@
         <v>62</v>
       </c>
       <c r="N183" s="4">
-        <f>SUM(T183:BH183)</f>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="BA183" s="4">
@@ -9274,14 +9609,14 @@
         <v>44824</v>
       </c>
       <c r="C184" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>W(55/14)</v>
       </c>
       <c r="D184" s="6">
         <v>7</v>
       </c>
       <c r="E184" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>7_14</v>
       </c>
       <c r="F184" s="6" t="s">
@@ -9302,7 +9637,7 @@
         <v>62</v>
       </c>
       <c r="N184" s="4">
-        <f>SUM(T184:BH184)</f>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="AG184" s="4">
@@ -9326,14 +9661,14 @@
         <v>44824</v>
       </c>
       <c r="C185" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>F(56/15)</v>
       </c>
       <c r="D185" s="6">
         <v>7</v>
       </c>
       <c r="E185" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>7_15</v>
       </c>
       <c r="F185" s="6" t="s">
@@ -9354,7 +9689,7 @@
         <v>62</v>
       </c>
       <c r="N185" s="4">
-        <f>SUM(T185:BH185)</f>
+        <f t="shared" si="17"/>
         <v>9</v>
       </c>
       <c r="AT185" s="4">
@@ -9375,14 +9710,14 @@
         <v>44824</v>
       </c>
       <c r="C186" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>S(57/16)</v>
       </c>
       <c r="D186" s="6">
         <v>7</v>
       </c>
       <c r="E186" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>7_16</v>
       </c>
       <c r="F186" s="6" t="s">
@@ -9403,7 +9738,7 @@
         <v>62</v>
       </c>
       <c r="N186" s="4">
-        <f>SUM(T186:BH186)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="AK186" s="4">
@@ -9424,14 +9759,14 @@
         <v>44824</v>
       </c>
       <c r="C187" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>F(58/17)</v>
       </c>
       <c r="D187" s="6">
         <v>7</v>
       </c>
       <c r="E187" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>7_17</v>
       </c>
       <c r="F187" s="6" t="s">
@@ -9452,7 +9787,7 @@
         <v>62</v>
       </c>
       <c r="N187" s="4">
-        <f>SUM(T187:BH187)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="AE187" s="4">
@@ -9476,14 +9811,14 @@
         <v>44824</v>
       </c>
       <c r="C188" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>W(59/18)</v>
       </c>
       <c r="D188" s="6">
         <v>7</v>
       </c>
       <c r="E188" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>7_18</v>
       </c>
       <c r="F188" s="6" t="s">
@@ -9506,7 +9841,7 @@
         <v>62</v>
       </c>
       <c r="N188" s="4">
-        <f>SUM(T188:BH188)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="AK188" s="4">
@@ -9530,14 +9865,14 @@
         <v>44824</v>
       </c>
       <c r="C189" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>F(60/19)</v>
       </c>
       <c r="D189" s="6">
         <v>7</v>
       </c>
       <c r="E189" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>7_19</v>
       </c>
       <c r="F189" s="6" t="s">
@@ -9560,7 +9895,7 @@
         <v>62</v>
       </c>
       <c r="N189" s="4">
-        <f>SUM(T189:BH189)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="AO189" s="4">
@@ -9584,14 +9919,14 @@
         <v>44824</v>
       </c>
       <c r="C190" s="22" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>S(61/20)</v>
       </c>
       <c r="D190" s="22">
         <v>7</v>
       </c>
       <c r="E190" s="23" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>7_20</v>
       </c>
       <c r="F190" s="22" t="s">
@@ -9611,7 +9946,7 @@
       </c>
       <c r="K190" s="22"/>
       <c r="N190" s="23">
-        <f>SUM(T190:BH190)</f>
+        <f t="shared" si="17"/>
         <v>12</v>
       </c>
       <c r="AK190" s="23">
@@ -9638,14 +9973,14 @@
         <v>44824</v>
       </c>
       <c r="C191" s="19" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>F(62/21)</v>
       </c>
       <c r="D191" s="19">
         <v>7</v>
       </c>
       <c r="E191" s="20" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>7_21</v>
       </c>
       <c r="F191" s="19" t="s">
@@ -9671,13 +10006,16 @@
         <v>11</v>
       </c>
       <c r="N191" s="20">
-        <f>SUM(T191:BH191)</f>
-        <v>9</v>
+        <f t="shared" si="17"/>
+        <v>10</v>
       </c>
       <c r="AK191" s="20">
         <v>6</v>
       </c>
       <c r="AO191" s="20">
+        <v>1</v>
+      </c>
+      <c r="AY191" s="20">
         <v>1</v>
       </c>
       <c r="BE191" s="20">
@@ -9692,14 +10030,14 @@
         <v>44824</v>
       </c>
       <c r="C192" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>W(63/22)</v>
       </c>
       <c r="D192" s="6">
         <v>7</v>
       </c>
       <c r="E192" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>7_22</v>
       </c>
       <c r="F192" s="6" t="s">
@@ -9720,7 +10058,7 @@
         <v>62</v>
       </c>
       <c r="N192" s="4">
-        <f>SUM(T192:BH192)</f>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="AO192" s="4">
@@ -9738,14 +10076,14 @@
         <v>44824</v>
       </c>
       <c r="C193" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>F(64/23)</v>
       </c>
       <c r="D193" s="6">
         <v>7</v>
       </c>
       <c r="E193" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>7_23</v>
       </c>
       <c r="F193" s="6" t="s">
@@ -9766,7 +10104,7 @@
         <v>62</v>
       </c>
       <c r="N193" s="4">
-        <f>SUM(T193:BH193)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="AK193" s="4">
@@ -9780,7 +10118,7 @@
       </c>
     </row>
     <row r="194" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A194" s="29" t="s">
+      <c r="A194" s="28" t="s">
         <v>93</v>
       </c>
       <c r="O194" s="4">
@@ -9788,183 +10126,183 @@
         <v>3</v>
       </c>
       <c r="P194" s="4">
-        <f t="shared" ref="P194:BH194" si="12">SUM(P2:P193)</f>
+        <f t="shared" ref="P194:BH194" si="18">SUM(P2:P193)</f>
         <v>1</v>
       </c>
       <c r="Q194" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="R194" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="S194" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="T194" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
+        <v>8</v>
+      </c>
+      <c r="U194" s="4">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="V194" s="4">
+        <f t="shared" si="18"/>
+        <v>42</v>
+      </c>
+      <c r="W194" s="4">
+        <f t="shared" si="18"/>
+        <v>24</v>
+      </c>
+      <c r="X194" s="4">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="Y194" s="4">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="Z194" s="4">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AA194" s="4">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AB194" s="4">
+        <f t="shared" si="18"/>
+        <v>17</v>
+      </c>
+      <c r="AC194" s="4">
+        <f t="shared" si="18"/>
+        <v>11</v>
+      </c>
+      <c r="AD194" s="4">
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
-      <c r="U194" s="4">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="V194" s="4">
-        <f t="shared" si="12"/>
-        <v>32</v>
-      </c>
-      <c r="W194" s="4">
-        <f t="shared" si="12"/>
-        <v>18</v>
-      </c>
-      <c r="X194" s="4">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="Y194" s="4">
-        <f t="shared" si="12"/>
-        <v>45</v>
-      </c>
-      <c r="Z194" s="4">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AA194" s="4">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AB194" s="4">
-        <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="AC194" s="4">
-        <f t="shared" si="12"/>
+      <c r="AE194" s="4">
+        <f t="shared" si="18"/>
+        <v>13</v>
+      </c>
+      <c r="AF194" s="4">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AG194" s="4">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="AH194" s="4">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AI194" s="4">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="AJ194" s="4">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AK194" s="4">
+        <f t="shared" si="18"/>
+        <v>74</v>
+      </c>
+      <c r="AL194" s="4">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AM194" s="4">
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
-      <c r="AD194" s="4">
-        <f t="shared" si="12"/>
+      <c r="AN194" s="4">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AO194" s="4">
+        <f t="shared" si="18"/>
+        <v>94</v>
+      </c>
+      <c r="AP194" s="4">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="AQ194" s="4">
+        <f t="shared" si="18"/>
+        <v>15</v>
+      </c>
+      <c r="AR194" s="4">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AS194" s="4">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AT194" s="4">
+        <f t="shared" si="18"/>
+        <v>66</v>
+      </c>
+      <c r="AU194" s="4">
+        <f t="shared" si="18"/>
+        <v>46</v>
+      </c>
+      <c r="AV194" s="4">
+        <f t="shared" si="18"/>
+        <v>24</v>
+      </c>
+      <c r="AW194" s="4">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="AX194" s="4">
+        <f t="shared" si="18"/>
+        <v>90</v>
+      </c>
+      <c r="AY194" s="4">
+        <f t="shared" si="18"/>
+        <v>72</v>
+      </c>
+      <c r="AZ194" s="4">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="BA194" s="4">
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
-      <c r="AE194" s="4">
-        <f t="shared" si="12"/>
-        <v>13</v>
-      </c>
-      <c r="AF194" s="4">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AG194" s="4">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="AH194" s="4">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AI194" s="4">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="AJ194" s="4">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AK194" s="4">
-        <f t="shared" si="12"/>
-        <v>74</v>
-      </c>
-      <c r="AL194" s="4">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AM194" s="4">
-        <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="AN194" s="4">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AO194" s="4">
-        <f t="shared" si="12"/>
-        <v>91</v>
-      </c>
-      <c r="AP194" s="4">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="AQ194" s="4">
-        <f t="shared" si="12"/>
-        <v>6</v>
-      </c>
-      <c r="AR194" s="4">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AS194" s="4">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AT194" s="4">
-        <f t="shared" si="12"/>
-        <v>48</v>
-      </c>
-      <c r="AU194" s="4">
-        <f t="shared" si="12"/>
-        <v>32</v>
-      </c>
-      <c r="AV194" s="4">
-        <f t="shared" si="12"/>
-        <v>19</v>
-      </c>
-      <c r="AW194" s="4">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AX194" s="4">
-        <f t="shared" si="12"/>
-        <v>56</v>
-      </c>
-      <c r="AY194" s="4">
-        <f t="shared" si="12"/>
-        <v>63</v>
-      </c>
-      <c r="AZ194" s="4">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="BA194" s="4">
-        <f t="shared" si="12"/>
+      <c r="BB194" s="4">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="BC194" s="4">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="BD194" s="4">
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
-      <c r="BB194" s="4">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="BC194" s="4">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="BD194" s="4">
-        <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
       <c r="BE194" s="4">
-        <f t="shared" si="12"/>
-        <v>76</v>
+        <f t="shared" si="18"/>
+        <v>111</v>
       </c>
       <c r="BF194" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="BG194" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="BH194" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
     </row>

--- a/PNR_Raw_Data/PNR2022_InvertebrateCommunity.xlsx
+++ b/PNR_Raw_Data/PNR2022_InvertebrateCommunity.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/PNR_Beetles_github_folder/PNR_Raw_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2019" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB1C6CFC-9FC7-4679-963D-665D7A59A3C2}"/>
+  <xr:revisionPtr revIDLastSave="2064" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4ED4A09A-A991-43B8-8C15-D5B34B1457D9}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -893,10 +893,10 @@
   <dimension ref="A1:BH194"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="BD179" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F176" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BE134" sqref="BE134"/>
+      <selection pane="bottomRight" activeCell="I180" sqref="I180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -904,13 +904,13 @@
     <col min="1" max="1" width="12.1796875" style="4" customWidth="1"/>
     <col min="2" max="2" width="14.54296875" style="7" customWidth="1"/>
     <col min="3" max="3" width="8.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.54296875" style="4" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" style="4" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" style="4" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="0" style="4" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="9.54296875" style="4" hidden="1" customWidth="1"/>
-    <col min="9" max="10" width="13.7265625" style="4" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="32.26953125" style="4" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="16.54296875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.54296875" style="4" customWidth="1"/>
+    <col min="9" max="10" width="13.7265625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="32.26953125" style="4" customWidth="1"/>
     <col min="12" max="12" width="8.26953125" style="4" customWidth="1"/>
     <col min="13" max="13" width="14.6328125" style="4" customWidth="1"/>
     <col min="14" max="14" width="15.81640625" style="4" customWidth="1"/>
@@ -941,7 +941,7 @@
     <col min="51" max="51" width="11.6328125" style="4" customWidth="1"/>
     <col min="52" max="54" width="12.08984375" style="4" customWidth="1"/>
     <col min="55" max="55" width="12.7265625" style="4" customWidth="1"/>
-    <col min="56" max="56" width="14.08984375" style="4" customWidth="1"/>
+    <col min="56" max="56" width="13.453125" style="4" customWidth="1"/>
     <col min="57" max="57" width="13.6328125" style="4" customWidth="1"/>
     <col min="58" max="58" width="12.54296875" style="4" customWidth="1"/>
     <col min="59" max="59" width="10" style="4" customWidth="1"/>
@@ -1172,6 +1172,10 @@
       <c r="M2" s="4">
         <v>2</v>
       </c>
+      <c r="N2" s="4">
+        <f>SUM(T2:BH2)</f>
+        <v>2</v>
+      </c>
       <c r="BE2" s="4">
         <v>2</v>
       </c>
@@ -1214,6 +1218,13 @@
       <c r="M3" s="4">
         <v>1</v>
       </c>
+      <c r="N3" s="4">
+        <f>SUM(T3:BH3)</f>
+        <v>1</v>
+      </c>
+      <c r="BA3" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
@@ -1255,6 +1266,10 @@
       <c r="M4" s="4">
         <v>0</v>
       </c>
+      <c r="N4" s="4">
+        <f t="shared" ref="N4:N67" si="2">SUM(T4:BH4)</f>
+        <v>1</v>
+      </c>
       <c r="BH4" s="4">
         <v>1</v>
       </c>
@@ -1299,6 +1314,10 @@
       <c r="M5" s="4">
         <v>1</v>
       </c>
+      <c r="N5" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="AU5" s="4">
         <v>1</v>
       </c>
@@ -1341,6 +1360,10 @@
       <c r="M6" s="4">
         <v>2</v>
       </c>
+      <c r="N6" s="4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="AC6" s="4">
         <v>1</v>
       </c>
@@ -1386,6 +1409,10 @@
       <c r="M7" s="4">
         <v>6</v>
       </c>
+      <c r="N7" s="4">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
       <c r="AB7" s="4">
         <v>3</v>
       </c>
@@ -1432,6 +1459,10 @@
         <v>62</v>
       </c>
       <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1467,6 +1498,10 @@
       <c r="K9" s="16" t="s">
         <v>10</v>
       </c>
+      <c r="N9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
@@ -1506,6 +1541,10 @@
       <c r="M10" s="4">
         <v>4</v>
       </c>
+      <c r="N10" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="O10" s="4">
         <v>3</v>
       </c>
@@ -1553,6 +1592,10 @@
       <c r="M11" s="4">
         <v>0</v>
       </c>
+      <c r="N11" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
@@ -1590,6 +1633,10 @@
         <v>62</v>
       </c>
       <c r="M12" s="4">
+        <v>5</v>
+      </c>
+      <c r="N12" s="4">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="W12" s="4">
@@ -1632,6 +1679,10 @@
       </c>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
+      <c r="N13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
@@ -1671,6 +1722,10 @@
       <c r="M14" s="4">
         <v>2</v>
       </c>
+      <c r="N14" s="4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="AD14" s="4">
         <v>1</v>
       </c>
@@ -1716,6 +1771,10 @@
       <c r="M15" s="4">
         <v>0</v>
       </c>
+      <c r="N15" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
@@ -1755,6 +1814,10 @@
       <c r="M16" s="4">
         <v>7</v>
       </c>
+      <c r="N16" s="4">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
       <c r="T16" s="4">
         <v>1</v>
       </c>
@@ -1762,6 +1825,9 @@
         <v>1</v>
       </c>
       <c r="AT16" s="4">
+        <v>1</v>
+      </c>
+      <c r="BD16" s="4">
         <v>1</v>
       </c>
       <c r="BE16" s="4">
@@ -1806,6 +1872,10 @@
       <c r="M17" s="4">
         <v>0</v>
       </c>
+      <c r="N17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
@@ -1847,6 +1917,10 @@
       <c r="M18" s="4">
         <v>0</v>
       </c>
+      <c r="N18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
@@ -1888,6 +1962,10 @@
       <c r="M19" s="4">
         <v>0</v>
       </c>
+      <c r="N19" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
@@ -1927,6 +2005,10 @@
       <c r="M20" s="4">
         <v>7</v>
       </c>
+      <c r="N20" s="4">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
       <c r="V20" s="4">
         <v>1</v>
       </c>
@@ -1980,6 +2062,10 @@
       <c r="M21" s="4">
         <v>0</v>
       </c>
+      <c r="N21" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
@@ -2019,6 +2105,10 @@
         <v>62</v>
       </c>
       <c r="M22" s="4">
+        <v>3</v>
+      </c>
+      <c r="N22" s="4">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AC22" s="4">
@@ -2063,6 +2153,10 @@
       <c r="K23" s="16" t="s">
         <v>10</v>
       </c>
+      <c r="N23" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
@@ -2102,6 +2196,10 @@
       <c r="M24" s="4">
         <v>5</v>
       </c>
+      <c r="N24" s="4">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
       <c r="T24" s="4">
         <v>1</v>
       </c>
@@ -2155,6 +2253,10 @@
       <c r="M25" s="4">
         <v>4</v>
       </c>
+      <c r="N25" s="4">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="AT25" s="4">
         <v>1</v>
       </c>
@@ -2205,6 +2307,10 @@
       <c r="M26" s="4">
         <v>0</v>
       </c>
+      <c r="N26" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
@@ -2248,6 +2354,10 @@
       <c r="M27" s="4">
         <v>1</v>
       </c>
+      <c r="N27" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="T27" s="4">
         <v>1</v>
       </c>
@@ -2290,7 +2400,7 @@
         <v>62</v>
       </c>
       <c r="N28" s="4">
-        <f>SUM(T28:BH28)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="BE28" s="4">
@@ -2339,6 +2449,10 @@
       <c r="M29" s="4">
         <v>2</v>
       </c>
+      <c r="N29" s="4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="V29" s="4">
         <v>1</v>
       </c>
@@ -2384,6 +2498,10 @@
       <c r="M30" s="4">
         <v>5</v>
       </c>
+      <c r="N30" s="4">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="AC30" s="4">
         <v>1</v>
       </c>
@@ -2432,6 +2550,10 @@
       <c r="M31" s="4">
         <v>1</v>
       </c>
+      <c r="N31" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="AT31" s="4">
         <v>1</v>
       </c>
@@ -2474,6 +2596,10 @@
       <c r="M32" s="4">
         <v>6</v>
       </c>
+      <c r="N32" s="4">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
       <c r="T32" s="4">
         <v>1</v>
       </c>
@@ -2531,6 +2657,10 @@
       <c r="M33" s="4">
         <v>5</v>
       </c>
+      <c r="N33" s="4">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
       <c r="V33" s="4">
         <v>1</v>
       </c>
@@ -2549,14 +2679,14 @@
         <v>44741</v>
       </c>
       <c r="C34" s="6" t="str">
-        <f t="shared" ref="C34:C65" si="2">_xlfn.CONCAT(F34, "(", G34, "/", H34, ")")</f>
+        <f t="shared" ref="C34:C65" si="3">_xlfn.CONCAT(F34, "(", G34, "/", H34, ")")</f>
         <v>S(49/8)</v>
       </c>
       <c r="D34" s="6">
         <v>1</v>
       </c>
       <c r="E34" s="4" t="str">
-        <f t="shared" ref="E34:E65" si="3">_xlfn.CONCAT(D34,"_",H34)</f>
+        <f t="shared" ref="E34:E65" si="4">_xlfn.CONCAT(D34,"_",H34)</f>
         <v>1_8</v>
       </c>
       <c r="F34" s="6" t="s">
@@ -2579,6 +2709,10 @@
       <c r="M34" s="4">
         <v>0</v>
       </c>
+      <c r="N34" s="4">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
       <c r="S34" s="4">
         <v>1</v>
       </c>
@@ -2603,14 +2737,14 @@
         <v>44741</v>
       </c>
       <c r="C35" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F(50/9)</v>
       </c>
       <c r="D35" s="6">
         <v>1</v>
       </c>
       <c r="E35" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1_9</v>
       </c>
       <c r="F35" s="6" t="s">
@@ -2633,6 +2767,10 @@
       <c r="M35" s="4">
         <v>4</v>
       </c>
+      <c r="N35" s="4">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="AQ35" s="4">
         <v>1</v>
       </c>
@@ -2648,14 +2786,14 @@
         <v>44741</v>
       </c>
       <c r="C36" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>W(51/10)</v>
       </c>
       <c r="D36" s="6">
         <v>1</v>
       </c>
       <c r="E36" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1_10</v>
       </c>
       <c r="F36" s="6" t="s">
@@ -2676,7 +2814,7 @@
         <v>62</v>
       </c>
       <c r="N36" s="4">
-        <f>SUM(T36:BH36)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="W36" s="4">
@@ -2703,14 +2841,14 @@
         <v>44741</v>
       </c>
       <c r="C37" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F(52/11)</v>
       </c>
       <c r="D37" s="6">
         <v>1</v>
       </c>
       <c r="E37" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1_11</v>
       </c>
       <c r="F37" s="6" t="s">
@@ -2733,7 +2871,7 @@
         <v>62</v>
       </c>
       <c r="N37" s="4">
-        <f>SUM(T37:BH37)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AM37" s="4">
@@ -2751,14 +2889,14 @@
         <v>44741</v>
       </c>
       <c r="C38" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>S(53/12)</v>
       </c>
       <c r="D38" s="6">
         <v>1</v>
       </c>
       <c r="E38" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1_12</v>
       </c>
       <c r="F38" s="6" t="s">
@@ -2781,6 +2919,10 @@
       <c r="M38" s="4">
         <v>2</v>
       </c>
+      <c r="N38" s="4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="AY38" s="4">
         <v>1</v>
       </c>
@@ -2796,14 +2938,14 @@
         <v>44741</v>
       </c>
       <c r="C39" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F(54/13)</v>
       </c>
       <c r="D39" s="16">
         <v>1</v>
       </c>
       <c r="E39" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1_13</v>
       </c>
       <c r="F39" s="16" t="s">
@@ -2825,6 +2967,10 @@
       <c r="M39" s="17" t="s">
         <v>69</v>
       </c>
+      <c r="N39" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
@@ -2834,14 +2980,14 @@
         <v>44741</v>
       </c>
       <c r="C40" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>W(55/14)</v>
       </c>
       <c r="D40" s="6">
         <v>1</v>
       </c>
       <c r="E40" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1_14</v>
       </c>
       <c r="F40" s="6" t="s">
@@ -2864,6 +3010,10 @@
       <c r="M40" s="4">
         <v>0</v>
       </c>
+      <c r="N40" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
@@ -2873,14 +3023,14 @@
         <v>44741</v>
       </c>
       <c r="C41" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F(56/15)</v>
       </c>
       <c r="D41" s="6">
         <v>1</v>
       </c>
       <c r="E41" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1_15</v>
       </c>
       <c r="F41" s="6" t="s">
@@ -2904,6 +3054,10 @@
       </c>
       <c r="M41" s="4">
         <v>9</v>
+      </c>
+      <c r="N41" s="4">
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="P41" s="4">
         <v>1</v>
@@ -2926,14 +3080,14 @@
         <v>44741</v>
       </c>
       <c r="C42" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>S(57/16)</v>
       </c>
       <c r="D42" s="6">
         <v>1</v>
       </c>
       <c r="E42" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1_16</v>
       </c>
       <c r="F42" s="6" t="s">
@@ -2954,7 +3108,7 @@
         <v>62</v>
       </c>
       <c r="N42" s="4">
-        <f>SUM(T42:BH42)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="Y42" s="4">
@@ -2975,14 +3129,14 @@
         <v>44741</v>
       </c>
       <c r="C43" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F(58/17)</v>
       </c>
       <c r="D43" s="6">
         <v>1</v>
       </c>
       <c r="E43" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1_17</v>
       </c>
       <c r="F43" s="6" t="s">
@@ -3003,7 +3157,7 @@
         <v>62</v>
       </c>
       <c r="N43" s="4">
-        <f>SUM(T43:BH43)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AE43" s="4">
@@ -3021,14 +3175,14 @@
         <v>44741</v>
       </c>
       <c r="C44" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>W(59/18)</v>
       </c>
       <c r="D44" s="6">
         <v>1</v>
       </c>
       <c r="E44" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1_18</v>
       </c>
       <c r="F44" s="6" t="s">
@@ -3051,10 +3205,17 @@
       <c r="M44" s="4">
         <v>4</v>
       </c>
+      <c r="N44" s="4">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="Y44" s="4">
         <v>1</v>
       </c>
       <c r="AK44" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO44" s="4">
         <v>1</v>
       </c>
       <c r="BE44" s="4">
@@ -3069,14 +3230,14 @@
         <v>44741</v>
       </c>
       <c r="C45" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F(60/19)</v>
       </c>
       <c r="D45" s="6">
         <v>1</v>
       </c>
       <c r="E45" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1_19</v>
       </c>
       <c r="F45" s="6" t="s">
@@ -3101,6 +3262,10 @@
       <c r="M45" s="4">
         <v>0</v>
       </c>
+      <c r="N45" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
@@ -3110,14 +3275,14 @@
         <v>44741</v>
       </c>
       <c r="C46" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>S(61/20)</v>
       </c>
       <c r="D46" s="6">
         <v>1</v>
       </c>
       <c r="E46" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1_20</v>
       </c>
       <c r="F46" s="6" t="s">
@@ -3142,6 +3307,10 @@
       <c r="M46" s="4">
         <v>1</v>
       </c>
+      <c r="N46" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="BE46" s="4">
         <v>1</v>
       </c>
@@ -3154,14 +3323,14 @@
         <v>44741</v>
       </c>
       <c r="C47" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F(62/21)</v>
       </c>
       <c r="D47" s="16">
         <v>1</v>
       </c>
       <c r="E47" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1_21</v>
       </c>
       <c r="F47" s="16" t="s">
@@ -3180,6 +3349,10 @@
       <c r="K47" s="16" t="s">
         <v>10</v>
       </c>
+      <c r="N47" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
@@ -3189,14 +3362,14 @@
         <v>44741</v>
       </c>
       <c r="C48" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>W(63/22)</v>
       </c>
       <c r="D48" s="6">
         <v>1</v>
       </c>
       <c r="E48" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1_22</v>
       </c>
       <c r="F48" s="6" t="s">
@@ -3219,6 +3392,10 @@
       <c r="M48" s="4">
         <v>0</v>
       </c>
+      <c r="N48" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
@@ -3228,14 +3405,14 @@
         <v>44741</v>
       </c>
       <c r="C49" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F(64/23)</v>
       </c>
       <c r="D49" s="6">
         <v>1</v>
       </c>
       <c r="E49" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1_23</v>
       </c>
       <c r="F49" s="6" t="s">
@@ -3260,6 +3437,10 @@
       <c r="M49" s="4">
         <v>2</v>
       </c>
+      <c r="N49" s="4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="AC49" s="4">
         <v>1</v>
       </c>
@@ -3275,14 +3456,14 @@
         <v>44755</v>
       </c>
       <c r="C50" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F(41/0)</v>
       </c>
       <c r="D50" s="6">
         <v>2</v>
       </c>
       <c r="E50" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2_0</v>
       </c>
       <c r="F50" s="6" t="s">
@@ -3303,7 +3484,7 @@
         <v>62</v>
       </c>
       <c r="N50" s="4">
-        <f>SUM(T50:BH50)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="Z50" s="4">
@@ -3321,14 +3502,14 @@
         <v>44755</v>
       </c>
       <c r="C51" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>S(42/1)</v>
       </c>
       <c r="D51" s="6">
         <v>2</v>
       </c>
       <c r="E51" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2_1</v>
       </c>
       <c r="F51" s="6" t="s">
@@ -3349,7 +3530,7 @@
         <v>62</v>
       </c>
       <c r="N51" s="4">
-        <f>SUM(T51:BH51)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AO51" s="4">
@@ -3364,14 +3545,14 @@
         <v>44755</v>
       </c>
       <c r="C52" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>W(43/2)</v>
       </c>
       <c r="D52" s="6">
         <v>2</v>
       </c>
       <c r="E52" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2_2</v>
       </c>
       <c r="F52" s="6" t="s">
@@ -3392,7 +3573,7 @@
         <v>62</v>
       </c>
       <c r="N52" s="4">
-        <f>SUM(T52:BH52)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AU52" s="4">
@@ -3407,14 +3588,14 @@
         <v>44755</v>
       </c>
       <c r="C53" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F(44/3)</v>
       </c>
       <c r="D53" s="6">
         <v>2</v>
       </c>
       <c r="E53" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2_3</v>
       </c>
       <c r="F53" s="6" t="s">
@@ -3435,7 +3616,7 @@
         <v>62</v>
       </c>
       <c r="N53" s="4">
-        <f>SUM(T53:BH53)</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="V53" s="4">
@@ -3456,14 +3637,14 @@
         <v>44755</v>
       </c>
       <c r="C54" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F(45/4)</v>
       </c>
       <c r="D54" s="6">
         <v>2</v>
       </c>
       <c r="E54" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2_4</v>
       </c>
       <c r="F54" s="6" t="s">
@@ -3486,6 +3667,10 @@
       <c r="M54" s="4">
         <v>3</v>
       </c>
+      <c r="N54" s="4">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
       <c r="AQ54" s="4">
         <v>1</v>
       </c>
@@ -3504,14 +3689,14 @@
         <v>44755</v>
       </c>
       <c r="C55" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>S(46/5)</v>
       </c>
       <c r="D55" s="6">
         <v>2</v>
       </c>
       <c r="E55" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2_5</v>
       </c>
       <c r="F55" s="6" t="s">
@@ -3532,7 +3717,7 @@
         <v>62</v>
       </c>
       <c r="N55" s="4">
-        <f>SUM(T55:BH55)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="AQ55" s="4">
@@ -3553,14 +3738,14 @@
         <v>44755</v>
       </c>
       <c r="C56" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>W(47/6)</v>
       </c>
       <c r="D56" s="6">
         <v>2</v>
       </c>
       <c r="E56" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2_6</v>
       </c>
       <c r="F56" s="6" t="s">
@@ -3582,7 +3767,7 @@
       </c>
       <c r="M56" s="10"/>
       <c r="N56" s="4">
-        <f>SUM(T56:BH56)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="AK56" s="4">
@@ -3603,14 +3788,14 @@
         <v>44755</v>
       </c>
       <c r="C57" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F(48/7)</v>
       </c>
       <c r="D57" s="6">
         <v>2</v>
       </c>
       <c r="E57" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2_7</v>
       </c>
       <c r="F57" s="6" t="s">
@@ -3631,6 +3816,7 @@
         <v>62</v>
       </c>
       <c r="N57" s="4">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3642,14 +3828,14 @@
         <v>44755</v>
       </c>
       <c r="C58" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>S(49/8)</v>
       </c>
       <c r="D58" s="6">
         <v>2</v>
       </c>
       <c r="E58" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2_8</v>
       </c>
       <c r="F58" s="6" t="s">
@@ -3670,7 +3856,7 @@
         <v>62</v>
       </c>
       <c r="N58" s="4">
-        <f t="shared" ref="N58:N69" si="4">SUM(T58:BH58)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="S58" s="4">
@@ -3694,14 +3880,14 @@
         <v>44755</v>
       </c>
       <c r="C59" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F(50/9)</v>
       </c>
       <c r="D59" s="6">
         <v>2</v>
       </c>
       <c r="E59" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2_9</v>
       </c>
       <c r="F59" s="6" t="s">
@@ -3722,7 +3908,7 @@
         <v>62</v>
       </c>
       <c r="N59" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AC59" s="4">
@@ -3737,14 +3923,14 @@
         <v>44755</v>
       </c>
       <c r="C60" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>W(51/10)</v>
       </c>
       <c r="D60" s="6">
         <v>2</v>
       </c>
       <c r="E60" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2_10</v>
       </c>
       <c r="F60" s="6" t="s">
@@ -3765,7 +3951,7 @@
         <v>62</v>
       </c>
       <c r="N60" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="W60" s="4">
@@ -3798,14 +3984,14 @@
         <v>44755</v>
       </c>
       <c r="C61" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F(52/11)</v>
       </c>
       <c r="D61" s="6">
         <v>2</v>
       </c>
       <c r="E61" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2_11</v>
       </c>
       <c r="F61" s="6" t="s">
@@ -3826,7 +4012,7 @@
         <v>62</v>
       </c>
       <c r="N61" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="T61" s="4">
@@ -3862,14 +4048,14 @@
         <v>44755</v>
       </c>
       <c r="C62" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>S(53/12)</v>
       </c>
       <c r="D62" s="6">
         <v>2</v>
       </c>
       <c r="E62" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2_12</v>
       </c>
       <c r="F62" s="6" t="s">
@@ -3890,7 +4076,7 @@
         <v>62</v>
       </c>
       <c r="N62" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AO62" s="4">
@@ -3908,14 +4094,14 @@
         <v>44755</v>
       </c>
       <c r="C63" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F(54/13)</v>
       </c>
       <c r="D63" s="6">
         <v>2</v>
       </c>
       <c r="E63" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2_13</v>
       </c>
       <c r="F63" s="6" t="s">
@@ -3936,7 +4122,7 @@
         <v>62</v>
       </c>
       <c r="N63" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AU63" s="4">
@@ -3954,14 +4140,14 @@
         <v>44755</v>
       </c>
       <c r="C64" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>W(55/14)</v>
       </c>
       <c r="D64" s="6">
         <v>2</v>
       </c>
       <c r="E64" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2_14</v>
       </c>
       <c r="F64" s="6" t="s">
@@ -3982,7 +4168,7 @@
         <v>62</v>
       </c>
       <c r="N64" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AT64" s="4">
@@ -4000,14 +4186,14 @@
         <v>44755</v>
       </c>
       <c r="C65" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F(56/15)</v>
       </c>
       <c r="D65" s="6">
         <v>2</v>
       </c>
       <c r="E65" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2_15</v>
       </c>
       <c r="F65" s="6" t="s">
@@ -4028,7 +4214,7 @@
         <v>62</v>
       </c>
       <c r="N65" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="T65" s="4">
@@ -4083,7 +4269,7 @@
         <v>62</v>
       </c>
       <c r="N66" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="W66" s="4">
@@ -4135,7 +4321,7 @@
         <v>62</v>
       </c>
       <c r="N67" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AV67" s="4">
@@ -4178,7 +4364,7 @@
         <v>62</v>
       </c>
       <c r="N68" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="N68:N131" si="7">SUM(T68:BH68)</f>
         <v>3</v>
       </c>
       <c r="AO68" s="4">
@@ -4224,7 +4410,7 @@
         <v>62</v>
       </c>
       <c r="N69" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AO69" s="4">
@@ -4269,6 +4455,10 @@
       <c r="M70" s="4">
         <v>0</v>
       </c>
+      <c r="N70" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
@@ -4306,7 +4496,7 @@
         <v>62</v>
       </c>
       <c r="N71" s="4">
-        <f t="shared" ref="N71:N76" si="7">SUM(T71:BH71)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="Y71" s="4">
@@ -4601,6 +4791,10 @@
       </c>
       <c r="J77" s="12"/>
       <c r="K77" s="12"/>
+      <c r="N77" s="4">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
       <c r="V77" s="13">
         <v>2</v>
       </c>
@@ -4644,7 +4838,7 @@
         <v>62</v>
       </c>
       <c r="N78" s="4">
-        <f>SUM(T78:BH78)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AQ78" s="4">
@@ -4683,6 +4877,10 @@
       </c>
       <c r="J79" s="12"/>
       <c r="K79" s="12"/>
+      <c r="N79" s="4">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
       <c r="AO79" s="13">
         <v>2</v>
       </c>
@@ -4729,7 +4927,7 @@
         <v>62</v>
       </c>
       <c r="N80" s="4">
-        <f>SUM(T80:BH80)</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="AO80" s="4">
@@ -4775,7 +4973,7 @@
         <v>62</v>
       </c>
       <c r="N81" s="4">
-        <f>SUM(T81:BH81)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="V81" s="4">
@@ -4824,7 +5022,7 @@
         <v>62</v>
       </c>
       <c r="N82" s="4">
-        <f>SUM(T82:BH82)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="Y82" s="4">
@@ -4873,7 +5071,7 @@
         <v>62</v>
       </c>
       <c r="N83" s="4">
-        <f>SUM(T83:BH83)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AT83" s="4">
@@ -4916,7 +5114,7 @@
         <v>62</v>
       </c>
       <c r="N84" s="4">
-        <f>SUM(T84:BH84)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="Y84" s="4">
@@ -4965,6 +5163,7 @@
         <v>62</v>
       </c>
       <c r="N85" s="4">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5004,7 +5203,7 @@
         <v>62</v>
       </c>
       <c r="N86" s="4">
-        <f>SUM(T86:BH86)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AT86" s="4">
@@ -5046,6 +5245,10 @@
       </c>
       <c r="J87" s="12"/>
       <c r="K87" s="12"/>
+      <c r="N87" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A88" s="5">
@@ -5083,7 +5286,7 @@
         <v>62</v>
       </c>
       <c r="N88" s="4">
-        <f t="shared" ref="N88:N101" si="8">SUM(T88:BH88)</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="V88" s="4">
@@ -5138,7 +5341,7 @@
         <v>62</v>
       </c>
       <c r="N89" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="AE89" s="4">
@@ -5187,7 +5390,7 @@
         <v>62</v>
       </c>
       <c r="N90" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="AE90" s="4">
@@ -5242,7 +5445,7 @@
         <v>62</v>
       </c>
       <c r="N91" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="Y91" s="4">
@@ -5291,7 +5494,7 @@
         <v>62</v>
       </c>
       <c r="N92" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="Y92" s="4">
@@ -5345,7 +5548,7 @@
         <v>62</v>
       </c>
       <c r="N93" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="V93" s="4">
@@ -5391,7 +5594,7 @@
         <v>62</v>
       </c>
       <c r="N94" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="V94" s="4">
@@ -5437,7 +5640,7 @@
         <v>62</v>
       </c>
       <c r="N95" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="S95" s="4">
@@ -5495,7 +5698,7 @@
         <v>62</v>
       </c>
       <c r="N96" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="Y96" s="4">
@@ -5547,7 +5750,7 @@
         <v>62</v>
       </c>
       <c r="N97" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="Y97" s="4">
@@ -5565,14 +5768,14 @@
         <v>44784</v>
       </c>
       <c r="C98" s="9" t="str">
-        <f t="shared" ref="C98:C129" si="9">_xlfn.CONCAT(F98, "(", G98, "/", H98, ")")</f>
+        <f t="shared" ref="C98:C129" si="8">_xlfn.CONCAT(F98, "(", G98, "/", H98, ")")</f>
         <v>F(41/0)</v>
       </c>
       <c r="D98" s="6">
         <v>4</v>
       </c>
       <c r="E98" s="4" t="str">
-        <f t="shared" ref="E98:E129" si="10">_xlfn.CONCAT(D98,"_",H98)</f>
+        <f t="shared" ref="E98:E129" si="9">_xlfn.CONCAT(D98,"_",H98)</f>
         <v>4_0</v>
       </c>
       <c r="F98" s="6" t="s">
@@ -5593,7 +5796,7 @@
         <v>62</v>
       </c>
       <c r="N98" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="AO98" s="4">
@@ -5620,14 +5823,14 @@
         <v>44784</v>
       </c>
       <c r="C99" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>S(42/1)</v>
       </c>
       <c r="D99" s="6">
         <v>4</v>
       </c>
       <c r="E99" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>4_1</v>
       </c>
       <c r="F99" s="6" t="s">
@@ -5648,7 +5851,7 @@
         <v>62</v>
       </c>
       <c r="N99" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AE99" s="4">
@@ -5663,14 +5866,14 @@
         <v>44784</v>
       </c>
       <c r="C100" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>W(43/2)</v>
       </c>
       <c r="D100" s="6">
         <v>4</v>
       </c>
       <c r="E100" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>4_2</v>
       </c>
       <c r="F100" s="6" t="s">
@@ -5691,7 +5894,7 @@
         <v>62</v>
       </c>
       <c r="N100" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="BE100" s="4">
@@ -5706,14 +5909,14 @@
         <v>44784</v>
       </c>
       <c r="C101" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>F(44/3)</v>
       </c>
       <c r="D101" s="6">
         <v>4</v>
       </c>
       <c r="E101" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>4_3</v>
       </c>
       <c r="F101" s="6" t="s">
@@ -5734,7 +5937,7 @@
         <v>62</v>
       </c>
       <c r="N101" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AY101" s="4">
@@ -5749,14 +5952,14 @@
         <v>44784</v>
       </c>
       <c r="C102" s="12" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>F(45/4)</v>
       </c>
       <c r="D102" s="12">
         <v>4</v>
       </c>
       <c r="E102" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>4_4</v>
       </c>
       <c r="F102" s="12" t="s">
@@ -5773,6 +5976,10 @@
       </c>
       <c r="J102" s="12"/>
       <c r="K102" s="12"/>
+      <c r="N102" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="103" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A103" s="5">
@@ -5782,14 +5989,14 @@
         <v>44784</v>
       </c>
       <c r="C103" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>S(46/5)</v>
       </c>
       <c r="D103" s="6">
         <v>4</v>
       </c>
       <c r="E103" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>4_5</v>
       </c>
       <c r="F103" s="6" t="s">
@@ -5810,7 +6017,7 @@
         <v>62</v>
       </c>
       <c r="N103" s="4">
-        <f>SUM(T103:BH103)</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AN103" s="4">
@@ -5831,14 +6038,14 @@
         <v>44784</v>
       </c>
       <c r="C104" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>W(47/6)</v>
       </c>
       <c r="D104" s="6">
         <v>4</v>
       </c>
       <c r="E104" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>4_6</v>
       </c>
       <c r="F104" s="6" t="s">
@@ -5859,7 +6066,7 @@
         <v>62</v>
       </c>
       <c r="N104" s="4">
-        <f>SUM(T104:BH104)</f>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="V104" s="4">
@@ -5898,14 +6105,14 @@
         <v>44784</v>
       </c>
       <c r="C105" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>F(48/7)</v>
       </c>
       <c r="D105" s="6">
         <v>4</v>
       </c>
       <c r="E105" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>4_7</v>
       </c>
       <c r="F105" s="6" t="s">
@@ -5926,7 +6133,7 @@
         <v>62</v>
       </c>
       <c r="N105" s="4">
-        <f>SUM(T105:BH105)</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="V105" s="4">
@@ -5947,14 +6154,14 @@
         <v>44784</v>
       </c>
       <c r="C106" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>S(49/8)</v>
       </c>
       <c r="D106" s="6">
         <v>4</v>
       </c>
       <c r="E106" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>4_8</v>
       </c>
       <c r="F106" s="6" t="s">
@@ -5975,7 +6182,7 @@
         <v>62</v>
       </c>
       <c r="N106" s="4">
-        <f>SUM(T106:BH106)</f>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="Q106" s="4">
@@ -5999,14 +6206,14 @@
         <v>44784</v>
       </c>
       <c r="C107" s="12" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>F(50/9)</v>
       </c>
       <c r="D107" s="12">
         <v>4</v>
       </c>
       <c r="E107" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>4_9</v>
       </c>
       <c r="F107" s="12" t="s">
@@ -6023,6 +6230,10 @@
       </c>
       <c r="J107" s="12"/>
       <c r="K107" s="12"/>
+      <c r="N107" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="1:57" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="5">
@@ -6032,14 +6243,14 @@
         <v>44784</v>
       </c>
       <c r="C108" s="12" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>W(51/10)</v>
       </c>
       <c r="D108" s="12">
         <v>4</v>
       </c>
       <c r="E108" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>4_10</v>
       </c>
       <c r="F108" s="12" t="s">
@@ -6056,6 +6267,10 @@
       </c>
       <c r="J108" s="12"/>
       <c r="K108" s="12"/>
+      <c r="N108" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="1:57" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="5">
@@ -6065,14 +6280,14 @@
         <v>44784</v>
       </c>
       <c r="C109" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>F(52/11)</v>
       </c>
       <c r="D109" s="19">
         <v>4</v>
       </c>
       <c r="E109" s="20" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>4_11</v>
       </c>
       <c r="F109" s="19" t="s">
@@ -6097,9 +6312,9 @@
       <c r="M109" s="20">
         <v>16</v>
       </c>
-      <c r="N109" s="20">
-        <f t="shared" ref="N109:N115" si="11">SUM(T109:BH109)</f>
-        <v>14</v>
+      <c r="N109" s="4">
+        <f t="shared" si="7"/>
+        <v>15</v>
       </c>
       <c r="S109" s="20">
         <v>1</v>
@@ -6115,6 +6330,9 @@
       </c>
       <c r="AX109" s="20">
         <v>5</v>
+      </c>
+      <c r="BD109" s="20">
+        <v>1</v>
       </c>
       <c r="BE109" s="20">
         <v>2</v>
@@ -6128,14 +6346,14 @@
         <v>44784</v>
       </c>
       <c r="C110" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>S(53/12)</v>
       </c>
       <c r="D110" s="6">
         <v>4</v>
       </c>
       <c r="E110" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>4_12</v>
       </c>
       <c r="F110" s="6" t="s">
@@ -6156,7 +6374,7 @@
         <v>62</v>
       </c>
       <c r="N110" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="Y110" s="4">
@@ -6183,14 +6401,14 @@
         <v>44784</v>
       </c>
       <c r="C111" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>F(54/13)</v>
       </c>
       <c r="D111" s="6">
         <v>4</v>
       </c>
       <c r="E111" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>4_13</v>
       </c>
       <c r="F111" s="6" t="s">
@@ -6211,7 +6429,7 @@
         <v>62</v>
       </c>
       <c r="N111" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="AC111" s="4">
@@ -6232,14 +6450,14 @@
         <v>44784</v>
       </c>
       <c r="C112" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>W(55/14)</v>
       </c>
       <c r="D112" s="6">
         <v>4</v>
       </c>
       <c r="E112" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>4_14</v>
       </c>
       <c r="F112" s="6" t="s">
@@ -6260,7 +6478,7 @@
         <v>62</v>
       </c>
       <c r="N112" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="BE112" s="4">
@@ -6275,14 +6493,14 @@
         <v>44784</v>
       </c>
       <c r="C113" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>F(56/15)</v>
       </c>
       <c r="D113" s="6">
         <v>4</v>
       </c>
       <c r="E113" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>4_15</v>
       </c>
       <c r="F113" s="6" t="s">
@@ -6303,7 +6521,7 @@
         <v>62</v>
       </c>
       <c r="N113" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6315,14 +6533,14 @@
         <v>44784</v>
       </c>
       <c r="C114" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>S(57/16)</v>
       </c>
       <c r="D114" s="6">
         <v>4</v>
       </c>
       <c r="E114" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>4_16</v>
       </c>
       <c r="F114" s="6" t="s">
@@ -6343,7 +6561,7 @@
         <v>62</v>
       </c>
       <c r="N114" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="T114" s="4">
@@ -6376,14 +6594,14 @@
         <v>44784</v>
       </c>
       <c r="C115" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>F(58/17)</v>
       </c>
       <c r="D115" s="6">
         <v>4</v>
       </c>
       <c r="E115" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>4_17</v>
       </c>
       <c r="F115" s="6" t="s">
@@ -6404,7 +6622,7 @@
         <v>62</v>
       </c>
       <c r="N115" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="V115" s="4">
@@ -6422,14 +6640,14 @@
         <v>44784</v>
       </c>
       <c r="C116" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>W(59/18)</v>
       </c>
       <c r="D116" s="6">
         <v>4</v>
       </c>
       <c r="E116" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>4_18</v>
       </c>
       <c r="F116" s="6" t="s">
@@ -6452,6 +6670,13 @@
       <c r="M116" s="4">
         <v>1</v>
       </c>
+      <c r="N116" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="BA116" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="117" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A117" s="5">
@@ -6461,14 +6686,14 @@
         <v>44784</v>
       </c>
       <c r="C117" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>F(60/19)</v>
       </c>
       <c r="D117" s="6">
         <v>4</v>
       </c>
       <c r="E117" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>4_19</v>
       </c>
       <c r="F117" s="6" t="s">
@@ -6489,7 +6714,7 @@
         <v>62</v>
       </c>
       <c r="N117" s="4">
-        <f>SUM(T117:BH117)</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="V117" s="4">
@@ -6510,14 +6735,14 @@
         <v>44784</v>
       </c>
       <c r="C118" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>S(61/20)</v>
       </c>
       <c r="D118" s="6">
         <v>4</v>
       </c>
       <c r="E118" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>4_20</v>
       </c>
       <c r="F118" s="6" t="s">
@@ -6538,7 +6763,7 @@
         <v>62</v>
       </c>
       <c r="N118" s="4">
-        <f>SUM(T118:BH118)</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="Y118" s="4">
@@ -6562,14 +6787,14 @@
         <v>44784</v>
       </c>
       <c r="C119" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>F(62/21)</v>
       </c>
       <c r="D119" s="6">
         <v>4</v>
       </c>
       <c r="E119" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>4_21</v>
       </c>
       <c r="F119" s="6" t="s">
@@ -6590,7 +6815,7 @@
         <v>62</v>
       </c>
       <c r="N119" s="4">
-        <f>SUM(T119:BH119)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Y119" s="4">
@@ -6605,14 +6830,14 @@
         <v>44784</v>
       </c>
       <c r="C120" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>W(63/22)</v>
       </c>
       <c r="D120" s="6">
         <v>4</v>
       </c>
       <c r="E120" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>4_22</v>
       </c>
       <c r="F120" s="6" t="s">
@@ -6633,7 +6858,7 @@
         <v>62</v>
       </c>
       <c r="N120" s="4">
-        <f>SUM(T120:BH120)</f>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="Y120" s="4">
@@ -6660,14 +6885,14 @@
         <v>44784</v>
       </c>
       <c r="C121" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>F(64/23)</v>
       </c>
       <c r="D121" s="6">
         <v>4</v>
       </c>
       <c r="E121" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>4_23</v>
       </c>
       <c r="F121" s="6" t="s">
@@ -6688,7 +6913,7 @@
         <v>62</v>
       </c>
       <c r="N121" s="4">
-        <f>SUM(T121:BH121)</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="V121" s="4">
@@ -6715,14 +6940,14 @@
         <v>44796</v>
       </c>
       <c r="C122" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>F(41/0)</v>
       </c>
       <c r="D122" s="6">
         <v>5</v>
       </c>
       <c r="E122" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>5_0</v>
       </c>
       <c r="F122" s="6" t="s">
@@ -6745,6 +6970,10 @@
       <c r="M122" s="4">
         <v>2</v>
       </c>
+      <c r="N122" s="4">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
       <c r="BE122" s="4">
         <v>2</v>
       </c>
@@ -6757,14 +6986,14 @@
         <v>44796</v>
       </c>
       <c r="C123" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>S(42/1)</v>
       </c>
       <c r="D123" s="6">
         <v>5</v>
       </c>
       <c r="E123" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>5_1</v>
       </c>
       <c r="F123" s="6" t="s">
@@ -6787,6 +7016,10 @@
       <c r="M123" s="4">
         <v>1</v>
       </c>
+      <c r="N123" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
       <c r="AU123" s="4">
         <v>1</v>
       </c>
@@ -6799,14 +7032,14 @@
         <v>44796</v>
       </c>
       <c r="C124" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>W(43/2)</v>
       </c>
       <c r="D124" s="6">
         <v>5</v>
       </c>
       <c r="E124" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>5_2</v>
       </c>
       <c r="F124" s="6" t="s">
@@ -6827,7 +7060,7 @@
         <v>62</v>
       </c>
       <c r="N124" s="4">
-        <f>SUM(T124:BH124)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AY124" s="4">
@@ -6842,14 +7075,14 @@
         <v>44796</v>
       </c>
       <c r="C125" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>F(44/3)</v>
       </c>
       <c r="D125" s="6">
         <v>5</v>
       </c>
       <c r="E125" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>5_3</v>
       </c>
       <c r="F125" s="6" t="s">
@@ -6870,7 +7103,7 @@
         <v>62</v>
       </c>
       <c r="N125" s="4">
-        <f>SUM(T125:BH125)</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AO125" s="4">
@@ -6888,14 +7121,14 @@
         <v>44796</v>
       </c>
       <c r="C126" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>F(45/4)</v>
       </c>
       <c r="D126" s="6">
         <v>5</v>
       </c>
       <c r="E126" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>5_4</v>
       </c>
       <c r="F126" s="6" t="s">
@@ -6918,6 +7151,16 @@
       <c r="M126" s="4">
         <v>2</v>
       </c>
+      <c r="N126" s="4">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AO126" s="4">
+        <v>1</v>
+      </c>
+      <c r="BD126" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="127" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A127" s="5">
@@ -6927,14 +7170,14 @@
         <v>44796</v>
       </c>
       <c r="C127" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>S(46/5)</v>
       </c>
       <c r="D127" s="6">
         <v>5</v>
       </c>
       <c r="E127" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>5_5</v>
       </c>
       <c r="F127" s="6" t="s">
@@ -6959,6 +7202,10 @@
       <c r="M127" s="4">
         <v>4</v>
       </c>
+      <c r="N127" s="4">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
       <c r="AQ127" s="4">
         <v>1</v>
       </c>
@@ -6980,14 +7227,14 @@
         <v>44796</v>
       </c>
       <c r="C128" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>W(47/6)</v>
       </c>
       <c r="D128" s="6">
         <v>5</v>
       </c>
       <c r="E128" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>5_6</v>
       </c>
       <c r="F128" s="6" t="s">
@@ -7010,8 +7257,15 @@
       <c r="M128" s="4">
         <v>10</v>
       </c>
+      <c r="N128" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
       <c r="AK128" s="4">
         <v>1</v>
+      </c>
+      <c r="AO128" s="4">
+        <v>4</v>
       </c>
       <c r="AQ128" s="4">
         <v>1</v>
@@ -7031,14 +7285,14 @@
         <v>44796</v>
       </c>
       <c r="C129" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>F(48/7)</v>
       </c>
       <c r="D129" s="6">
         <v>5</v>
       </c>
       <c r="E129" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>5_7</v>
       </c>
       <c r="F129" s="6" t="s">
@@ -7061,8 +7315,15 @@
       <c r="M129" s="4">
         <v>6</v>
       </c>
+      <c r="N129" s="4">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
       <c r="V129" s="4">
         <v>2</v>
+      </c>
+      <c r="AO129" s="4">
+        <v>1</v>
       </c>
       <c r="AU129" s="4">
         <v>2</v>
@@ -7079,14 +7340,14 @@
         <v>44796</v>
       </c>
       <c r="C130" s="6" t="str">
-        <f t="shared" ref="C130:C161" si="12">_xlfn.CONCAT(F130, "(", G130, "/", H130, ")")</f>
+        <f t="shared" ref="C130:C161" si="10">_xlfn.CONCAT(F130, "(", G130, "/", H130, ")")</f>
         <v>S(49/8)</v>
       </c>
       <c r="D130" s="6">
         <v>5</v>
       </c>
       <c r="E130" s="4" t="str">
-        <f t="shared" ref="E130:E161" si="13">_xlfn.CONCAT(D130,"_",H130)</f>
+        <f t="shared" ref="E130:E161" si="11">_xlfn.CONCAT(D130,"_",H130)</f>
         <v>5_8</v>
       </c>
       <c r="F130" s="6" t="s">
@@ -7109,6 +7370,13 @@
       <c r="M130" s="4">
         <v>11</v>
       </c>
+      <c r="N130" s="4">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="AO130" s="4">
+        <v>1</v>
+      </c>
       <c r="AX130" s="4">
         <v>10</v>
       </c>
@@ -7121,14 +7389,14 @@
         <v>44796</v>
       </c>
       <c r="C131" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>F(50/9)</v>
       </c>
       <c r="D131" s="6">
         <v>5</v>
       </c>
       <c r="E131" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>5_9</v>
       </c>
       <c r="F131" s="6" t="s">
@@ -7151,6 +7419,13 @@
       <c r="M131" s="4">
         <v>2</v>
       </c>
+      <c r="N131" s="4">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AO131" s="4">
+        <v>1</v>
+      </c>
       <c r="AT131" s="4">
         <v>1</v>
       </c>
@@ -7163,14 +7438,14 @@
         <v>44796</v>
       </c>
       <c r="C132" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>W(51/10)</v>
       </c>
       <c r="D132" s="6">
         <v>5</v>
       </c>
       <c r="E132" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>5_10</v>
       </c>
       <c r="F132" s="6" t="s">
@@ -7191,7 +7466,7 @@
         <v>62</v>
       </c>
       <c r="N132" s="4">
-        <f>SUM(T132:BH132)</f>
+        <f t="shared" ref="N132:N193" si="12">SUM(T132:BH132)</f>
         <v>4</v>
       </c>
       <c r="AO132" s="4">
@@ -7212,14 +7487,14 @@
         <v>44796</v>
       </c>
       <c r="C133" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>F(52/11)</v>
       </c>
       <c r="D133" s="6">
         <v>5</v>
       </c>
       <c r="E133" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>5_11</v>
       </c>
       <c r="F133" s="6" t="s">
@@ -7242,11 +7517,18 @@
       <c r="M133" s="4">
         <v>7</v>
       </c>
+      <c r="N133" s="4">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
       <c r="AC133" s="4">
         <v>1</v>
       </c>
       <c r="AK133" s="4">
         <v>1</v>
+      </c>
+      <c r="AO133" s="4">
+        <v>2</v>
       </c>
       <c r="AT133" s="4">
         <v>2</v>
@@ -7263,14 +7545,14 @@
         <v>44796</v>
       </c>
       <c r="C134" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>S(53/12)</v>
       </c>
       <c r="D134" s="6">
         <v>5</v>
       </c>
       <c r="E134" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>5_12</v>
       </c>
       <c r="F134" s="6" t="s">
@@ -7293,6 +7575,10 @@
       <c r="M134" s="4">
         <v>4</v>
       </c>
+      <c r="N134" s="4">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
       <c r="W134" s="4">
         <v>1</v>
       </c>
@@ -7314,14 +7600,14 @@
         <v>44796</v>
       </c>
       <c r="C135" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>F(54/13)</v>
       </c>
       <c r="D135" s="6">
         <v>5</v>
       </c>
       <c r="E135" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>5_13</v>
       </c>
       <c r="F135" s="6" t="s">
@@ -7344,6 +7630,10 @@
       <c r="M135" s="4">
         <v>0</v>
       </c>
+      <c r="N135" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="136" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A136" s="5">
@@ -7353,14 +7643,14 @@
         <v>44796</v>
       </c>
       <c r="C136" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>W(55/14)</v>
       </c>
       <c r="D136" s="6">
         <v>5</v>
       </c>
       <c r="E136" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>5_14</v>
       </c>
       <c r="F136" s="6" t="s">
@@ -7383,6 +7673,10 @@
       <c r="M136" s="4">
         <v>2</v>
       </c>
+      <c r="N136" s="4">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
       <c r="AT136" s="4">
         <v>1</v>
       </c>
@@ -7398,14 +7692,14 @@
         <v>44796</v>
       </c>
       <c r="C137" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>F(56/15)</v>
       </c>
       <c r="D137" s="6">
         <v>5</v>
       </c>
       <c r="E137" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>5_15</v>
       </c>
       <c r="F137" s="6" t="s">
@@ -7428,6 +7722,10 @@
       <c r="M137" s="4">
         <v>0</v>
       </c>
+      <c r="N137" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="138" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A138" s="5">
@@ -7437,14 +7735,14 @@
         <v>44796</v>
       </c>
       <c r="C138" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>S(57/16)</v>
       </c>
       <c r="D138" s="6">
         <v>5</v>
       </c>
       <c r="E138" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>5_16</v>
       </c>
       <c r="F138" s="6" t="s">
@@ -7467,6 +7765,10 @@
       <c r="M138" s="4">
         <v>1</v>
       </c>
+      <c r="N138" s="4">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
       <c r="AK138" s="4">
         <v>1</v>
       </c>
@@ -7479,14 +7781,14 @@
         <v>44796</v>
       </c>
       <c r="C139" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>F(58/17)</v>
       </c>
       <c r="D139" s="6">
         <v>5</v>
       </c>
       <c r="E139" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>5_17</v>
       </c>
       <c r="F139" s="6" t="s">
@@ -7509,6 +7811,10 @@
       <c r="M139" s="4">
         <v>3</v>
       </c>
+      <c r="N139" s="4">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
       <c r="V139" s="4">
         <v>1</v>
       </c>
@@ -7527,14 +7833,14 @@
         <v>44796</v>
       </c>
       <c r="C140" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>W(59/18)</v>
       </c>
       <c r="D140" s="6">
         <v>5</v>
       </c>
       <c r="E140" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>5_18</v>
       </c>
       <c r="F140" s="6" t="s">
@@ -7557,8 +7863,15 @@
       <c r="M140" s="4">
         <v>3</v>
       </c>
+      <c r="N140" s="4">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
       <c r="AK140" s="4">
         <v>1</v>
+      </c>
+      <c r="AO140" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:57" x14ac:dyDescent="0.35">
@@ -7569,14 +7882,14 @@
         <v>44796</v>
       </c>
       <c r="C141" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>F(60/19)</v>
       </c>
       <c r="D141" s="6">
         <v>5</v>
       </c>
       <c r="E141" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>5_19</v>
       </c>
       <c r="F141" s="6" t="s">
@@ -7599,6 +7912,10 @@
       <c r="M141" s="4">
         <v>3</v>
       </c>
+      <c r="N141" s="4">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
       <c r="AU141" s="4">
         <v>1</v>
       </c>
@@ -7614,14 +7931,14 @@
         <v>44796</v>
       </c>
       <c r="C142" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>S(61/20)</v>
       </c>
       <c r="D142" s="6">
         <v>5</v>
       </c>
       <c r="E142" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>5_20</v>
       </c>
       <c r="F142" s="6" t="s">
@@ -7642,7 +7959,7 @@
         <v>62</v>
       </c>
       <c r="N142" s="4">
-        <f>SUM(T142:BH142)</f>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="AO142" s="4">
@@ -7663,14 +7980,14 @@
         <v>44796</v>
       </c>
       <c r="C143" s="22" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>F(62/21)</v>
       </c>
       <c r="D143" s="22">
         <v>5</v>
       </c>
       <c r="E143" s="23" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>5_21</v>
       </c>
       <c r="F143" s="22" t="s">
@@ -7692,8 +8009,15 @@
       <c r="M143" s="23">
         <v>8</v>
       </c>
+      <c r="N143" s="4">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
       <c r="V143" s="23">
         <v>1</v>
+      </c>
+      <c r="AO143" s="23">
+        <v>5</v>
       </c>
       <c r="AY143" s="23">
         <v>1</v>
@@ -7710,14 +8034,14 @@
         <v>44796</v>
       </c>
       <c r="C144" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>W(63/22)</v>
       </c>
       <c r="D144" s="6">
         <v>5</v>
       </c>
       <c r="E144" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>5_22</v>
       </c>
       <c r="F144" s="6" t="s">
@@ -7740,8 +8064,15 @@
       <c r="M144" s="4">
         <v>5</v>
       </c>
+      <c r="N144" s="4">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
       <c r="Y144" s="4">
         <v>1</v>
+      </c>
+      <c r="AO144" s="4">
+        <v>2</v>
       </c>
       <c r="BE144" s="4">
         <v>2</v>
@@ -7755,14 +8086,14 @@
         <v>44796</v>
       </c>
       <c r="C145" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>F(64/23)</v>
       </c>
       <c r="D145" s="6">
         <v>5</v>
       </c>
       <c r="E145" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>5_23</v>
       </c>
       <c r="F145" s="6" t="s">
@@ -7785,11 +8116,18 @@
       <c r="M145" s="4">
         <v>9</v>
       </c>
+      <c r="N145" s="4">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
       <c r="Y145" s="4">
         <v>2</v>
       </c>
       <c r="AK145" s="4">
         <v>4</v>
+      </c>
+      <c r="AO145" s="4">
+        <v>1</v>
       </c>
       <c r="AU145" s="4">
         <v>1</v>
@@ -7806,14 +8144,14 @@
         <v>44810</v>
       </c>
       <c r="C146" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>F(41/0)</v>
       </c>
       <c r="D146" s="6">
         <v>6</v>
       </c>
       <c r="E146" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>6_0</v>
       </c>
       <c r="F146" s="6" t="s">
@@ -7836,6 +8174,10 @@
       <c r="M146" s="4">
         <v>2</v>
       </c>
+      <c r="N146" s="4">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
       <c r="AV146" s="4">
         <v>1</v>
       </c>
@@ -7851,14 +8193,14 @@
         <v>44810</v>
       </c>
       <c r="C147" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>S(42/1)</v>
       </c>
       <c r="D147" s="6">
         <v>6</v>
       </c>
       <c r="E147" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>6_1</v>
       </c>
       <c r="F147" s="6" t="s">
@@ -7881,6 +8223,10 @@
       <c r="M147" s="4">
         <v>0</v>
       </c>
+      <c r="N147" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="148" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A148" s="5">
@@ -7890,14 +8236,14 @@
         <v>44810</v>
       </c>
       <c r="C148" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>W(43/2)</v>
       </c>
       <c r="D148" s="6">
         <v>6</v>
       </c>
       <c r="E148" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>6_2</v>
       </c>
       <c r="F148" s="6" t="s">
@@ -7918,7 +8264,7 @@
         <v>62</v>
       </c>
       <c r="N148" s="4">
-        <f>SUM(T148:BH148)</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="AO148" s="4">
@@ -7936,14 +8282,14 @@
         <v>44810</v>
       </c>
       <c r="C149" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>F(44/3)</v>
       </c>
       <c r="D149" s="6">
         <v>6</v>
       </c>
       <c r="E149" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>6_3</v>
       </c>
       <c r="F149" s="6" t="s">
@@ -7964,7 +8310,7 @@
         <v>62</v>
       </c>
       <c r="N149" s="4">
-        <f>SUM(T149:BH149)</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="V149" s="4">
@@ -7982,14 +8328,14 @@
         <v>44810</v>
       </c>
       <c r="C150" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>F(45/4)</v>
       </c>
       <c r="D150" s="6">
         <v>6</v>
       </c>
       <c r="E150" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>6_4</v>
       </c>
       <c r="F150" s="6" t="s">
@@ -8012,6 +8358,10 @@
       <c r="M150" s="4">
         <v>2</v>
       </c>
+      <c r="N150" s="4">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
       <c r="AK150" s="4">
         <v>2</v>
       </c>
@@ -8024,14 +8374,14 @@
         <v>44810</v>
       </c>
       <c r="C151" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>S(46/5)</v>
       </c>
       <c r="D151" s="6">
         <v>6</v>
       </c>
       <c r="E151" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>6_5</v>
       </c>
       <c r="F151" s="6" t="s">
@@ -8052,7 +8402,7 @@
         <v>62</v>
       </c>
       <c r="N151" s="4">
-        <f>SUM(T151:BH151)</f>
+        <f t="shared" si="12"/>
         <v>19</v>
       </c>
       <c r="AK151" s="4">
@@ -8088,14 +8438,14 @@
         <v>44810</v>
       </c>
       <c r="C152" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>W(47/6)</v>
       </c>
       <c r="D152" s="6">
         <v>6</v>
       </c>
       <c r="E152" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>6_6</v>
       </c>
       <c r="F152" s="6" t="s">
@@ -8118,6 +8468,10 @@
       <c r="M152" s="4">
         <v>4</v>
       </c>
+      <c r="N152" s="4">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
       <c r="AK152" s="4">
         <v>2</v>
       </c>
@@ -8136,14 +8490,14 @@
         <v>44810</v>
       </c>
       <c r="C153" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>F(48/7)</v>
       </c>
       <c r="D153" s="6">
         <v>6</v>
       </c>
       <c r="E153" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>6_7</v>
       </c>
       <c r="F153" s="6" t="s">
@@ -8164,7 +8518,7 @@
         <v>62</v>
       </c>
       <c r="N153" s="4">
-        <f>SUM(T153:BH153)</f>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="V153" s="4">
@@ -8188,14 +8542,14 @@
         <v>44810</v>
       </c>
       <c r="C154" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>S(49/8)</v>
       </c>
       <c r="D154" s="6">
         <v>6</v>
       </c>
       <c r="E154" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>6_8</v>
       </c>
       <c r="F154" s="6" t="s">
@@ -8218,6 +8572,10 @@
       <c r="M154" s="4">
         <v>4</v>
       </c>
+      <c r="N154" s="4">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
       <c r="AK154" s="4">
         <v>1</v>
       </c>
@@ -8233,14 +8591,14 @@
         <v>44810</v>
       </c>
       <c r="C155" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>F(50/9)</v>
       </c>
       <c r="D155" s="6">
         <v>6</v>
       </c>
       <c r="E155" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>6_9</v>
       </c>
       <c r="F155" s="6" t="s">
@@ -8261,7 +8619,7 @@
         <v>62</v>
       </c>
       <c r="N155" s="4">
-        <f>SUM(T155:BH155)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AQ155" s="4">
@@ -8276,14 +8634,14 @@
         <v>44810</v>
       </c>
       <c r="C156" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>W(51/10)</v>
       </c>
       <c r="D156" s="6">
         <v>6</v>
       </c>
       <c r="E156" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>6_10</v>
       </c>
       <c r="F156" s="6" t="s">
@@ -8306,6 +8664,13 @@
       <c r="M156" s="4">
         <v>5</v>
       </c>
+      <c r="N156" s="4">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="AO156" s="4">
+        <v>1</v>
+      </c>
       <c r="AT156" s="4">
         <v>1</v>
       </c>
@@ -8324,14 +8689,14 @@
         <v>44810</v>
       </c>
       <c r="C157" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>F(52/11)</v>
       </c>
       <c r="D157" s="6">
         <v>6</v>
       </c>
       <c r="E157" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>6_11</v>
       </c>
       <c r="F157" s="6" t="s">
@@ -8352,7 +8717,7 @@
         <v>62</v>
       </c>
       <c r="N157" s="4">
-        <f>SUM(T157:BH157)</f>
+        <f t="shared" si="12"/>
         <v>18</v>
       </c>
       <c r="AB157" s="4">
@@ -8385,14 +8750,14 @@
         <v>44810</v>
       </c>
       <c r="C158" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>S(53/12)</v>
       </c>
       <c r="D158" s="6">
         <v>6</v>
       </c>
       <c r="E158" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>6_12</v>
       </c>
       <c r="F158" s="6" t="s">
@@ -8413,7 +8778,7 @@
         <v>62</v>
       </c>
       <c r="N158" s="4">
-        <f>SUM(T158:BH158)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="AK158" s="4">
@@ -8431,14 +8796,14 @@
         <v>44810</v>
       </c>
       <c r="C159" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>F(54/13)</v>
       </c>
       <c r="D159" s="6">
         <v>6</v>
       </c>
       <c r="E159" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>6_13</v>
       </c>
       <c r="F159" s="6" t="s">
@@ -8459,7 +8824,7 @@
         <v>62</v>
       </c>
       <c r="N159" s="4">
-        <f>SUM(T159:BH159)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -8471,14 +8836,14 @@
         <v>44810</v>
       </c>
       <c r="C160" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>W(55/14)</v>
       </c>
       <c r="D160" s="6">
         <v>6</v>
       </c>
       <c r="E160" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>6_14</v>
       </c>
       <c r="F160" s="6" t="s">
@@ -8499,6 +8864,7 @@
         <v>62</v>
       </c>
       <c r="N160" s="4">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -8510,14 +8876,14 @@
         <v>44810</v>
       </c>
       <c r="C161" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>F(56/15)</v>
       </c>
       <c r="D161" s="6">
         <v>6</v>
       </c>
       <c r="E161" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>6_15</v>
       </c>
       <c r="F161" s="6" t="s">
@@ -8538,7 +8904,7 @@
         <v>62</v>
       </c>
       <c r="N161" s="4">
-        <f>SUM(T161:BH161)</f>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="AG161" s="4">
@@ -8559,14 +8925,14 @@
         <v>44810</v>
       </c>
       <c r="C162" s="9" t="str">
-        <f t="shared" ref="C162:C193" si="14">_xlfn.CONCAT(F162, "(", G162, "/", H162, ")")</f>
+        <f t="shared" ref="C162:C193" si="13">_xlfn.CONCAT(F162, "(", G162, "/", H162, ")")</f>
         <v>S(57/16)</v>
       </c>
       <c r="D162" s="6">
         <v>6</v>
       </c>
       <c r="E162" s="4" t="str">
-        <f t="shared" ref="E162:E193" si="15">_xlfn.CONCAT(D162,"_",H162)</f>
+        <f t="shared" ref="E162:E193" si="14">_xlfn.CONCAT(D162,"_",H162)</f>
         <v>6_16</v>
       </c>
       <c r="F162" s="6" t="s">
@@ -8587,7 +8953,7 @@
         <v>62</v>
       </c>
       <c r="N162" s="4">
-        <f>SUM(T162:BH162)</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="Y162" s="4">
@@ -8605,14 +8971,14 @@
         <v>44810</v>
       </c>
       <c r="C163" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v>F(58/17)</v>
+      </c>
+      <c r="D163" s="6">
+        <v>6</v>
+      </c>
+      <c r="E163" s="4" t="str">
         <f t="shared" si="14"/>
-        <v>F(58/17)</v>
-      </c>
-      <c r="D163" s="6">
-        <v>6</v>
-      </c>
-      <c r="E163" s="4" t="str">
-        <f t="shared" si="15"/>
         <v>6_17</v>
       </c>
       <c r="F163" s="6" t="s">
@@ -8633,7 +8999,7 @@
         <v>62</v>
       </c>
       <c r="N163" s="4">
-        <f>SUM(T163:BH163)</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="AK163" s="4">
@@ -8651,14 +9017,14 @@
         <v>44810</v>
       </c>
       <c r="C164" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v>W(59/18)</v>
+      </c>
+      <c r="D164" s="6">
+        <v>6</v>
+      </c>
+      <c r="E164" s="4" t="str">
         <f t="shared" si="14"/>
-        <v>W(59/18)</v>
-      </c>
-      <c r="D164" s="6">
-        <v>6</v>
-      </c>
-      <c r="E164" s="4" t="str">
-        <f t="shared" si="15"/>
         <v>6_18</v>
       </c>
       <c r="F164" s="6" t="s">
@@ -8679,7 +9045,7 @@
         <v>62</v>
       </c>
       <c r="N164" s="4">
-        <f>SUM(T164:BH164)</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="AO164" s="4">
@@ -8694,14 +9060,14 @@
         <v>44810</v>
       </c>
       <c r="C165" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v>F(60/19)</v>
+      </c>
+      <c r="D165" s="6">
+        <v>6</v>
+      </c>
+      <c r="E165" s="4" t="str">
         <f t="shared" si="14"/>
-        <v>F(60/19)</v>
-      </c>
-      <c r="D165" s="6">
-        <v>6</v>
-      </c>
-      <c r="E165" s="4" t="str">
-        <f t="shared" si="15"/>
         <v>6_19</v>
       </c>
       <c r="F165" s="6" t="s">
@@ -8722,7 +9088,7 @@
         <v>62</v>
       </c>
       <c r="N165" s="4">
-        <f>SUM(T165:BH165)</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="AC165" s="4">
@@ -8740,14 +9106,14 @@
         <v>44810</v>
       </c>
       <c r="C166" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v>S(61/20)</v>
+      </c>
+      <c r="D166" s="6">
+        <v>6</v>
+      </c>
+      <c r="E166" s="4" t="str">
         <f t="shared" si="14"/>
-        <v>S(61/20)</v>
-      </c>
-      <c r="D166" s="6">
-        <v>6</v>
-      </c>
-      <c r="E166" s="4" t="str">
-        <f t="shared" si="15"/>
         <v>6_20</v>
       </c>
       <c r="F166" s="6" t="s">
@@ -8770,6 +9136,10 @@
       <c r="M166" s="4">
         <v>2</v>
       </c>
+      <c r="N166" s="4">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
       <c r="AY166" s="4">
         <v>2</v>
       </c>
@@ -8782,14 +9152,14 @@
         <v>44810</v>
       </c>
       <c r="C167" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v>F(62/21)</v>
+      </c>
+      <c r="D167" s="6">
+        <v>6</v>
+      </c>
+      <c r="E167" s="4" t="str">
         <f t="shared" si="14"/>
-        <v>F(62/21)</v>
-      </c>
-      <c r="D167" s="6">
-        <v>6</v>
-      </c>
-      <c r="E167" s="4" t="str">
-        <f t="shared" si="15"/>
         <v>6_21</v>
       </c>
       <c r="F167" s="6" t="s">
@@ -8812,6 +9182,10 @@
         <v>62</v>
       </c>
       <c r="M167" s="4">
+        <v>0</v>
+      </c>
+      <c r="N167" s="4">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -8823,14 +9197,14 @@
         <v>44810</v>
       </c>
       <c r="C168" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v>W(63/22)</v>
+      </c>
+      <c r="D168" s="6">
+        <v>6</v>
+      </c>
+      <c r="E168" s="4" t="str">
         <f t="shared" si="14"/>
-        <v>W(63/22)</v>
-      </c>
-      <c r="D168" s="6">
-        <v>6</v>
-      </c>
-      <c r="E168" s="4" t="str">
-        <f t="shared" si="15"/>
         <v>6_22</v>
       </c>
       <c r="F168" s="6" t="s">
@@ -8851,7 +9225,7 @@
         <v>62</v>
       </c>
       <c r="N168" s="4">
-        <f t="shared" ref="N168:N179" si="16">SUM(T168:BH168)</f>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="AB168" s="4">
@@ -8878,14 +9252,14 @@
         <v>44810</v>
       </c>
       <c r="C169" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v>F(64/23)</v>
+      </c>
+      <c r="D169" s="6">
+        <v>6</v>
+      </c>
+      <c r="E169" s="4" t="str">
         <f t="shared" si="14"/>
-        <v>F(64/23)</v>
-      </c>
-      <c r="D169" s="6">
-        <v>6</v>
-      </c>
-      <c r="E169" s="4" t="str">
-        <f t="shared" si="15"/>
         <v>6_23</v>
       </c>
       <c r="F169" s="6" t="s">
@@ -8906,7 +9280,7 @@
         <v>62</v>
       </c>
       <c r="N169" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="U169" s="4">
@@ -8930,14 +9304,14 @@
         <v>44824</v>
       </c>
       <c r="C170" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>F(41/0)</v>
       </c>
       <c r="D170" s="6">
         <v>7</v>
       </c>
       <c r="E170" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>7_0</v>
       </c>
       <c r="F170" s="6" t="s">
@@ -8958,7 +9332,7 @@
         <v>62</v>
       </c>
       <c r="N170" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="AK170" s="4">
@@ -8976,14 +9350,14 @@
         <v>44824</v>
       </c>
       <c r="C171" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>S(42/1)</v>
       </c>
       <c r="D171" s="6">
         <v>7</v>
       </c>
       <c r="E171" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>7_1</v>
       </c>
       <c r="F171" s="6" t="s">
@@ -9004,7 +9378,7 @@
         <v>62</v>
       </c>
       <c r="N171" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="AV171" s="4">
@@ -9025,14 +9399,14 @@
         <v>44824</v>
       </c>
       <c r="C172" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>W(43/2)</v>
       </c>
       <c r="D172" s="6">
         <v>7</v>
       </c>
       <c r="E172" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>7_2</v>
       </c>
       <c r="F172" s="6" t="s">
@@ -9053,7 +9427,7 @@
         <v>62</v>
       </c>
       <c r="N172" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="V172" s="4">
@@ -9068,14 +9442,14 @@
         <v>44824</v>
       </c>
       <c r="C173" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>F(44/3)</v>
       </c>
       <c r="D173" s="6">
         <v>7</v>
       </c>
       <c r="E173" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>7_3</v>
       </c>
       <c r="F173" s="6" t="s">
@@ -9096,7 +9470,7 @@
         <v>62</v>
       </c>
       <c r="N173" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="AY173" s="4">
@@ -9114,14 +9488,14 @@
         <v>44824</v>
       </c>
       <c r="C174" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>F(45/4)</v>
       </c>
       <c r="D174" s="6">
         <v>7</v>
       </c>
       <c r="E174" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>7_4</v>
       </c>
       <c r="F174" s="6" t="s">
@@ -9142,7 +9516,7 @@
         <v>62</v>
       </c>
       <c r="N174" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="AK174" s="4">
@@ -9157,14 +9531,14 @@
         <v>44824</v>
       </c>
       <c r="C175" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>S(46/5)</v>
       </c>
       <c r="D175" s="6">
         <v>7</v>
       </c>
       <c r="E175" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>7_5</v>
       </c>
       <c r="F175" s="6" t="s">
@@ -9185,7 +9559,7 @@
         <v>62</v>
       </c>
       <c r="N175" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="AO175" s="4">
@@ -9209,14 +9583,14 @@
         <v>44824</v>
       </c>
       <c r="C176" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>W(47/6)</v>
       </c>
       <c r="D176" s="6">
         <v>7</v>
       </c>
       <c r="E176" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>7_6</v>
       </c>
       <c r="F176" s="6" t="s">
@@ -9237,7 +9611,7 @@
         <v>62</v>
       </c>
       <c r="N176" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="AK176" s="4">
@@ -9255,14 +9629,14 @@
         <v>44824</v>
       </c>
       <c r="C177" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>F(48/7)</v>
       </c>
       <c r="D177" s="6">
         <v>7</v>
       </c>
       <c r="E177" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>7_7</v>
       </c>
       <c r="F177" s="6" t="s">
@@ -9285,7 +9659,7 @@
         <v>62</v>
       </c>
       <c r="N177" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="V177" s="4">
@@ -9306,14 +9680,14 @@
         <v>44824</v>
       </c>
       <c r="C178" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>S(49/8)</v>
       </c>
       <c r="D178" s="6">
         <v>7</v>
       </c>
       <c r="E178" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>7_8</v>
       </c>
       <c r="F178" s="6" t="s">
@@ -9334,7 +9708,7 @@
         <v>62</v>
       </c>
       <c r="N178" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="R178" s="4">
@@ -9358,14 +9732,14 @@
         <v>44824</v>
       </c>
       <c r="C179" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>F(50/9)</v>
       </c>
       <c r="D179" s="6">
         <v>7</v>
       </c>
       <c r="E179" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>7_9</v>
       </c>
       <c r="F179" s="6" t="s">
@@ -9388,7 +9762,7 @@
         <v>62</v>
       </c>
       <c r="N179" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AK179" s="4">
@@ -9403,14 +9777,14 @@
         <v>44824</v>
       </c>
       <c r="C180" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>W(51/10)</v>
       </c>
       <c r="D180" s="6">
         <v>7</v>
       </c>
       <c r="E180" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>7_10</v>
       </c>
       <c r="F180" s="6" t="s">
@@ -9433,6 +9807,10 @@
       <c r="M180" s="4">
         <v>4</v>
       </c>
+      <c r="N180" s="4">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
       <c r="AE180" s="4">
         <v>1</v>
       </c>
@@ -9454,14 +9832,14 @@
         <v>44824</v>
       </c>
       <c r="C181" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>F(52/11)</v>
       </c>
       <c r="D181" s="6">
         <v>7</v>
       </c>
       <c r="E181" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>7_11</v>
       </c>
       <c r="F181" s="6" t="s">
@@ -9484,6 +9862,10 @@
       <c r="M181" s="4">
         <v>12</v>
       </c>
+      <c r="N181" s="4">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
       <c r="V181" s="4">
         <v>1</v>
       </c>
@@ -9492,6 +9874,9 @@
       </c>
       <c r="AK181" s="4">
         <v>7</v>
+      </c>
+      <c r="AO181" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="182" spans="1:59" x14ac:dyDescent="0.35">
@@ -9502,14 +9887,14 @@
         <v>44824</v>
       </c>
       <c r="C182" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>S(53/12)</v>
       </c>
       <c r="D182" s="6">
         <v>7</v>
       </c>
       <c r="E182" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>7_12</v>
       </c>
       <c r="F182" s="6" t="s">
@@ -9530,7 +9915,7 @@
         <v>62</v>
       </c>
       <c r="N182" s="4">
-        <f t="shared" ref="N182:N193" si="17">SUM(T182:BH182)</f>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="AK182" s="4">
@@ -9563,14 +9948,14 @@
         <v>44824</v>
       </c>
       <c r="C183" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>F(54/13)</v>
       </c>
       <c r="D183" s="6">
         <v>7</v>
       </c>
       <c r="E183" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>7_13</v>
       </c>
       <c r="F183" s="6" t="s">
@@ -9591,7 +9976,7 @@
         <v>62</v>
       </c>
       <c r="N183" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="BA183" s="4">
@@ -9609,14 +9994,14 @@
         <v>44824</v>
       </c>
       <c r="C184" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>W(55/14)</v>
       </c>
       <c r="D184" s="6">
         <v>7</v>
       </c>
       <c r="E184" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>7_14</v>
       </c>
       <c r="F184" s="6" t="s">
@@ -9637,7 +10022,7 @@
         <v>62</v>
       </c>
       <c r="N184" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="AG184" s="4">
@@ -9661,14 +10046,14 @@
         <v>44824</v>
       </c>
       <c r="C185" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>F(56/15)</v>
       </c>
       <c r="D185" s="6">
         <v>7</v>
       </c>
       <c r="E185" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>7_15</v>
       </c>
       <c r="F185" s="6" t="s">
@@ -9689,7 +10074,7 @@
         <v>62</v>
       </c>
       <c r="N185" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="AT185" s="4">
@@ -9710,14 +10095,14 @@
         <v>44824</v>
       </c>
       <c r="C186" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>S(57/16)</v>
       </c>
       <c r="D186" s="6">
         <v>7</v>
       </c>
       <c r="E186" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>7_16</v>
       </c>
       <c r="F186" s="6" t="s">
@@ -9738,7 +10123,7 @@
         <v>62</v>
       </c>
       <c r="N186" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="AK186" s="4">
@@ -9759,14 +10144,14 @@
         <v>44824</v>
       </c>
       <c r="C187" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>F(58/17)</v>
       </c>
       <c r="D187" s="6">
         <v>7</v>
       </c>
       <c r="E187" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>7_17</v>
       </c>
       <c r="F187" s="6" t="s">
@@ -9787,7 +10172,7 @@
         <v>62</v>
       </c>
       <c r="N187" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="AE187" s="4">
@@ -9811,14 +10196,14 @@
         <v>44824</v>
       </c>
       <c r="C188" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>W(59/18)</v>
       </c>
       <c r="D188" s="6">
         <v>7</v>
       </c>
       <c r="E188" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>7_18</v>
       </c>
       <c r="F188" s="6" t="s">
@@ -9841,7 +10226,7 @@
         <v>62</v>
       </c>
       <c r="N188" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="AK188" s="4">
@@ -9865,14 +10250,14 @@
         <v>44824</v>
       </c>
       <c r="C189" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>F(60/19)</v>
       </c>
       <c r="D189" s="6">
         <v>7</v>
       </c>
       <c r="E189" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>7_19</v>
       </c>
       <c r="F189" s="6" t="s">
@@ -9895,7 +10280,7 @@
         <v>62</v>
       </c>
       <c r="N189" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="AO189" s="4">
@@ -9919,14 +10304,14 @@
         <v>44824</v>
       </c>
       <c r="C190" s="22" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>S(61/20)</v>
       </c>
       <c r="D190" s="22">
         <v>7</v>
       </c>
       <c r="E190" s="23" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>7_20</v>
       </c>
       <c r="F190" s="22" t="s">
@@ -9945,8 +10330,8 @@
         <v>78</v>
       </c>
       <c r="K190" s="22"/>
-      <c r="N190" s="23">
-        <f t="shared" si="17"/>
+      <c r="N190" s="4">
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="AK190" s="23">
@@ -9973,14 +10358,14 @@
         <v>44824</v>
       </c>
       <c r="C191" s="19" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>F(62/21)</v>
       </c>
       <c r="D191" s="19">
         <v>7</v>
       </c>
       <c r="E191" s="20" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>7_21</v>
       </c>
       <c r="F191" s="19" t="s">
@@ -10005,9 +10390,9 @@
       <c r="M191" s="20">
         <v>11</v>
       </c>
-      <c r="N191" s="20">
-        <f t="shared" si="17"/>
-        <v>10</v>
+      <c r="N191" s="4">
+        <f t="shared" si="12"/>
+        <v>11</v>
       </c>
       <c r="AK191" s="20">
         <v>6</v>
@@ -10016,6 +10401,9 @@
         <v>1</v>
       </c>
       <c r="AY191" s="20">
+        <v>1</v>
+      </c>
+      <c r="BA191" s="20">
         <v>1</v>
       </c>
       <c r="BE191" s="20">
@@ -10030,14 +10418,14 @@
         <v>44824</v>
       </c>
       <c r="C192" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>W(63/22)</v>
       </c>
       <c r="D192" s="6">
         <v>7</v>
       </c>
       <c r="E192" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>7_22</v>
       </c>
       <c r="F192" s="6" t="s">
@@ -10058,7 +10446,7 @@
         <v>62</v>
       </c>
       <c r="N192" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="AO192" s="4">
@@ -10076,14 +10464,14 @@
         <v>44824</v>
       </c>
       <c r="C193" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>F(64/23)</v>
       </c>
       <c r="D193" s="6">
         <v>7</v>
       </c>
       <c r="E193" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>7_23</v>
       </c>
       <c r="F193" s="6" t="s">
@@ -10104,7 +10492,7 @@
         <v>62</v>
       </c>
       <c r="N193" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="AK193" s="4">
@@ -10126,183 +10514,183 @@
         <v>3</v>
       </c>
       <c r="P194" s="4">
-        <f t="shared" ref="P194:BH194" si="18">SUM(P2:P193)</f>
+        <f t="shared" ref="P194:BH194" si="15">SUM(P2:P193)</f>
         <v>1</v>
       </c>
       <c r="Q194" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="R194" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="S194" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="T194" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="U194" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="V194" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>42</v>
       </c>
       <c r="W194" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>24</v>
       </c>
       <c r="X194" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="Y194" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>49</v>
       </c>
       <c r="Z194" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AA194" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AB194" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>17</v>
       </c>
       <c r="AC194" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>11</v>
       </c>
       <c r="AD194" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="AE194" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>13</v>
       </c>
       <c r="AF194" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AG194" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="AH194" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AI194" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="AJ194" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AK194" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>74</v>
       </c>
       <c r="AL194" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AM194" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="AN194" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AO194" s="4">
-        <f t="shared" si="18"/>
-        <v>94</v>
+        <f t="shared" si="15"/>
+        <v>119</v>
       </c>
       <c r="AP194" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="AQ194" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>15</v>
       </c>
       <c r="AR194" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AS194" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AT194" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>66</v>
       </c>
       <c r="AU194" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>46</v>
       </c>
       <c r="AV194" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>24</v>
       </c>
       <c r="AW194" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="AX194" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>90</v>
       </c>
       <c r="AY194" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>72</v>
       </c>
       <c r="AZ194" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="BA194" s="4">
-        <f t="shared" si="18"/>
-        <v>3</v>
+        <f t="shared" si="15"/>
+        <v>6</v>
       </c>
       <c r="BB194" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="BC194" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="BD194" s="4">
-        <f t="shared" si="18"/>
-        <v>3</v>
+        <f t="shared" si="15"/>
+        <v>6</v>
       </c>
       <c r="BE194" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>111</v>
       </c>
       <c r="BF194" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="BG194" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="BH194" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
     </row>

--- a/PNR_Raw_Data/PNR2022_InvertebrateCommunity.xlsx
+++ b/PNR_Raw_Data/PNR2022_InvertebrateCommunity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/PNR_Beetles_github_folder/PNR_Raw_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2101" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BDA6DB6-2502-446E-948D-F966BEF11D60}"/>
+  <xr:revisionPtr revIDLastSave="2198" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A57ADCA5-D0A5-468D-8F2B-0E2728292EF6}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="20" windowWidth="19140" windowHeight="10180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="101">
   <si>
     <t>Treatment</t>
   </si>
@@ -247,9 +247,6 @@
     <t>3 carabid larvae (not removed or counted)</t>
   </si>
   <si>
-    <t>many scarabs and roves - not removed</t>
-  </si>
-  <si>
     <t>set date almost seemed like 6/13/22 but I assume it was miswritten</t>
   </si>
   <si>
@@ -266,12 +263,6 @@
   </si>
   <si>
     <t>initially it was labelled as F(64/11) but due to process of elimination I changed the label to F(62/21)</t>
-  </si>
-  <si>
-    <t>I clearly pinned 12 carabids - but now I can't seem to find the beetle container with carabids removed</t>
-  </si>
-  <si>
-    <t>I pinned 8 beetles - but now I can't seem to locate the beetle container with carabids removed</t>
   </si>
   <si>
     <t>Notiophilus_aeneus</t>
@@ -324,6 +315,33 @@
   <si>
     <t>Nicrophorus_orbicollis</t>
   </si>
+  <si>
+    <t>The beetle vial was in a box with Rove beetles so initially I did not find it. Now I found it and pinned the 3 carabids</t>
+  </si>
+  <si>
+    <t>Initially the carabids were pinned by someone in Wooster so that is why I could not find the beetle vial. But now I have located the beetle vial.</t>
+  </si>
+  <si>
+    <t>These appear to have been pinned by someone else - which explains the descrepancy between 0 and 9</t>
+  </si>
+  <si>
+    <t>Someone incorrectly labelled this one - making it impossible to distinguish from F(45/4)</t>
+  </si>
+  <si>
+    <t>Someone incorrectly labelled this one - making it impossible to distinguish from F(50/9)</t>
+  </si>
+  <si>
+    <t>Notes_Aaron</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> it seems I initially missed one carabid (a Trichotichnus) and later pinned it after Tony found it - this explains the discrepancy - also: many scarabs and roves - not removed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I (Aaron) clearly pinned 12 carabids - but now I can't seem to find the beetle container with carabids removed - perhaps it was a big plastic cup and for some reason tossed it accidentally? </t>
+  </si>
+  <si>
+    <t>The datasheet lists 37 for Coleoptera and 28 for Staphylinidae. I found the rove beetle vial with the 28 Staphylinids but I cant find the beetle vial.</t>
+  </si>
 </sst>
 </file>
 
@@ -367,7 +385,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -410,6 +428,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -432,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -519,6 +543,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -845,7 +878,7 @@
         <v>61</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.35">
@@ -887,13 +920,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F43E875-3D05-450D-A232-4115B14D5C30}">
-  <dimension ref="A1:BH194"/>
+  <dimension ref="A1:BI194"/>
   <sheetViews>
-    <sheetView zoomScale="83" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="82" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -910,44 +943,44 @@
     <col min="11" max="11" width="32.26953125" style="4" customWidth="1"/>
     <col min="12" max="12" width="8.26953125" style="4" customWidth="1"/>
     <col min="13" max="13" width="14.6328125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="15.81640625" style="4" customWidth="1"/>
-    <col min="15" max="16" width="8.81640625" style="4" customWidth="1"/>
-    <col min="17" max="17" width="12.54296875" style="4" customWidth="1"/>
-    <col min="18" max="19" width="12.36328125" style="4" customWidth="1"/>
-    <col min="20" max="20" width="8" style="4" customWidth="1"/>
-    <col min="21" max="21" width="11.08984375" style="4" customWidth="1"/>
-    <col min="22" max="22" width="8.7265625" style="4" customWidth="1"/>
-    <col min="23" max="23" width="10.1796875" style="4" customWidth="1"/>
-    <col min="24" max="25" width="14" style="4" customWidth="1"/>
-    <col min="26" max="27" width="9.453125" style="4" customWidth="1"/>
-    <col min="28" max="29" width="8.6328125" style="4" customWidth="1"/>
-    <col min="30" max="30" width="8.7265625" style="4" customWidth="1"/>
-    <col min="31" max="31" width="9.6328125" style="4" customWidth="1"/>
-    <col min="32" max="32" width="13.453125" style="4" customWidth="1"/>
-    <col min="33" max="33" width="6.6328125" style="4" customWidth="1"/>
-    <col min="34" max="35" width="11.6328125" style="4" customWidth="1"/>
-    <col min="36" max="36" width="9.6328125" style="4" customWidth="1"/>
-    <col min="37" max="40" width="9.453125" style="4" customWidth="1"/>
-    <col min="41" max="42" width="12.81640625" style="4" customWidth="1"/>
-    <col min="43" max="43" width="12.54296875" style="4" customWidth="1"/>
-    <col min="44" max="45" width="12.26953125" style="4" customWidth="1"/>
-    <col min="46" max="47" width="12.1796875" style="4" customWidth="1"/>
-    <col min="48" max="48" width="12.26953125" style="4" customWidth="1"/>
-    <col min="49" max="49" width="12.1796875" style="4" customWidth="1"/>
-    <col min="50" max="50" width="12.26953125" style="4" customWidth="1"/>
-    <col min="51" max="51" width="11.6328125" style="4" customWidth="1"/>
-    <col min="52" max="54" width="12.08984375" style="4" customWidth="1"/>
-    <col min="55" max="55" width="12.7265625" style="4" customWidth="1"/>
-    <col min="56" max="56" width="13.453125" style="4" customWidth="1"/>
-    <col min="57" max="57" width="13.6328125" style="4" customWidth="1"/>
-    <col min="58" max="58" width="12.54296875" style="4" customWidth="1"/>
-    <col min="59" max="59" width="10" style="4" customWidth="1"/>
-    <col min="60" max="60" width="12" style="4" customWidth="1"/>
-    <col min="61" max="62" width="8.7265625" style="4" customWidth="1"/>
-    <col min="63" max="16384" width="8.7265625" style="4"/>
+    <col min="14" max="15" width="15.81640625" style="4" customWidth="1"/>
+    <col min="16" max="17" width="8.81640625" style="4" customWidth="1"/>
+    <col min="18" max="18" width="12.54296875" style="4" customWidth="1"/>
+    <col min="19" max="20" width="12.36328125" style="4" customWidth="1"/>
+    <col min="21" max="21" width="8" style="4" customWidth="1"/>
+    <col min="22" max="22" width="11.08984375" style="4" customWidth="1"/>
+    <col min="23" max="23" width="8.7265625" style="4" customWidth="1"/>
+    <col min="24" max="24" width="10.1796875" style="4" customWidth="1"/>
+    <col min="25" max="26" width="14" style="4" customWidth="1"/>
+    <col min="27" max="28" width="9.453125" style="4" customWidth="1"/>
+    <col min="29" max="30" width="8.6328125" style="4" customWidth="1"/>
+    <col min="31" max="31" width="8.7265625" style="4" customWidth="1"/>
+    <col min="32" max="32" width="9.6328125" style="4" customWidth="1"/>
+    <col min="33" max="33" width="13.453125" style="4" customWidth="1"/>
+    <col min="34" max="34" width="6.6328125" style="4" customWidth="1"/>
+    <col min="35" max="36" width="11.6328125" style="4" customWidth="1"/>
+    <col min="37" max="37" width="9.6328125" style="4" customWidth="1"/>
+    <col min="38" max="41" width="9.453125" style="4" customWidth="1"/>
+    <col min="42" max="43" width="12.81640625" style="4" customWidth="1"/>
+    <col min="44" max="44" width="12.54296875" style="4" customWidth="1"/>
+    <col min="45" max="46" width="12.26953125" style="4" customWidth="1"/>
+    <col min="47" max="48" width="12.1796875" style="4" customWidth="1"/>
+    <col min="49" max="49" width="12.26953125" style="4" customWidth="1"/>
+    <col min="50" max="50" width="12.1796875" style="4" customWidth="1"/>
+    <col min="51" max="51" width="12.26953125" style="4" customWidth="1"/>
+    <col min="52" max="52" width="11.6328125" style="4" customWidth="1"/>
+    <col min="53" max="55" width="12.08984375" style="4" customWidth="1"/>
+    <col min="56" max="56" width="12.7265625" style="4" customWidth="1"/>
+    <col min="57" max="57" width="13.453125" style="4" customWidth="1"/>
+    <col min="58" max="58" width="13.6328125" style="4" customWidth="1"/>
+    <col min="59" max="59" width="12.54296875" style="4" customWidth="1"/>
+    <col min="60" max="60" width="10" style="4" customWidth="1"/>
+    <col min="61" max="61" width="12" style="4" customWidth="1"/>
+    <col min="62" max="63" width="8.7265625" style="4" customWidth="1"/>
+    <col min="64" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" s="26" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:61" s="26" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -976,7 +1009,7 @@
         <v>14</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>15</v>
@@ -990,146 +1023,147 @@
       <c r="N1" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="25"/>
+      <c r="P1" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q1" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="R1" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="S1" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="T1" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="U1" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="V1" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="W1" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="X1" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y1" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z1" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA1" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB1" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="P1" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q1" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="R1" s="25" t="s">
+      <c r="AC1" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD1" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE1" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF1" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG1" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI1" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ1" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="T1" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="U1" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="V1" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="W1" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="X1" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y1" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z1" s="25" t="s">
+      <c r="AK1" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL1" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM1" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN1" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO1" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP1" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="AQ1" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR1" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS1" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT1" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="AU1" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV1" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW1" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="AX1" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="AY1" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AZ1" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="BA1" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="BB1" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC1" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="BD1" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="BF1" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="BG1" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="BH1" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="BI1" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="AA1" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB1" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC1" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD1" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE1" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF1" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH1" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI1" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="AJ1" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK1" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL1" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="AM1" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN1" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="AO1" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="AP1" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="AQ1" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="AR1" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="AS1" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="AT1" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="AU1" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="AV1" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="AW1" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="AX1" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="AY1" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="AZ1" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="BA1" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="BB1" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="BC1" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD1" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE1" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="BF1" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="BG1" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="BH1" s="26" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>44713</v>
       </c>
@@ -1160,7 +1194,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K2" s="6"/>
       <c r="L2" s="4" t="s">
@@ -1170,14 +1204,18 @@
         <v>2</v>
       </c>
       <c r="N2" s="4">
-        <f>SUM(T2:BH2)</f>
-        <v>2</v>
-      </c>
-      <c r="BE2" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.35">
+        <f>SUM(P2:BI2)</f>
+        <v>2</v>
+      </c>
+      <c r="O2" s="4">
+        <f>M2-N2</f>
+        <v>0</v>
+      </c>
+      <c r="BF2" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>44714</v>
       </c>
@@ -1216,14 +1254,18 @@
         <v>1</v>
       </c>
       <c r="N3" s="4">
-        <f>SUM(T3:BH3)</f>
-        <v>1</v>
-      </c>
-      <c r="BA3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.35">
+        <f t="shared" ref="N3:N66" si="2">SUM(P3:BI3)</f>
+        <v>1</v>
+      </c>
+      <c r="O3" s="4">
+        <f t="shared" ref="O3:O54" si="3">M3-N3</f>
+        <v>0</v>
+      </c>
+      <c r="BB3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>44714</v>
       </c>
@@ -1254,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="4" t="s">
@@ -1264,14 +1306,18 @@
         <v>0</v>
       </c>
       <c r="N4" s="4">
-        <f t="shared" ref="N4:N67" si="2">SUM(T4:BH4)</f>
-        <v>1</v>
-      </c>
-      <c r="BH4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O4" s="4">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="BI4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>44713</v>
       </c>
@@ -1315,11 +1361,15 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AU5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.35">
+      <c r="O5" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AV5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>44714</v>
       </c>
@@ -1361,14 +1411,18 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="AC6" s="4">
-        <v>1</v>
-      </c>
-      <c r="BE6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.35">
+      <c r="O6" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="4">
+        <v>1</v>
+      </c>
+      <c r="BF6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>44714</v>
       </c>
@@ -1410,17 +1464,21 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="AB7" s="4">
+      <c r="O7" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="4">
         <v>3</v>
       </c>
-      <c r="AQ7" s="4">
-        <v>1</v>
-      </c>
-      <c r="AX7" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.35">
+      <c r="AR7" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY7" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>44714</v>
       </c>
@@ -1462,8 +1520,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:60" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="O8" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:61" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="16"/>
       <c r="B9" s="15">
         <v>44727</v>
@@ -1495,12 +1557,8 @@
       <c r="K9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="N9" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>44714</v>
       </c>
@@ -1540,16 +1598,20 @@
       </c>
       <c r="N10" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O10" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="4">
         <v>3</v>
       </c>
-      <c r="W10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.35">
+      <c r="X10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>44714</v>
       </c>
@@ -1593,8 +1655,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.35">
+      <c r="O11" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>44714</v>
       </c>
@@ -1636,18 +1702,24 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="W12" s="4">
-        <v>1</v>
-      </c>
-      <c r="AT12" s="4">
-        <v>2</v>
-      </c>
-      <c r="BE12" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:60" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="12"/>
+      <c r="O12" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AU12" s="4">
+        <v>2</v>
+      </c>
+      <c r="BF12" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:61" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="11">
+        <v>44714</v>
+      </c>
       <c r="B13" s="11">
         <v>44727</v>
       </c>
@@ -1674,14 +1746,12 @@
       <c r="I13" s="12">
         <v>1</v>
       </c>
-      <c r="J13" s="12"/>
+      <c r="J13" s="12" t="s">
+        <v>100</v>
+      </c>
       <c r="K13" s="12"/>
-      <c r="N13" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>44713</v>
       </c>
@@ -1723,14 +1793,18 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="AD14" s="4">
-        <v>1</v>
-      </c>
-      <c r="BF14" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.35">
+      <c r="O14" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="4">
+        <v>1</v>
+      </c>
+      <c r="BG14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>44713</v>
       </c>
@@ -1772,8 +1846,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:60" x14ac:dyDescent="0.35">
+      <c r="O15" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>44713</v>
       </c>
@@ -1815,23 +1893,27 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="T16" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA16" s="4">
-        <v>1</v>
-      </c>
-      <c r="AT16" s="4">
-        <v>1</v>
-      </c>
-      <c r="BD16" s="4">
+      <c r="O16" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="4">
+        <v>1</v>
+      </c>
+      <c r="AU16" s="4">
         <v>1</v>
       </c>
       <c r="BE16" s="4">
+        <v>1</v>
+      </c>
+      <c r="BF16" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>44713</v>
       </c>
@@ -1873,8 +1955,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:60" x14ac:dyDescent="0.35">
+      <c r="O17" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>44713</v>
       </c>
@@ -1918,8 +2004,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:60" x14ac:dyDescent="0.35">
+      <c r="O18" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>44713</v>
       </c>
@@ -1963,8 +2053,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:60" x14ac:dyDescent="0.35">
+      <c r="O19" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>44713</v>
       </c>
@@ -2006,20 +2100,24 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="V20" s="4">
-        <v>1</v>
-      </c>
-      <c r="AI20" s="4">
-        <v>1</v>
-      </c>
-      <c r="AU20" s="4">
-        <v>2</v>
-      </c>
-      <c r="BE20" s="4">
+      <c r="O20" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W20" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ20" s="4">
+        <v>1</v>
+      </c>
+      <c r="AV20" s="4">
+        <v>2</v>
+      </c>
+      <c r="BF20" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>44713</v>
       </c>
@@ -2063,8 +2161,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:60" x14ac:dyDescent="0.35">
+      <c r="O21" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>44713</v>
       </c>
@@ -2108,17 +2210,21 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AC22" s="4">
-        <v>1</v>
-      </c>
-      <c r="AU22" s="4">
+      <c r="O22" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD22" s="4">
         <v>1</v>
       </c>
       <c r="AV22" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:60" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AW22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:61" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="16"/>
       <c r="B23" s="15">
         <v>44727</v>
@@ -2150,12 +2256,8 @@
       <c r="K23" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="N23" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:60" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>44713</v>
       </c>
@@ -2197,20 +2299,24 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="T24" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB24" s="4">
-        <v>2</v>
+      <c r="O24" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U24" s="4">
+        <v>1</v>
       </c>
       <c r="AC24" s="4">
-        <v>1</v>
-      </c>
-      <c r="AK24" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:60" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="AD24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>44713</v>
       </c>
@@ -2254,17 +2360,21 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="AT25" s="4">
-        <v>1</v>
-      </c>
-      <c r="AW25" s="4">
-        <v>1</v>
-      </c>
-      <c r="BE25" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:60" x14ac:dyDescent="0.35">
+      <c r="O25" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AU25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AX25" s="4">
+        <v>1</v>
+      </c>
+      <c r="BF25" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>44727</v>
       </c>
@@ -2308,8 +2418,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:60" x14ac:dyDescent="0.35">
+      <c r="O26" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>44727</v>
       </c>
@@ -2355,11 +2469,15 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T27" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:60" x14ac:dyDescent="0.35">
+      <c r="O27" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>44727</v>
       </c>
@@ -2400,11 +2518,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="BE28" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:60" x14ac:dyDescent="0.35">
+      <c r="BF28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>44727</v>
       </c>
@@ -2435,7 +2553,7 @@
         <v>1</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K29" s="6" t="s">
         <v>8</v>
@@ -2450,66 +2568,74 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="V29" s="4">
-        <v>1</v>
-      </c>
-      <c r="AU29" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A30" s="5">
+      <c r="O29" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W29" s="4">
+        <v>1</v>
+      </c>
+      <c r="AV29" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:61" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="30">
         <v>44727</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="30">
         <v>44741</v>
       </c>
-      <c r="C30" s="6" t="str">
+      <c r="C30" s="31" t="str">
         <f t="shared" si="0"/>
         <v>F(45/4)</v>
       </c>
-      <c r="D30" s="6">
-        <v>1</v>
-      </c>
-      <c r="E30" s="4" t="str">
+      <c r="D30" s="31">
+        <v>1</v>
+      </c>
+      <c r="E30" s="32" t="str">
         <f t="shared" si="1"/>
         <v>1_4</v>
       </c>
-      <c r="F30" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G30" s="6">
+      <c r="F30" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="31">
         <v>45</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="31">
         <v>4</v>
       </c>
-      <c r="I30" s="6">
-        <v>0</v>
-      </c>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="M30" s="4">
-        <v>5</v>
-      </c>
-      <c r="N30" s="4">
+      <c r="I30" s="31">
+        <v>0</v>
+      </c>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="M30" s="32">
+        <v>5</v>
+      </c>
+      <c r="N30" s="32">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="AC30" s="4">
-        <v>1</v>
-      </c>
-      <c r="AQ30" s="4">
-        <v>2</v>
-      </c>
-      <c r="BE30" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:60" x14ac:dyDescent="0.35">
+      <c r="O30" s="32">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AD30" s="32">
+        <v>1</v>
+      </c>
+      <c r="AR30" s="32">
+        <v>2</v>
+      </c>
+      <c r="BF30" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>44727</v>
       </c>
@@ -2551,11 +2677,15 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AT31" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:60" x14ac:dyDescent="0.35">
+      <c r="O31" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AU31" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>44727</v>
       </c>
@@ -2597,26 +2727,30 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="T32" s="4">
-        <v>1</v>
-      </c>
-      <c r="W32" s="4">
-        <v>1</v>
-      </c>
-      <c r="AI32" s="4">
-        <v>1</v>
-      </c>
-      <c r="AT32" s="4">
+      <c r="O32" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U32" s="4">
+        <v>1</v>
+      </c>
+      <c r="X32" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ32" s="4">
         <v>1</v>
       </c>
       <c r="AU32" s="4">
         <v>1</v>
       </c>
-      <c r="BH32" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="AV32" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI32" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>44727</v>
       </c>
@@ -2658,17 +2792,21 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="V33" s="4">
-        <v>1</v>
-      </c>
-      <c r="AE33" s="4">
+      <c r="O33" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W33" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF33" s="4">
         <v>3</v>
       </c>
-      <c r="AU33" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="AV33" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>44727</v>
       </c>
@@ -2676,14 +2814,14 @@
         <v>44741</v>
       </c>
       <c r="C34" s="6" t="str">
-        <f t="shared" ref="C34:C65" si="3">_xlfn.CONCAT(F34, "(", G34, "/", H34, ")")</f>
+        <f t="shared" ref="C34:C65" si="4">_xlfn.CONCAT(F34, "(", G34, "/", H34, ")")</f>
         <v>S(49/8)</v>
       </c>
       <c r="D34" s="6">
         <v>1</v>
       </c>
       <c r="E34" s="4" t="str">
-        <f t="shared" ref="E34:E65" si="4">_xlfn.CONCAT(D34,"_",H34)</f>
+        <f t="shared" ref="E34:E65" si="5">_xlfn.CONCAT(D34,"_",H34)</f>
         <v>1_8</v>
       </c>
       <c r="F34" s="6" t="s">
@@ -2698,7 +2836,9 @@
       <c r="I34" s="6">
         <v>0</v>
       </c>
-      <c r="J34" s="6"/>
+      <c r="J34" s="6" t="s">
+        <v>94</v>
+      </c>
       <c r="K34" s="6"/>
       <c r="L34" s="4" t="s">
         <v>60</v>
@@ -2708,25 +2848,29 @@
       </c>
       <c r="N34" s="4">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="S34" s="4">
-        <v>1</v>
-      </c>
-      <c r="W34" s="4">
-        <v>1</v>
-      </c>
-      <c r="AD34" s="4">
-        <v>1</v>
-      </c>
-      <c r="AX34" s="4">
-        <v>5</v>
-      </c>
-      <c r="BE34" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:57" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="O34" s="32">
+        <f t="shared" si="3"/>
+        <v>-9</v>
+      </c>
+      <c r="T34" s="4">
+        <v>1</v>
+      </c>
+      <c r="X34" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE34" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY34" s="4">
+        <v>5</v>
+      </c>
+      <c r="BF34" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>44727</v>
       </c>
@@ -2734,14 +2878,14 @@
         <v>44741</v>
       </c>
       <c r="C35" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F(50/9)</v>
       </c>
       <c r="D35" s="6">
         <v>1</v>
       </c>
       <c r="E35" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1_9</v>
       </c>
       <c r="F35" s="6" t="s">
@@ -2768,14 +2912,18 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="AQ35" s="4">
-        <v>1</v>
-      </c>
-      <c r="AX35" s="4">
+      <c r="O35" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AR35" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY35" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <v>44727</v>
       </c>
@@ -2783,14 +2931,14 @@
         <v>44741</v>
       </c>
       <c r="C36" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>W(51/10)</v>
       </c>
       <c r="D36" s="6">
         <v>1</v>
       </c>
       <c r="E36" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1_10</v>
       </c>
       <c r="F36" s="6" t="s">
@@ -2814,23 +2962,23 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="W36" s="4">
+      <c r="X36" s="4">
         <v>3</v>
       </c>
-      <c r="Y36" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM36" s="4">
-        <v>1</v>
-      </c>
-      <c r="AT36" s="4">
-        <v>1</v>
-      </c>
-      <c r="AX36" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="Z36" s="4">
+        <v>1</v>
+      </c>
+      <c r="AN36" s="4">
+        <v>1</v>
+      </c>
+      <c r="AU36" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY36" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <v>44727</v>
       </c>
@@ -2838,14 +2986,14 @@
         <v>44741</v>
       </c>
       <c r="C37" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F(52/11)</v>
       </c>
       <c r="D37" s="6">
         <v>1</v>
       </c>
       <c r="E37" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1_11</v>
       </c>
       <c r="F37" s="6" t="s">
@@ -2871,14 +3019,14 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="AM37" s="4">
-        <v>1</v>
-      </c>
-      <c r="AT37" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="AN37" s="4">
+        <v>1</v>
+      </c>
+      <c r="AU37" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>44727</v>
       </c>
@@ -2886,14 +3034,14 @@
         <v>44741</v>
       </c>
       <c r="C38" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>S(53/12)</v>
       </c>
       <c r="D38" s="6">
         <v>1</v>
       </c>
       <c r="E38" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1_12</v>
       </c>
       <c r="F38" s="6" t="s">
@@ -2917,17 +3065,21 @@
         <v>2</v>
       </c>
       <c r="N38" s="4">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="AY38" s="4">
-        <v>1</v>
-      </c>
-      <c r="BE38" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:57" s="17" customFormat="1" x14ac:dyDescent="0.35">
+        <f>SUM(P38:BI38)</f>
+        <v>2</v>
+      </c>
+      <c r="O38" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AZ38" s="4">
+        <v>1</v>
+      </c>
+      <c r="BF38" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:58" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="15">
         <v>44727</v>
       </c>
@@ -2935,14 +3087,14 @@
         <v>44741</v>
       </c>
       <c r="C39" s="16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F(54/13)</v>
       </c>
       <c r="D39" s="16">
         <v>1</v>
       </c>
       <c r="E39" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1_13</v>
       </c>
       <c r="F39" s="16" t="s">
@@ -2964,12 +3116,8 @@
       <c r="M39" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="N39" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>44727</v>
       </c>
@@ -2977,14 +3125,14 @@
         <v>44741</v>
       </c>
       <c r="C40" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>W(55/14)</v>
       </c>
       <c r="D40" s="6">
         <v>1</v>
       </c>
       <c r="E40" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1_14</v>
       </c>
       <c r="F40" s="6" t="s">
@@ -3011,8 +3159,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="O40" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
         <v>44727</v>
       </c>
@@ -3020,14 +3172,14 @@
         <v>44741</v>
       </c>
       <c r="C41" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F(56/15)</v>
       </c>
       <c r="D41" s="6">
         <v>1</v>
       </c>
       <c r="E41" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1_15</v>
       </c>
       <c r="F41" s="6" t="s">
@@ -3054,22 +3206,26 @@
       </c>
       <c r="N41" s="4">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="P41" s="4">
-        <v>1</v>
-      </c>
-      <c r="T41" s="4">
-        <v>1</v>
-      </c>
-      <c r="AE41" s="4">
-        <v>2</v>
-      </c>
-      <c r="AT41" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:57" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="O41" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="4">
+        <v>1</v>
+      </c>
+      <c r="U41" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF41" s="4">
+        <v>2</v>
+      </c>
+      <c r="AU41" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <v>44727</v>
       </c>
@@ -3077,14 +3233,14 @@
         <v>44741</v>
       </c>
       <c r="C42" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>S(57/16)</v>
       </c>
       <c r="D42" s="6">
         <v>1</v>
       </c>
       <c r="E42" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1_16</v>
       </c>
       <c r="F42" s="6" t="s">
@@ -3108,17 +3264,17 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="Y42" s="4">
+      <c r="Z42" s="4">
         <v>3</v>
       </c>
-      <c r="AY42" s="4">
-        <v>1</v>
-      </c>
-      <c r="BD42" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="AZ42" s="4">
+        <v>1</v>
+      </c>
+      <c r="BE42" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
         <v>44727</v>
       </c>
@@ -3126,14 +3282,14 @@
         <v>44741</v>
       </c>
       <c r="C43" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F(58/17)</v>
       </c>
       <c r="D43" s="6">
         <v>1</v>
       </c>
       <c r="E43" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1_17</v>
       </c>
       <c r="F43" s="6" t="s">
@@ -3157,14 +3313,14 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="AE43" s="4">
-        <v>1</v>
-      </c>
-      <c r="BE43" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="AF43" s="4">
+        <v>1</v>
+      </c>
+      <c r="BF43" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <v>44727</v>
       </c>
@@ -3172,14 +3328,14 @@
         <v>44741</v>
       </c>
       <c r="C44" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>W(59/18)</v>
       </c>
       <c r="D44" s="6">
         <v>1</v>
       </c>
       <c r="E44" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1_18</v>
       </c>
       <c r="F44" s="6" t="s">
@@ -3206,20 +3362,24 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="Y44" s="4">
-        <v>1</v>
-      </c>
-      <c r="AK44" s="4">
-        <v>1</v>
-      </c>
-      <c r="AO44" s="4">
-        <v>1</v>
-      </c>
-      <c r="BE44" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="O44" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z44" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL44" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP44" s="4">
+        <v>1</v>
+      </c>
+      <c r="BF44" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
         <v>44727</v>
       </c>
@@ -3227,14 +3387,14 @@
         <v>44741</v>
       </c>
       <c r="C45" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F(60/19)</v>
       </c>
       <c r="D45" s="6">
         <v>1</v>
       </c>
       <c r="E45" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1_19</v>
       </c>
       <c r="F45" s="6" t="s">
@@ -3263,8 +3423,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="O45" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
         <v>44727</v>
       </c>
@@ -3272,14 +3436,14 @@
         <v>44741</v>
       </c>
       <c r="C46" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>S(61/20)</v>
       </c>
       <c r="D46" s="6">
         <v>1</v>
       </c>
       <c r="E46" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1_20</v>
       </c>
       <c r="F46" s="6" t="s">
@@ -3308,11 +3472,15 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="BE46" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:57" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="O46" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BF46" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:58" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="15">
         <v>44727</v>
       </c>
@@ -3320,14 +3488,14 @@
         <v>44741</v>
       </c>
       <c r="C47" s="16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F(62/21)</v>
       </c>
       <c r="D47" s="16">
         <v>1</v>
       </c>
       <c r="E47" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1_21</v>
       </c>
       <c r="F47" s="16" t="s">
@@ -3346,12 +3514,8 @@
       <c r="K47" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="N47" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
         <v>44727</v>
       </c>
@@ -3359,14 +3523,14 @@
         <v>44741</v>
       </c>
       <c r="C48" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>W(63/22)</v>
       </c>
       <c r="D48" s="6">
         <v>1</v>
       </c>
       <c r="E48" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1_22</v>
       </c>
       <c r="F48" s="6" t="s">
@@ -3393,8 +3557,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="O48" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
         <v>44727</v>
       </c>
@@ -3402,14 +3570,14 @@
         <v>44741</v>
       </c>
       <c r="C49" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F(64/23)</v>
       </c>
       <c r="D49" s="6">
         <v>1</v>
       </c>
       <c r="E49" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1_23</v>
       </c>
       <c r="F49" s="6" t="s">
@@ -3438,14 +3606,18 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="AC49" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM49" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="O49" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD49" s="4">
+        <v>1</v>
+      </c>
+      <c r="AN49" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
         <v>44741</v>
       </c>
@@ -3453,14 +3625,14 @@
         <v>44755</v>
       </c>
       <c r="C50" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F(41/0)</v>
       </c>
       <c r="D50" s="6">
         <v>2</v>
       </c>
       <c r="E50" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2_0</v>
       </c>
       <c r="F50" s="6" t="s">
@@ -3484,14 +3656,14 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="Z50" s="4">
-        <v>1</v>
-      </c>
-      <c r="AQ50" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="AA50" s="4">
+        <v>1</v>
+      </c>
+      <c r="AR50" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A51" s="5">
         <v>44741</v>
       </c>
@@ -3499,14 +3671,14 @@
         <v>44755</v>
       </c>
       <c r="C51" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>S(42/1)</v>
       </c>
       <c r="D51" s="6">
         <v>2</v>
       </c>
       <c r="E51" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2_1</v>
       </c>
       <c r="F51" s="6" t="s">
@@ -3530,11 +3702,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AO51" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="AP51" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
         <v>44741</v>
       </c>
@@ -3542,14 +3714,14 @@
         <v>44755</v>
       </c>
       <c r="C52" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>W(43/2)</v>
       </c>
       <c r="D52" s="6">
         <v>2</v>
       </c>
       <c r="E52" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2_2</v>
       </c>
       <c r="F52" s="6" t="s">
@@ -3573,11 +3745,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AU52" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="AV52" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A53" s="5">
         <v>44741</v>
       </c>
@@ -3585,14 +3757,14 @@
         <v>44755</v>
       </c>
       <c r="C53" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F(44/3)</v>
       </c>
       <c r="D53" s="6">
         <v>2</v>
       </c>
       <c r="E53" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2_3</v>
       </c>
       <c r="F53" s="6" t="s">
@@ -3616,17 +3788,17 @@
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="V53" s="4">
+      <c r="W53" s="4">
         <v>4</v>
       </c>
-      <c r="AT53" s="4">
-        <v>2</v>
-      </c>
       <c r="AU53" s="4">
+        <v>2</v>
+      </c>
+      <c r="AV53" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
         <v>44741</v>
       </c>
@@ -3634,14 +3806,14 @@
         <v>44755</v>
       </c>
       <c r="C54" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F(45/4)</v>
       </c>
       <c r="D54" s="6">
         <v>2</v>
       </c>
       <c r="E54" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2_4</v>
       </c>
       <c r="F54" s="6" t="s">
@@ -3668,17 +3840,21 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AQ54" s="4">
-        <v>1</v>
-      </c>
-      <c r="AV54" s="4">
-        <v>1</v>
-      </c>
-      <c r="BE54" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="O54" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AR54" s="4">
+        <v>1</v>
+      </c>
+      <c r="AW54" s="4">
+        <v>1</v>
+      </c>
+      <c r="BF54" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
         <v>44741</v>
       </c>
@@ -3686,14 +3862,14 @@
         <v>44755</v>
       </c>
       <c r="C55" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>S(46/5)</v>
       </c>
       <c r="D55" s="6">
         <v>2</v>
       </c>
       <c r="E55" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2_5</v>
       </c>
       <c r="F55" s="6" t="s">
@@ -3717,17 +3893,17 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="AQ55" s="4">
-        <v>1</v>
-      </c>
-      <c r="AU55" s="4">
-        <v>1</v>
-      </c>
-      <c r="AX55" s="4">
+      <c r="AR55" s="4">
+        <v>1</v>
+      </c>
+      <c r="AV55" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY55" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A56" s="5">
         <v>44741</v>
       </c>
@@ -3735,14 +3911,14 @@
         <v>44755</v>
       </c>
       <c r="C56" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>W(47/6)</v>
       </c>
       <c r="D56" s="6">
         <v>2</v>
       </c>
       <c r="E56" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2_6</v>
       </c>
       <c r="F56" s="6" t="s">
@@ -3767,17 +3943,17 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="AK56" s="4">
-        <v>2</v>
-      </c>
-      <c r="AO56" s="4">
-        <v>1</v>
-      </c>
-      <c r="AX56" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="AL56" s="4">
+        <v>2</v>
+      </c>
+      <c r="AP56" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY56" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
         <v>44741</v>
       </c>
@@ -3785,14 +3961,14 @@
         <v>44755</v>
       </c>
       <c r="C57" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F(48/7)</v>
       </c>
       <c r="D57" s="6">
         <v>2</v>
       </c>
       <c r="E57" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2_7</v>
       </c>
       <c r="F57" s="6" t="s">
@@ -3817,7 +3993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A58" s="5">
         <v>44741</v>
       </c>
@@ -3825,14 +4001,14 @@
         <v>44755</v>
       </c>
       <c r="C58" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>S(49/8)</v>
       </c>
       <c r="D58" s="6">
         <v>2</v>
       </c>
       <c r="E58" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2_8</v>
       </c>
       <c r="F58" s="6" t="s">
@@ -3854,22 +4030,22 @@
       </c>
       <c r="N58" s="4">
         <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="S58" s="4">
-        <v>2</v>
-      </c>
-      <c r="W58" s="4">
+        <v>22</v>
+      </c>
+      <c r="T58" s="4">
+        <v>2</v>
+      </c>
+      <c r="X58" s="4">
         <v>7</v>
       </c>
-      <c r="AO58" s="4">
-        <v>1</v>
-      </c>
-      <c r="AX58" s="4">
+      <c r="AP58" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY58" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A59" s="5">
         <v>44741</v>
       </c>
@@ -3877,14 +4053,14 @@
         <v>44755</v>
       </c>
       <c r="C59" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F(50/9)</v>
       </c>
       <c r="D59" s="6">
         <v>2</v>
       </c>
       <c r="E59" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2_9</v>
       </c>
       <c r="F59" s="6" t="s">
@@ -3908,11 +4084,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AC59" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="AD59" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A60" s="5">
         <v>44741</v>
       </c>
@@ -3920,14 +4096,14 @@
         <v>44755</v>
       </c>
       <c r="C60" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>W(51/10)</v>
       </c>
       <c r="D60" s="6">
         <v>2</v>
       </c>
       <c r="E60" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2_10</v>
       </c>
       <c r="F60" s="6" t="s">
@@ -3951,29 +4127,29 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="W60" s="4">
+      <c r="X60" s="4">
         <v>4</v>
       </c>
-      <c r="Y60" s="4">
-        <v>2</v>
-      </c>
-      <c r="AD60" s="4">
-        <v>1</v>
-      </c>
-      <c r="AO60" s="4">
-        <v>2</v>
-      </c>
-      <c r="AT60" s="4">
+      <c r="Z60" s="4">
+        <v>2</v>
+      </c>
+      <c r="AE60" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP60" s="4">
+        <v>2</v>
+      </c>
+      <c r="AU60" s="4">
         <v>3</v>
       </c>
-      <c r="AU60" s="4">
-        <v>1</v>
-      </c>
-      <c r="AY60" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="AV60" s="4">
+        <v>1</v>
+      </c>
+      <c r="AZ60" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A61" s="5">
         <v>44741</v>
       </c>
@@ -3981,14 +4157,14 @@
         <v>44755</v>
       </c>
       <c r="C61" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F(52/11)</v>
       </c>
       <c r="D61" s="6">
         <v>2</v>
       </c>
       <c r="E61" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2_11</v>
       </c>
       <c r="F61" s="6" t="s">
@@ -4012,32 +4188,32 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="T61" s="4">
-        <v>1</v>
-      </c>
-      <c r="W61" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB61" s="4">
-        <v>2</v>
+      <c r="U61" s="4">
+        <v>1</v>
+      </c>
+      <c r="X61" s="4">
+        <v>1</v>
       </c>
       <c r="AC61" s="4">
-        <v>1</v>
-      </c>
-      <c r="AT61" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD61" s="4">
         <v>1</v>
       </c>
       <c r="AU61" s="4">
         <v>1</v>
       </c>
-      <c r="BA61" s="4">
-        <v>1</v>
-      </c>
-      <c r="BE61" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="AV61" s="4">
+        <v>1</v>
+      </c>
+      <c r="BB61" s="4">
+        <v>1</v>
+      </c>
+      <c r="BF61" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A62" s="5">
         <v>44741</v>
       </c>
@@ -4045,14 +4221,14 @@
         <v>44755</v>
       </c>
       <c r="C62" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>S(53/12)</v>
       </c>
       <c r="D62" s="6">
         <v>2</v>
       </c>
       <c r="E62" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2_12</v>
       </c>
       <c r="F62" s="6" t="s">
@@ -4076,14 +4252,14 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AO62" s="4">
-        <v>2</v>
-      </c>
-      <c r="AY62" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="AP62" s="4">
+        <v>2</v>
+      </c>
+      <c r="AZ62" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A63" s="5">
         <v>44741</v>
       </c>
@@ -4091,14 +4267,14 @@
         <v>44755</v>
       </c>
       <c r="C63" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F(54/13)</v>
       </c>
       <c r="D63" s="6">
         <v>2</v>
       </c>
       <c r="E63" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2_13</v>
       </c>
       <c r="F63" s="6" t="s">
@@ -4122,14 +4298,14 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="AU63" s="4">
-        <v>1</v>
-      </c>
       <c r="AV63" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="AW63" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A64" s="5">
         <v>44741</v>
       </c>
@@ -4137,14 +4313,14 @@
         <v>44755</v>
       </c>
       <c r="C64" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>W(55/14)</v>
       </c>
       <c r="D64" s="6">
         <v>2</v>
       </c>
       <c r="E64" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2_14</v>
       </c>
       <c r="F64" s="6" t="s">
@@ -4168,14 +4344,14 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="AT64" s="4">
-        <v>1</v>
-      </c>
-      <c r="AY64" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="AU64" s="4">
+        <v>1</v>
+      </c>
+      <c r="AZ64" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
         <v>44741</v>
       </c>
@@ -4183,14 +4359,14 @@
         <v>44755</v>
       </c>
       <c r="C65" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F(56/15)</v>
       </c>
       <c r="D65" s="6">
         <v>2</v>
       </c>
       <c r="E65" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2_15</v>
       </c>
       <c r="F65" s="6" t="s">
@@ -4214,23 +4390,23 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="T65" s="4">
-        <v>1</v>
-      </c>
-      <c r="V65" s="4">
-        <v>1</v>
-      </c>
-      <c r="AO65" s="4">
-        <v>1</v>
-      </c>
-      <c r="AT65" s="4">
+      <c r="U65" s="4">
+        <v>1</v>
+      </c>
+      <c r="W65" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP65" s="4">
+        <v>1</v>
+      </c>
+      <c r="AU65" s="4">
         <v>3</v>
       </c>
-      <c r="BE65" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="BF65" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A66" s="5">
         <v>44741</v>
       </c>
@@ -4238,14 +4414,14 @@
         <v>44755</v>
       </c>
       <c r="C66" s="9" t="str">
-        <f t="shared" ref="C66:C97" si="5">_xlfn.CONCAT(F66, "(", G66, "/", H66, ")")</f>
+        <f t="shared" ref="C66:C97" si="6">_xlfn.CONCAT(F66, "(", G66, "/", H66, ")")</f>
         <v>S(57/16)</v>
       </c>
       <c r="D66" s="6">
         <v>2</v>
       </c>
       <c r="E66" s="4" t="str">
-        <f t="shared" ref="E66:E97" si="6">_xlfn.CONCAT(D66,"_",H66)</f>
+        <f t="shared" ref="E66:E97" si="7">_xlfn.CONCAT(D66,"_",H66)</f>
         <v>2_16</v>
       </c>
       <c r="F66" s="6" t="s">
@@ -4269,20 +4445,20 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="W66" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y66" s="4">
-        <v>1</v>
-      </c>
-      <c r="AO66" s="4">
+      <c r="X66" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z66" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP66" s="4">
         <v>3</v>
       </c>
-      <c r="AY66" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="AZ66" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A67" s="5">
         <v>44741</v>
       </c>
@@ -4290,14 +4466,14 @@
         <v>44755</v>
       </c>
       <c r="C67" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>F(58/17)</v>
       </c>
       <c r="D67" s="6">
         <v>2</v>
       </c>
       <c r="E67" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2_17</v>
       </c>
       <c r="F67" s="6" t="s">
@@ -4318,14 +4494,14 @@
         <v>60</v>
       </c>
       <c r="N67" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AV67" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:57" x14ac:dyDescent="0.35">
+        <f t="shared" ref="N67:N130" si="8">SUM(P67:BI67)</f>
+        <v>1</v>
+      </c>
+      <c r="AW67" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A68" s="5">
         <v>44741</v>
       </c>
@@ -4333,14 +4509,14 @@
         <v>44755</v>
       </c>
       <c r="C68" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>W(59/18)</v>
       </c>
       <c r="D68" s="6">
         <v>2</v>
       </c>
       <c r="E68" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2_18</v>
       </c>
       <c r="F68" s="6" t="s">
@@ -4361,17 +4537,17 @@
         <v>60</v>
       </c>
       <c r="N68" s="4">
-        <f t="shared" ref="N68:N131" si="7">SUM(T68:BH68)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="AO68" s="4">
-        <v>2</v>
-      </c>
-      <c r="BE68" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="AP68" s="4">
+        <v>2</v>
+      </c>
+      <c r="BF68" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A69" s="5">
         <v>44741</v>
       </c>
@@ -4379,14 +4555,14 @@
         <v>44755</v>
       </c>
       <c r="C69" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>F(60/19)</v>
       </c>
       <c r="D69" s="6">
         <v>2</v>
       </c>
       <c r="E69" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2_19</v>
       </c>
       <c r="F69" s="6" t="s">
@@ -4407,14 +4583,14 @@
         <v>60</v>
       </c>
       <c r="N69" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AO69" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:57" x14ac:dyDescent="0.35">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AP69" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A70" s="5">
         <v>44741</v>
       </c>
@@ -4422,14 +4598,14 @@
         <v>44755</v>
       </c>
       <c r="C70" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>S(61/20)</v>
       </c>
       <c r="D70" s="6">
         <v>2</v>
       </c>
       <c r="E70" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2_20</v>
       </c>
       <c r="F70" s="6" t="s">
@@ -4453,11 +4629,15 @@
         <v>0</v>
       </c>
       <c r="N70" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:57" x14ac:dyDescent="0.35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O70" s="4">
+        <f t="shared" ref="O70:O130" si="9">M70-N70</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
         <v>44741</v>
       </c>
@@ -4465,14 +4645,14 @@
         <v>44755</v>
       </c>
       <c r="C71" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>F(62/21)</v>
       </c>
       <c r="D71" s="6">
         <v>2</v>
       </c>
       <c r="E71" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2_21</v>
       </c>
       <c r="F71" s="6" t="s">
@@ -4493,23 +4673,23 @@
         <v>60</v>
       </c>
       <c r="N71" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="Y71" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB71" s="4">
-        <v>1</v>
-      </c>
-      <c r="AO71" s="4">
-        <v>1</v>
-      </c>
-      <c r="AV71" s="4">
+      <c r="Z71" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC71" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP71" s="4">
+        <v>1</v>
+      </c>
+      <c r="AW71" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A72" s="5">
         <v>44741</v>
       </c>
@@ -4517,14 +4697,14 @@
         <v>44755</v>
       </c>
       <c r="C72" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>W(63/22)</v>
       </c>
       <c r="D72" s="6">
         <v>2</v>
       </c>
       <c r="E72" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2_22</v>
       </c>
       <c r="F72" s="6" t="s">
@@ -4545,17 +4725,17 @@
         <v>60</v>
       </c>
       <c r="N72" s="4">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="Y72" s="4">
-        <v>1</v>
-      </c>
-      <c r="AY72" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:57" x14ac:dyDescent="0.35">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="Z72" s="4">
+        <v>1</v>
+      </c>
+      <c r="AZ72" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A73" s="5">
         <v>44741</v>
       </c>
@@ -4563,14 +4743,14 @@
         <v>44755</v>
       </c>
       <c r="C73" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>F(64/23)</v>
       </c>
       <c r="D73" s="6">
         <v>2</v>
       </c>
       <c r="E73" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2_23</v>
       </c>
       <c r="F73" s="6" t="s">
@@ -4593,20 +4773,20 @@
         <v>60</v>
       </c>
       <c r="N73" s="4">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="Y73" s="4">
-        <v>2</v>
-      </c>
-      <c r="AM73" s="4">
-        <v>1</v>
-      </c>
-      <c r="BE73" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:57" x14ac:dyDescent="0.35">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="Z73" s="4">
+        <v>2</v>
+      </c>
+      <c r="AN73" s="4">
+        <v>1</v>
+      </c>
+      <c r="BF73" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A74" s="5">
         <v>44755</v>
       </c>
@@ -4614,14 +4794,14 @@
         <v>44769</v>
       </c>
       <c r="C74" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>F(41/0)</v>
       </c>
       <c r="D74" s="6">
         <v>3</v>
       </c>
       <c r="E74" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3_0</v>
       </c>
       <c r="F74" s="6" t="s">
@@ -4642,23 +4822,23 @@
         <v>60</v>
       </c>
       <c r="N74" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="V74" s="4">
-        <v>1</v>
-      </c>
       <c r="W74" s="4">
         <v>1</v>
       </c>
-      <c r="AC74" s="4">
-        <v>1</v>
-      </c>
-      <c r="AY74" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="X74" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD74" s="4">
+        <v>1</v>
+      </c>
+      <c r="AZ74" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A75" s="5">
         <v>44755</v>
       </c>
@@ -4666,14 +4846,14 @@
         <v>44769</v>
       </c>
       <c r="C75" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>S(42/1)</v>
       </c>
       <c r="D75" s="6">
         <v>3</v>
       </c>
       <c r="E75" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3_1</v>
       </c>
       <c r="F75" s="6" t="s">
@@ -4694,17 +4874,17 @@
         <v>60</v>
       </c>
       <c r="N75" s="4">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AO75" s="4">
-        <v>1</v>
-      </c>
-      <c r="AT75" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:57" x14ac:dyDescent="0.35">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="AP75" s="4">
+        <v>1</v>
+      </c>
+      <c r="AU75" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A76" s="5">
         <v>44755</v>
       </c>
@@ -4712,14 +4892,14 @@
         <v>44769</v>
       </c>
       <c r="C76" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>W(43/2)</v>
       </c>
       <c r="D76" s="6">
         <v>3</v>
       </c>
       <c r="E76" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3_2</v>
       </c>
       <c r="F76" s="6" t="s">
@@ -4740,66 +4920,78 @@
         <v>60</v>
       </c>
       <c r="N76" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="AT76" s="4">
-        <v>1</v>
-      </c>
       <c r="AU76" s="4">
+        <v>1</v>
+      </c>
+      <c r="AV76" s="4">
         <v>3</v>
       </c>
-      <c r="AY76" s="4">
-        <v>1</v>
-      </c>
-      <c r="BE76" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:57" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AZ76" s="4">
+        <v>1</v>
+      </c>
+      <c r="BF76" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A77" s="5">
         <v>44755</v>
       </c>
-      <c r="B77" s="11">
+      <c r="B77" s="5">
         <v>44769</v>
       </c>
-      <c r="C77" s="12" t="str">
-        <f t="shared" si="5"/>
+      <c r="C77" s="6" t="str">
+        <f t="shared" si="6"/>
         <v>F(44/3)</v>
       </c>
-      <c r="D77" s="12">
+      <c r="D77" s="6">
         <v>3</v>
       </c>
-      <c r="E77" s="13" t="str">
-        <f t="shared" si="6"/>
+      <c r="E77" s="4" t="str">
+        <f t="shared" si="7"/>
         <v>3_3</v>
       </c>
-      <c r="F77" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G77" s="12">
+      <c r="F77" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G77" s="6">
         <v>44</v>
       </c>
-      <c r="H77" s="12">
+      <c r="H77" s="6">
         <v>3</v>
       </c>
-      <c r="I77" s="12">
-        <v>0</v>
-      </c>
-      <c r="J77" s="12"/>
-      <c r="K77" s="12"/>
+      <c r="I77" s="6">
+        <v>0</v>
+      </c>
+      <c r="J77" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="K77" s="6"/>
+      <c r="L77" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M77" s="4">
+        <v>3</v>
+      </c>
       <c r="N77" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="V77" s="13">
-        <v>2</v>
-      </c>
-      <c r="AV77" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="O77" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W77" s="4">
+        <v>2</v>
+      </c>
+      <c r="AW77" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A78" s="5">
         <v>44755</v>
       </c>
@@ -4807,14 +4999,14 @@
         <v>44769</v>
       </c>
       <c r="C78" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>F(45/4)</v>
       </c>
       <c r="D78" s="6">
         <v>3</v>
       </c>
       <c r="E78" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3_4</v>
       </c>
       <c r="F78" s="6" t="s">
@@ -4835,60 +5027,65 @@
         <v>60</v>
       </c>
       <c r="N78" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AQ78" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:57" s="13" customFormat="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AR78" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A79" s="5">
         <v>44755</v>
       </c>
-      <c r="B79" s="11">
+      <c r="B79" s="5">
         <v>44769</v>
       </c>
-      <c r="C79" s="12" t="str">
-        <f t="shared" si="5"/>
+      <c r="C79" s="6" t="str">
+        <f t="shared" si="6"/>
         <v>S(46/5)</v>
       </c>
-      <c r="D79" s="12">
+      <c r="D79" s="6">
         <v>3</v>
       </c>
-      <c r="E79" s="13" t="str">
-        <f t="shared" si="6"/>
+      <c r="E79" s="4" t="str">
+        <f t="shared" si="7"/>
         <v>3_5</v>
       </c>
-      <c r="F79" s="12" t="s">
+      <c r="F79" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G79" s="12">
+      <c r="G79" s="6">
         <v>46</v>
       </c>
-      <c r="H79" s="12">
-        <v>5</v>
-      </c>
-      <c r="I79" s="12">
-        <v>0</v>
-      </c>
-      <c r="J79" s="12"/>
-      <c r="K79" s="12"/>
+      <c r="H79" s="6">
+        <v>5</v>
+      </c>
+      <c r="I79" s="6">
+        <v>0</v>
+      </c>
+      <c r="J79" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="K79" s="6"/>
+      <c r="L79" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="N79" s="4">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="AO79" s="13">
-        <v>2</v>
-      </c>
-      <c r="AQ79" s="13">
-        <v>2</v>
-      </c>
-      <c r="AX79" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:57" x14ac:dyDescent="0.35">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="AP79" s="4">
+        <v>2</v>
+      </c>
+      <c r="AR79" s="4">
+        <v>2</v>
+      </c>
+      <c r="AY79" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A80" s="5">
         <v>44755</v>
       </c>
@@ -4896,14 +5093,14 @@
         <v>44769</v>
       </c>
       <c r="C80" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>W(47/6)</v>
       </c>
       <c r="D80" s="6">
         <v>3</v>
       </c>
       <c r="E80" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3_6</v>
       </c>
       <c r="F80" s="6" t="s">
@@ -4924,17 +5121,17 @@
         <v>60</v>
       </c>
       <c r="N80" s="4">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="AO80" s="4">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="AP80" s="4">
         <v>3</v>
       </c>
-      <c r="AU80" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="AV80" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A81" s="5">
         <v>44755</v>
       </c>
@@ -4942,14 +5139,14 @@
         <v>44769</v>
       </c>
       <c r="C81" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>F(48/7)</v>
       </c>
       <c r="D81" s="6">
         <v>3</v>
       </c>
       <c r="E81" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3_7</v>
       </c>
       <c r="F81" s="6" t="s">
@@ -4970,20 +5167,20 @@
         <v>60</v>
       </c>
       <c r="N81" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="V81" s="4">
-        <v>2</v>
-      </c>
-      <c r="AH81" s="4">
-        <v>1</v>
-      </c>
-      <c r="BD81" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="W81" s="4">
+        <v>2</v>
+      </c>
+      <c r="AI81" s="4">
+        <v>1</v>
+      </c>
+      <c r="BE81" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A82" s="5">
         <v>44755</v>
       </c>
@@ -4991,14 +5188,14 @@
         <v>44769</v>
       </c>
       <c r="C82" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>S(49/8)</v>
       </c>
       <c r="D82" s="6">
         <v>3</v>
       </c>
       <c r="E82" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3_8</v>
       </c>
       <c r="F82" s="6" t="s">
@@ -5019,20 +5216,20 @@
         <v>60</v>
       </c>
       <c r="N82" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="Y82" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB82" s="4">
-        <v>1</v>
-      </c>
-      <c r="AX82" s="4">
+      <c r="Z82" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC82" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY82" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A83" s="5">
         <v>44755</v>
       </c>
@@ -5040,14 +5237,14 @@
         <v>44769</v>
       </c>
       <c r="C83" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>F(50/9)</v>
       </c>
       <c r="D83" s="6">
         <v>3</v>
       </c>
       <c r="E83" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3_9</v>
       </c>
       <c r="F83" s="6" t="s">
@@ -5068,14 +5265,14 @@
         <v>60</v>
       </c>
       <c r="N83" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AT83" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:57" x14ac:dyDescent="0.35">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AU83" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A84" s="5">
         <v>44755</v>
       </c>
@@ -5083,14 +5280,14 @@
         <v>44769</v>
       </c>
       <c r="C84" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>W(51/10)</v>
       </c>
       <c r="D84" s="6">
         <v>3</v>
       </c>
       <c r="E84" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3_10</v>
       </c>
       <c r="F84" s="6" t="s">
@@ -5111,20 +5308,20 @@
         <v>60</v>
       </c>
       <c r="N84" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="Y84" s="4">
+      <c r="Z84" s="4">
         <v>3</v>
       </c>
-      <c r="AT84" s="4">
-        <v>1</v>
-      </c>
-      <c r="BE84" s="4">
+      <c r="AU84" s="4">
+        <v>1</v>
+      </c>
+      <c r="BF84" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A85" s="5">
         <v>44755</v>
       </c>
@@ -5132,14 +5329,14 @@
         <v>44769</v>
       </c>
       <c r="C85" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>F(52/11)</v>
       </c>
       <c r="D85" s="6">
         <v>3</v>
       </c>
       <c r="E85" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3_11</v>
       </c>
       <c r="F85" s="6" t="s">
@@ -5160,11 +5357,11 @@
         <v>60</v>
       </c>
       <c r="N85" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:57" x14ac:dyDescent="0.35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A86" s="5">
         <v>44755</v>
       </c>
@@ -5172,14 +5369,14 @@
         <v>44769</v>
       </c>
       <c r="C86" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>S(53/12)</v>
       </c>
       <c r="D86" s="6">
         <v>3</v>
       </c>
       <c r="E86" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3_12</v>
       </c>
       <c r="F86" s="6" t="s">
@@ -5200,54 +5397,64 @@
         <v>60</v>
       </c>
       <c r="N86" s="4">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="AU86" s="4">
+        <v>1</v>
+      </c>
+      <c r="AV86" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:58" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="21">
+        <v>44755</v>
+      </c>
+      <c r="B87" s="21">
+        <v>44769</v>
+      </c>
+      <c r="C87" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>F(54/13)</v>
+      </c>
+      <c r="D87" s="22">
+        <v>3</v>
+      </c>
+      <c r="E87" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AT86" s="4">
-        <v>1</v>
-      </c>
-      <c r="AU86" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:57" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="5">
-        <v>44755</v>
-      </c>
-      <c r="B87" s="11">
-        <v>44769</v>
-      </c>
-      <c r="C87" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>F(54/13)</v>
-      </c>
-      <c r="D87" s="12">
-        <v>3</v>
-      </c>
-      <c r="E87" s="13" t="str">
-        <f t="shared" si="6"/>
         <v>3_13</v>
       </c>
-      <c r="F87" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G87" s="12">
+      <c r="F87" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G87" s="22">
         <v>54</v>
       </c>
-      <c r="H87" s="12">
+      <c r="H87" s="22">
         <v>13</v>
       </c>
-      <c r="I87" s="12">
-        <v>0</v>
-      </c>
-      <c r="J87" s="12"/>
-      <c r="K87" s="12"/>
-      <c r="N87" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="I87" s="22">
+        <v>0</v>
+      </c>
+      <c r="J87" s="22"/>
+      <c r="K87" s="22"/>
+      <c r="L87" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="M87" s="23">
+        <v>9</v>
+      </c>
+      <c r="N87" s="23">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O87" s="23">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A88" s="5">
         <v>44755</v>
       </c>
@@ -5255,14 +5462,14 @@
         <v>44769</v>
       </c>
       <c r="C88" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>W(55/14)</v>
       </c>
       <c r="D88" s="6">
         <v>3</v>
       </c>
       <c r="E88" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3_14</v>
       </c>
       <c r="F88" s="6" t="s">
@@ -5283,26 +5490,26 @@
         <v>60</v>
       </c>
       <c r="N88" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="V88" s="4">
+      <c r="W88" s="4">
         <v>3</v>
       </c>
-      <c r="Y88" s="4">
-        <v>1</v>
-      </c>
-      <c r="AT88" s="4">
-        <v>2</v>
+      <c r="Z88" s="4">
+        <v>1</v>
       </c>
       <c r="AU88" s="4">
         <v>2</v>
       </c>
       <c r="AV88" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:57" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="AW88" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A89" s="5">
         <v>44755</v>
       </c>
@@ -5310,14 +5517,14 @@
         <v>44769</v>
       </c>
       <c r="C89" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>F(56/15)</v>
       </c>
       <c r="D89" s="6">
         <v>3</v>
       </c>
       <c r="E89" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3_15</v>
       </c>
       <c r="F89" s="6" t="s">
@@ -5338,20 +5545,20 @@
         <v>60</v>
       </c>
       <c r="N89" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="AE89" s="4">
-        <v>1</v>
-      </c>
-      <c r="AT89" s="4">
+      <c r="AF89" s="4">
+        <v>1</v>
+      </c>
+      <c r="AU89" s="4">
         <v>3</v>
       </c>
-      <c r="AU89" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="AV89" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A90" s="5">
         <v>44755</v>
       </c>
@@ -5359,14 +5566,14 @@
         <v>44769</v>
       </c>
       <c r="C90" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>S(57/16)</v>
       </c>
       <c r="D90" s="6">
         <v>3</v>
       </c>
       <c r="E90" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3_16</v>
       </c>
       <c r="F90" s="6" t="s">
@@ -5387,26 +5594,26 @@
         <v>60</v>
       </c>
       <c r="N90" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="AE90" s="4">
-        <v>1</v>
-      </c>
-      <c r="AT90" s="4">
-        <v>2</v>
+      <c r="AF90" s="4">
+        <v>1</v>
       </c>
       <c r="AU90" s="4">
         <v>2</v>
       </c>
       <c r="AV90" s="4">
-        <v>1</v>
-      </c>
-      <c r="BC90" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:57" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="AW90" s="4">
+        <v>1</v>
+      </c>
+      <c r="BD90" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A91" s="5">
         <v>44755</v>
       </c>
@@ -5414,14 +5621,14 @@
         <v>44769</v>
       </c>
       <c r="C91" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>F(58/17)</v>
       </c>
       <c r="D91" s="6">
         <v>3</v>
       </c>
       <c r="E91" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3_17</v>
       </c>
       <c r="F91" s="6" t="s">
@@ -5442,20 +5649,20 @@
         <v>60</v>
       </c>
       <c r="N91" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="Y91" s="4">
+      <c r="Z91" s="4">
         <v>3</v>
       </c>
-      <c r="AO91" s="4">
-        <v>2</v>
-      </c>
-      <c r="AU91" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="AP91" s="4">
+        <v>2</v>
+      </c>
+      <c r="AV91" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A92" s="5">
         <v>44755</v>
       </c>
@@ -5463,14 +5670,14 @@
         <v>44769</v>
       </c>
       <c r="C92" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>W(59/18)</v>
       </c>
       <c r="D92" s="6">
         <v>3</v>
       </c>
       <c r="E92" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3_18</v>
       </c>
       <c r="F92" s="6" t="s">
@@ -5491,23 +5698,23 @@
         <v>60</v>
       </c>
       <c r="N92" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="Y92" s="4">
+      <c r="Z92" s="4">
         <v>3</v>
       </c>
-      <c r="AO92" s="4">
-        <v>1</v>
-      </c>
-      <c r="AU92" s="4">
-        <v>1</v>
-      </c>
-      <c r="BE92" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="AP92" s="4">
+        <v>1</v>
+      </c>
+      <c r="AV92" s="4">
+        <v>1</v>
+      </c>
+      <c r="BF92" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A93" s="5">
         <v>44755</v>
       </c>
@@ -5515,14 +5722,14 @@
         <v>44769</v>
       </c>
       <c r="C93" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>F(60/19)</v>
       </c>
       <c r="D93" s="6">
         <v>3</v>
       </c>
       <c r="E93" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3_19</v>
       </c>
       <c r="F93" s="6" t="s">
@@ -5538,24 +5745,24 @@
         <v>0</v>
       </c>
       <c r="J93" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K93" s="6"/>
       <c r="L93" s="4" t="s">
         <v>60</v>
       </c>
       <c r="N93" s="4">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="V93" s="4">
-        <v>1</v>
-      </c>
-      <c r="AK93" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:57" x14ac:dyDescent="0.35">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="W93" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL93" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A94" s="5">
         <v>44755</v>
       </c>
@@ -5563,14 +5770,14 @@
         <v>44769</v>
       </c>
       <c r="C94" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>S(61/20)</v>
       </c>
       <c r="D94" s="6">
         <v>3</v>
       </c>
       <c r="E94" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3_20</v>
       </c>
       <c r="F94" s="6" t="s">
@@ -5591,17 +5798,17 @@
         <v>60</v>
       </c>
       <c r="N94" s="4">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="V94" s="4">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="W94" s="4">
         <v>4</v>
       </c>
-      <c r="AE94" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="AF94" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A95" s="5">
         <v>44755</v>
       </c>
@@ -5609,14 +5816,14 @@
         <v>44769</v>
       </c>
       <c r="C95" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>F(62/21)</v>
       </c>
       <c r="D95" s="6">
         <v>3</v>
       </c>
       <c r="E95" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3_21</v>
       </c>
       <c r="F95" s="6" t="s">
@@ -5637,29 +5844,29 @@
         <v>60</v>
       </c>
       <c r="N95" s="4">
-        <f t="shared" si="7"/>
-        <v>15</v>
-      </c>
-      <c r="S95" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y95" s="4">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="T95" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z95" s="4">
         <v>3</v>
       </c>
-      <c r="AO95" s="4">
-        <v>1</v>
-      </c>
-      <c r="AV95" s="4">
+      <c r="AP95" s="4">
+        <v>1</v>
+      </c>
+      <c r="AW95" s="4">
         <v>6</v>
       </c>
-      <c r="BD95" s="4">
-        <v>1</v>
-      </c>
       <c r="BE95" s="4">
+        <v>1</v>
+      </c>
+      <c r="BF95" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A96" s="5">
         <v>44755</v>
       </c>
@@ -5667,14 +5874,14 @@
         <v>44769</v>
       </c>
       <c r="C96" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>W(63/22)</v>
       </c>
       <c r="D96" s="6">
         <v>3</v>
       </c>
       <c r="E96" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3_22</v>
       </c>
       <c r="F96" s="6" t="s">
@@ -5695,23 +5902,23 @@
         <v>60</v>
       </c>
       <c r="N96" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
-      <c r="Y96" s="4">
+      <c r="Z96" s="4">
         <v>3</v>
       </c>
-      <c r="AO96" s="4">
+      <c r="AP96" s="4">
         <v>7</v>
       </c>
-      <c r="AU96" s="4">
-        <v>1</v>
-      </c>
-      <c r="BE96" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="AV96" s="4">
+        <v>1</v>
+      </c>
+      <c r="BF96" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A97" s="5">
         <v>44755</v>
       </c>
@@ -5719,14 +5926,14 @@
         <v>44769</v>
       </c>
       <c r="C97" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>F(64/23)</v>
       </c>
       <c r="D97" s="6">
         <v>3</v>
       </c>
       <c r="E97" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3_23</v>
       </c>
       <c r="F97" s="6" t="s">
@@ -5747,17 +5954,17 @@
         <v>60</v>
       </c>
       <c r="N97" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="Y97" s="4">
-        <v>2</v>
-      </c>
-      <c r="BE97" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="Z97" s="4">
+        <v>2</v>
+      </c>
+      <c r="BF97" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A98" s="5">
         <v>44769</v>
       </c>
@@ -5765,14 +5972,14 @@
         <v>44784</v>
       </c>
       <c r="C98" s="9" t="str">
-        <f t="shared" ref="C98:C129" si="8">_xlfn.CONCAT(F98, "(", G98, "/", H98, ")")</f>
+        <f t="shared" ref="C98:C129" si="10">_xlfn.CONCAT(F98, "(", G98, "/", H98, ")")</f>
         <v>F(41/0)</v>
       </c>
       <c r="D98" s="6">
         <v>4</v>
       </c>
       <c r="E98" s="4" t="str">
-        <f t="shared" ref="E98:E129" si="9">_xlfn.CONCAT(D98,"_",H98)</f>
+        <f t="shared" ref="E98:E129" si="11">_xlfn.CONCAT(D98,"_",H98)</f>
         <v>4_0</v>
       </c>
       <c r="F98" s="6" t="s">
@@ -5793,26 +6000,26 @@
         <v>60</v>
       </c>
       <c r="N98" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="AO98" s="4">
-        <v>2</v>
-      </c>
-      <c r="AQ98" s="4">
-        <v>1</v>
-      </c>
-      <c r="AT98" s="4">
-        <v>1</v>
-      </c>
-      <c r="AV98" s="4">
-        <v>2</v>
-      </c>
-      <c r="BE98" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="AP98" s="4">
+        <v>2</v>
+      </c>
+      <c r="AR98" s="4">
+        <v>1</v>
+      </c>
+      <c r="AU98" s="4">
+        <v>1</v>
+      </c>
+      <c r="AW98" s="4">
+        <v>2</v>
+      </c>
+      <c r="BF98" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A99" s="5">
         <v>44769</v>
       </c>
@@ -5820,14 +6027,14 @@
         <v>44784</v>
       </c>
       <c r="C99" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>S(42/1)</v>
       </c>
       <c r="D99" s="6">
         <v>4</v>
       </c>
       <c r="E99" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4_1</v>
       </c>
       <c r="F99" s="6" t="s">
@@ -5848,14 +6055,14 @@
         <v>60</v>
       </c>
       <c r="N99" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AE99" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:57" x14ac:dyDescent="0.35">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AF99" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A100" s="5">
         <v>44769</v>
       </c>
@@ -5863,14 +6070,14 @@
         <v>44784</v>
       </c>
       <c r="C100" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>W(43/2)</v>
       </c>
       <c r="D100" s="6">
         <v>4</v>
       </c>
       <c r="E100" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4_2</v>
       </c>
       <c r="F100" s="6" t="s">
@@ -5891,14 +6098,14 @@
         <v>60</v>
       </c>
       <c r="N100" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="BE100" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:57" x14ac:dyDescent="0.35">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="BF100" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A101" s="5">
         <v>44769</v>
       </c>
@@ -5906,14 +6113,14 @@
         <v>44784</v>
       </c>
       <c r="C101" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>F(44/3)</v>
       </c>
       <c r="D101" s="6">
         <v>4</v>
       </c>
       <c r="E101" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4_3</v>
       </c>
       <c r="F101" s="6" t="s">
@@ -5934,14 +6141,14 @@
         <v>60</v>
       </c>
       <c r="N101" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AY101" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:57" s="13" customFormat="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AZ101" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:58" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="11">
         <v>44769</v>
       </c>
@@ -5949,14 +6156,14 @@
         <v>44784</v>
       </c>
       <c r="C102" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>F(45/4)</v>
       </c>
       <c r="D102" s="12">
         <v>4</v>
       </c>
       <c r="E102" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4_4</v>
       </c>
       <c r="F102" s="12" t="s">
@@ -5971,14 +6178,12 @@
       <c r="I102" s="12">
         <v>0</v>
       </c>
-      <c r="J102" s="12"/>
+      <c r="J102" s="12" t="s">
+        <v>96</v>
+      </c>
       <c r="K102" s="12"/>
-      <c r="N102" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="103" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A103" s="5">
         <v>44769</v>
       </c>
@@ -5986,14 +6191,14 @@
         <v>44784</v>
       </c>
       <c r="C103" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>S(46/5)</v>
       </c>
       <c r="D103" s="6">
         <v>4</v>
       </c>
       <c r="E103" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4_5</v>
       </c>
       <c r="F103" s="6" t="s">
@@ -6014,20 +6219,20 @@
         <v>60</v>
       </c>
       <c r="N103" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="AN103" s="4">
-        <v>1</v>
-      </c>
-      <c r="AX103" s="4">
-        <v>1</v>
-      </c>
-      <c r="BE103" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="AO103" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY103" s="4">
+        <v>1</v>
+      </c>
+      <c r="BF103" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A104" s="5">
         <v>44769</v>
       </c>
@@ -6035,14 +6240,14 @@
         <v>44784</v>
       </c>
       <c r="C104" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>W(47/6)</v>
       </c>
       <c r="D104" s="6">
         <v>4</v>
       </c>
       <c r="E104" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4_6</v>
       </c>
       <c r="F104" s="6" t="s">
@@ -6063,38 +6268,38 @@
         <v>60</v>
       </c>
       <c r="N104" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
-      <c r="V104" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y104" s="4">
-        <v>1</v>
-      </c>
-      <c r="AO104" s="4">
+      <c r="W104" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z104" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP104" s="4">
         <v>3</v>
       </c>
-      <c r="AR104" s="4">
-        <v>1</v>
-      </c>
-      <c r="AT104" s="4">
+      <c r="AS104" s="4">
         <v>1</v>
       </c>
       <c r="AU104" s="4">
         <v>1</v>
       </c>
-      <c r="AX104" s="4">
+      <c r="AV104" s="4">
         <v>1</v>
       </c>
       <c r="AY104" s="4">
-        <v>2</v>
-      </c>
-      <c r="BE104" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:57" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="AZ104" s="4">
+        <v>2</v>
+      </c>
+      <c r="BF104" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A105" s="5">
         <v>44769</v>
       </c>
@@ -6102,14 +6307,14 @@
         <v>44784</v>
       </c>
       <c r="C105" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>F(48/7)</v>
       </c>
       <c r="D105" s="6">
         <v>4</v>
       </c>
       <c r="E105" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4_7</v>
       </c>
       <c r="F105" s="6" t="s">
@@ -6130,20 +6335,20 @@
         <v>60</v>
       </c>
       <c r="N105" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="V105" s="4">
-        <v>1</v>
-      </c>
-      <c r="AE105" s="4">
-        <v>1</v>
-      </c>
-      <c r="AU105" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="W105" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF105" s="4">
+        <v>1</v>
+      </c>
+      <c r="AV105" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A106" s="5">
         <v>44769</v>
       </c>
@@ -6151,14 +6356,14 @@
         <v>44784</v>
       </c>
       <c r="C106" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>S(49/8)</v>
       </c>
       <c r="D106" s="6">
         <v>4</v>
       </c>
       <c r="E106" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4_8</v>
       </c>
       <c r="F106" s="6" t="s">
@@ -6179,38 +6384,38 @@
         <v>60</v>
       </c>
       <c r="N106" s="4">
-        <f t="shared" si="7"/>
-        <v>14</v>
-      </c>
-      <c r="Q106" s="4">
-        <v>1</v>
-      </c>
-      <c r="W106" s="4">
-        <v>1</v>
-      </c>
-      <c r="AF106" s="4">
-        <v>1</v>
-      </c>
-      <c r="AX106" s="4">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="R106" s="4">
+        <v>1</v>
+      </c>
+      <c r="X106" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG106" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY106" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="1:57" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="5">
+    <row r="107" spans="1:58" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="11">
         <v>44769</v>
       </c>
       <c r="B107" s="11">
         <v>44784</v>
       </c>
       <c r="C107" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>F(50/9)</v>
       </c>
       <c r="D107" s="12">
         <v>4</v>
       </c>
       <c r="E107" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4_9</v>
       </c>
       <c r="F107" s="12" t="s">
@@ -6225,117 +6430,129 @@
       <c r="I107" s="12">
         <v>0</v>
       </c>
-      <c r="J107" s="12"/>
+      <c r="J107" s="12" t="s">
+        <v>95</v>
+      </c>
       <c r="K107" s="12"/>
-      <c r="N107" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:57" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="5">
+    </row>
+    <row r="108" spans="1:58" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="21">
         <v>44769</v>
       </c>
-      <c r="B108" s="11">
+      <c r="B108" s="21">
         <v>44784</v>
       </c>
-      <c r="C108" s="12" t="str">
+      <c r="C108" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v>W(51/10)</v>
+      </c>
+      <c r="D108" s="22">
+        <v>4</v>
+      </c>
+      <c r="E108" s="23" t="str">
+        <f t="shared" si="11"/>
+        <v>4_10</v>
+      </c>
+      <c r="F108" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G108" s="22">
+        <v>51</v>
+      </c>
+      <c r="H108" s="22">
+        <v>10</v>
+      </c>
+      <c r="I108" s="22">
+        <v>0</v>
+      </c>
+      <c r="J108" s="22"/>
+      <c r="K108" s="22"/>
+      <c r="L108" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="M108" s="23">
+        <v>3</v>
+      </c>
+      <c r="N108" s="23">
         <f t="shared" si="8"/>
-        <v>W(51/10)</v>
-      </c>
-      <c r="D108" s="12">
-        <v>4</v>
-      </c>
-      <c r="E108" s="13" t="str">
+        <v>0</v>
+      </c>
+      <c r="O108" s="23">
         <f t="shared" si="9"/>
-        <v>4_10</v>
-      </c>
-      <c r="F108" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G108" s="12">
-        <v>51</v>
-      </c>
-      <c r="H108" s="12">
-        <v>10</v>
-      </c>
-      <c r="I108" s="12">
-        <v>0</v>
-      </c>
-      <c r="J108" s="12"/>
-      <c r="K108" s="12"/>
-      <c r="N108" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:57" s="20" customFormat="1" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A109" s="5">
         <v>44769</v>
       </c>
-      <c r="B109" s="18">
+      <c r="B109" s="5">
         <v>44784</v>
       </c>
-      <c r="C109" s="19" t="str">
+      <c r="C109" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>F(52/11)</v>
+      </c>
+      <c r="D109" s="6">
+        <v>4</v>
+      </c>
+      <c r="E109" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>4_11</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G109" s="6">
+        <v>52</v>
+      </c>
+      <c r="H109" s="6">
+        <v>11</v>
+      </c>
+      <c r="I109" s="6">
+        <v>0</v>
+      </c>
+      <c r="J109" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K109" s="6"/>
+      <c r="L109" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M109" s="4">
+        <v>16</v>
+      </c>
+      <c r="N109" s="4">
         <f t="shared" si="8"/>
-        <v>F(52/11)</v>
-      </c>
-      <c r="D109" s="19">
+        <v>16</v>
+      </c>
+      <c r="O109" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T109" s="4">
+        <v>1</v>
+      </c>
+      <c r="X109" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC109" s="4">
         <v>4</v>
       </c>
-      <c r="E109" s="20" t="str">
-        <f t="shared" si="9"/>
-        <v>4_11</v>
-      </c>
-      <c r="F109" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G109" s="19">
-        <v>52</v>
-      </c>
-      <c r="H109" s="19">
-        <v>11</v>
-      </c>
-      <c r="I109" s="19">
-        <v>0</v>
-      </c>
-      <c r="J109" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="K109" s="19"/>
-      <c r="L109" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="M109" s="20">
-        <v>16</v>
-      </c>
-      <c r="N109" s="4">
-        <f t="shared" si="7"/>
-        <v>15</v>
-      </c>
-      <c r="S109" s="20">
-        <v>1</v>
-      </c>
-      <c r="W109" s="20">
-        <v>1</v>
-      </c>
-      <c r="AB109" s="20">
-        <v>4</v>
-      </c>
-      <c r="AO109" s="20">
-        <v>2</v>
-      </c>
-      <c r="AX109" s="20">
-        <v>5</v>
-      </c>
-      <c r="BD109" s="20">
-        <v>1</v>
-      </c>
-      <c r="BE109" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="AP109" s="4">
+        <v>2</v>
+      </c>
+      <c r="AY109" s="4">
+        <v>5</v>
+      </c>
+      <c r="BE109" s="4">
+        <v>1</v>
+      </c>
+      <c r="BF109" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A110" s="5">
         <v>44769</v>
       </c>
@@ -6343,14 +6560,14 @@
         <v>44784</v>
       </c>
       <c r="C110" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>S(53/12)</v>
       </c>
       <c r="D110" s="6">
         <v>4</v>
       </c>
       <c r="E110" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4_12</v>
       </c>
       <c r="F110" s="6" t="s">
@@ -6371,26 +6588,26 @@
         <v>60</v>
       </c>
       <c r="N110" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="Y110" s="4">
+      <c r="Z110" s="4">
         <v>3</v>
       </c>
-      <c r="AO110" s="4">
+      <c r="AP110" s="4">
         <v>3</v>
       </c>
-      <c r="AT110" s="4">
-        <v>1</v>
-      </c>
-      <c r="AY110" s="4">
-        <v>1</v>
-      </c>
-      <c r="BE110" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="AU110" s="4">
+        <v>1</v>
+      </c>
+      <c r="AZ110" s="4">
+        <v>1</v>
+      </c>
+      <c r="BF110" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A111" s="5">
         <v>44769</v>
       </c>
@@ -6398,14 +6615,14 @@
         <v>44784</v>
       </c>
       <c r="C111" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>F(54/13)</v>
       </c>
       <c r="D111" s="6">
         <v>4</v>
       </c>
       <c r="E111" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4_13</v>
       </c>
       <c r="F111" s="6" t="s">
@@ -6426,20 +6643,20 @@
         <v>60</v>
       </c>
       <c r="N111" s="4">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="AC111" s="4">
-        <v>1</v>
-      </c>
-      <c r="AU111" s="4">
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="AD111" s="4">
+        <v>1</v>
       </c>
       <c r="AV111" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="112" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="AW111" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A112" s="5">
         <v>44769</v>
       </c>
@@ -6447,14 +6664,14 @@
         <v>44784</v>
       </c>
       <c r="C112" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>W(55/14)</v>
       </c>
       <c r="D112" s="6">
         <v>4</v>
       </c>
       <c r="E112" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4_14</v>
       </c>
       <c r="F112" s="6" t="s">
@@ -6475,14 +6692,14 @@
         <v>60</v>
       </c>
       <c r="N112" s="4">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="BE112" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:57" x14ac:dyDescent="0.35">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="BF112" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A113" s="5">
         <v>44769</v>
       </c>
@@ -6490,14 +6707,14 @@
         <v>44784</v>
       </c>
       <c r="C113" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>F(56/15)</v>
       </c>
       <c r="D113" s="6">
         <v>4</v>
       </c>
       <c r="E113" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4_15</v>
       </c>
       <c r="F113" s="6" t="s">
@@ -6518,11 +6735,11 @@
         <v>60</v>
       </c>
       <c r="N113" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:57" x14ac:dyDescent="0.35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A114" s="5">
         <v>44769</v>
       </c>
@@ -6530,14 +6747,14 @@
         <v>44784</v>
       </c>
       <c r="C114" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>S(57/16)</v>
       </c>
       <c r="D114" s="6">
         <v>4</v>
       </c>
       <c r="E114" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4_16</v>
       </c>
       <c r="F114" s="6" t="s">
@@ -6558,32 +6775,32 @@
         <v>60</v>
       </c>
       <c r="N114" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
-      <c r="T114" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y114" s="4">
+      <c r="U114" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z114" s="4">
         <v>3</v>
       </c>
-      <c r="AO114" s="4">
-        <v>2</v>
-      </c>
-      <c r="AS114" s="4">
-        <v>1</v>
+      <c r="AP114" s="4">
+        <v>2</v>
       </c>
       <c r="AT114" s="4">
         <v>1</v>
       </c>
-      <c r="AY114" s="4">
-        <v>2</v>
-      </c>
-      <c r="BE114" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="AU114" s="4">
+        <v>1</v>
+      </c>
+      <c r="AZ114" s="4">
+        <v>2</v>
+      </c>
+      <c r="BF114" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A115" s="5">
         <v>44769</v>
       </c>
@@ -6591,14 +6808,14 @@
         <v>44784</v>
       </c>
       <c r="C115" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>F(58/17)</v>
       </c>
       <c r="D115" s="6">
         <v>4</v>
       </c>
       <c r="E115" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4_17</v>
       </c>
       <c r="F115" s="6" t="s">
@@ -6619,17 +6836,17 @@
         <v>60</v>
       </c>
       <c r="N115" s="4">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="V115" s="4">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="W115" s="4">
         <v>4</v>
       </c>
-      <c r="AV115" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="AW115" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A116" s="5">
         <v>44769</v>
       </c>
@@ -6637,14 +6854,14 @@
         <v>44784</v>
       </c>
       <c r="C116" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>W(59/18)</v>
       </c>
       <c r="D116" s="6">
         <v>4</v>
       </c>
       <c r="E116" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4_18</v>
       </c>
       <c r="F116" s="6" t="s">
@@ -6668,14 +6885,18 @@
         <v>1</v>
       </c>
       <c r="N116" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="BA116" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:57" x14ac:dyDescent="0.35">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O116" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BB116" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A117" s="5">
         <v>44769</v>
       </c>
@@ -6683,14 +6904,14 @@
         <v>44784</v>
       </c>
       <c r="C117" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>F(60/19)</v>
       </c>
       <c r="D117" s="6">
         <v>4</v>
       </c>
       <c r="E117" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4_19</v>
       </c>
       <c r="F117" s="6" t="s">
@@ -6711,20 +6932,20 @@
         <v>60</v>
       </c>
       <c r="N117" s="4">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="V117" s="4">
-        <v>1</v>
-      </c>
-      <c r="AO117" s="4">
-        <v>1</v>
-      </c>
-      <c r="BE117" s="4">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="W117" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP117" s="4">
+        <v>1</v>
+      </c>
+      <c r="BF117" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A118" s="5">
         <v>44769</v>
       </c>
@@ -6732,14 +6953,14 @@
         <v>44784</v>
       </c>
       <c r="C118" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>S(61/20)</v>
       </c>
       <c r="D118" s="6">
         <v>4</v>
       </c>
       <c r="E118" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4_20</v>
       </c>
       <c r="F118" s="6" t="s">
@@ -6760,23 +6981,23 @@
         <v>60</v>
       </c>
       <c r="N118" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="Y118" s="4">
-        <v>1</v>
-      </c>
-      <c r="AO118" s="4">
-        <v>1</v>
-      </c>
-      <c r="AY118" s="4">
+      <c r="Z118" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP118" s="4">
+        <v>1</v>
+      </c>
+      <c r="AZ118" s="4">
         <v>4</v>
       </c>
-      <c r="BE118" s="4">
+      <c r="BF118" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A119" s="5">
         <v>44769</v>
       </c>
@@ -6784,14 +7005,14 @@
         <v>44784</v>
       </c>
       <c r="C119" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>F(62/21)</v>
       </c>
       <c r="D119" s="6">
         <v>4</v>
       </c>
       <c r="E119" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4_21</v>
       </c>
       <c r="F119" s="6" t="s">
@@ -6812,14 +7033,14 @@
         <v>60</v>
       </c>
       <c r="N119" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="Y119" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:57" x14ac:dyDescent="0.35">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Z119" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A120" s="5">
         <v>44769</v>
       </c>
@@ -6827,14 +7048,14 @@
         <v>44784</v>
       </c>
       <c r="C120" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>W(63/22)</v>
       </c>
       <c r="D120" s="6">
         <v>4</v>
       </c>
       <c r="E120" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4_22</v>
       </c>
       <c r="F120" s="6" t="s">
@@ -6855,26 +7076,26 @@
         <v>60</v>
       </c>
       <c r="N120" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
-      <c r="Y120" s="4">
+      <c r="Z120" s="4">
         <v>3</v>
       </c>
-      <c r="AO120" s="4">
-        <v>5</v>
-      </c>
-      <c r="AU120" s="4">
-        <v>1</v>
-      </c>
-      <c r="AY120" s="4">
-        <v>1</v>
-      </c>
-      <c r="BE120" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="AP120" s="4">
+        <v>5</v>
+      </c>
+      <c r="AV120" s="4">
+        <v>1</v>
+      </c>
+      <c r="AZ120" s="4">
+        <v>1</v>
+      </c>
+      <c r="BF120" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A121" s="5">
         <v>44769</v>
       </c>
@@ -6882,14 +7103,14 @@
         <v>44784</v>
       </c>
       <c r="C121" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>F(64/23)</v>
       </c>
       <c r="D121" s="6">
         <v>4</v>
       </c>
       <c r="E121" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4_23</v>
       </c>
       <c r="F121" s="6" t="s">
@@ -6910,26 +7131,26 @@
         <v>60</v>
       </c>
       <c r="N121" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="V121" s="4">
-        <v>1</v>
-      </c>
-      <c r="X121" s="4">
+      <c r="W121" s="4">
         <v>1</v>
       </c>
       <c r="Y121" s="4">
-        <v>2</v>
-      </c>
-      <c r="AO121" s="4">
-        <v>2</v>
-      </c>
-      <c r="BE121" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z121" s="4">
+        <v>2</v>
+      </c>
+      <c r="AP121" s="4">
+        <v>2</v>
+      </c>
+      <c r="BF121" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A122" s="5">
         <v>44784</v>
       </c>
@@ -6937,14 +7158,14 @@
         <v>44796</v>
       </c>
       <c r="C122" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>F(41/0)</v>
       </c>
       <c r="D122" s="6">
         <v>5</v>
       </c>
       <c r="E122" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5_0</v>
       </c>
       <c r="F122" s="6" t="s">
@@ -6968,14 +7189,18 @@
         <v>2</v>
       </c>
       <c r="N122" s="4">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="BE122" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:57" x14ac:dyDescent="0.35">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="O122" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BF122" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A123" s="5">
         <v>44784</v>
       </c>
@@ -6983,14 +7208,14 @@
         <v>44796</v>
       </c>
       <c r="C123" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>S(42/1)</v>
       </c>
       <c r="D123" s="6">
         <v>5</v>
       </c>
       <c r="E123" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5_1</v>
       </c>
       <c r="F123" s="6" t="s">
@@ -7014,14 +7239,18 @@
         <v>1</v>
       </c>
       <c r="N123" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AU123" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:57" x14ac:dyDescent="0.35">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O123" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AV123" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A124" s="5">
         <v>44784</v>
       </c>
@@ -7029,14 +7258,14 @@
         <v>44796</v>
       </c>
       <c r="C124" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>W(43/2)</v>
       </c>
       <c r="D124" s="6">
         <v>5</v>
       </c>
       <c r="E124" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5_2</v>
       </c>
       <c r="F124" s="6" t="s">
@@ -7057,14 +7286,14 @@
         <v>60</v>
       </c>
       <c r="N124" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AY124" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:57" x14ac:dyDescent="0.35">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AZ124" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A125" s="5">
         <v>44784</v>
       </c>
@@ -7072,14 +7301,14 @@
         <v>44796</v>
       </c>
       <c r="C125" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>F(44/3)</v>
       </c>
       <c r="D125" s="6">
         <v>5</v>
       </c>
       <c r="E125" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5_3</v>
       </c>
       <c r="F125" s="6" t="s">
@@ -7100,17 +7329,17 @@
         <v>60</v>
       </c>
       <c r="N125" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="AO125" s="4">
-        <v>1</v>
-      </c>
-      <c r="AY125" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="AP125" s="4">
+        <v>1</v>
+      </c>
+      <c r="AZ125" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A126" s="5">
         <v>44784</v>
       </c>
@@ -7118,14 +7347,14 @@
         <v>44796</v>
       </c>
       <c r="C126" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>F(45/4)</v>
       </c>
       <c r="D126" s="6">
         <v>5</v>
       </c>
       <c r="E126" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5_4</v>
       </c>
       <c r="F126" s="6" t="s">
@@ -7149,17 +7378,21 @@
         <v>2</v>
       </c>
       <c r="N126" s="4">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AO126" s="4">
-        <v>1</v>
-      </c>
-      <c r="BD126" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:57" x14ac:dyDescent="0.35">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="O126" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AP126" s="4">
+        <v>1</v>
+      </c>
+      <c r="BE126" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A127" s="5">
         <v>44784</v>
       </c>
@@ -7167,14 +7400,14 @@
         <v>44796</v>
       </c>
       <c r="C127" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>S(46/5)</v>
       </c>
       <c r="D127" s="6">
         <v>5</v>
       </c>
       <c r="E127" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5_5</v>
       </c>
       <c r="F127" s="6" t="s">
@@ -7200,23 +7433,27 @@
         <v>4</v>
       </c>
       <c r="N127" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="AQ127" s="4">
-        <v>1</v>
-      </c>
-      <c r="AU127" s="4">
-        <v>1</v>
-      </c>
-      <c r="AX127" s="4">
+      <c r="O127" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AR127" s="4">
+        <v>1</v>
+      </c>
+      <c r="AV127" s="4">
         <v>1</v>
       </c>
       <c r="AY127" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="AZ127" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A128" s="5">
         <v>44784</v>
       </c>
@@ -7224,14 +7461,14 @@
         <v>44796</v>
       </c>
       <c r="C128" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>W(47/6)</v>
       </c>
       <c r="D128" s="6">
         <v>5</v>
       </c>
       <c r="E128" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5_6</v>
       </c>
       <c r="F128" s="6" t="s">
@@ -7255,26 +7492,30 @@
         <v>10</v>
       </c>
       <c r="N128" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="AK128" s="4">
-        <v>1</v>
-      </c>
-      <c r="AO128" s="4">
+      <c r="O128" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AL128" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP128" s="4">
         <v>4</v>
       </c>
-      <c r="AQ128" s="4">
-        <v>1</v>
-      </c>
-      <c r="AU128" s="4">
-        <v>1</v>
-      </c>
-      <c r="BE128" s="4">
+      <c r="AR128" s="4">
+        <v>1</v>
+      </c>
+      <c r="AV128" s="4">
+        <v>1</v>
+      </c>
+      <c r="BF128" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A129" s="5">
         <v>44784</v>
       </c>
@@ -7282,14 +7523,14 @@
         <v>44796</v>
       </c>
       <c r="C129" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>F(48/7)</v>
       </c>
       <c r="D129" s="6">
         <v>5</v>
       </c>
       <c r="E129" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5_7</v>
       </c>
       <c r="F129" s="6" t="s">
@@ -7313,23 +7554,27 @@
         <v>6</v>
       </c>
       <c r="N129" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="V129" s="4">
-        <v>2</v>
-      </c>
-      <c r="AO129" s="4">
-        <v>1</v>
-      </c>
-      <c r="AU129" s="4">
-        <v>2</v>
-      </c>
-      <c r="AY129" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="O129" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W129" s="4">
+        <v>2</v>
+      </c>
+      <c r="AP129" s="4">
+        <v>1</v>
+      </c>
+      <c r="AV129" s="4">
+        <v>2</v>
+      </c>
+      <c r="AZ129" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A130" s="5">
         <v>44784</v>
       </c>
@@ -7337,14 +7582,14 @@
         <v>44796</v>
       </c>
       <c r="C130" s="6" t="str">
-        <f t="shared" ref="C130:C161" si="10">_xlfn.CONCAT(F130, "(", G130, "/", H130, ")")</f>
+        <f t="shared" ref="C130:C161" si="12">_xlfn.CONCAT(F130, "(", G130, "/", H130, ")")</f>
         <v>S(49/8)</v>
       </c>
       <c r="D130" s="6">
         <v>5</v>
       </c>
       <c r="E130" s="4" t="str">
-        <f t="shared" ref="E130:E161" si="11">_xlfn.CONCAT(D130,"_",H130)</f>
+        <f t="shared" ref="E130:E161" si="13">_xlfn.CONCAT(D130,"_",H130)</f>
         <v>5_8</v>
       </c>
       <c r="F130" s="6" t="s">
@@ -7368,17 +7613,21 @@
         <v>11</v>
       </c>
       <c r="N130" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
-      <c r="AO130" s="4">
-        <v>1</v>
-      </c>
-      <c r="AX130" s="4">
+      <c r="O130" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AP130" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY130" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A131" s="5">
         <v>44784</v>
       </c>
@@ -7386,14 +7635,14 @@
         <v>44796</v>
       </c>
       <c r="C131" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>F(50/9)</v>
       </c>
       <c r="D131" s="6">
         <v>5</v>
       </c>
       <c r="E131" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5_9</v>
       </c>
       <c r="F131" s="6" t="s">
@@ -7417,17 +7666,21 @@
         <v>2</v>
       </c>
       <c r="N131" s="4">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AO131" s="4">
-        <v>1</v>
-      </c>
-      <c r="AT131" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:57" x14ac:dyDescent="0.35">
+        <f t="shared" ref="N131:N193" si="14">SUM(P131:BI131)</f>
+        <v>2</v>
+      </c>
+      <c r="O131" s="4">
+        <f t="shared" ref="O131:O191" si="15">M131-N131</f>
+        <v>0</v>
+      </c>
+      <c r="AP131" s="4">
+        <v>1</v>
+      </c>
+      <c r="AU131" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A132" s="5">
         <v>44784</v>
       </c>
@@ -7435,14 +7688,14 @@
         <v>44796</v>
       </c>
       <c r="C132" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>W(51/10)</v>
       </c>
       <c r="D132" s="6">
         <v>5</v>
       </c>
       <c r="E132" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5_10</v>
       </c>
       <c r="F132" s="6" t="s">
@@ -7463,20 +7716,20 @@
         <v>60</v>
       </c>
       <c r="N132" s="4">
-        <f t="shared" ref="N132:N193" si="12">SUM(T132:BH132)</f>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="AO132" s="4">
-        <v>2</v>
-      </c>
-      <c r="AT132" s="4">
-        <v>1</v>
-      </c>
-      <c r="BE132" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="AP132" s="4">
+        <v>2</v>
+      </c>
+      <c r="AU132" s="4">
+        <v>1</v>
+      </c>
+      <c r="BF132" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A133" s="5">
         <v>44784</v>
       </c>
@@ -7484,14 +7737,14 @@
         <v>44796</v>
       </c>
       <c r="C133" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>F(52/11)</v>
       </c>
       <c r="D133" s="6">
         <v>5</v>
       </c>
       <c r="E133" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5_11</v>
       </c>
       <c r="F133" s="6" t="s">
@@ -7515,26 +7768,30 @@
         <v>7</v>
       </c>
       <c r="N133" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
-      <c r="AC133" s="4">
-        <v>1</v>
-      </c>
-      <c r="AK133" s="4">
-        <v>1</v>
-      </c>
-      <c r="AO133" s="4">
-        <v>2</v>
-      </c>
-      <c r="AT133" s="4">
-        <v>2</v>
-      </c>
-      <c r="BE133" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="O133" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AD133" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL133" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP133" s="4">
+        <v>2</v>
+      </c>
+      <c r="AU133" s="4">
+        <v>2</v>
+      </c>
+      <c r="BF133" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A134" s="5">
         <v>44784</v>
       </c>
@@ -7542,14 +7799,14 @@
         <v>44796</v>
       </c>
       <c r="C134" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>S(53/12)</v>
       </c>
       <c r="D134" s="6">
         <v>5</v>
       </c>
       <c r="E134" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5_12</v>
       </c>
       <c r="F134" s="6" t="s">
@@ -7573,23 +7830,27 @@
         <v>4</v>
       </c>
       <c r="N134" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="W134" s="4">
-        <v>1</v>
-      </c>
-      <c r="AO134" s="4">
-        <v>1</v>
-      </c>
-      <c r="AT134" s="4">
-        <v>1</v>
-      </c>
-      <c r="AX134" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="O134" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="X134" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP134" s="4">
+        <v>1</v>
+      </c>
+      <c r="AU134" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY134" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A135" s="5">
         <v>44784</v>
       </c>
@@ -7597,14 +7858,14 @@
         <v>44796</v>
       </c>
       <c r="C135" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>F(54/13)</v>
       </c>
       <c r="D135" s="6">
         <v>5</v>
       </c>
       <c r="E135" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5_13</v>
       </c>
       <c r="F135" s="6" t="s">
@@ -7628,11 +7889,15 @@
         <v>0</v>
       </c>
       <c r="N135" s="4">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:57" x14ac:dyDescent="0.35">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O135" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A136" s="5">
         <v>44784</v>
       </c>
@@ -7640,14 +7905,14 @@
         <v>44796</v>
       </c>
       <c r="C136" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>W(55/14)</v>
       </c>
       <c r="D136" s="6">
         <v>5</v>
       </c>
       <c r="E136" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5_14</v>
       </c>
       <c r="F136" s="6" t="s">
@@ -7671,17 +7936,21 @@
         <v>2</v>
       </c>
       <c r="N136" s="4">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="AT136" s="4">
-        <v>1</v>
-      </c>
-      <c r="BE136" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:57" x14ac:dyDescent="0.35">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="O136" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AU136" s="4">
+        <v>1</v>
+      </c>
+      <c r="BF136" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A137" s="5">
         <v>44784</v>
       </c>
@@ -7689,14 +7958,14 @@
         <v>44796</v>
       </c>
       <c r="C137" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>F(56/15)</v>
       </c>
       <c r="D137" s="6">
         <v>5</v>
       </c>
       <c r="E137" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5_15</v>
       </c>
       <c r="F137" s="6" t="s">
@@ -7720,11 +7989,15 @@
         <v>0</v>
       </c>
       <c r="N137" s="4">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:57" x14ac:dyDescent="0.35">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O137" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A138" s="5">
         <v>44784</v>
       </c>
@@ -7732,14 +8005,14 @@
         <v>44796</v>
       </c>
       <c r="C138" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>S(57/16)</v>
       </c>
       <c r="D138" s="6">
         <v>5</v>
       </c>
       <c r="E138" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5_16</v>
       </c>
       <c r="F138" s="6" t="s">
@@ -7763,14 +8036,18 @@
         <v>1</v>
       </c>
       <c r="N138" s="4">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AK138" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:57" x14ac:dyDescent="0.35">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="O138" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AL138" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A139" s="5">
         <v>44784</v>
       </c>
@@ -7778,14 +8055,14 @@
         <v>44796</v>
       </c>
       <c r="C139" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>F(58/17)</v>
       </c>
       <c r="D139" s="6">
         <v>5</v>
       </c>
       <c r="E139" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5_17</v>
       </c>
       <c r="F139" s="6" t="s">
@@ -7809,20 +8086,24 @@
         <v>3</v>
       </c>
       <c r="N139" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
-      <c r="V139" s="4">
-        <v>1</v>
-      </c>
-      <c r="AK139" s="4">
-        <v>1</v>
-      </c>
-      <c r="AV139" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="O139" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="W139" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL139" s="4">
+        <v>1</v>
+      </c>
+      <c r="AW139" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A140" s="5">
         <v>44784</v>
       </c>
@@ -7830,14 +8111,14 @@
         <v>44796</v>
       </c>
       <c r="C140" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>W(59/18)</v>
       </c>
       <c r="D140" s="6">
         <v>5</v>
       </c>
       <c r="E140" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5_18</v>
       </c>
       <c r="F140" s="6" t="s">
@@ -7861,17 +8142,21 @@
         <v>3</v>
       </c>
       <c r="N140" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
-      <c r="AK140" s="4">
-        <v>1</v>
-      </c>
-      <c r="AO140" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="O140" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AL140" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP140" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A141" s="5">
         <v>44784</v>
       </c>
@@ -7879,14 +8164,14 @@
         <v>44796</v>
       </c>
       <c r="C141" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>F(60/19)</v>
       </c>
       <c r="D141" s="6">
         <v>5</v>
       </c>
       <c r="E141" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5_19</v>
       </c>
       <c r="F141" s="6" t="s">
@@ -7910,17 +8195,21 @@
         <v>3</v>
       </c>
       <c r="N141" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
-      <c r="AU141" s="4">
-        <v>1</v>
-      </c>
-      <c r="BE141" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="O141" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AV141" s="4">
+        <v>1</v>
+      </c>
+      <c r="BF141" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A142" s="5">
         <v>44784</v>
       </c>
@@ -7928,14 +8217,14 @@
         <v>44796</v>
       </c>
       <c r="C142" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>S(61/20)</v>
       </c>
       <c r="D142" s="6">
         <v>5</v>
       </c>
       <c r="E142" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5_20</v>
       </c>
       <c r="F142" s="6" t="s">
@@ -7956,74 +8245,79 @@
         <v>60</v>
       </c>
       <c r="N142" s="4">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="AP142" s="4">
+        <v>1</v>
+      </c>
+      <c r="AZ142" s="4">
+        <v>3</v>
+      </c>
+      <c r="BF142" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A143" s="5">
+        <v>44784</v>
+      </c>
+      <c r="B143" s="5">
+        <v>44796</v>
+      </c>
+      <c r="C143" s="6" t="str">
         <f t="shared" si="12"/>
+        <v>F(62/21)</v>
+      </c>
+      <c r="D143" s="6">
+        <v>5</v>
+      </c>
+      <c r="E143" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>5_21</v>
+      </c>
+      <c r="F143" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G143" s="6">
+        <v>62</v>
+      </c>
+      <c r="H143" s="6">
+        <v>21</v>
+      </c>
+      <c r="I143" s="6">
+        <v>0</v>
+      </c>
+      <c r="J143" s="6"/>
+      <c r="K143" s="6"/>
+      <c r="L143" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M143" s="4">
         <v>8</v>
       </c>
-      <c r="AO142" s="4">
-        <v>1</v>
-      </c>
-      <c r="AY142" s="4">
-        <v>3</v>
-      </c>
-      <c r="BE142" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="143" spans="1:57" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="21">
-        <v>44784</v>
-      </c>
-      <c r="B143" s="21">
-        <v>44796</v>
-      </c>
-      <c r="C143" s="22" t="str">
-        <f t="shared" si="10"/>
-        <v>F(62/21)</v>
-      </c>
-      <c r="D143" s="22">
-        <v>5</v>
-      </c>
-      <c r="E143" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v>5_21</v>
-      </c>
-      <c r="F143" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="G143" s="22">
-        <v>62</v>
-      </c>
-      <c r="H143" s="22">
-        <v>21</v>
-      </c>
-      <c r="I143" s="22">
-        <v>0</v>
-      </c>
-      <c r="J143" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="K143" s="22"/>
-      <c r="M143" s="23">
+      <c r="N143" s="4">
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
-      <c r="N143" s="4">
-        <f t="shared" si="12"/>
-        <v>8</v>
-      </c>
-      <c r="V143" s="23">
-        <v>1</v>
-      </c>
-      <c r="AO143" s="23">
-        <v>5</v>
-      </c>
-      <c r="AY143" s="23">
-        <v>1</v>
-      </c>
-      <c r="BE143" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="O143" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="W143" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP143" s="4">
+        <v>5</v>
+      </c>
+      <c r="AZ143" s="4">
+        <v>1</v>
+      </c>
+      <c r="BF143" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A144" s="5">
         <v>44784</v>
       </c>
@@ -8031,14 +8325,14 @@
         <v>44796</v>
       </c>
       <c r="C144" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>W(63/22)</v>
       </c>
       <c r="D144" s="6">
         <v>5</v>
       </c>
       <c r="E144" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5_22</v>
       </c>
       <c r="F144" s="6" t="s">
@@ -8062,20 +8356,24 @@
         <v>5</v>
       </c>
       <c r="N144" s="4">
-        <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="Y144" s="4">
-        <v>1</v>
-      </c>
-      <c r="AO144" s="4">
-        <v>2</v>
-      </c>
-      <c r="BE144" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:57" x14ac:dyDescent="0.35">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="O144" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Z144" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP144" s="4">
+        <v>2</v>
+      </c>
+      <c r="BF144" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A145" s="5">
         <v>44784</v>
       </c>
@@ -8083,14 +8381,14 @@
         <v>44796</v>
       </c>
       <c r="C145" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>F(64/23)</v>
       </c>
       <c r="D145" s="6">
         <v>5</v>
       </c>
       <c r="E145" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5_23</v>
       </c>
       <c r="F145" s="6" t="s">
@@ -8114,26 +8412,30 @@
         <v>9</v>
       </c>
       <c r="N145" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
-      <c r="Y145" s="4">
-        <v>2</v>
-      </c>
-      <c r="AK145" s="4">
+      <c r="O145" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Z145" s="4">
+        <v>2</v>
+      </c>
+      <c r="AL145" s="4">
         <v>4</v>
       </c>
-      <c r="AO145" s="4">
-        <v>1</v>
-      </c>
-      <c r="AU145" s="4">
-        <v>1</v>
-      </c>
-      <c r="AX145" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="AP145" s="4">
+        <v>1</v>
+      </c>
+      <c r="AV145" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY145" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A146" s="5">
         <v>44796</v>
       </c>
@@ -8141,14 +8443,14 @@
         <v>44810</v>
       </c>
       <c r="C146" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>F(41/0)</v>
       </c>
       <c r="D146" s="6">
         <v>6</v>
       </c>
       <c r="E146" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6_0</v>
       </c>
       <c r="F146" s="6" t="s">
@@ -8172,17 +8474,21 @@
         <v>2</v>
       </c>
       <c r="N146" s="4">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="AV146" s="4">
-        <v>1</v>
-      </c>
-      <c r="AY146" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:57" x14ac:dyDescent="0.35">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="O146" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AW146" s="4">
+        <v>1</v>
+      </c>
+      <c r="AZ146" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A147" s="5">
         <v>44796</v>
       </c>
@@ -8190,14 +8496,14 @@
         <v>44810</v>
       </c>
       <c r="C147" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>S(42/1)</v>
       </c>
       <c r="D147" s="6">
         <v>6</v>
       </c>
       <c r="E147" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6_1</v>
       </c>
       <c r="F147" s="6" t="s">
@@ -8221,11 +8527,15 @@
         <v>0</v>
       </c>
       <c r="N147" s="4">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:57" x14ac:dyDescent="0.35">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O147" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A148" s="5">
         <v>44796</v>
       </c>
@@ -8233,14 +8543,14 @@
         <v>44810</v>
       </c>
       <c r="C148" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>W(43/2)</v>
       </c>
       <c r="D148" s="6">
         <v>6</v>
       </c>
       <c r="E148" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6_2</v>
       </c>
       <c r="F148" s="6" t="s">
@@ -8261,17 +8571,17 @@
         <v>60</v>
       </c>
       <c r="N148" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="AO148" s="4">
-        <v>1</v>
-      </c>
-      <c r="AY148" s="4">
+      <c r="AP148" s="4">
+        <v>1</v>
+      </c>
+      <c r="AZ148" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A149" s="5">
         <v>44796</v>
       </c>
@@ -8279,14 +8589,14 @@
         <v>44810</v>
       </c>
       <c r="C149" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>F(44/3)</v>
       </c>
       <c r="D149" s="6">
         <v>6</v>
       </c>
       <c r="E149" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6_3</v>
       </c>
       <c r="F149" s="6" t="s">
@@ -8307,17 +8617,17 @@
         <v>60</v>
       </c>
       <c r="N149" s="4">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="V149" s="4">
-        <v>1</v>
-      </c>
-      <c r="BE149" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:57" x14ac:dyDescent="0.35">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="W149" s="4">
+        <v>1</v>
+      </c>
+      <c r="BF149" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A150" s="5">
         <v>44796</v>
       </c>
@@ -8325,14 +8635,14 @@
         <v>44810</v>
       </c>
       <c r="C150" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>F(45/4)</v>
       </c>
       <c r="D150" s="6">
         <v>6</v>
       </c>
       <c r="E150" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6_4</v>
       </c>
       <c r="F150" s="6" t="s">
@@ -8356,14 +8666,18 @@
         <v>2</v>
       </c>
       <c r="N150" s="4">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="AK150" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:57" x14ac:dyDescent="0.35">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="O150" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AL150" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A151" s="5">
         <v>44796</v>
       </c>
@@ -8371,14 +8685,14 @@
         <v>44810</v>
       </c>
       <c r="C151" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>S(46/5)</v>
       </c>
       <c r="D151" s="6">
         <v>6</v>
       </c>
       <c r="E151" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6_5</v>
       </c>
       <c r="F151" s="6" t="s">
@@ -8399,35 +8713,35 @@
         <v>60</v>
       </c>
       <c r="N151" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>19</v>
       </c>
-      <c r="AK151" s="4">
-        <v>1</v>
-      </c>
       <c r="AL151" s="4">
         <v>1</v>
       </c>
-      <c r="AO151" s="4">
-        <v>2</v>
-      </c>
-      <c r="AQ151" s="4">
-        <v>1</v>
-      </c>
-      <c r="AX151" s="4">
+      <c r="AM151" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP151" s="4">
+        <v>2</v>
+      </c>
+      <c r="AR151" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY151" s="4">
         <v>7</v>
       </c>
-      <c r="AY151" s="4">
-        <v>2</v>
-      </c>
-      <c r="BC151" s="4">
-        <v>1</v>
-      </c>
-      <c r="BE151" s="4">
+      <c r="AZ151" s="4">
+        <v>2</v>
+      </c>
+      <c r="BD151" s="4">
+        <v>1</v>
+      </c>
+      <c r="BF151" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A152" s="5">
         <v>44796</v>
       </c>
@@ -8435,14 +8749,14 @@
         <v>44810</v>
       </c>
       <c r="C152" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>W(47/6)</v>
       </c>
       <c r="D152" s="6">
         <v>6</v>
       </c>
       <c r="E152" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6_6</v>
       </c>
       <c r="F152" s="6" t="s">
@@ -8466,20 +8780,24 @@
         <v>4</v>
       </c>
       <c r="N152" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="AK152" s="4">
-        <v>2</v>
-      </c>
-      <c r="AM152" s="4">
-        <v>1</v>
-      </c>
-      <c r="AX152" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="O152" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AL152" s="4">
+        <v>2</v>
+      </c>
+      <c r="AN152" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY152" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A153" s="5">
         <v>44796</v>
       </c>
@@ -8487,14 +8805,14 @@
         <v>44810</v>
       </c>
       <c r="C153" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>F(48/7)</v>
       </c>
       <c r="D153" s="6">
         <v>6</v>
       </c>
       <c r="E153" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6_7</v>
       </c>
       <c r="F153" s="6" t="s">
@@ -8515,23 +8833,23 @@
         <v>60</v>
       </c>
       <c r="N153" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
-      <c r="V153" s="4">
+      <c r="W153" s="4">
         <v>4</v>
       </c>
-      <c r="AK153" s="4">
-        <v>1</v>
-      </c>
-      <c r="AT153" s="4">
-        <v>2</v>
-      </c>
-      <c r="AY153" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="AL153" s="4">
+        <v>1</v>
+      </c>
+      <c r="AU153" s="4">
+        <v>2</v>
+      </c>
+      <c r="AZ153" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A154" s="5">
         <v>44796</v>
       </c>
@@ -8539,14 +8857,14 @@
         <v>44810</v>
       </c>
       <c r="C154" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>S(49/8)</v>
       </c>
       <c r="D154" s="6">
         <v>6</v>
       </c>
       <c r="E154" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6_8</v>
       </c>
       <c r="F154" s="6" t="s">
@@ -8570,17 +8888,21 @@
         <v>4</v>
       </c>
       <c r="N154" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="AK154" s="4">
-        <v>1</v>
-      </c>
-      <c r="AX154" s="4">
+      <c r="O154" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AL154" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY154" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A155" s="5">
         <v>44796</v>
       </c>
@@ -8588,14 +8910,14 @@
         <v>44810</v>
       </c>
       <c r="C155" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>F(50/9)</v>
       </c>
       <c r="D155" s="6">
         <v>6</v>
       </c>
       <c r="E155" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6_9</v>
       </c>
       <c r="F155" s="6" t="s">
@@ -8616,14 +8938,14 @@
         <v>60</v>
       </c>
       <c r="N155" s="4">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AQ155" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:57" x14ac:dyDescent="0.35">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AR155" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A156" s="5">
         <v>44796</v>
       </c>
@@ -8631,14 +8953,14 @@
         <v>44810</v>
       </c>
       <c r="C156" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>W(51/10)</v>
       </c>
       <c r="D156" s="6">
         <v>6</v>
       </c>
       <c r="E156" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6_10</v>
       </c>
       <c r="F156" s="6" t="s">
@@ -8662,23 +8984,27 @@
         <v>5</v>
       </c>
       <c r="N156" s="4">
-        <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="AO156" s="4">
-        <v>1</v>
-      </c>
-      <c r="AT156" s="4">
-        <v>1</v>
-      </c>
-      <c r="AX156" s="4">
-        <v>1</v>
-      </c>
-      <c r="BE156" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:57" x14ac:dyDescent="0.35">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="O156" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP156" s="4">
+        <v>1</v>
+      </c>
+      <c r="AU156" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY156" s="4">
+        <v>1</v>
+      </c>
+      <c r="BF156" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A157" s="5">
         <v>44796</v>
       </c>
@@ -8686,14 +9012,14 @@
         <v>44810</v>
       </c>
       <c r="C157" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>F(52/11)</v>
       </c>
       <c r="D157" s="6">
         <v>6</v>
       </c>
       <c r="E157" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6_11</v>
       </c>
       <c r="F157" s="6" t="s">
@@ -8714,32 +9040,32 @@
         <v>60</v>
       </c>
       <c r="N157" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>18</v>
       </c>
-      <c r="AB157" s="4">
-        <v>2</v>
-      </c>
-      <c r="AK157" s="4">
-        <v>5</v>
-      </c>
-      <c r="AO157" s="4">
-        <v>5</v>
-      </c>
-      <c r="AT157" s="4">
+      <c r="AC157" s="4">
+        <v>2</v>
+      </c>
+      <c r="AL157" s="4">
+        <v>5</v>
+      </c>
+      <c r="AP157" s="4">
+        <v>5</v>
+      </c>
+      <c r="AU157" s="4">
         <v>3</v>
       </c>
-      <c r="AX157" s="4">
-        <v>1</v>
-      </c>
       <c r="AY157" s="4">
         <v>1</v>
       </c>
-      <c r="BB157" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="AZ157" s="4">
+        <v>1</v>
+      </c>
+      <c r="BC157" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A158" s="5">
         <v>44796</v>
       </c>
@@ -8747,14 +9073,14 @@
         <v>44810</v>
       </c>
       <c r="C158" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>S(53/12)</v>
       </c>
       <c r="D158" s="6">
         <v>6</v>
       </c>
       <c r="E158" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6_12</v>
       </c>
       <c r="F158" s="6" t="s">
@@ -8775,17 +9101,17 @@
         <v>60</v>
       </c>
       <c r="N158" s="4">
-        <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="AK158" s="4">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="AL158" s="4">
         <v>4</v>
       </c>
-      <c r="AT158" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="AU158" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A159" s="5">
         <v>44796</v>
       </c>
@@ -8793,14 +9119,14 @@
         <v>44810</v>
       </c>
       <c r="C159" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>F(54/13)</v>
       </c>
       <c r="D159" s="6">
         <v>6</v>
       </c>
       <c r="E159" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6_13</v>
       </c>
       <c r="F159" s="6" t="s">
@@ -8821,11 +9147,11 @@
         <v>60</v>
       </c>
       <c r="N159" s="4">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:57" x14ac:dyDescent="0.35">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A160" s="5">
         <v>44796</v>
       </c>
@@ -8833,14 +9159,14 @@
         <v>44810</v>
       </c>
       <c r="C160" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>W(55/14)</v>
       </c>
       <c r="D160" s="6">
         <v>6</v>
       </c>
       <c r="E160" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6_14</v>
       </c>
       <c r="F160" s="6" t="s">
@@ -8861,11 +9187,11 @@
         <v>60</v>
       </c>
       <c r="N160" s="4">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:57" x14ac:dyDescent="0.35">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A161" s="5">
         <v>44796</v>
       </c>
@@ -8873,14 +9199,14 @@
         <v>44810</v>
       </c>
       <c r="C161" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>F(56/15)</v>
       </c>
       <c r="D161" s="6">
         <v>6</v>
       </c>
       <c r="E161" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6_15</v>
       </c>
       <c r="F161" s="6" t="s">
@@ -8901,20 +9227,20 @@
         <v>60</v>
       </c>
       <c r="N161" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
-      <c r="AG161" s="4">
-        <v>1</v>
-      </c>
-      <c r="AT161" s="4">
+      <c r="AH161" s="4">
+        <v>1</v>
+      </c>
+      <c r="AU161" s="4">
         <v>4</v>
       </c>
-      <c r="AY161" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="AZ161" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A162" s="5">
         <v>44796</v>
       </c>
@@ -8922,14 +9248,14 @@
         <v>44810</v>
       </c>
       <c r="C162" s="9" t="str">
-        <f t="shared" ref="C162:C193" si="13">_xlfn.CONCAT(F162, "(", G162, "/", H162, ")")</f>
+        <f t="shared" ref="C162:C193" si="16">_xlfn.CONCAT(F162, "(", G162, "/", H162, ")")</f>
         <v>S(57/16)</v>
       </c>
       <c r="D162" s="6">
         <v>6</v>
       </c>
       <c r="E162" s="4" t="str">
-        <f t="shared" ref="E162:E193" si="14">_xlfn.CONCAT(D162,"_",H162)</f>
+        <f t="shared" ref="E162:E193" si="17">_xlfn.CONCAT(D162,"_",H162)</f>
         <v>6_16</v>
       </c>
       <c r="F162" s="6" t="s">
@@ -8950,17 +9276,17 @@
         <v>60</v>
       </c>
       <c r="N162" s="4">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="Y162" s="4">
-        <v>1</v>
-      </c>
-      <c r="AY162" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:57" x14ac:dyDescent="0.35">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="Z162" s="4">
+        <v>1</v>
+      </c>
+      <c r="AZ162" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A163" s="5">
         <v>44796</v>
       </c>
@@ -8968,14 +9294,14 @@
         <v>44810</v>
       </c>
       <c r="C163" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>F(58/17)</v>
       </c>
       <c r="D163" s="6">
         <v>6</v>
       </c>
       <c r="E163" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>6_17</v>
       </c>
       <c r="F163" s="6" t="s">
@@ -8996,17 +9322,17 @@
         <v>60</v>
       </c>
       <c r="N163" s="4">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="AK163" s="4">
-        <v>1</v>
-      </c>
-      <c r="AY163" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:57" x14ac:dyDescent="0.35">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="AL163" s="4">
+        <v>1</v>
+      </c>
+      <c r="AZ163" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A164" s="5">
         <v>44796</v>
       </c>
@@ -9014,14 +9340,14 @@
         <v>44810</v>
       </c>
       <c r="C164" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>W(59/18)</v>
       </c>
       <c r="D164" s="6">
         <v>6</v>
       </c>
       <c r="E164" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>6_18</v>
       </c>
       <c r="F164" s="6" t="s">
@@ -9042,14 +9368,14 @@
         <v>60</v>
       </c>
       <c r="N164" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="AO164" s="4">
+      <c r="AP164" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A165" s="5">
         <v>44796</v>
       </c>
@@ -9057,14 +9383,14 @@
         <v>44810</v>
       </c>
       <c r="C165" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>F(60/19)</v>
       </c>
       <c r="D165" s="6">
         <v>6</v>
       </c>
       <c r="E165" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>6_19</v>
       </c>
       <c r="F165" s="6" t="s">
@@ -9085,17 +9411,17 @@
         <v>60</v>
       </c>
       <c r="N165" s="4">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="AC165" s="4">
-        <v>1</v>
-      </c>
-      <c r="AO165" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:57" x14ac:dyDescent="0.35">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="AD165" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP165" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A166" s="5">
         <v>44796</v>
       </c>
@@ -9103,14 +9429,14 @@
         <v>44810</v>
       </c>
       <c r="C166" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>S(61/20)</v>
       </c>
       <c r="D166" s="6">
         <v>6</v>
       </c>
       <c r="E166" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>6_20</v>
       </c>
       <c r="F166" s="6" t="s">
@@ -9134,14 +9460,18 @@
         <v>2</v>
       </c>
       <c r="N166" s="4">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="AY166" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:57" x14ac:dyDescent="0.35">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="O166" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AZ166" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A167" s="5">
         <v>44796</v>
       </c>
@@ -9149,14 +9479,14 @@
         <v>44810</v>
       </c>
       <c r="C167" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>F(62/21)</v>
       </c>
       <c r="D167" s="6">
         <v>6</v>
       </c>
       <c r="E167" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>6_21</v>
       </c>
       <c r="F167" s="6" t="s">
@@ -9172,7 +9502,7 @@
         <v>0</v>
       </c>
       <c r="J167" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K167" s="6"/>
       <c r="L167" s="4" t="s">
@@ -9182,11 +9512,15 @@
         <v>0</v>
       </c>
       <c r="N167" s="4">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:57" x14ac:dyDescent="0.35">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O167" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A168" s="5">
         <v>44796</v>
       </c>
@@ -9194,14 +9528,14 @@
         <v>44810</v>
       </c>
       <c r="C168" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>W(63/22)</v>
       </c>
       <c r="D168" s="6">
         <v>6</v>
       </c>
       <c r="E168" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>6_22</v>
       </c>
       <c r="F168" s="6" t="s">
@@ -9222,26 +9556,26 @@
         <v>60</v>
       </c>
       <c r="N168" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
-      <c r="AB168" s="4">
-        <v>1</v>
-      </c>
-      <c r="AK168" s="4">
-        <v>1</v>
-      </c>
-      <c r="AO168" s="4">
+      <c r="AC168" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL168" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP168" s="4">
         <v>3</v>
       </c>
-      <c r="AY168" s="4">
+      <c r="AZ168" s="4">
         <v>3</v>
       </c>
-      <c r="BE168" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="BF168" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A169" s="5">
         <v>44796</v>
       </c>
@@ -9249,14 +9583,14 @@
         <v>44810</v>
       </c>
       <c r="C169" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>F(64/23)</v>
       </c>
       <c r="D169" s="6">
         <v>6</v>
       </c>
       <c r="E169" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>6_23</v>
       </c>
       <c r="F169" s="6" t="s">
@@ -9277,23 +9611,23 @@
         <v>60</v>
       </c>
       <c r="N169" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
-      <c r="U169" s="4">
-        <v>1</v>
-      </c>
-      <c r="AK169" s="4">
+      <c r="V169" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL169" s="4">
         <v>7</v>
       </c>
-      <c r="AO169" s="4">
+      <c r="AP169" s="4">
         <v>6</v>
       </c>
-      <c r="AX169" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="AY169" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A170" s="5">
         <v>44810</v>
       </c>
@@ -9301,14 +9635,14 @@
         <v>44824</v>
       </c>
       <c r="C170" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>F(41/0)</v>
       </c>
       <c r="D170" s="6">
         <v>7</v>
       </c>
       <c r="E170" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>7_0</v>
       </c>
       <c r="F170" s="6" t="s">
@@ -9329,17 +9663,17 @@
         <v>60</v>
       </c>
       <c r="N170" s="4">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="AK170" s="4">
-        <v>1</v>
-      </c>
-      <c r="AO170" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:57" x14ac:dyDescent="0.35">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="AL170" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP170" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A171" s="5">
         <v>44810</v>
       </c>
@@ -9347,14 +9681,14 @@
         <v>44824</v>
       </c>
       <c r="C171" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>S(42/1)</v>
       </c>
       <c r="D171" s="6">
         <v>7</v>
       </c>
       <c r="E171" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>7_1</v>
       </c>
       <c r="F171" s="6" t="s">
@@ -9375,20 +9709,20 @@
         <v>60</v>
       </c>
       <c r="N171" s="4">
-        <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="AV171" s="4">
-        <v>1</v>
-      </c>
-      <c r="AY171" s="4">
-        <v>1</v>
-      </c>
-      <c r="BE171" s="4">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="AW171" s="4">
+        <v>1</v>
+      </c>
+      <c r="AZ171" s="4">
+        <v>1</v>
+      </c>
+      <c r="BF171" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A172" s="5">
         <v>44810</v>
       </c>
@@ -9396,14 +9730,14 @@
         <v>44824</v>
       </c>
       <c r="C172" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>W(43/2)</v>
       </c>
       <c r="D172" s="6">
         <v>7</v>
       </c>
       <c r="E172" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>7_2</v>
       </c>
       <c r="F172" s="6" t="s">
@@ -9424,14 +9758,14 @@
         <v>60</v>
       </c>
       <c r="N172" s="4">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="V172" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:57" x14ac:dyDescent="0.35">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="W172" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A173" s="5">
         <v>44810</v>
       </c>
@@ -9439,14 +9773,14 @@
         <v>44824</v>
       </c>
       <c r="C173" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>F(44/3)</v>
       </c>
       <c r="D173" s="6">
         <v>7</v>
       </c>
       <c r="E173" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>7_3</v>
       </c>
       <c r="F173" s="6" t="s">
@@ -9467,17 +9801,17 @@
         <v>60</v>
       </c>
       <c r="N173" s="4">
-        <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="AY173" s="4">
-        <v>2</v>
-      </c>
-      <c r="BE173" s="4">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="AZ173" s="4">
+        <v>2</v>
+      </c>
+      <c r="BF173" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A174" s="5">
         <v>44810</v>
       </c>
@@ -9485,14 +9819,14 @@
         <v>44824</v>
       </c>
       <c r="C174" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>F(45/4)</v>
       </c>
       <c r="D174" s="6">
         <v>7</v>
       </c>
       <c r="E174" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>7_4</v>
       </c>
       <c r="F174" s="6" t="s">
@@ -9513,14 +9847,14 @@
         <v>60</v>
       </c>
       <c r="N174" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
-      <c r="AK174" s="4">
+      <c r="AL174" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A175" s="5">
         <v>44810</v>
       </c>
@@ -9528,14 +9862,14 @@
         <v>44824</v>
       </c>
       <c r="C175" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>S(46/5)</v>
       </c>
       <c r="D175" s="6">
         <v>7</v>
       </c>
       <c r="E175" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>7_5</v>
       </c>
       <c r="F175" s="6" t="s">
@@ -9556,23 +9890,23 @@
         <v>60</v>
       </c>
       <c r="N175" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
-      <c r="AO175" s="4">
-        <v>1</v>
-      </c>
-      <c r="AX175" s="4">
+      <c r="AP175" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY175" s="4">
         <v>4</v>
       </c>
-      <c r="AY175" s="4">
-        <v>1</v>
-      </c>
-      <c r="BE175" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="AZ175" s="4">
+        <v>1</v>
+      </c>
+      <c r="BF175" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A176" s="5">
         <v>44810</v>
       </c>
@@ -9580,14 +9914,14 @@
         <v>44824</v>
       </c>
       <c r="C176" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>W(47/6)</v>
       </c>
       <c r="D176" s="6">
         <v>7</v>
       </c>
       <c r="E176" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>7_6</v>
       </c>
       <c r="F176" s="6" t="s">
@@ -9608,17 +9942,17 @@
         <v>60</v>
       </c>
       <c r="N176" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="AK176" s="4">
+      <c r="AL176" s="4">
         <v>3</v>
       </c>
-      <c r="AY176" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:59" x14ac:dyDescent="0.35">
+      <c r="AZ176" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A177" s="5">
         <v>44810</v>
       </c>
@@ -9626,14 +9960,14 @@
         <v>44824</v>
       </c>
       <c r="C177" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>F(48/7)</v>
       </c>
       <c r="D177" s="6">
         <v>7</v>
       </c>
       <c r="E177" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>7_7</v>
       </c>
       <c r="F177" s="6" t="s">
@@ -9656,20 +9990,20 @@
         <v>60</v>
       </c>
       <c r="N177" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="V177" s="4">
-        <v>2</v>
-      </c>
-      <c r="AT177" s="4">
-        <v>1</v>
-      </c>
-      <c r="AY177" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:59" x14ac:dyDescent="0.35">
+      <c r="W177" s="4">
+        <v>2</v>
+      </c>
+      <c r="AU177" s="4">
+        <v>1</v>
+      </c>
+      <c r="AZ177" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A178" s="5">
         <v>44810</v>
       </c>
@@ -9677,14 +10011,14 @@
         <v>44824</v>
       </c>
       <c r="C178" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>S(49/8)</v>
       </c>
       <c r="D178" s="6">
         <v>7</v>
       </c>
       <c r="E178" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>7_8</v>
       </c>
       <c r="F178" s="6" t="s">
@@ -9705,23 +10039,23 @@
         <v>60</v>
       </c>
       <c r="N178" s="4">
-        <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-      <c r="R178" s="4">
-        <v>1</v>
-      </c>
-      <c r="AJ178" s="4">
+        <f t="shared" si="14"/>
+        <v>11</v>
+      </c>
+      <c r="S178" s="4">
         <v>1</v>
       </c>
       <c r="AK178" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL178" s="4">
         <v>7</v>
       </c>
-      <c r="AX178" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:59" x14ac:dyDescent="0.35">
+      <c r="AY178" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A179" s="5">
         <v>44810</v>
       </c>
@@ -9729,14 +10063,14 @@
         <v>44824</v>
       </c>
       <c r="C179" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>F(50/9)</v>
       </c>
       <c r="D179" s="6">
         <v>7</v>
       </c>
       <c r="E179" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>7_9</v>
       </c>
       <c r="F179" s="6" t="s">
@@ -9759,14 +10093,14 @@
         <v>60</v>
       </c>
       <c r="N179" s="4">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AK179" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:59" x14ac:dyDescent="0.35">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AL179" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A180" s="5">
         <v>44810</v>
       </c>
@@ -9774,14 +10108,14 @@
         <v>44824</v>
       </c>
       <c r="C180" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>W(51/10)</v>
       </c>
       <c r="D180" s="6">
         <v>7</v>
       </c>
       <c r="E180" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>7_10</v>
       </c>
       <c r="F180" s="6" t="s">
@@ -9805,23 +10139,27 @@
         <v>4</v>
       </c>
       <c r="N180" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="AE180" s="4">
-        <v>1</v>
-      </c>
-      <c r="AT180" s="4">
-        <v>1</v>
-      </c>
-      <c r="AY180" s="4">
-        <v>1</v>
-      </c>
-      <c r="BE180" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:59" x14ac:dyDescent="0.35">
+      <c r="O180" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF180" s="4">
+        <v>1</v>
+      </c>
+      <c r="AU180" s="4">
+        <v>1</v>
+      </c>
+      <c r="AZ180" s="4">
+        <v>1</v>
+      </c>
+      <c r="BF180" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A181" s="5">
         <v>44810</v>
       </c>
@@ -9829,14 +10167,14 @@
         <v>44824</v>
       </c>
       <c r="C181" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>F(52/11)</v>
       </c>
       <c r="D181" s="6">
         <v>7</v>
       </c>
       <c r="E181" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>7_11</v>
       </c>
       <c r="F181" s="6" t="s">
@@ -9860,23 +10198,27 @@
         <v>12</v>
       </c>
       <c r="N181" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
-      <c r="V181" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB181" s="4">
-        <v>1</v>
-      </c>
-      <c r="AK181" s="4">
+      <c r="O181" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="W181" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC181" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL181" s="4">
         <v>7</v>
       </c>
-      <c r="AO181" s="4">
+      <c r="AP181" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A182" s="5">
         <v>44810</v>
       </c>
@@ -9884,14 +10226,14 @@
         <v>44824</v>
       </c>
       <c r="C182" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>S(53/12)</v>
       </c>
       <c r="D182" s="6">
         <v>7</v>
       </c>
       <c r="E182" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>7_12</v>
       </c>
       <c r="F182" s="6" t="s">
@@ -9912,32 +10254,32 @@
         <v>60</v>
       </c>
       <c r="N182" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
-      <c r="AK182" s="4">
-        <v>2</v>
-      </c>
-      <c r="AO182" s="4">
+      <c r="AL182" s="4">
+        <v>2</v>
+      </c>
+      <c r="AP182" s="4">
         <v>4</v>
       </c>
-      <c r="AP182" s="4">
-        <v>1</v>
-      </c>
-      <c r="AT182" s="4">
-        <v>2</v>
-      </c>
-      <c r="AY182" s="4">
-        <v>1</v>
-      </c>
-      <c r="BE182" s="4">
-        <v>2</v>
-      </c>
-      <c r="BG182" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:59" x14ac:dyDescent="0.35">
+      <c r="AQ182" s="4">
+        <v>1</v>
+      </c>
+      <c r="AU182" s="4">
+        <v>2</v>
+      </c>
+      <c r="AZ182" s="4">
+        <v>1</v>
+      </c>
+      <c r="BF182" s="4">
+        <v>2</v>
+      </c>
+      <c r="BH182" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A183" s="5">
         <v>44810</v>
       </c>
@@ -9945,14 +10287,14 @@
         <v>44824</v>
       </c>
       <c r="C183" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>F(54/13)</v>
       </c>
       <c r="D183" s="6">
         <v>7</v>
       </c>
       <c r="E183" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>7_13</v>
       </c>
       <c r="F183" s="6" t="s">
@@ -9973,17 +10315,17 @@
         <v>60</v>
       </c>
       <c r="N183" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
-      <c r="BA183" s="4">
-        <v>2</v>
-      </c>
-      <c r="BE183" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:59" x14ac:dyDescent="0.35">
+      <c r="BB183" s="4">
+        <v>2</v>
+      </c>
+      <c r="BF183" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A184" s="5">
         <v>44810</v>
       </c>
@@ -9991,14 +10333,14 @@
         <v>44824</v>
       </c>
       <c r="C184" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>W(55/14)</v>
       </c>
       <c r="D184" s="6">
         <v>7</v>
       </c>
       <c r="E184" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>7_14</v>
       </c>
       <c r="F184" s="6" t="s">
@@ -10019,23 +10361,23 @@
         <v>60</v>
       </c>
       <c r="N184" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
-      <c r="AG184" s="4">
-        <v>1</v>
-      </c>
-      <c r="AT184" s="4">
-        <v>1</v>
-      </c>
-      <c r="AY184" s="4">
-        <v>1</v>
-      </c>
-      <c r="BE184" s="4">
+      <c r="AH184" s="4">
+        <v>1</v>
+      </c>
+      <c r="AU184" s="4">
+        <v>1</v>
+      </c>
+      <c r="AZ184" s="4">
+        <v>1</v>
+      </c>
+      <c r="BF184" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A185" s="5">
         <v>44810</v>
       </c>
@@ -10043,14 +10385,14 @@
         <v>44824</v>
       </c>
       <c r="C185" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>F(56/15)</v>
       </c>
       <c r="D185" s="6">
         <v>7</v>
       </c>
       <c r="E185" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>7_15</v>
       </c>
       <c r="F185" s="6" t="s">
@@ -10071,20 +10413,20 @@
         <v>60</v>
       </c>
       <c r="N185" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
-      <c r="AT185" s="4">
-        <v>5</v>
-      </c>
-      <c r="AY185" s="4">
-        <v>2</v>
-      </c>
-      <c r="BE185" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="186" spans="1:59" x14ac:dyDescent="0.35">
+      <c r="AU185" s="4">
+        <v>5</v>
+      </c>
+      <c r="AZ185" s="4">
+        <v>2</v>
+      </c>
+      <c r="BF185" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A186" s="5">
         <v>44810</v>
       </c>
@@ -10092,14 +10434,14 @@
         <v>44824</v>
       </c>
       <c r="C186" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>S(57/16)</v>
       </c>
       <c r="D186" s="6">
         <v>7</v>
       </c>
       <c r="E186" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>7_16</v>
       </c>
       <c r="F186" s="6" t="s">
@@ -10120,20 +10462,20 @@
         <v>60</v>
       </c>
       <c r="N186" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="AK186" s="4">
-        <v>1</v>
-      </c>
-      <c r="AO186" s="4">
-        <v>1</v>
-      </c>
-      <c r="AY186" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:59" x14ac:dyDescent="0.35">
+      <c r="AL186" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP186" s="4">
+        <v>1</v>
+      </c>
+      <c r="AZ186" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A187" s="5">
         <v>44810</v>
       </c>
@@ -10141,14 +10483,14 @@
         <v>44824</v>
       </c>
       <c r="C187" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>F(58/17)</v>
       </c>
       <c r="D187" s="6">
         <v>7</v>
       </c>
       <c r="E187" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>7_17</v>
       </c>
       <c r="F187" s="6" t="s">
@@ -10169,23 +10511,23 @@
         <v>60</v>
       </c>
       <c r="N187" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="AE187" s="4">
-        <v>1</v>
-      </c>
-      <c r="AP187" s="4">
-        <v>1</v>
-      </c>
-      <c r="AY187" s="4">
-        <v>1</v>
-      </c>
-      <c r="BE187" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:59" x14ac:dyDescent="0.35">
+      <c r="AF187" s="4">
+        <v>1</v>
+      </c>
+      <c r="AQ187" s="4">
+        <v>1</v>
+      </c>
+      <c r="AZ187" s="4">
+        <v>1</v>
+      </c>
+      <c r="BF187" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A188" s="5">
         <v>44810</v>
       </c>
@@ -10193,14 +10535,14 @@
         <v>44824</v>
       </c>
       <c r="C188" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>W(59/18)</v>
       </c>
       <c r="D188" s="6">
         <v>7</v>
       </c>
       <c r="E188" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>7_18</v>
       </c>
       <c r="F188" s="6" t="s">
@@ -10223,23 +10565,23 @@
         <v>60</v>
       </c>
       <c r="N188" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="AK188" s="4">
-        <v>1</v>
-      </c>
-      <c r="AO188" s="4">
-        <v>1</v>
-      </c>
-      <c r="AY188" s="4">
+      <c r="AL188" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP188" s="4">
         <v>1</v>
       </c>
       <c r="AZ188" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:59" x14ac:dyDescent="0.35">
+      <c r="BA188" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A189" s="5">
         <v>44810</v>
       </c>
@@ -10247,14 +10589,14 @@
         <v>44824</v>
       </c>
       <c r="C189" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>F(60/19)</v>
       </c>
       <c r="D189" s="6">
         <v>7</v>
       </c>
       <c r="E189" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>7_19</v>
       </c>
       <c r="F189" s="6" t="s">
@@ -10277,137 +10619,141 @@
         <v>60</v>
       </c>
       <c r="N189" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="AO189" s="4">
-        <v>1</v>
-      </c>
-      <c r="AY189" s="4">
+      <c r="AP189" s="4">
         <v>1</v>
       </c>
       <c r="AZ189" s="4">
         <v>1</v>
       </c>
-      <c r="BE189" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:59" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A190" s="21">
+      <c r="BA189" s="4">
+        <v>1</v>
+      </c>
+      <c r="BF189" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:60" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A190" s="30">
         <v>44810</v>
       </c>
-      <c r="B190" s="21">
+      <c r="B190" s="30">
         <v>44824</v>
       </c>
-      <c r="C190" s="22" t="str">
-        <f t="shared" si="13"/>
+      <c r="C190" s="31" t="str">
+        <f t="shared" si="16"/>
         <v>S(61/20)</v>
       </c>
-      <c r="D190" s="22">
+      <c r="D190" s="31">
         <v>7</v>
       </c>
-      <c r="E190" s="23" t="str">
+      <c r="E190" s="32" t="str">
+        <f t="shared" si="17"/>
+        <v>7_20</v>
+      </c>
+      <c r="F190" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G190" s="31">
+        <v>61</v>
+      </c>
+      <c r="H190" s="31">
+        <v>20</v>
+      </c>
+      <c r="I190" s="31">
+        <v>0</v>
+      </c>
+      <c r="J190" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="K190" s="31"/>
+      <c r="N190" s="32">
         <f t="shared" si="14"/>
-        <v>7_20</v>
-      </c>
-      <c r="F190" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL190" s="32">
+        <v>1</v>
+      </c>
+      <c r="AP190" s="32">
+        <v>1</v>
+      </c>
+      <c r="AZ190" s="32">
+        <v>7</v>
+      </c>
+      <c r="BC190" s="32">
+        <v>1</v>
+      </c>
+      <c r="BF190" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:60" x14ac:dyDescent="0.35">
+      <c r="A191" s="5">
+        <v>44810</v>
+      </c>
+      <c r="B191" s="5">
+        <v>44824</v>
+      </c>
+      <c r="C191" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>F(62/21)</v>
+      </c>
+      <c r="D191" s="6">
+        <v>7</v>
+      </c>
+      <c r="E191" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>7_21</v>
+      </c>
+      <c r="F191" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G191" s="6">
+        <v>62</v>
+      </c>
+      <c r="H191" s="6">
+        <v>21</v>
+      </c>
+      <c r="I191" s="6">
+        <v>0</v>
+      </c>
+      <c r="J191" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K191" s="6"/>
+      <c r="L191" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M191" s="4">
+        <v>11</v>
+      </c>
+      <c r="N191" s="4">
+        <f t="shared" si="14"/>
+        <v>11</v>
+      </c>
+      <c r="O191" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AL191" s="4">
         <v>6</v>
       </c>
-      <c r="G190" s="22">
-        <v>61</v>
-      </c>
-      <c r="H190" s="22">
-        <v>20</v>
-      </c>
-      <c r="I190" s="22">
-        <v>0</v>
-      </c>
-      <c r="J190" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="K190" s="22"/>
-      <c r="N190" s="4">
-        <f t="shared" si="12"/>
-        <v>12</v>
-      </c>
-      <c r="AK190" s="23">
-        <v>1</v>
-      </c>
-      <c r="AO190" s="23">
-        <v>1</v>
-      </c>
-      <c r="AY190" s="23">
-        <v>7</v>
-      </c>
-      <c r="BB190" s="23">
-        <v>1</v>
-      </c>
-      <c r="BE190" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="191" spans="1:59" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A191" s="18">
-        <v>44810</v>
-      </c>
-      <c r="B191" s="18">
-        <v>44824</v>
-      </c>
-      <c r="C191" s="19" t="str">
-        <f t="shared" si="13"/>
-        <v>F(62/21)</v>
-      </c>
-      <c r="D191" s="19">
-        <v>7</v>
-      </c>
-      <c r="E191" s="20" t="str">
-        <f t="shared" si="14"/>
-        <v>7_21</v>
-      </c>
-      <c r="F191" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G191" s="19">
-        <v>62</v>
-      </c>
-      <c r="H191" s="19">
-        <v>21</v>
-      </c>
-      <c r="I191" s="19">
-        <v>0</v>
-      </c>
-      <c r="J191" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="K191" s="19"/>
-      <c r="L191" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="M191" s="20">
-        <v>11</v>
-      </c>
-      <c r="N191" s="4">
-        <f t="shared" si="12"/>
-        <v>11</v>
-      </c>
-      <c r="AK191" s="20">
-        <v>6</v>
-      </c>
-      <c r="AO191" s="20">
-        <v>1</v>
-      </c>
-      <c r="AY191" s="20">
-        <v>1</v>
-      </c>
-      <c r="BA191" s="20">
-        <v>1</v>
-      </c>
-      <c r="BE191" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="192" spans="1:59" x14ac:dyDescent="0.35">
+      <c r="AP191" s="4">
+        <v>1</v>
+      </c>
+      <c r="AZ191" s="4">
+        <v>1</v>
+      </c>
+      <c r="BB191" s="4">
+        <v>1</v>
+      </c>
+      <c r="BF191" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A192" s="5">
         <v>44810</v>
       </c>
@@ -10415,14 +10761,14 @@
         <v>44824</v>
       </c>
       <c r="C192" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>W(63/22)</v>
       </c>
       <c r="D192" s="6">
         <v>7</v>
       </c>
       <c r="E192" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>7_22</v>
       </c>
       <c r="F192" s="6" t="s">
@@ -10443,17 +10789,17 @@
         <v>60</v>
       </c>
       <c r="N192" s="4">
-        <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="AO192" s="4">
-        <v>2</v>
-      </c>
-      <c r="AY192" s="4">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="AP192" s="4">
+        <v>2</v>
+      </c>
+      <c r="AZ192" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A193" s="5">
         <v>44810</v>
       </c>
@@ -10461,14 +10807,14 @@
         <v>44824</v>
       </c>
       <c r="C193" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>F(64/23)</v>
       </c>
       <c r="D193" s="6">
         <v>7</v>
       </c>
       <c r="E193" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>7_23</v>
       </c>
       <c r="F193" s="6" t="s">
@@ -10489,205 +10835,205 @@
         <v>60</v>
       </c>
       <c r="N193" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="AK193" s="4">
-        <v>2</v>
-      </c>
-      <c r="AO193" s="4">
-        <v>1</v>
-      </c>
-      <c r="AW193" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:60" x14ac:dyDescent="0.35">
+      <c r="AL193" s="4">
+        <v>2</v>
+      </c>
+      <c r="AP193" s="4">
+        <v>1</v>
+      </c>
+      <c r="AX193" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A194" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="O194" s="4">
-        <f>SUM(O2:O193)</f>
+        <v>88</v>
+      </c>
+      <c r="P194" s="4">
+        <f>SUM(P2:P193)</f>
         <v>3</v>
       </c>
-      <c r="P194" s="4">
-        <f t="shared" ref="P194:BH194" si="15">SUM(P2:P193)</f>
-        <v>1</v>
-      </c>
       <c r="Q194" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="Q194:BI194" si="18">SUM(Q2:Q193)</f>
         <v>1</v>
       </c>
       <c r="R194" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="S194" s="4">
-        <f t="shared" si="15"/>
-        <v>5</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="T194" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="U194" s="4">
+        <f t="shared" si="18"/>
         <v>8</v>
       </c>
-      <c r="U194" s="4">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
       <c r="V194" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="W194" s="4">
+        <f t="shared" si="18"/>
         <v>42</v>
       </c>
-      <c r="W194" s="4">
-        <f t="shared" si="15"/>
+      <c r="X194" s="4">
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
-      <c r="X194" s="4">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
       <c r="Y194" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="Z194" s="4">
+        <f t="shared" si="18"/>
         <v>49</v>
       </c>
-      <c r="Z194" s="4">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
       <c r="AA194" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="AB194" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AC194" s="4">
+        <f t="shared" si="18"/>
         <v>17</v>
       </c>
-      <c r="AC194" s="4">
-        <f t="shared" si="15"/>
+      <c r="AD194" s="4">
+        <f t="shared" si="18"/>
         <v>11</v>
       </c>
-      <c r="AD194" s="4">
-        <f t="shared" si="15"/>
+      <c r="AE194" s="4">
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
-      <c r="AE194" s="4">
-        <f t="shared" si="15"/>
+      <c r="AF194" s="4">
+        <f t="shared" si="18"/>
         <v>13</v>
       </c>
-      <c r="AF194" s="4">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
       <c r="AG194" s="4">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="AH194" s="4">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>2</v>
       </c>
       <c r="AI194" s="4">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="AJ194" s="4">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>2</v>
       </c>
       <c r="AK194" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AL194" s="4">
+        <f t="shared" si="18"/>
         <v>74</v>
       </c>
-      <c r="AL194" s="4">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
       <c r="AM194" s="4">
-        <f t="shared" si="15"/>
-        <v>5</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="AN194" s="4">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>5</v>
       </c>
       <c r="AO194" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AP194" s="4">
+        <f t="shared" si="18"/>
         <v>119</v>
       </c>
-      <c r="AP194" s="4">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
       <c r="AQ194" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="AR194" s="4">
+        <f t="shared" si="18"/>
         <v>15</v>
       </c>
-      <c r="AR194" s="4">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
       <c r="AS194" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="AT194" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AU194" s="4">
+        <f t="shared" si="18"/>
         <v>66</v>
       </c>
-      <c r="AU194" s="4">
-        <f t="shared" si="15"/>
+      <c r="AV194" s="4">
+        <f t="shared" si="18"/>
         <v>46</v>
       </c>
-      <c r="AV194" s="4">
-        <f t="shared" si="15"/>
+      <c r="AW194" s="4">
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
-      <c r="AW194" s="4">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
       <c r="AX194" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="AY194" s="4">
+        <f t="shared" si="18"/>
         <v>90</v>
       </c>
-      <c r="AY194" s="4">
-        <f t="shared" si="15"/>
+      <c r="AZ194" s="4">
+        <f t="shared" si="18"/>
         <v>72</v>
       </c>
-      <c r="AZ194" s="4">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
       <c r="BA194" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="BB194" s="4">
+        <f t="shared" si="18"/>
         <v>6</v>
       </c>
-      <c r="BB194" s="4">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
       <c r="BC194" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="BD194" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="BE194" s="4">
+        <f t="shared" si="18"/>
         <v>6</v>
       </c>
-      <c r="BE194" s="4">
-        <f t="shared" si="15"/>
+      <c r="BF194" s="4">
+        <f t="shared" si="18"/>
         <v>111</v>
       </c>
-      <c r="BF194" s="4">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
       <c r="BG194" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="BH194" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="BI194" s="4">
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
     </row>
@@ -10701,11 +11047,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1205A642-CED4-42A7-927C-187F50D1C4EC}">
   <dimension ref="A1:M193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="L155" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M115" sqref="M115"/>
+      <selection pane="bottomRight" activeCell="L166" sqref="L166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10749,13 +11095,13 @@
         <v>15</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L1" s="25" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M1" s="25" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">

--- a/PNR_Raw_Data/PNR2022_InvertebrateCommunity.xlsx
+++ b/PNR_Raw_Data/PNR2022_InvertebrateCommunity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/PNR_Beetles_github_folder/PNR_Raw_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2198" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A57ADCA5-D0A5-468D-8F2B-0E2728292EF6}"/>
+  <xr:revisionPtr revIDLastSave="2213" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50B6920C-83A8-4325-B22E-88CB16025882}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="20" windowWidth="19140" windowHeight="10180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="102">
   <si>
     <t>Treatment</t>
   </si>
@@ -342,6 +342,9 @@
   <si>
     <t>The datasheet lists 37 for Coleoptera and 28 for Staphylinidae. I found the rove beetle vial with the 28 Staphylinids but I cant find the beetle vial.</t>
   </si>
+  <si>
+    <t>Apparently I pinned 5 carabids but only entered 4 into the datasheet. I don’t know how this happened.</t>
+  </si>
 </sst>
 </file>
 
@@ -456,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -550,6 +553,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -923,10 +935,10 @@
   <dimension ref="A1:BI194"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomRight" activeCell="N105" sqref="N105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2609,7 +2621,9 @@
       <c r="I30" s="31">
         <v>0</v>
       </c>
-      <c r="J30" s="31"/>
+      <c r="J30" s="31" t="s">
+        <v>101</v>
+      </c>
       <c r="K30" s="31"/>
       <c r="L30" s="32" t="s">
         <v>60</v>
@@ -5407,51 +5421,69 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:58" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="21">
+    <row r="87" spans="1:58" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="33">
         <v>44755</v>
       </c>
-      <c r="B87" s="21">
+      <c r="B87" s="33">
         <v>44769</v>
       </c>
-      <c r="C87" s="22" t="str">
+      <c r="C87" s="34" t="str">
         <f t="shared" si="6"/>
         <v>F(54/13)</v>
       </c>
-      <c r="D87" s="22">
+      <c r="D87" s="34">
         <v>3</v>
       </c>
-      <c r="E87" s="23" t="str">
+      <c r="E87" s="35" t="str">
         <f t="shared" si="7"/>
         <v>3_13</v>
       </c>
-      <c r="F87" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="G87" s="22">
+      <c r="F87" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="G87" s="34">
         <v>54</v>
       </c>
-      <c r="H87" s="22">
+      <c r="H87" s="34">
         <v>13</v>
       </c>
-      <c r="I87" s="22">
-        <v>0</v>
-      </c>
-      <c r="J87" s="22"/>
-      <c r="K87" s="22"/>
-      <c r="L87" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="M87" s="23">
+      <c r="I87" s="34">
+        <v>0</v>
+      </c>
+      <c r="J87" s="34"/>
+      <c r="K87" s="34"/>
+      <c r="L87" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="M87" s="35">
         <v>9</v>
       </c>
-      <c r="N87" s="23">
+      <c r="N87" s="35">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O87" s="23">
+        <v>9</v>
+      </c>
+      <c r="O87" s="35">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="X87" s="35">
+        <v>1</v>
+      </c>
+      <c r="Z87" s="35">
+        <v>4</v>
+      </c>
+      <c r="AN87" s="35">
+        <v>1</v>
+      </c>
+      <c r="AP87" s="35">
+        <v>1</v>
+      </c>
+      <c r="AZ87" s="35">
+        <v>1</v>
+      </c>
+      <c r="BE87" s="35">
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:58" x14ac:dyDescent="0.35">
@@ -6435,51 +6467,60 @@
       </c>
       <c r="K107" s="12"/>
     </row>
-    <row r="108" spans="1:58" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="21">
+    <row r="108" spans="1:58" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="33">
         <v>44769</v>
       </c>
-      <c r="B108" s="21">
+      <c r="B108" s="33">
         <v>44784</v>
       </c>
-      <c r="C108" s="22" t="str">
+      <c r="C108" s="34" t="str">
         <f t="shared" si="10"/>
         <v>W(51/10)</v>
       </c>
-      <c r="D108" s="22">
+      <c r="D108" s="34">
         <v>4</v>
       </c>
-      <c r="E108" s="23" t="str">
+      <c r="E108" s="35" t="str">
         <f t="shared" si="11"/>
         <v>4_10</v>
       </c>
-      <c r="F108" s="22" t="s">
+      <c r="F108" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G108" s="22">
+      <c r="G108" s="34">
         <v>51</v>
       </c>
-      <c r="H108" s="22">
+      <c r="H108" s="34">
         <v>10</v>
       </c>
-      <c r="I108" s="22">
-        <v>0</v>
-      </c>
-      <c r="J108" s="22"/>
-      <c r="K108" s="22"/>
-      <c r="L108" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="M108" s="23">
+      <c r="I108" s="34">
+        <v>0</v>
+      </c>
+      <c r="J108" s="34"/>
+      <c r="K108" s="34"/>
+      <c r="L108" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="M108" s="35">
         <v>3</v>
       </c>
-      <c r="N108" s="23">
+      <c r="N108" s="35">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O108" s="23">
+        <v>3</v>
+      </c>
+      <c r="O108" s="35">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="AV108" s="35">
+        <v>1</v>
+      </c>
+      <c r="AZ108" s="35">
+        <v>1</v>
+      </c>
+      <c r="BF108" s="35">
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:58" x14ac:dyDescent="0.35">
@@ -10886,7 +10927,7 @@
       </c>
       <c r="X194" s="4">
         <f t="shared" si="18"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y194" s="4">
         <f t="shared" si="18"/>
@@ -10894,7 +10935,7 @@
       </c>
       <c r="Z194" s="4">
         <f t="shared" si="18"/>
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="AA194" s="4">
         <f t="shared" si="18"/>
@@ -10950,7 +10991,7 @@
       </c>
       <c r="AN194" s="4">
         <f t="shared" si="18"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO194" s="4">
         <f t="shared" si="18"/>
@@ -10958,7 +10999,7 @@
       </c>
       <c r="AP194" s="4">
         <f t="shared" si="18"/>
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AQ194" s="4">
         <f t="shared" si="18"/>
@@ -10982,7 +11023,7 @@
       </c>
       <c r="AV194" s="4">
         <f t="shared" si="18"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AW194" s="4">
         <f t="shared" si="18"/>
@@ -10998,7 +11039,7 @@
       </c>
       <c r="AZ194" s="4">
         <f t="shared" si="18"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="BA194" s="4">
         <f t="shared" si="18"/>
@@ -11018,11 +11059,11 @@
       </c>
       <c r="BE194" s="4">
         <f t="shared" si="18"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BF194" s="4">
         <f t="shared" si="18"/>
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="BG194" s="4">
         <f t="shared" si="18"/>

--- a/PNR_Raw_Data/PNR2022_InvertebrateCommunity.xlsx
+++ b/PNR_Raw_Data/PNR2022_InvertebrateCommunity.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/PNR_Beetles_github_folder/PNR_Raw_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2272" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C867B4FF-4D94-4B07-8713-169E4086A93E}"/>
+  <xr:revisionPtr revIDLastSave="2514" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75E2B14E-AA47-4BDF-935D-0F4510AE6EB9}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="109">
   <si>
     <t>Treatment</t>
   </si>
@@ -277,9 +277,6 @@
     <t>Cymindis_platicollis</t>
   </si>
   <si>
-    <t>Stenolophus_thoracicus</t>
-  </si>
-  <si>
     <t>Trichotichnus_autumnalis</t>
   </si>
   <si>
@@ -348,13 +345,34 @@
   <si>
     <t>NA</t>
   </si>
+  <si>
+    <t>Nicrophorus_tomentosus</t>
+  </si>
+  <si>
+    <t>Nicrophorus_defodiens</t>
+  </si>
+  <si>
+    <t>Nicrophorus_pustulatus</t>
+  </si>
+  <si>
+    <t>Nicrophorus_sayi</t>
+  </si>
+  <si>
+    <t>Oiceoptoma_novaboracense</t>
+  </si>
+  <si>
+    <t>Necrophila_americana</t>
+  </si>
+  <si>
+    <t>Agonoleptus_thoracicus</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -453,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -503,9 +521,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -531,28 +546,37 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -926,16 +950,16 @@
   <dimension ref="A1:BH193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AV2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D179" sqref="D179"/>
+      <selection pane="bottomRight" activeCell="BF3" sqref="BF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.1796875" style="31" customWidth="1"/>
-    <col min="2" max="2" width="14.54296875" style="31" customWidth="1"/>
+    <col min="1" max="1" width="12.1796875" style="30" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" style="30" customWidth="1"/>
     <col min="3" max="3" width="8.7265625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.54296875" style="4" customWidth="1"/>
     <col min="5" max="5" width="14.81640625" style="4" customWidth="1"/>
@@ -983,20 +1007,20 @@
     <col min="63" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" s="25" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:60" s="24" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="24" t="s">
         <v>26</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -1012,164 +1036,164 @@
         <v>14</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="O1" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="P1" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="R1" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="S1" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="W1" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="X1" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y1" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z1" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA1" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB1" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC1" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD1" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE1" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH1" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI1" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="R1" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="S1" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="T1" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="U1" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="V1" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="W1" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="X1" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y1" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z1" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA1" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB1" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC1" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD1" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE1" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF1" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH1" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI1" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ1" s="24" t="s">
+      <c r="AJ1" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="AK1" s="24" t="s">
+      <c r="AK1" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="AL1" s="24" t="s">
+      <c r="AL1" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AM1" s="24" t="s">
+      <c r="AM1" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="AN1" s="24" t="s">
+      <c r="AN1" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="AO1" s="24" t="s">
+      <c r="AO1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="AP1" s="24" t="s">
+      <c r="AP1" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="AQ1" s="24" t="s">
+      <c r="AQ1" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="AR1" s="24" t="s">
+      <c r="AR1" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="AS1" s="24" t="s">
+      <c r="AS1" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AT1" s="24" t="s">
+      <c r="AT1" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="AU1" s="24" t="s">
+      <c r="AU1" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AV1" s="24" t="s">
+      <c r="AV1" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AW1" s="24" t="s">
+      <c r="AW1" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="AX1" s="24" t="s">
+      <c r="AX1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="AY1" s="25" t="s">
+      <c r="AY1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="AZ1" s="25" t="s">
+      <c r="AZ1" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="BA1" s="25" t="s">
+      <c r="BA1" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="BB1" s="25" t="s">
+      <c r="BB1" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="BC1" s="25" t="s">
+      <c r="BC1" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="25" t="s">
+      <c r="BD1" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="BE1" s="25" t="s">
+      <c r="BE1" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="BF1" s="25" t="s">
+      <c r="BF1" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="BG1" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="BH1" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="BG1" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="BH1" s="25" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="2" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A2" s="28">
+      <c r="A2" s="27">
         <v>44713</v>
       </c>
-      <c r="B2" s="32">
+      <c r="B2" s="31">
         <v>44727</v>
       </c>
       <c r="C2" s="8" t="str">
@@ -1214,10 +1238,10 @@
       </c>
     </row>
     <row r="3" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A3" s="28">
+      <c r="A3" s="27">
         <v>44714</v>
       </c>
-      <c r="B3" s="32">
+      <c r="B3" s="31">
         <v>44727</v>
       </c>
       <c r="C3" s="8" t="str">
@@ -1260,10 +1284,10 @@
       </c>
     </row>
     <row r="4" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A4" s="28">
+      <c r="A4" s="27">
         <v>44714</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="31">
         <v>44727</v>
       </c>
       <c r="C4" s="8" t="str">
@@ -1290,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="4" t="s">
@@ -1308,10 +1332,10 @@
       </c>
     </row>
     <row r="5" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A5" s="28">
+      <c r="A5" s="27">
         <v>44713</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="31">
         <v>44727</v>
       </c>
       <c r="C5" s="8" t="str">
@@ -1356,10 +1380,10 @@
       </c>
     </row>
     <row r="6" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A6" s="28">
+      <c r="A6" s="27">
         <v>44714</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="31">
         <v>44727</v>
       </c>
       <c r="C6" s="8" t="str">
@@ -1405,10 +1429,10 @@
       </c>
     </row>
     <row r="7" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A7" s="28">
+      <c r="A7" s="27">
         <v>44714</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="31">
         <v>44727</v>
       </c>
       <c r="C7" s="8" t="str">
@@ -1457,10 +1481,10 @@
       </c>
     </row>
     <row r="8" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A8" s="28">
+      <c r="A8" s="27">
         <v>44714</v>
       </c>
-      <c r="B8" s="32">
+      <c r="B8" s="31">
         <v>44727</v>
       </c>
       <c r="C8" s="8" t="str">
@@ -1500,10 +1524,10 @@
       </c>
     </row>
     <row r="9" spans="1:60" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="29">
+      <c r="A9" s="28">
         <v>44714</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="28">
         <v>44727</v>
       </c>
       <c r="C9" s="15" t="str">
@@ -1534,158 +1558,158 @@
         <v>9</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N9" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O9" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P9" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q9" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R9" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S9" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T9" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U9" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="V9" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W9" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="X9" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Y9" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Z9" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AA9" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AB9" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AC9" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD9" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AE9" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF9" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AG9" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AH9" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI9" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ9" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK9" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AL9" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AM9" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AN9" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AO9" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AP9" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AQ9" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AR9" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS9" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AT9" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AU9" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AV9" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AW9" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AX9" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AY9" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AZ9" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BA9" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BB9" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BC9" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BD9" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BE9" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BF9" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BG9" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BH9" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A10" s="28">
+      <c r="A10" s="27">
         <v>44714</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="31">
         <v>44727</v>
       </c>
       <c r="C10" s="8" t="str">
@@ -1731,10 +1755,10 @@
       </c>
     </row>
     <row r="11" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A11" s="28">
+      <c r="A11" s="27">
         <v>44714</v>
       </c>
-      <c r="B11" s="32">
+      <c r="B11" s="31">
         <v>44727</v>
       </c>
       <c r="C11" s="8" t="str">
@@ -1776,10 +1800,10 @@
       </c>
     </row>
     <row r="12" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A12" s="28">
+      <c r="A12" s="27">
         <v>44714</v>
       </c>
-      <c r="B12" s="32">
+      <c r="B12" s="31">
         <v>44727</v>
       </c>
       <c r="C12" s="8" t="str">
@@ -1828,10 +1852,10 @@
       </c>
     </row>
     <row r="13" spans="1:60" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="30">
+      <c r="A13" s="29">
         <v>44714</v>
       </c>
-      <c r="B13" s="30">
+      <c r="B13" s="29">
         <v>44727</v>
       </c>
       <c r="C13" s="11" t="str">
@@ -1858,162 +1882,162 @@
         <v>1</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K13" s="11"/>
       <c r="L13" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P13" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q13" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R13" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S13" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U13" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="V13" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W13" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="X13" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Y13" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Z13" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AA13" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AB13" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AC13" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD13" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AE13" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF13" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AG13" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AH13" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI13" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ13" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK13" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AL13" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AM13" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AN13" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AO13" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AP13" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AQ13" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AR13" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS13" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AT13" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AU13" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AV13" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AW13" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AX13" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AY13" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AZ13" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BA13" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BB13" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BC13" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BD13" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BE13" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BF13" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BG13" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BH13" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A14" s="28">
+      <c r="A14" s="27">
         <v>44713</v>
       </c>
-      <c r="B14" s="32">
+      <c r="B14" s="31">
         <v>44727</v>
       </c>
       <c r="C14" s="8" t="str">
@@ -2059,10 +2083,10 @@
       </c>
     </row>
     <row r="15" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A15" s="28">
+      <c r="A15" s="27">
         <v>44713</v>
       </c>
-      <c r="B15" s="32">
+      <c r="B15" s="31">
         <v>44727</v>
       </c>
       <c r="C15" s="8" t="str">
@@ -2102,10 +2126,10 @@
       </c>
     </row>
     <row r="16" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A16" s="28">
+      <c r="A16" s="27">
         <v>44713</v>
       </c>
-      <c r="B16" s="32">
+      <c r="B16" s="31">
         <v>44727</v>
       </c>
       <c r="C16" s="8" t="str">
@@ -2160,10 +2184,10 @@
       </c>
     </row>
     <row r="17" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A17" s="28">
+      <c r="A17" s="27">
         <v>44713</v>
       </c>
-      <c r="B17" s="32">
+      <c r="B17" s="31">
         <v>44727</v>
       </c>
       <c r="C17" s="8" t="str">
@@ -2203,10 +2227,10 @@
       </c>
     </row>
     <row r="18" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A18" s="28">
+      <c r="A18" s="27">
         <v>44713</v>
       </c>
-      <c r="B18" s="32">
+      <c r="B18" s="31">
         <v>44727</v>
       </c>
       <c r="C18" s="8" t="str">
@@ -2248,10 +2272,10 @@
       </c>
     </row>
     <row r="19" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A19" s="28">
+      <c r="A19" s="27">
         <v>44713</v>
       </c>
-      <c r="B19" s="32">
+      <c r="B19" s="31">
         <v>44727</v>
       </c>
       <c r="C19" s="8" t="str">
@@ -2293,10 +2317,10 @@
       </c>
     </row>
     <row r="20" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A20" s="28">
+      <c r="A20" s="27">
         <v>44713</v>
       </c>
-      <c r="B20" s="32">
+      <c r="B20" s="31">
         <v>44727</v>
       </c>
       <c r="C20" s="8" t="str">
@@ -2348,10 +2372,10 @@
       </c>
     </row>
     <row r="21" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A21" s="28">
+      <c r="A21" s="27">
         <v>44713</v>
       </c>
-      <c r="B21" s="32">
+      <c r="B21" s="31">
         <v>44727</v>
       </c>
       <c r="C21" s="8" t="str">
@@ -2393,10 +2417,10 @@
       </c>
     </row>
     <row r="22" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A22" s="28">
+      <c r="A22" s="27">
         <v>44713</v>
       </c>
-      <c r="B22" s="32">
+      <c r="B22" s="31">
         <v>44727</v>
       </c>
       <c r="C22" s="8" t="str">
@@ -2447,10 +2471,10 @@
       </c>
     </row>
     <row r="23" spans="1:60" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="29">
+      <c r="A23" s="28">
         <v>44713</v>
       </c>
-      <c r="B23" s="29">
+      <c r="B23" s="28">
         <v>44727</v>
       </c>
       <c r="C23" s="15" t="str">
@@ -2481,158 +2505,158 @@
         <v>9</v>
       </c>
       <c r="L23" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M23" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N23" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O23" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P23" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q23" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R23" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S23" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T23" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U23" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="V23" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W23" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="X23" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Y23" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Z23" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AA23" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AB23" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AC23" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD23" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AE23" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF23" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AG23" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AH23" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI23" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ23" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK23" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AL23" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AM23" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AN23" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AO23" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AP23" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AQ23" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AR23" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS23" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AT23" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AU23" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AV23" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AW23" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AX23" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AY23" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AZ23" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BA23" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BB23" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BC23" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BD23" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BE23" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BF23" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BG23" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BH23" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A24" s="28">
+      <c r="A24" s="27">
         <v>44713</v>
       </c>
-      <c r="B24" s="32">
+      <c r="B24" s="31">
         <v>44727</v>
       </c>
       <c r="C24" s="8" t="str">
@@ -2684,10 +2708,10 @@
       </c>
     </row>
     <row r="25" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A25" s="28">
+      <c r="A25" s="27">
         <v>44713</v>
       </c>
-      <c r="B25" s="32">
+      <c r="B25" s="31">
         <v>44727</v>
       </c>
       <c r="C25" s="8" t="str">
@@ -2738,10 +2762,10 @@
       </c>
     </row>
     <row r="26" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A26" s="28">
+      <c r="A26" s="27">
         <v>44727</v>
       </c>
-      <c r="B26" s="28">
+      <c r="B26" s="27">
         <v>44741</v>
       </c>
       <c r="C26" s="6" t="str">
@@ -2783,10 +2807,10 @@
       </c>
     </row>
     <row r="27" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A27" s="28">
+      <c r="A27" s="27">
         <v>44727</v>
       </c>
-      <c r="B27" s="28">
+      <c r="B27" s="27">
         <v>44741</v>
       </c>
       <c r="C27" s="6" t="str">
@@ -2833,10 +2857,10 @@
       </c>
     </row>
     <row r="28" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A28" s="28">
+      <c r="A28" s="27">
         <v>44727</v>
       </c>
-      <c r="B28" s="28">
+      <c r="B28" s="27">
         <v>44741</v>
       </c>
       <c r="C28" s="6" t="str">
@@ -2878,10 +2902,10 @@
       </c>
     </row>
     <row r="29" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A29" s="28">
+      <c r="A29" s="27">
         <v>44727</v>
       </c>
-      <c r="B29" s="28">
+      <c r="B29" s="27">
         <v>44741</v>
       </c>
       <c r="C29" s="6" t="str">
@@ -2930,65 +2954,65 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:60" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="34">
+    <row r="30" spans="1:60" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="32">
         <v>44727</v>
       </c>
-      <c r="B30" s="34">
+      <c r="B30" s="32">
         <v>44741</v>
       </c>
-      <c r="C30" s="18" t="str">
+      <c r="C30" s="17" t="str">
         <f t="shared" si="0"/>
         <v>F(45/4)</v>
       </c>
-      <c r="D30" s="18">
-        <v>1</v>
-      </c>
-      <c r="E30" s="19" t="str">
+      <c r="D30" s="17">
+        <v>1</v>
+      </c>
+      <c r="E30" s="18" t="str">
         <f t="shared" si="1"/>
         <v>1_4</v>
       </c>
-      <c r="F30" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G30" s="18">
+      <c r="F30" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="17">
         <v>45</v>
       </c>
-      <c r="H30" s="18">
+      <c r="H30" s="17">
         <v>4</v>
       </c>
-      <c r="I30" s="18">
-        <v>0</v>
-      </c>
-      <c r="J30" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="K30" s="18"/>
-      <c r="L30" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="M30" s="19">
-        <v>5</v>
-      </c>
-      <c r="N30" s="19">
+      <c r="I30" s="17">
+        <v>0</v>
+      </c>
+      <c r="J30" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="K30" s="17"/>
+      <c r="L30" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="M30" s="18">
+        <v>5</v>
+      </c>
+      <c r="N30" s="18">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="AC30" s="19">
-        <v>1</v>
-      </c>
-      <c r="AQ30" s="19">
-        <v>2</v>
-      </c>
-      <c r="BE30" s="19">
+      <c r="AC30" s="18">
+        <v>1</v>
+      </c>
+      <c r="AQ30" s="18">
+        <v>2</v>
+      </c>
+      <c r="BE30" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A31" s="28">
+      <c r="A31" s="27">
         <v>44727</v>
       </c>
-      <c r="B31" s="28">
+      <c r="B31" s="27">
         <v>44741</v>
       </c>
       <c r="C31" s="6" t="str">
@@ -3031,10 +3055,10 @@
       </c>
     </row>
     <row r="32" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A32" s="28">
+      <c r="A32" s="27">
         <v>44727</v>
       </c>
-      <c r="B32" s="28">
+      <c r="B32" s="27">
         <v>44741</v>
       </c>
       <c r="C32" s="6" t="str">
@@ -3092,10 +3116,10 @@
       </c>
     </row>
     <row r="33" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A33" s="28">
+      <c r="A33" s="27">
         <v>44727</v>
       </c>
-      <c r="B33" s="28">
+      <c r="B33" s="27">
         <v>44741</v>
       </c>
       <c r="C33" s="6" t="str">
@@ -3144,10 +3168,10 @@
       </c>
     </row>
     <row r="34" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A34" s="28">
+      <c r="A34" s="27">
         <v>44727</v>
       </c>
-      <c r="B34" s="28">
+      <c r="B34" s="27">
         <v>44741</v>
       </c>
       <c r="C34" s="6" t="str">
@@ -3174,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K34" s="6"/>
       <c r="L34" s="4" t="s">
@@ -3204,10 +3228,10 @@
       </c>
     </row>
     <row r="35" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A35" s="28">
+      <c r="A35" s="27">
         <v>44727</v>
       </c>
-      <c r="B35" s="28">
+      <c r="B35" s="27">
         <v>44741</v>
       </c>
       <c r="C35" s="6" t="str">
@@ -3253,10 +3277,10 @@
       </c>
     </row>
     <row r="36" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A36" s="28">
+      <c r="A36" s="27">
         <v>44727</v>
       </c>
-      <c r="B36" s="28">
+      <c r="B36" s="27">
         <v>44741</v>
       </c>
       <c r="C36" s="6" t="str">
@@ -3308,10 +3332,10 @@
       </c>
     </row>
     <row r="37" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A37" s="28">
+      <c r="A37" s="27">
         <v>44727</v>
       </c>
-      <c r="B37" s="28">
+      <c r="B37" s="27">
         <v>44741</v>
       </c>
       <c r="C37" s="6" t="str">
@@ -3356,10 +3380,10 @@
       </c>
     </row>
     <row r="38" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A38" s="28">
+      <c r="A38" s="27">
         <v>44727</v>
       </c>
-      <c r="B38" s="28">
+      <c r="B38" s="27">
         <v>44741</v>
       </c>
       <c r="C38" s="6" t="str">
@@ -3405,10 +3429,10 @@
       </c>
     </row>
     <row r="39" spans="1:60" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="29">
+      <c r="A39" s="28">
         <v>44727</v>
       </c>
-      <c r="B39" s="29">
+      <c r="B39" s="28">
         <v>44741</v>
       </c>
       <c r="C39" s="15" t="str">
@@ -3439,158 +3463,158 @@
         <v>9</v>
       </c>
       <c r="L39" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M39" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N39" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O39" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P39" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q39" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R39" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S39" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T39" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U39" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="V39" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W39" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="X39" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Y39" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Z39" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AA39" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AB39" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AC39" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD39" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AE39" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF39" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AG39" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AH39" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI39" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ39" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK39" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AL39" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AM39" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AN39" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AO39" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AP39" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AQ39" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AR39" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS39" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AT39" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AU39" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AV39" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AW39" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AX39" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AY39" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AZ39" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BA39" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BB39" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BC39" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BD39" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BE39" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BF39" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BG39" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BH39" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A40" s="28">
+      <c r="A40" s="27">
         <v>44727</v>
       </c>
-      <c r="B40" s="28">
+      <c r="B40" s="27">
         <v>44741</v>
       </c>
       <c r="C40" s="6" t="str">
@@ -3630,10 +3654,10 @@
       </c>
     </row>
     <row r="41" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A41" s="28">
+      <c r="A41" s="27">
         <v>44727</v>
       </c>
-      <c r="B41" s="28">
+      <c r="B41" s="27">
         <v>44741</v>
       </c>
       <c r="C41" s="6" t="str">
@@ -3687,10 +3711,10 @@
       </c>
     </row>
     <row r="42" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A42" s="28">
+      <c r="A42" s="27">
         <v>44727</v>
       </c>
-      <c r="B42" s="28">
+      <c r="B42" s="27">
         <v>44741</v>
       </c>
       <c r="C42" s="6" t="str">
@@ -3736,10 +3760,10 @@
       </c>
     </row>
     <row r="43" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A43" s="28">
+      <c r="A43" s="27">
         <v>44727</v>
       </c>
-      <c r="B43" s="28">
+      <c r="B43" s="27">
         <v>44741</v>
       </c>
       <c r="C43" s="6" t="str">
@@ -3782,10 +3806,10 @@
       </c>
     </row>
     <row r="44" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A44" s="28">
+      <c r="A44" s="27">
         <v>44727</v>
       </c>
-      <c r="B44" s="28">
+      <c r="B44" s="27">
         <v>44741</v>
       </c>
       <c r="C44" s="6" t="str">
@@ -3837,10 +3861,10 @@
       </c>
     </row>
     <row r="45" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A45" s="28">
+      <c r="A45" s="27">
         <v>44727</v>
       </c>
-      <c r="B45" s="28">
+      <c r="B45" s="27">
         <v>44741</v>
       </c>
       <c r="C45" s="6" t="str">
@@ -3882,10 +3906,10 @@
       </c>
     </row>
     <row r="46" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A46" s="28">
+      <c r="A46" s="27">
         <v>44727</v>
       </c>
-      <c r="B46" s="28">
+      <c r="B46" s="27">
         <v>44741</v>
       </c>
       <c r="C46" s="6" t="str">
@@ -3930,10 +3954,10 @@
       </c>
     </row>
     <row r="47" spans="1:60" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="29">
+      <c r="A47" s="28">
         <v>44727</v>
       </c>
-      <c r="B47" s="29">
+      <c r="B47" s="28">
         <v>44741</v>
       </c>
       <c r="C47" s="15" t="str">
@@ -3964,158 +3988,158 @@
         <v>9</v>
       </c>
       <c r="L47" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M47" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N47" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O47" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P47" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q47" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R47" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S47" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T47" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U47" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="V47" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W47" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="X47" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Y47" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Z47" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AA47" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AB47" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AC47" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD47" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AE47" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF47" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AG47" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AH47" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI47" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ47" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK47" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AL47" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AM47" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AN47" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AO47" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AP47" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AQ47" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AR47" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS47" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AT47" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AU47" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AV47" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AW47" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AX47" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AY47" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AZ47" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BA47" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BB47" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BC47" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BD47" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BE47" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BF47" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BG47" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BH47" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A48" s="28">
+      <c r="A48" s="27">
         <v>44727</v>
       </c>
-      <c r="B48" s="28">
+      <c r="B48" s="27">
         <v>44741</v>
       </c>
       <c r="C48" s="6" t="str">
@@ -4155,10 +4179,10 @@
       </c>
     </row>
     <row r="49" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A49" s="28">
+      <c r="A49" s="27">
         <v>44727</v>
       </c>
-      <c r="B49" s="28">
+      <c r="B49" s="27">
         <v>44741</v>
       </c>
       <c r="C49" s="6" t="str">
@@ -4206,10 +4230,10 @@
       </c>
     </row>
     <row r="50" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A50" s="28">
+      <c r="A50" s="27">
         <v>44741</v>
       </c>
-      <c r="B50" s="32">
+      <c r="B50" s="31">
         <v>44755</v>
       </c>
       <c r="C50" s="8" t="str">
@@ -4252,10 +4276,10 @@
       </c>
     </row>
     <row r="51" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A51" s="28">
+      <c r="A51" s="27">
         <v>44741</v>
       </c>
-      <c r="B51" s="32">
+      <c r="B51" s="31">
         <v>44755</v>
       </c>
       <c r="C51" s="8" t="str">
@@ -4295,10 +4319,10 @@
       </c>
     </row>
     <row r="52" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A52" s="28">
+      <c r="A52" s="27">
         <v>44741</v>
       </c>
-      <c r="B52" s="32">
+      <c r="B52" s="31">
         <v>44755</v>
       </c>
       <c r="C52" s="8" t="str">
@@ -4338,10 +4362,10 @@
       </c>
     </row>
     <row r="53" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A53" s="28">
+      <c r="A53" s="27">
         <v>44741</v>
       </c>
-      <c r="B53" s="32">
+      <c r="B53" s="31">
         <v>44755</v>
       </c>
       <c r="C53" s="8" t="str">
@@ -4387,10 +4411,10 @@
       </c>
     </row>
     <row r="54" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A54" s="28">
+      <c r="A54" s="27">
         <v>44741</v>
       </c>
-      <c r="B54" s="32">
+      <c r="B54" s="31">
         <v>44755</v>
       </c>
       <c r="C54" s="8" t="str">
@@ -4439,10 +4463,10 @@
       </c>
     </row>
     <row r="55" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A55" s="28">
+      <c r="A55" s="27">
         <v>44741</v>
       </c>
-      <c r="B55" s="32">
+      <c r="B55" s="31">
         <v>44755</v>
       </c>
       <c r="C55" s="8" t="str">
@@ -4488,10 +4512,10 @@
       </c>
     </row>
     <row r="56" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A56" s="28">
+      <c r="A56" s="27">
         <v>44741</v>
       </c>
-      <c r="B56" s="32">
+      <c r="B56" s="31">
         <v>44755</v>
       </c>
       <c r="C56" s="8" t="str">
@@ -4538,10 +4562,10 @@
       </c>
     </row>
     <row r="57" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A57" s="28">
+      <c r="A57" s="27">
         <v>44741</v>
       </c>
-      <c r="B57" s="32">
+      <c r="B57" s="31">
         <v>44755</v>
       </c>
       <c r="C57" s="8" t="str">
@@ -4578,10 +4602,10 @@
       </c>
     </row>
     <row r="58" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A58" s="28">
+      <c r="A58" s="27">
         <v>44741</v>
       </c>
-      <c r="B58" s="32">
+      <c r="B58" s="31">
         <v>44755</v>
       </c>
       <c r="C58" s="8" t="str">
@@ -4630,10 +4654,10 @@
       </c>
     </row>
     <row r="59" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A59" s="28">
+      <c r="A59" s="27">
         <v>44741</v>
       </c>
-      <c r="B59" s="32">
+      <c r="B59" s="31">
         <v>44755</v>
       </c>
       <c r="C59" s="8" t="str">
@@ -4673,10 +4697,10 @@
       </c>
     </row>
     <row r="60" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A60" s="28">
+      <c r="A60" s="27">
         <v>44741</v>
       </c>
-      <c r="B60" s="32">
+      <c r="B60" s="31">
         <v>44755</v>
       </c>
       <c r="C60" s="8" t="str">
@@ -4734,10 +4758,10 @@
       </c>
     </row>
     <row r="61" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A61" s="28">
+      <c r="A61" s="27">
         <v>44741</v>
       </c>
-      <c r="B61" s="32">
+      <c r="B61" s="31">
         <v>44755</v>
       </c>
       <c r="C61" s="8" t="str">
@@ -4798,10 +4822,10 @@
       </c>
     </row>
     <row r="62" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A62" s="28">
+      <c r="A62" s="27">
         <v>44741</v>
       </c>
-      <c r="B62" s="32">
+      <c r="B62" s="31">
         <v>44755</v>
       </c>
       <c r="C62" s="8" t="str">
@@ -4844,10 +4868,10 @@
       </c>
     </row>
     <row r="63" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A63" s="28">
+      <c r="A63" s="27">
         <v>44741</v>
       </c>
-      <c r="B63" s="32">
+      <c r="B63" s="31">
         <v>44755</v>
       </c>
       <c r="C63" s="8" t="str">
@@ -4890,10 +4914,10 @@
       </c>
     </row>
     <row r="64" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A64" s="28">
+      <c r="A64" s="27">
         <v>44741</v>
       </c>
-      <c r="B64" s="32">
+      <c r="B64" s="31">
         <v>44755</v>
       </c>
       <c r="C64" s="8" t="str">
@@ -4936,10 +4960,10 @@
       </c>
     </row>
     <row r="65" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A65" s="28">
+      <c r="A65" s="27">
         <v>44741</v>
       </c>
-      <c r="B65" s="32">
+      <c r="B65" s="31">
         <v>44755</v>
       </c>
       <c r="C65" s="8" t="str">
@@ -4991,10 +5015,10 @@
       </c>
     </row>
     <row r="66" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A66" s="28">
+      <c r="A66" s="27">
         <v>44741</v>
       </c>
-      <c r="B66" s="32">
+      <c r="B66" s="31">
         <v>44755</v>
       </c>
       <c r="C66" s="8" t="str">
@@ -5043,10 +5067,10 @@
       </c>
     </row>
     <row r="67" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A67" s="28">
+      <c r="A67" s="27">
         <v>44741</v>
       </c>
-      <c r="B67" s="32">
+      <c r="B67" s="31">
         <v>44755</v>
       </c>
       <c r="C67" s="8" t="str">
@@ -5086,10 +5110,10 @@
       </c>
     </row>
     <row r="68" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A68" s="28">
+      <c r="A68" s="27">
         <v>44741</v>
       </c>
-      <c r="B68" s="32">
+      <c r="B68" s="31">
         <v>44755</v>
       </c>
       <c r="C68" s="8" t="str">
@@ -5132,10 +5156,10 @@
       </c>
     </row>
     <row r="69" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A69" s="28">
+      <c r="A69" s="27">
         <v>44741</v>
       </c>
-      <c r="B69" s="32">
+      <c r="B69" s="31">
         <v>44755</v>
       </c>
       <c r="C69" s="8" t="str">
@@ -5175,10 +5199,10 @@
       </c>
     </row>
     <row r="70" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A70" s="28">
+      <c r="A70" s="27">
         <v>44741</v>
       </c>
-      <c r="B70" s="32">
+      <c r="B70" s="31">
         <v>44755</v>
       </c>
       <c r="C70" s="8" t="str">
@@ -5218,10 +5242,10 @@
       </c>
     </row>
     <row r="71" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A71" s="28">
+      <c r="A71" s="27">
         <v>44741</v>
       </c>
-      <c r="B71" s="32">
+      <c r="B71" s="31">
         <v>44755</v>
       </c>
       <c r="C71" s="8" t="str">
@@ -5270,10 +5294,10 @@
       </c>
     </row>
     <row r="72" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A72" s="28">
+      <c r="A72" s="27">
         <v>44741</v>
       </c>
-      <c r="B72" s="32">
+      <c r="B72" s="31">
         <v>44755</v>
       </c>
       <c r="C72" s="8" t="str">
@@ -5316,10 +5340,10 @@
       </c>
     </row>
     <row r="73" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A73" s="28">
+      <c r="A73" s="27">
         <v>44741</v>
       </c>
-      <c r="B73" s="32">
+      <c r="B73" s="31">
         <v>44755</v>
       </c>
       <c r="C73" s="8" t="str">
@@ -5367,10 +5391,10 @@
       </c>
     </row>
     <row r="74" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A74" s="28">
+      <c r="A74" s="27">
         <v>44755</v>
       </c>
-      <c r="B74" s="28">
+      <c r="B74" s="27">
         <v>44769</v>
       </c>
       <c r="C74" s="6" t="str">
@@ -5419,10 +5443,10 @@
       </c>
     </row>
     <row r="75" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A75" s="28">
+      <c r="A75" s="27">
         <v>44755</v>
       </c>
-      <c r="B75" s="28">
+      <c r="B75" s="27">
         <v>44769</v>
       </c>
       <c r="C75" s="6" t="str">
@@ -5465,10 +5489,10 @@
       </c>
     </row>
     <row r="76" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A76" s="28">
+      <c r="A76" s="27">
         <v>44755</v>
       </c>
-      <c r="B76" s="28">
+      <c r="B76" s="27">
         <v>44769</v>
       </c>
       <c r="C76" s="6" t="str">
@@ -5517,10 +5541,10 @@
       </c>
     </row>
     <row r="77" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A77" s="28">
+      <c r="A77" s="27">
         <v>44755</v>
       </c>
-      <c r="B77" s="28">
+      <c r="B77" s="27">
         <v>44769</v>
       </c>
       <c r="C77" s="6" t="str">
@@ -5547,7 +5571,7 @@
         <v>0</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K77" s="6"/>
       <c r="L77" s="4" t="s">
@@ -5568,10 +5592,10 @@
       </c>
     </row>
     <row r="78" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A78" s="28">
+      <c r="A78" s="27">
         <v>44755</v>
       </c>
-      <c r="B78" s="28">
+      <c r="B78" s="27">
         <v>44769</v>
       </c>
       <c r="C78" s="6" t="str">
@@ -5611,10 +5635,10 @@
       </c>
     </row>
     <row r="79" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A79" s="28">
+      <c r="A79" s="27">
         <v>44755</v>
       </c>
-      <c r="B79" s="28">
+      <c r="B79" s="27">
         <v>44769</v>
       </c>
       <c r="C79" s="6" t="str">
@@ -5641,7 +5665,7 @@
         <v>0</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K79" s="6"/>
       <c r="L79" s="4" t="s">
@@ -5662,10 +5686,10 @@
       </c>
     </row>
     <row r="80" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A80" s="28">
+      <c r="A80" s="27">
         <v>44755</v>
       </c>
-      <c r="B80" s="28">
+      <c r="B80" s="27">
         <v>44769</v>
       </c>
       <c r="C80" s="6" t="str">
@@ -5708,10 +5732,10 @@
       </c>
     </row>
     <row r="81" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A81" s="28">
+      <c r="A81" s="27">
         <v>44755</v>
       </c>
-      <c r="B81" s="28">
+      <c r="B81" s="27">
         <v>44769</v>
       </c>
       <c r="C81" s="6" t="str">
@@ -5757,10 +5781,10 @@
       </c>
     </row>
     <row r="82" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A82" s="28">
+      <c r="A82" s="27">
         <v>44755</v>
       </c>
-      <c r="B82" s="28">
+      <c r="B82" s="27">
         <v>44769</v>
       </c>
       <c r="C82" s="6" t="str">
@@ -5806,10 +5830,10 @@
       </c>
     </row>
     <row r="83" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A83" s="28">
+      <c r="A83" s="27">
         <v>44755</v>
       </c>
-      <c r="B83" s="28">
+      <c r="B83" s="27">
         <v>44769</v>
       </c>
       <c r="C83" s="6" t="str">
@@ -5849,10 +5873,10 @@
       </c>
     </row>
     <row r="84" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A84" s="28">
+      <c r="A84" s="27">
         <v>44755</v>
       </c>
-      <c r="B84" s="28">
+      <c r="B84" s="27">
         <v>44769</v>
       </c>
       <c r="C84" s="6" t="str">
@@ -5898,10 +5922,10 @@
       </c>
     </row>
     <row r="85" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A85" s="28">
+      <c r="A85" s="27">
         <v>44755</v>
       </c>
-      <c r="B85" s="28">
+      <c r="B85" s="27">
         <v>44769</v>
       </c>
       <c r="C85" s="6" t="str">
@@ -5938,10 +5962,10 @@
       </c>
     </row>
     <row r="86" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A86" s="28">
+      <c r="A86" s="27">
         <v>44755</v>
       </c>
-      <c r="B86" s="28">
+      <c r="B86" s="27">
         <v>44769</v>
       </c>
       <c r="C86" s="6" t="str">
@@ -5984,10 +6008,10 @@
       </c>
     </row>
     <row r="87" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A87" s="28">
+      <c r="A87" s="27">
         <v>44755</v>
       </c>
-      <c r="B87" s="28">
+      <c r="B87" s="27">
         <v>44769</v>
       </c>
       <c r="C87" s="6" t="str">
@@ -6045,10 +6069,10 @@
       </c>
     </row>
     <row r="88" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A88" s="28">
+      <c r="A88" s="27">
         <v>44755</v>
       </c>
-      <c r="B88" s="28">
+      <c r="B88" s="27">
         <v>44769</v>
       </c>
       <c r="C88" s="6" t="str">
@@ -6100,10 +6124,10 @@
       </c>
     </row>
     <row r="89" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A89" s="28">
+      <c r="A89" s="27">
         <v>44755</v>
       </c>
-      <c r="B89" s="28">
+      <c r="B89" s="27">
         <v>44769</v>
       </c>
       <c r="C89" s="6" t="str">
@@ -6149,10 +6173,10 @@
       </c>
     </row>
     <row r="90" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A90" s="28">
+      <c r="A90" s="27">
         <v>44755</v>
       </c>
-      <c r="B90" s="28">
+      <c r="B90" s="27">
         <v>44769</v>
       </c>
       <c r="C90" s="6" t="str">
@@ -6204,10 +6228,10 @@
       </c>
     </row>
     <row r="91" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A91" s="28">
+      <c r="A91" s="27">
         <v>44755</v>
       </c>
-      <c r="B91" s="28">
+      <c r="B91" s="27">
         <v>44769</v>
       </c>
       <c r="C91" s="6" t="str">
@@ -6253,10 +6277,10 @@
       </c>
     </row>
     <row r="92" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A92" s="28">
+      <c r="A92" s="27">
         <v>44755</v>
       </c>
-      <c r="B92" s="28">
+      <c r="B92" s="27">
         <v>44769</v>
       </c>
       <c r="C92" s="6" t="str">
@@ -6305,10 +6329,10 @@
       </c>
     </row>
     <row r="93" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A93" s="28">
+      <c r="A93" s="27">
         <v>44755</v>
       </c>
-      <c r="B93" s="28">
+      <c r="B93" s="27">
         <v>44769</v>
       </c>
       <c r="C93" s="6" t="str">
@@ -6353,10 +6377,10 @@
       </c>
     </row>
     <row r="94" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A94" s="28">
+      <c r="A94" s="27">
         <v>44755</v>
       </c>
-      <c r="B94" s="28">
+      <c r="B94" s="27">
         <v>44769</v>
       </c>
       <c r="C94" s="6" t="str">
@@ -6399,10 +6423,10 @@
       </c>
     </row>
     <row r="95" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A95" s="28">
+      <c r="A95" s="27">
         <v>44755</v>
       </c>
-      <c r="B95" s="28">
+      <c r="B95" s="27">
         <v>44769</v>
       </c>
       <c r="C95" s="6" t="str">
@@ -6457,10 +6481,10 @@
       </c>
     </row>
     <row r="96" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A96" s="28">
+      <c r="A96" s="27">
         <v>44755</v>
       </c>
-      <c r="B96" s="28">
+      <c r="B96" s="27">
         <v>44769</v>
       </c>
       <c r="C96" s="6" t="str">
@@ -6509,10 +6533,10 @@
       </c>
     </row>
     <row r="97" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A97" s="28">
+      <c r="A97" s="27">
         <v>44755</v>
       </c>
-      <c r="B97" s="28">
+      <c r="B97" s="27">
         <v>44769</v>
       </c>
       <c r="C97" s="6" t="str">
@@ -6555,10 +6579,10 @@
       </c>
     </row>
     <row r="98" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A98" s="28">
+      <c r="A98" s="27">
         <v>44769</v>
       </c>
-      <c r="B98" s="32">
+      <c r="B98" s="31">
         <v>44784</v>
       </c>
       <c r="C98" s="8" t="str">
@@ -6610,10 +6634,10 @@
       </c>
     </row>
     <row r="99" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A99" s="28">
+      <c r="A99" s="27">
         <v>44769</v>
       </c>
-      <c r="B99" s="32">
+      <c r="B99" s="31">
         <v>44784</v>
       </c>
       <c r="C99" s="8" t="str">
@@ -6653,10 +6677,10 @@
       </c>
     </row>
     <row r="100" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A100" s="28">
+      <c r="A100" s="27">
         <v>44769</v>
       </c>
-      <c r="B100" s="32">
+      <c r="B100" s="31">
         <v>44784</v>
       </c>
       <c r="C100" s="8" t="str">
@@ -6696,10 +6720,10 @@
       </c>
     </row>
     <row r="101" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A101" s="28">
+      <c r="A101" s="27">
         <v>44769</v>
       </c>
-      <c r="B101" s="32">
+      <c r="B101" s="31">
         <v>44784</v>
       </c>
       <c r="C101" s="8" t="str">
@@ -6739,10 +6763,10 @@
       </c>
     </row>
     <row r="102" spans="1:60" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="30">
+      <c r="A102" s="29">
         <v>44769</v>
       </c>
-      <c r="B102" s="30">
+      <c r="B102" s="29">
         <v>44784</v>
       </c>
       <c r="C102" s="11" t="str">
@@ -6769,162 +6793,162 @@
         <v>0</v>
       </c>
       <c r="J102" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K102" s="11"/>
       <c r="L102" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M102" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N102" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O102" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P102" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q102" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R102" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S102" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T102" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U102" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="V102" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W102" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="X102" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Y102" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Z102" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AA102" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AB102" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AC102" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD102" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AE102" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF102" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AG102" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AH102" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI102" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ102" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK102" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AL102" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AM102" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AN102" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AO102" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AP102" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AQ102" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AR102" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS102" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AT102" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AU102" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AV102" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AW102" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AX102" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AY102" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AZ102" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BA102" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BB102" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BC102" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BD102" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BE102" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BF102" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BG102" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BH102" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A103" s="28">
+      <c r="A103" s="27">
         <v>44769</v>
       </c>
-      <c r="B103" s="32">
+      <c r="B103" s="31">
         <v>44784</v>
       </c>
       <c r="C103" s="8" t="str">
@@ -6970,10 +6994,10 @@
       </c>
     </row>
     <row r="104" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A104" s="28">
+      <c r="A104" s="27">
         <v>44769</v>
       </c>
-      <c r="B104" s="32">
+      <c r="B104" s="31">
         <v>44784</v>
       </c>
       <c r="C104" s="8" t="str">
@@ -7037,10 +7061,10 @@
       </c>
     </row>
     <row r="105" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A105" s="28">
+      <c r="A105" s="27">
         <v>44769</v>
       </c>
-      <c r="B105" s="32">
+      <c r="B105" s="31">
         <v>44784</v>
       </c>
       <c r="C105" s="8" t="str">
@@ -7086,10 +7110,10 @@
       </c>
     </row>
     <row r="106" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A106" s="28">
+      <c r="A106" s="27">
         <v>44769</v>
       </c>
-      <c r="B106" s="32">
+      <c r="B106" s="31">
         <v>44784</v>
       </c>
       <c r="C106" s="8" t="str">
@@ -7138,10 +7162,10 @@
       </c>
     </row>
     <row r="107" spans="1:60" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="30">
+      <c r="A107" s="29">
         <v>44769</v>
       </c>
-      <c r="B107" s="30">
+      <c r="B107" s="29">
         <v>44784</v>
       </c>
       <c r="C107" s="11" t="str">
@@ -7168,162 +7192,162 @@
         <v>0</v>
       </c>
       <c r="J107" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K107" s="11"/>
       <c r="L107" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M107" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N107" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O107" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P107" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q107" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R107" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S107" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T107" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U107" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="V107" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W107" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="X107" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Y107" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Z107" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AA107" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AB107" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AC107" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD107" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AE107" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF107" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AG107" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AH107" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI107" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ107" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK107" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AL107" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AM107" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AN107" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AO107" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AP107" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AQ107" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AR107" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS107" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AT107" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AU107" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AV107" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AW107" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AX107" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AY107" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AZ107" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BA107" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BB107" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BC107" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BD107" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BE107" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BF107" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BG107" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BH107" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="108" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A108" s="28">
+      <c r="A108" s="27">
         <v>44769</v>
       </c>
-      <c r="B108" s="28">
+      <c r="B108" s="27">
         <v>44784</v>
       </c>
       <c r="C108" s="6" t="str">
@@ -7372,10 +7396,10 @@
       </c>
     </row>
     <row r="109" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A109" s="28">
+      <c r="A109" s="27">
         <v>44769</v>
       </c>
-      <c r="B109" s="28">
+      <c r="B109" s="27">
         <v>44784</v>
       </c>
       <c r="C109" s="6" t="str">
@@ -7438,10 +7462,10 @@
       </c>
     </row>
     <row r="110" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A110" s="28">
+      <c r="A110" s="27">
         <v>44769</v>
       </c>
-      <c r="B110" s="32">
+      <c r="B110" s="31">
         <v>44784</v>
       </c>
       <c r="C110" s="8" t="str">
@@ -7493,10 +7517,10 @@
       </c>
     </row>
     <row r="111" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A111" s="28">
+      <c r="A111" s="27">
         <v>44769</v>
       </c>
-      <c r="B111" s="32">
+      <c r="B111" s="31">
         <v>44784</v>
       </c>
       <c r="C111" s="8" t="str">
@@ -7542,10 +7566,10 @@
       </c>
     </row>
     <row r="112" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A112" s="28">
+      <c r="A112" s="27">
         <v>44769</v>
       </c>
-      <c r="B112" s="32">
+      <c r="B112" s="31">
         <v>44784</v>
       </c>
       <c r="C112" s="8" t="str">
@@ -7585,10 +7609,10 @@
       </c>
     </row>
     <row r="113" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A113" s="28">
+      <c r="A113" s="27">
         <v>44769</v>
       </c>
-      <c r="B113" s="32">
+      <c r="B113" s="31">
         <v>44784</v>
       </c>
       <c r="C113" s="8" t="str">
@@ -7625,10 +7649,10 @@
       </c>
     </row>
     <row r="114" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A114" s="28">
+      <c r="A114" s="27">
         <v>44769</v>
       </c>
-      <c r="B114" s="32">
+      <c r="B114" s="31">
         <v>44784</v>
       </c>
       <c r="C114" s="8" t="str">
@@ -7686,10 +7710,10 @@
       </c>
     </row>
     <row r="115" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A115" s="28">
+      <c r="A115" s="27">
         <v>44769</v>
       </c>
-      <c r="B115" s="32">
+      <c r="B115" s="31">
         <v>44784</v>
       </c>
       <c r="C115" s="8" t="str">
@@ -7732,10 +7756,10 @@
       </c>
     </row>
     <row r="116" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A116" s="28">
+      <c r="A116" s="27">
         <v>44769</v>
       </c>
-      <c r="B116" s="32">
+      <c r="B116" s="31">
         <v>44784</v>
       </c>
       <c r="C116" s="8" t="str">
@@ -7778,10 +7802,10 @@
       </c>
     </row>
     <row r="117" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A117" s="28">
+      <c r="A117" s="27">
         <v>44769</v>
       </c>
-      <c r="B117" s="32">
+      <c r="B117" s="31">
         <v>44784</v>
       </c>
       <c r="C117" s="8" t="str">
@@ -7827,10 +7851,10 @@
       </c>
     </row>
     <row r="118" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A118" s="28">
+      <c r="A118" s="27">
         <v>44769</v>
       </c>
-      <c r="B118" s="32">
+      <c r="B118" s="31">
         <v>44784</v>
       </c>
       <c r="C118" s="8" t="str">
@@ -7879,10 +7903,10 @@
       </c>
     </row>
     <row r="119" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A119" s="28">
+      <c r="A119" s="27">
         <v>44769</v>
       </c>
-      <c r="B119" s="32">
+      <c r="B119" s="31">
         <v>44784</v>
       </c>
       <c r="C119" s="8" t="str">
@@ -7922,10 +7946,10 @@
       </c>
     </row>
     <row r="120" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A120" s="28">
+      <c r="A120" s="27">
         <v>44769</v>
       </c>
-      <c r="B120" s="32">
+      <c r="B120" s="31">
         <v>44784</v>
       </c>
       <c r="C120" s="8" t="str">
@@ -7977,10 +8001,10 @@
       </c>
     </row>
     <row r="121" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A121" s="28">
+      <c r="A121" s="27">
         <v>44769</v>
       </c>
-      <c r="B121" s="32">
+      <c r="B121" s="31">
         <v>44784</v>
       </c>
       <c r="C121" s="8" t="str">
@@ -8032,10 +8056,10 @@
       </c>
     </row>
     <row r="122" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A122" s="28">
+      <c r="A122" s="27">
         <v>44784</v>
       </c>
-      <c r="B122" s="28">
+      <c r="B122" s="27">
         <v>44796</v>
       </c>
       <c r="C122" s="6" t="str">
@@ -8078,10 +8102,10 @@
       </c>
     </row>
     <row r="123" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A123" s="28">
+      <c r="A123" s="27">
         <v>44784</v>
       </c>
-      <c r="B123" s="28">
+      <c r="B123" s="27">
         <v>44796</v>
       </c>
       <c r="C123" s="6" t="str">
@@ -8124,10 +8148,10 @@
       </c>
     </row>
     <row r="124" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A124" s="28">
+      <c r="A124" s="27">
         <v>44784</v>
       </c>
-      <c r="B124" s="28">
+      <c r="B124" s="27">
         <v>44796</v>
       </c>
       <c r="C124" s="6" t="str">
@@ -8167,10 +8191,10 @@
       </c>
     </row>
     <row r="125" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A125" s="28">
+      <c r="A125" s="27">
         <v>44784</v>
       </c>
-      <c r="B125" s="28">
+      <c r="B125" s="27">
         <v>44796</v>
       </c>
       <c r="C125" s="6" t="str">
@@ -8213,10 +8237,10 @@
       </c>
     </row>
     <row r="126" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A126" s="28">
+      <c r="A126" s="27">
         <v>44784</v>
       </c>
-      <c r="B126" s="28">
+      <c r="B126" s="27">
         <v>44796</v>
       </c>
       <c r="C126" s="6" t="str">
@@ -8262,10 +8286,10 @@
       </c>
     </row>
     <row r="127" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A127" s="28">
+      <c r="A127" s="27">
         <v>44784</v>
       </c>
-      <c r="B127" s="28">
+      <c r="B127" s="27">
         <v>44796</v>
       </c>
       <c r="C127" s="6" t="str">
@@ -8319,10 +8343,10 @@
       </c>
     </row>
     <row r="128" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A128" s="28">
+      <c r="A128" s="27">
         <v>44784</v>
       </c>
-      <c r="B128" s="28">
+      <c r="B128" s="27">
         <v>44796</v>
       </c>
       <c r="C128" s="6" t="str">
@@ -8377,10 +8401,10 @@
       </c>
     </row>
     <row r="129" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A129" s="28">
+      <c r="A129" s="27">
         <v>44784</v>
       </c>
-      <c r="B129" s="28">
+      <c r="B129" s="27">
         <v>44796</v>
       </c>
       <c r="C129" s="6" t="str">
@@ -8432,10 +8456,10 @@
       </c>
     </row>
     <row r="130" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A130" s="28">
+      <c r="A130" s="27">
         <v>44784</v>
       </c>
-      <c r="B130" s="28">
+      <c r="B130" s="27">
         <v>44796</v>
       </c>
       <c r="C130" s="6" t="str">
@@ -8481,10 +8505,10 @@
       </c>
     </row>
     <row r="131" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A131" s="28">
+      <c r="A131" s="27">
         <v>44784</v>
       </c>
-      <c r="B131" s="28">
+      <c r="B131" s="27">
         <v>44796</v>
       </c>
       <c r="C131" s="6" t="str">
@@ -8530,10 +8554,10 @@
       </c>
     </row>
     <row r="132" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A132" s="28">
+      <c r="A132" s="27">
         <v>44784</v>
       </c>
-      <c r="B132" s="28">
+      <c r="B132" s="27">
         <v>44796</v>
       </c>
       <c r="C132" s="6" t="str">
@@ -8579,10 +8603,10 @@
       </c>
     </row>
     <row r="133" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A133" s="28">
+      <c r="A133" s="27">
         <v>44784</v>
       </c>
-      <c r="B133" s="28">
+      <c r="B133" s="27">
         <v>44796</v>
       </c>
       <c r="C133" s="6" t="str">
@@ -8637,10 +8661,10 @@
       </c>
     </row>
     <row r="134" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A134" s="28">
+      <c r="A134" s="27">
         <v>44784</v>
       </c>
-      <c r="B134" s="28">
+      <c r="B134" s="27">
         <v>44796</v>
       </c>
       <c r="C134" s="6" t="str">
@@ -8692,10 +8716,10 @@
       </c>
     </row>
     <row r="135" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A135" s="28">
+      <c r="A135" s="27">
         <v>44784</v>
       </c>
-      <c r="B135" s="28">
+      <c r="B135" s="27">
         <v>44796</v>
       </c>
       <c r="C135" s="6" t="str">
@@ -8735,10 +8759,10 @@
       </c>
     </row>
     <row r="136" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A136" s="28">
+      <c r="A136" s="27">
         <v>44784</v>
       </c>
-      <c r="B136" s="28">
+      <c r="B136" s="27">
         <v>44796</v>
       </c>
       <c r="C136" s="6" t="str">
@@ -8784,10 +8808,10 @@
       </c>
     </row>
     <row r="137" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A137" s="28">
+      <c r="A137" s="27">
         <v>44784</v>
       </c>
-      <c r="B137" s="28">
+      <c r="B137" s="27">
         <v>44796</v>
       </c>
       <c r="C137" s="6" t="str">
@@ -8827,10 +8851,10 @@
       </c>
     </row>
     <row r="138" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A138" s="28">
+      <c r="A138" s="27">
         <v>44784</v>
       </c>
-      <c r="B138" s="28">
+      <c r="B138" s="27">
         <v>44796</v>
       </c>
       <c r="C138" s="6" t="str">
@@ -8873,10 +8897,10 @@
       </c>
     </row>
     <row r="139" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A139" s="28">
+      <c r="A139" s="27">
         <v>44784</v>
       </c>
-      <c r="B139" s="28">
+      <c r="B139" s="27">
         <v>44796</v>
       </c>
       <c r="C139" s="6" t="str">
@@ -8925,10 +8949,10 @@
       </c>
     </row>
     <row r="140" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A140" s="28">
+      <c r="A140" s="27">
         <v>44784</v>
       </c>
-      <c r="B140" s="28">
+      <c r="B140" s="27">
         <v>44796</v>
       </c>
       <c r="C140" s="6" t="str">
@@ -8974,10 +8998,10 @@
       </c>
     </row>
     <row r="141" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A141" s="28">
+      <c r="A141" s="27">
         <v>44784</v>
       </c>
-      <c r="B141" s="28">
+      <c r="B141" s="27">
         <v>44796</v>
       </c>
       <c r="C141" s="6" t="str">
@@ -9023,10 +9047,10 @@
       </c>
     </row>
     <row r="142" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A142" s="28">
+      <c r="A142" s="27">
         <v>44784</v>
       </c>
-      <c r="B142" s="28">
+      <c r="B142" s="27">
         <v>44796</v>
       </c>
       <c r="C142" s="6" t="str">
@@ -9072,10 +9096,10 @@
       </c>
     </row>
     <row r="143" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A143" s="28">
+      <c r="A143" s="27">
         <v>44784</v>
       </c>
-      <c r="B143" s="28">
+      <c r="B143" s="27">
         <v>44796</v>
       </c>
       <c r="C143" s="6" t="str">
@@ -9127,10 +9151,10 @@
       </c>
     </row>
     <row r="144" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A144" s="28">
+      <c r="A144" s="27">
         <v>44784</v>
       </c>
-      <c r="B144" s="28">
+      <c r="B144" s="27">
         <v>44796</v>
       </c>
       <c r="C144" s="6" t="str">
@@ -9179,10 +9203,10 @@
       </c>
     </row>
     <row r="145" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A145" s="28">
+      <c r="A145" s="27">
         <v>44784</v>
       </c>
-      <c r="B145" s="28">
+      <c r="B145" s="27">
         <v>44796</v>
       </c>
       <c r="C145" s="6" t="str">
@@ -9237,10 +9261,10 @@
       </c>
     </row>
     <row r="146" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A146" s="28">
+      <c r="A146" s="27">
         <v>44796</v>
       </c>
-      <c r="B146" s="32">
+      <c r="B146" s="31">
         <v>44810</v>
       </c>
       <c r="C146" s="8" t="str">
@@ -9286,10 +9310,10 @@
       </c>
     </row>
     <row r="147" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A147" s="28">
+      <c r="A147" s="27">
         <v>44796</v>
       </c>
-      <c r="B147" s="32">
+      <c r="B147" s="31">
         <v>44810</v>
       </c>
       <c r="C147" s="8" t="str">
@@ -9329,10 +9353,10 @@
       </c>
     </row>
     <row r="148" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A148" s="28">
+      <c r="A148" s="27">
         <v>44796</v>
       </c>
-      <c r="B148" s="32">
+      <c r="B148" s="31">
         <v>44810</v>
       </c>
       <c r="C148" s="8" t="str">
@@ -9375,10 +9399,10 @@
       </c>
     </row>
     <row r="149" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A149" s="28">
+      <c r="A149" s="27">
         <v>44796</v>
       </c>
-      <c r="B149" s="32">
+      <c r="B149" s="31">
         <v>44810</v>
       </c>
       <c r="C149" s="8" t="str">
@@ -9421,10 +9445,10 @@
       </c>
     </row>
     <row r="150" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A150" s="28">
+      <c r="A150" s="27">
         <v>44796</v>
       </c>
-      <c r="B150" s="32">
+      <c r="B150" s="31">
         <v>44810</v>
       </c>
       <c r="C150" s="8" t="str">
@@ -9467,10 +9491,10 @@
       </c>
     </row>
     <row r="151" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A151" s="28">
+      <c r="A151" s="27">
         <v>44796</v>
       </c>
-      <c r="B151" s="32">
+      <c r="B151" s="31">
         <v>44810</v>
       </c>
       <c r="C151" s="8" t="str">
@@ -9531,10 +9555,10 @@
       </c>
     </row>
     <row r="152" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A152" s="28">
+      <c r="A152" s="27">
         <v>44796</v>
       </c>
-      <c r="B152" s="32">
+      <c r="B152" s="31">
         <v>44810</v>
       </c>
       <c r="C152" s="8" t="str">
@@ -9583,10 +9607,10 @@
       </c>
     </row>
     <row r="153" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A153" s="28">
+      <c r="A153" s="27">
         <v>44796</v>
       </c>
-      <c r="B153" s="32">
+      <c r="B153" s="31">
         <v>44810</v>
       </c>
       <c r="C153" s="8" t="str">
@@ -9635,10 +9659,10 @@
       </c>
     </row>
     <row r="154" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A154" s="28">
+      <c r="A154" s="27">
         <v>44796</v>
       </c>
-      <c r="B154" s="32">
+      <c r="B154" s="31">
         <v>44810</v>
       </c>
       <c r="C154" s="8" t="str">
@@ -9684,10 +9708,10 @@
       </c>
     </row>
     <row r="155" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A155" s="28">
+      <c r="A155" s="27">
         <v>44796</v>
       </c>
-      <c r="B155" s="32">
+      <c r="B155" s="31">
         <v>44810</v>
       </c>
       <c r="C155" s="8" t="str">
@@ -9727,10 +9751,10 @@
       </c>
     </row>
     <row r="156" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A156" s="28">
+      <c r="A156" s="27">
         <v>44796</v>
       </c>
-      <c r="B156" s="32">
+      <c r="B156" s="31">
         <v>44810</v>
       </c>
       <c r="C156" s="8" t="str">
@@ -9782,10 +9806,10 @@
       </c>
     </row>
     <row r="157" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A157" s="28">
+      <c r="A157" s="27">
         <v>44796</v>
       </c>
-      <c r="B157" s="32">
+      <c r="B157" s="31">
         <v>44810</v>
       </c>
       <c r="C157" s="8" t="str">
@@ -9843,10 +9867,10 @@
       </c>
     </row>
     <row r="158" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A158" s="28">
+      <c r="A158" s="27">
         <v>44796</v>
       </c>
-      <c r="B158" s="32">
+      <c r="B158" s="31">
         <v>44810</v>
       </c>
       <c r="C158" s="8" t="str">
@@ -9889,10 +9913,10 @@
       </c>
     </row>
     <row r="159" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A159" s="28">
+      <c r="A159" s="27">
         <v>44796</v>
       </c>
-      <c r="B159" s="32">
+      <c r="B159" s="31">
         <v>44810</v>
       </c>
       <c r="C159" s="8" t="str">
@@ -9929,10 +9953,10 @@
       </c>
     </row>
     <row r="160" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A160" s="28">
+      <c r="A160" s="27">
         <v>44796</v>
       </c>
-      <c r="B160" s="32">
+      <c r="B160" s="31">
         <v>44810</v>
       </c>
       <c r="C160" s="8" t="str">
@@ -9969,10 +9993,10 @@
       </c>
     </row>
     <row r="161" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A161" s="28">
+      <c r="A161" s="27">
         <v>44796</v>
       </c>
-      <c r="B161" s="32">
+      <c r="B161" s="31">
         <v>44810</v>
       </c>
       <c r="C161" s="8" t="str">
@@ -10018,10 +10042,10 @@
       </c>
     </row>
     <row r="162" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A162" s="28">
+      <c r="A162" s="27">
         <v>44796</v>
       </c>
-      <c r="B162" s="32">
+      <c r="B162" s="31">
         <v>44810</v>
       </c>
       <c r="C162" s="8" t="str">
@@ -10064,10 +10088,10 @@
       </c>
     </row>
     <row r="163" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A163" s="28">
+      <c r="A163" s="27">
         <v>44796</v>
       </c>
-      <c r="B163" s="32">
+      <c r="B163" s="31">
         <v>44810</v>
       </c>
       <c r="C163" s="8" t="str">
@@ -10110,10 +10134,10 @@
       </c>
     </row>
     <row r="164" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A164" s="28">
+      <c r="A164" s="27">
         <v>44796</v>
       </c>
-      <c r="B164" s="32">
+      <c r="B164" s="31">
         <v>44810</v>
       </c>
       <c r="C164" s="8" t="str">
@@ -10153,10 +10177,10 @@
       </c>
     </row>
     <row r="165" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A165" s="28">
+      <c r="A165" s="27">
         <v>44796</v>
       </c>
-      <c r="B165" s="32">
+      <c r="B165" s="31">
         <v>44810</v>
       </c>
       <c r="C165" s="8" t="str">
@@ -10199,10 +10223,10 @@
       </c>
     </row>
     <row r="166" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A166" s="28">
+      <c r="A166" s="27">
         <v>44796</v>
       </c>
-      <c r="B166" s="32">
+      <c r="B166" s="31">
         <v>44810</v>
       </c>
       <c r="C166" s="8" t="str">
@@ -10245,10 +10269,10 @@
       </c>
     </row>
     <row r="167" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A167" s="28">
+      <c r="A167" s="27">
         <v>44796</v>
       </c>
-      <c r="B167" s="32">
+      <c r="B167" s="31">
         <v>44810</v>
       </c>
       <c r="C167" s="8" t="str">
@@ -10290,10 +10314,10 @@
       </c>
     </row>
     <row r="168" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A168" s="28">
+      <c r="A168" s="27">
         <v>44796</v>
       </c>
-      <c r="B168" s="32">
+      <c r="B168" s="31">
         <v>44810</v>
       </c>
       <c r="C168" s="8" t="str">
@@ -10345,10 +10369,10 @@
       </c>
     </row>
     <row r="169" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A169" s="28">
+      <c r="A169" s="27">
         <v>44796</v>
       </c>
-      <c r="B169" s="32">
+      <c r="B169" s="31">
         <v>44810</v>
       </c>
       <c r="C169" s="8" t="str">
@@ -10397,10 +10421,10 @@
       </c>
     </row>
     <row r="170" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A170" s="28">
+      <c r="A170" s="27">
         <v>44810</v>
       </c>
-      <c r="B170" s="28">
+      <c r="B170" s="27">
         <v>44824</v>
       </c>
       <c r="C170" s="6" t="str">
@@ -10443,10 +10467,10 @@
       </c>
     </row>
     <row r="171" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A171" s="28">
+      <c r="A171" s="27">
         <v>44810</v>
       </c>
-      <c r="B171" s="28">
+      <c r="B171" s="27">
         <v>44824</v>
       </c>
       <c r="C171" s="6" t="str">
@@ -10492,10 +10516,10 @@
       </c>
     </row>
     <row r="172" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A172" s="28">
+      <c r="A172" s="27">
         <v>44810</v>
       </c>
-      <c r="B172" s="28">
+      <c r="B172" s="27">
         <v>44824</v>
       </c>
       <c r="C172" s="6" t="str">
@@ -10535,10 +10559,10 @@
       </c>
     </row>
     <row r="173" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A173" s="28">
+      <c r="A173" s="27">
         <v>44810</v>
       </c>
-      <c r="B173" s="28">
+      <c r="B173" s="27">
         <v>44824</v>
       </c>
       <c r="C173" s="6" t="str">
@@ -10581,10 +10605,10 @@
       </c>
     </row>
     <row r="174" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A174" s="28">
+      <c r="A174" s="27">
         <v>44810</v>
       </c>
-      <c r="B174" s="28">
+      <c r="B174" s="27">
         <v>44824</v>
       </c>
       <c r="C174" s="6" t="str">
@@ -10624,10 +10648,10 @@
       </c>
     </row>
     <row r="175" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A175" s="28">
+      <c r="A175" s="27">
         <v>44810</v>
       </c>
-      <c r="B175" s="28">
+      <c r="B175" s="27">
         <v>44824</v>
       </c>
       <c r="C175" s="6" t="str">
@@ -10676,10 +10700,10 @@
       </c>
     </row>
     <row r="176" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A176" s="28">
+      <c r="A176" s="27">
         <v>44810</v>
       </c>
-      <c r="B176" s="28">
+      <c r="B176" s="27">
         <v>44824</v>
       </c>
       <c r="C176" s="6" t="str">
@@ -10722,10 +10746,10 @@
       </c>
     </row>
     <row r="177" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A177" s="28">
+      <c r="A177" s="27">
         <v>44810</v>
       </c>
-      <c r="B177" s="28">
+      <c r="B177" s="27">
         <v>44824</v>
       </c>
       <c r="C177" s="6" t="str">
@@ -10773,10 +10797,10 @@
       </c>
     </row>
     <row r="178" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A178" s="28">
+      <c r="A178" s="27">
         <v>44810</v>
       </c>
-      <c r="B178" s="28">
+      <c r="B178" s="27">
         <v>44824</v>
       </c>
       <c r="C178" s="6" t="str">
@@ -10825,10 +10849,10 @@
       </c>
     </row>
     <row r="179" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A179" s="28">
+      <c r="A179" s="27">
         <v>44810</v>
       </c>
-      <c r="B179" s="28">
+      <c r="B179" s="27">
         <v>44824</v>
       </c>
       <c r="C179" s="6" t="str">
@@ -10870,10 +10894,10 @@
       </c>
     </row>
     <row r="180" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A180" s="28">
+      <c r="A180" s="27">
         <v>44810</v>
       </c>
-      <c r="B180" s="28">
+      <c r="B180" s="27">
         <v>44824</v>
       </c>
       <c r="C180" s="6" t="str">
@@ -10925,10 +10949,10 @@
       </c>
     </row>
     <row r="181" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A181" s="28">
+      <c r="A181" s="27">
         <v>44810</v>
       </c>
-      <c r="B181" s="28">
+      <c r="B181" s="27">
         <v>44824</v>
       </c>
       <c r="C181" s="6" t="str">
@@ -10980,10 +11004,10 @@
       </c>
     </row>
     <row r="182" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A182" s="28">
+      <c r="A182" s="27">
         <v>44810</v>
       </c>
-      <c r="B182" s="28">
+      <c r="B182" s="27">
         <v>44824</v>
       </c>
       <c r="C182" s="6" t="str">
@@ -11041,10 +11065,10 @@
       </c>
     </row>
     <row r="183" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A183" s="28">
+      <c r="A183" s="27">
         <v>44810</v>
       </c>
-      <c r="B183" s="28">
+      <c r="B183" s="27">
         <v>44824</v>
       </c>
       <c r="C183" s="6" t="str">
@@ -11087,10 +11111,10 @@
       </c>
     </row>
     <row r="184" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A184" s="28">
+      <c r="A184" s="27">
         <v>44810</v>
       </c>
-      <c r="B184" s="28">
+      <c r="B184" s="27">
         <v>44824</v>
       </c>
       <c r="C184" s="6" t="str">
@@ -11139,10 +11163,10 @@
       </c>
     </row>
     <row r="185" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A185" s="28">
+      <c r="A185" s="27">
         <v>44810</v>
       </c>
-      <c r="B185" s="28">
+      <c r="B185" s="27">
         <v>44824</v>
       </c>
       <c r="C185" s="6" t="str">
@@ -11188,10 +11212,10 @@
       </c>
     </row>
     <row r="186" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A186" s="28">
+      <c r="A186" s="27">
         <v>44810</v>
       </c>
-      <c r="B186" s="28">
+      <c r="B186" s="27">
         <v>44824</v>
       </c>
       <c r="C186" s="6" t="str">
@@ -11237,10 +11261,10 @@
       </c>
     </row>
     <row r="187" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A187" s="28">
+      <c r="A187" s="27">
         <v>44810</v>
       </c>
-      <c r="B187" s="28">
+      <c r="B187" s="27">
         <v>44824</v>
       </c>
       <c r="C187" s="6" t="str">
@@ -11289,10 +11313,10 @@
       </c>
     </row>
     <row r="188" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A188" s="28">
+      <c r="A188" s="27">
         <v>44810</v>
       </c>
-      <c r="B188" s="28">
+      <c r="B188" s="27">
         <v>44824</v>
       </c>
       <c r="C188" s="6" t="str">
@@ -11343,10 +11367,10 @@
       </c>
     </row>
     <row r="189" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A189" s="28">
+      <c r="A189" s="27">
         <v>44810</v>
       </c>
-      <c r="B189" s="28">
+      <c r="B189" s="27">
         <v>44824</v>
       </c>
       <c r="C189" s="6" t="str">
@@ -11396,68 +11420,68 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:59" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A190" s="34">
+    <row r="190" spans="1:59" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A190" s="32">
         <v>44810</v>
       </c>
-      <c r="B190" s="34">
+      <c r="B190" s="32">
         <v>44824</v>
       </c>
-      <c r="C190" s="18" t="str">
+      <c r="C190" s="17" t="str">
         <f t="shared" si="13"/>
         <v>S(61/20)</v>
       </c>
-      <c r="D190" s="18">
+      <c r="D190" s="17">
         <v>7</v>
       </c>
-      <c r="E190" s="19" t="str">
+      <c r="E190" s="18" t="str">
         <f t="shared" si="14"/>
         <v>7_20</v>
       </c>
-      <c r="F190" s="18" t="s">
+      <c r="F190" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G190" s="18">
+      <c r="G190" s="17">
         <v>61</v>
       </c>
-      <c r="H190" s="18">
+      <c r="H190" s="17">
         <v>20</v>
       </c>
-      <c r="I190" s="18">
-        <v>0</v>
-      </c>
-      <c r="J190" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="K190" s="18"/>
-      <c r="L190" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="N190" s="19">
+      <c r="I190" s="17">
+        <v>0</v>
+      </c>
+      <c r="J190" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="K190" s="17"/>
+      <c r="L190" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="N190" s="18">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
-      <c r="AK190" s="19">
-        <v>1</v>
-      </c>
-      <c r="AO190" s="19">
-        <v>1</v>
-      </c>
-      <c r="AY190" s="19">
+      <c r="AK190" s="18">
+        <v>1</v>
+      </c>
+      <c r="AO190" s="18">
+        <v>1</v>
+      </c>
+      <c r="AY190" s="18">
         <v>7</v>
       </c>
-      <c r="BB190" s="19">
-        <v>1</v>
-      </c>
-      <c r="BE190" s="19">
+      <c r="BB190" s="18">
+        <v>1</v>
+      </c>
+      <c r="BE190" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A191" s="28">
+      <c r="A191" s="27">
         <v>44810</v>
       </c>
-      <c r="B191" s="28">
+      <c r="B191" s="27">
         <v>44824</v>
       </c>
       <c r="C191" s="6" t="str">
@@ -11514,10 +11538,10 @@
       </c>
     </row>
     <row r="192" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A192" s="28">
+      <c r="A192" s="27">
         <v>44810</v>
       </c>
-      <c r="B192" s="28">
+      <c r="B192" s="27">
         <v>44824</v>
       </c>
       <c r="C192" s="6" t="str">
@@ -11560,10 +11584,10 @@
       </c>
     </row>
     <row r="193" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A193" s="28">
+      <c r="A193" s="27">
         <v>44810</v>
       </c>
-      <c r="B193" s="28">
+      <c r="B193" s="27">
         <v>44824</v>
       </c>
       <c r="C193" s="6" t="str">
@@ -11616,13 +11640,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1205A642-CED4-42A7-927C-187F50D1C4EC}">
-  <dimension ref="A1:M193"/>
+  <dimension ref="A1:S194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="L155" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L166" sqref="L166"/>
+      <selection pane="bottomRight" activeCell="I194" sqref="I194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11631,23 +11655,27 @@
     <col min="2" max="2" width="10.1796875" customWidth="1"/>
     <col min="11" max="11" width="14.26953125" customWidth="1"/>
     <col min="12" max="12" width="14.1796875" customWidth="1"/>
-    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="13" max="13" width="11.36328125" customWidth="1"/>
+    <col min="14" max="14" width="12.1796875" customWidth="1"/>
+    <col min="15" max="17" width="11" customWidth="1"/>
+    <col min="18" max="18" width="12.26953125" customWidth="1"/>
+    <col min="19" max="19" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="26" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="24" t="s">
         <v>26</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -11665,17 +11693,35 @@
       <c r="J1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="L1" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="M1" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="O1" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="M1" s="24" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P1" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="R1" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="S1" s="33" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>44713</v>
       </c>
@@ -11707,11 +11753,11 @@
       </c>
       <c r="J2" s="6"/>
       <c r="L2">
-        <f>SUM(M2:BH2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+        <f>SUM(O2:BL2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>44714</v>
       </c>
@@ -11743,11 +11789,11 @@
       </c>
       <c r="J3" s="6"/>
       <c r="L3">
-        <f t="shared" ref="L3:L66" si="2">SUM(M3:BH3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ref="L3:L66" si="2">SUM(O3:BL3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>44714</v>
       </c>
@@ -11780,10 +11826,13 @@
       <c r="J4" s="6"/>
       <c r="L4">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>44713</v>
       </c>
@@ -11821,7 +11870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>44714</v>
       </c>
@@ -11857,7 +11906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>44714</v>
       </c>
@@ -11893,7 +11942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>44714</v>
       </c>
@@ -11929,7 +11978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="15"/>
       <c r="B9" s="14">
         <v>44727</v>
@@ -11960,12 +12009,35 @@
       <c r="J9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="L9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" t="s">
+        <v>101</v>
+      </c>
+      <c r="M9" t="s">
+        <v>101</v>
+      </c>
+      <c r="N9" t="s">
+        <v>101</v>
+      </c>
+      <c r="O9" t="s">
+        <v>101</v>
+      </c>
+      <c r="P9" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>101</v>
+      </c>
+      <c r="R9" t="s">
+        <v>101</v>
+      </c>
+      <c r="S9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>44714</v>
       </c>
@@ -12001,7 +12073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>44714</v>
       </c>
@@ -12039,7 +12111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>44714</v>
       </c>
@@ -12075,7 +12147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
       <c r="B13" s="10">
         <v>44727</v>
@@ -12104,12 +12176,35 @@
         <v>1</v>
       </c>
       <c r="J13" s="11"/>
-      <c r="L13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K13" t="s">
+        <v>101</v>
+      </c>
+      <c r="L13" t="s">
+        <v>101</v>
+      </c>
+      <c r="M13" t="s">
+        <v>101</v>
+      </c>
+      <c r="N13" t="s">
+        <v>101</v>
+      </c>
+      <c r="O13" t="s">
+        <v>101</v>
+      </c>
+      <c r="P13" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>101</v>
+      </c>
+      <c r="R13" t="s">
+        <v>101</v>
+      </c>
+      <c r="S13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>44713</v>
       </c>
@@ -12145,7 +12240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>44713</v>
       </c>
@@ -12181,7 +12276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>44713</v>
       </c>
@@ -12217,7 +12312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>44713</v>
       </c>
@@ -12250,10 +12345,13 @@
       <c r="J17" s="6"/>
       <c r="L17">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="O17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>44713</v>
       </c>
@@ -12291,7 +12389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>44713</v>
       </c>
@@ -12329,7 +12427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>44713</v>
       </c>
@@ -12365,7 +12463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>44713</v>
       </c>
@@ -12403,7 +12501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>44713</v>
       </c>
@@ -12439,7 +12537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="15"/>
       <c r="B23" s="14">
         <v>44727</v>
@@ -12470,12 +12568,35 @@
       <c r="J23" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="L23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K23" t="s">
+        <v>101</v>
+      </c>
+      <c r="L23" t="s">
+        <v>101</v>
+      </c>
+      <c r="M23" t="s">
+        <v>101</v>
+      </c>
+      <c r="N23" t="s">
+        <v>101</v>
+      </c>
+      <c r="O23" t="s">
+        <v>101</v>
+      </c>
+      <c r="P23" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>101</v>
+      </c>
+      <c r="R23" t="s">
+        <v>101</v>
+      </c>
+      <c r="S23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>44713</v>
       </c>
@@ -12511,7 +12632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>44713</v>
       </c>
@@ -12549,7 +12670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>44727</v>
       </c>
@@ -12587,7 +12708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>44727</v>
       </c>
@@ -12625,7 +12746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>44727</v>
       </c>
@@ -12663,7 +12784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>44727</v>
       </c>
@@ -12701,7 +12822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>44727</v>
       </c>
@@ -12734,10 +12855,13 @@
       <c r="J30" s="6"/>
       <c r="L30">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>44727</v>
       </c>
@@ -12773,7 +12897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>44727</v>
       </c>
@@ -12809,7 +12933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>44727</v>
       </c>
@@ -12842,10 +12966,13 @@
       <c r="J33" s="6"/>
       <c r="L33">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>44727</v>
       </c>
@@ -12881,7 +13008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>44727</v>
       </c>
@@ -12917,7 +13044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <v>44727</v>
       </c>
@@ -12950,10 +13077,13 @@
       <c r="J36" s="6"/>
       <c r="L36">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="O36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <v>44727</v>
       </c>
@@ -12990,8 +13120,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>44727</v>
       </c>
@@ -13027,7 +13160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="14">
         <v>44727</v>
       </c>
@@ -13060,12 +13193,35 @@
       <c r="J39" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="L39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K39" t="s">
+        <v>101</v>
+      </c>
+      <c r="L39" t="s">
+        <v>101</v>
+      </c>
+      <c r="M39" t="s">
+        <v>101</v>
+      </c>
+      <c r="N39" t="s">
+        <v>101</v>
+      </c>
+      <c r="O39" t="s">
+        <v>101</v>
+      </c>
+      <c r="P39" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>101</v>
+      </c>
+      <c r="R39" t="s">
+        <v>101</v>
+      </c>
+      <c r="S39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>44727</v>
       </c>
@@ -13101,7 +13257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
         <v>44727</v>
       </c>
@@ -13137,7 +13293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <v>44727</v>
       </c>
@@ -13170,10 +13326,13 @@
       <c r="J42" s="6"/>
       <c r="L42">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="O42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
         <v>44727</v>
       </c>
@@ -13206,10 +13365,16 @@
       <c r="J43" s="6"/>
       <c r="L43">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="M43">
+        <v>2</v>
+      </c>
+      <c r="O43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <v>44727</v>
       </c>
@@ -13245,7 +13410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
         <v>44727</v>
       </c>
@@ -13283,7 +13448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
         <v>44727</v>
       </c>
@@ -13318,10 +13483,13 @@
       </c>
       <c r="L46">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47" s="14">
         <v>44727</v>
       </c>
@@ -13354,12 +13522,35 @@
       <c r="J47" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="L47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K47" t="s">
+        <v>101</v>
+      </c>
+      <c r="L47" t="s">
+        <v>101</v>
+      </c>
+      <c r="M47" t="s">
+        <v>101</v>
+      </c>
+      <c r="N47" t="s">
+        <v>101</v>
+      </c>
+      <c r="O47" t="s">
+        <v>101</v>
+      </c>
+      <c r="P47" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>101</v>
+      </c>
+      <c r="R47" t="s">
+        <v>101</v>
+      </c>
+      <c r="S47" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
         <v>44727</v>
       </c>
@@ -13395,7 +13586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
         <v>44727</v>
       </c>
@@ -13430,10 +13621,13 @@
       </c>
       <c r="L49">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="O49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
         <v>44741</v>
       </c>
@@ -13469,7 +13663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51" s="5">
         <v>44741</v>
       </c>
@@ -13505,7 +13699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
         <v>44741</v>
       </c>
@@ -13541,7 +13735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" s="5">
         <v>44741</v>
       </c>
@@ -13574,10 +13768,22 @@
       <c r="J53" s="6"/>
       <c r="L53">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="M53">
+        <v>2</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
         <v>44741</v>
       </c>
@@ -13613,7 +13819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
         <v>44741</v>
       </c>
@@ -13649,7 +13855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56" s="5">
         <v>44741</v>
       </c>
@@ -13684,8 +13890,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
         <v>44741</v>
       </c>
@@ -13721,7 +13930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58" s="5">
         <v>44741</v>
       </c>
@@ -13757,7 +13966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59" s="5">
         <v>44741</v>
       </c>
@@ -13793,7 +14002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A60" s="5">
         <v>44741</v>
       </c>
@@ -13828,8 +14037,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A61" s="5">
         <v>44741</v>
       </c>
@@ -13862,10 +14074,16 @@
       <c r="J61" s="6"/>
       <c r="L61">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="S61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A62" s="5">
         <v>44741</v>
       </c>
@@ -13901,7 +14119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A63" s="5">
         <v>44741</v>
       </c>
@@ -13937,7 +14155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A64" s="5">
         <v>44741</v>
       </c>
@@ -13973,7 +14191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
         <v>44741</v>
       </c>
@@ -14008,8 +14226,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A66" s="5">
         <v>44741</v>
       </c>
@@ -14042,10 +14263,13 @@
       <c r="J66" s="6"/>
       <c r="L66">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A67" s="5">
         <v>44741</v>
       </c>
@@ -14077,11 +14301,11 @@
       </c>
       <c r="J67" s="6"/>
       <c r="L67">
-        <f t="shared" ref="L67:L130" si="5">SUM(M67:BH67)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" ref="L67:L130" si="5">SUM(O67:BL67)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A68" s="5">
         <v>44741</v>
       </c>
@@ -14117,7 +14341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A69" s="5">
         <v>44741</v>
       </c>
@@ -14153,7 +14377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A70" s="5">
         <v>44741</v>
       </c>
@@ -14189,7 +14413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
         <v>44741</v>
       </c>
@@ -14222,10 +14446,13 @@
       <c r="J71" s="6"/>
       <c r="L71">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A72" s="5">
         <v>44741</v>
       </c>
@@ -14261,7 +14488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A73" s="5">
         <v>44741</v>
       </c>
@@ -14299,7 +14526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A74" s="5">
         <v>44755</v>
       </c>
@@ -14335,7 +14562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A75" s="5">
         <v>44755</v>
       </c>
@@ -14371,151 +14598,151 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A76" s="5">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A76" s="34">
         <v>44755</v>
       </c>
-      <c r="B76" s="5">
+      <c r="B76" s="34">
         <v>44769</v>
       </c>
-      <c r="C76" s="6" t="str">
+      <c r="C76" s="35" t="str">
         <f t="shared" si="3"/>
         <v>W(43/2)</v>
       </c>
-      <c r="D76" s="6">
+      <c r="D76" s="35">
         <v>3</v>
       </c>
-      <c r="E76" s="4" t="str">
+      <c r="E76" s="36" t="str">
         <f t="shared" si="4"/>
         <v>3_2</v>
       </c>
-      <c r="F76" s="6" t="s">
+      <c r="F76" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="G76" s="6">
+      <c r="G76" s="35">
         <v>43</v>
       </c>
-      <c r="H76" s="6">
-        <v>2</v>
-      </c>
-      <c r="I76" s="6">
-        <v>0</v>
-      </c>
-      <c r="J76" s="6"/>
+      <c r="H76" s="35">
+        <v>2</v>
+      </c>
+      <c r="I76" s="35">
+        <v>0</v>
+      </c>
+      <c r="J76" s="35"/>
       <c r="L76">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A77" s="5">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A77" s="34">
         <v>44755</v>
       </c>
-      <c r="B77" s="10">
+      <c r="B77" s="34">
         <v>44769</v>
       </c>
-      <c r="C77" s="11" t="str">
+      <c r="C77" s="35" t="str">
         <f t="shared" si="3"/>
         <v>F(44/3)</v>
       </c>
-      <c r="D77" s="11">
+      <c r="D77" s="35">
         <v>3</v>
       </c>
-      <c r="E77" s="12" t="str">
+      <c r="E77" s="36" t="str">
         <f t="shared" si="4"/>
         <v>3_3</v>
       </c>
-      <c r="F77" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G77" s="11">
+      <c r="F77" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G77" s="35">
         <v>44</v>
       </c>
-      <c r="H77" s="11">
+      <c r="H77" s="35">
         <v>3</v>
       </c>
-      <c r="I77" s="11">
-        <v>0</v>
-      </c>
-      <c r="J77" s="11"/>
+      <c r="I77" s="35">
+        <v>0</v>
+      </c>
+      <c r="J77" s="35"/>
       <c r="L77">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A78" s="5">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A78" s="34">
         <v>44755</v>
       </c>
-      <c r="B78" s="5">
+      <c r="B78" s="34">
         <v>44769</v>
       </c>
-      <c r="C78" s="6" t="str">
+      <c r="C78" s="35" t="str">
         <f t="shared" si="3"/>
         <v>F(45/4)</v>
       </c>
-      <c r="D78" s="6">
+      <c r="D78" s="35">
         <v>3</v>
       </c>
-      <c r="E78" s="4" t="str">
+      <c r="E78" s="36" t="str">
         <f t="shared" si="4"/>
         <v>3_4</v>
       </c>
-      <c r="F78" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G78" s="6">
+      <c r="F78" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G78" s="35">
         <v>45</v>
       </c>
-      <c r="H78" s="6">
+      <c r="H78" s="35">
         <v>4</v>
       </c>
-      <c r="I78" s="6">
-        <v>0</v>
-      </c>
-      <c r="J78" s="6"/>
+      <c r="I78" s="35">
+        <v>0</v>
+      </c>
+      <c r="J78" s="35"/>
       <c r="L78">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A79" s="5">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A79" s="34">
         <v>44755</v>
       </c>
-      <c r="B79" s="10">
+      <c r="B79" s="34">
         <v>44769</v>
       </c>
-      <c r="C79" s="11" t="str">
+      <c r="C79" s="35" t="str">
         <f t="shared" si="3"/>
         <v>S(46/5)</v>
       </c>
-      <c r="D79" s="11">
+      <c r="D79" s="35">
         <v>3</v>
       </c>
-      <c r="E79" s="12" t="str">
+      <c r="E79" s="36" t="str">
         <f t="shared" si="4"/>
         <v>3_5</v>
       </c>
-      <c r="F79" s="11" t="s">
+      <c r="F79" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G79" s="11">
+      <c r="G79" s="35">
         <v>46</v>
       </c>
-      <c r="H79" s="11">
-        <v>5</v>
-      </c>
-      <c r="I79" s="11">
-        <v>0</v>
-      </c>
-      <c r="J79" s="11"/>
+      <c r="H79" s="35">
+        <v>5</v>
+      </c>
+      <c r="I79" s="35">
+        <v>0</v>
+      </c>
+      <c r="J79" s="35"/>
       <c r="L79">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A80" s="5">
         <v>44755</v>
       </c>
@@ -14551,7 +14778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A81" s="5">
         <v>44755</v>
       </c>
@@ -14587,7 +14814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A82" s="5">
         <v>44755</v>
       </c>
@@ -14620,10 +14847,16 @@
       <c r="J82" s="6"/>
       <c r="L82">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <v>7</v>
+      </c>
+      <c r="S82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A83" s="5">
         <v>44755</v>
       </c>
@@ -14659,7 +14892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A84" s="5">
         <v>44755</v>
       </c>
@@ -14695,7 +14928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A85" s="5">
         <v>44755</v>
       </c>
@@ -14728,82 +14961,88 @@
       <c r="J85" s="6"/>
       <c r="L85">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A86" s="5">
         <v>44755</v>
       </c>
-      <c r="B86" s="5">
+      <c r="B86" s="34">
         <v>44769</v>
       </c>
-      <c r="C86" s="6" t="str">
+      <c r="C86" s="35" t="str">
         <f t="shared" si="3"/>
         <v>S(53/12)</v>
       </c>
-      <c r="D86" s="6">
+      <c r="D86" s="35">
         <v>3</v>
       </c>
-      <c r="E86" s="4" t="str">
+      <c r="E86" s="36" t="str">
         <f t="shared" si="4"/>
         <v>3_12</v>
       </c>
-      <c r="F86" s="6" t="s">
+      <c r="F86" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G86" s="6">
+      <c r="G86" s="35">
         <v>53</v>
       </c>
-      <c r="H86" s="6">
+      <c r="H86" s="35">
         <v>12</v>
       </c>
-      <c r="I86" s="6">
-        <v>0</v>
-      </c>
-      <c r="J86" s="6"/>
+      <c r="I86" s="35">
+        <v>0</v>
+      </c>
+      <c r="J86" s="35"/>
       <c r="L86">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A87" s="5">
         <v>44755</v>
       </c>
-      <c r="B87" s="10">
+      <c r="B87" s="34">
         <v>44769</v>
       </c>
-      <c r="C87" s="11" t="str">
+      <c r="C87" s="35" t="str">
         <f t="shared" si="3"/>
         <v>F(54/13)</v>
       </c>
-      <c r="D87" s="11">
+      <c r="D87" s="35">
         <v>3</v>
       </c>
-      <c r="E87" s="12" t="str">
+      <c r="E87" s="36" t="str">
         <f t="shared" si="4"/>
         <v>3_13</v>
       </c>
-      <c r="F87" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G87" s="11">
+      <c r="F87" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G87" s="35">
         <v>54</v>
       </c>
-      <c r="H87" s="11">
+      <c r="H87" s="35">
         <v>13</v>
       </c>
-      <c r="I87" s="11">
-        <v>0</v>
-      </c>
-      <c r="J87" s="11"/>
+      <c r="I87" s="35">
+        <v>0</v>
+      </c>
+      <c r="J87" s="35"/>
       <c r="L87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A88" s="5">
         <v>44755</v>
       </c>
@@ -14838,8 +15077,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A89" s="5">
         <v>44755</v>
       </c>
@@ -14875,7 +15117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A90" s="5">
         <v>44755</v>
       </c>
@@ -14910,8 +15152,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A91" s="5">
         <v>44755</v>
       </c>
@@ -14947,7 +15192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A92" s="5">
         <v>44755</v>
       </c>
@@ -14980,10 +15225,13 @@
       <c r="J92" s="6"/>
       <c r="L92">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="Q92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A93" s="5">
         <v>44755</v>
       </c>
@@ -15016,10 +15264,13 @@
       <c r="J93" s="6"/>
       <c r="L93">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="R93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A94" s="5">
         <v>44755</v>
       </c>
@@ -15054,8 +15305,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N94">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A95" s="5">
         <v>44755</v>
       </c>
@@ -15091,7 +15345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A96" s="5">
         <v>44755</v>
       </c>
@@ -15124,10 +15378,13 @@
       <c r="J96" s="6"/>
       <c r="L96">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="Q96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A97" s="5">
         <v>44755</v>
       </c>
@@ -15160,10 +15417,13 @@
       <c r="J97" s="6"/>
       <c r="L97">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="Q97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A98" s="5">
         <v>44769</v>
       </c>
@@ -15198,8 +15458,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A99" s="5">
         <v>44769</v>
       </c>
@@ -15235,7 +15498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A100" s="5">
         <v>44769</v>
       </c>
@@ -15271,7 +15534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A101" s="5">
         <v>44769</v>
       </c>
@@ -15307,7 +15570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A102" s="10">
         <v>44769</v>
       </c>
@@ -15338,12 +15601,35 @@
         <v>0</v>
       </c>
       <c r="J102" s="11"/>
-      <c r="L102">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K102" t="s">
+        <v>101</v>
+      </c>
+      <c r="L102" t="s">
+        <v>101</v>
+      </c>
+      <c r="M102" t="s">
+        <v>101</v>
+      </c>
+      <c r="N102" t="s">
+        <v>101</v>
+      </c>
+      <c r="O102" t="s">
+        <v>101</v>
+      </c>
+      <c r="P102" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>101</v>
+      </c>
+      <c r="R102" t="s">
+        <v>101</v>
+      </c>
+      <c r="S102" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A103" s="5">
         <v>44769</v>
       </c>
@@ -15379,7 +15665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A104" s="5">
         <v>44769</v>
       </c>
@@ -15415,7 +15701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A105" s="5">
         <v>44769</v>
       </c>
@@ -15451,7 +15737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A106" s="5">
         <v>44769</v>
       </c>
@@ -15487,7 +15773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A107" s="5">
         <v>44769</v>
       </c>
@@ -15518,84 +15804,107 @@
         <v>0</v>
       </c>
       <c r="J107" s="11"/>
-      <c r="L107">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K107" t="s">
+        <v>101</v>
+      </c>
+      <c r="L107" t="s">
+        <v>101</v>
+      </c>
+      <c r="M107" t="s">
+        <v>101</v>
+      </c>
+      <c r="N107" t="s">
+        <v>101</v>
+      </c>
+      <c r="O107" t="s">
+        <v>101</v>
+      </c>
+      <c r="P107" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>101</v>
+      </c>
+      <c r="R107" t="s">
+        <v>101</v>
+      </c>
+      <c r="S107" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A108" s="5">
         <v>44769</v>
       </c>
-      <c r="B108" s="10">
+      <c r="B108" s="34">
         <v>44784</v>
       </c>
-      <c r="C108" s="11" t="str">
+      <c r="C108" s="35" t="str">
         <f t="shared" si="3"/>
         <v>W(51/10)</v>
       </c>
-      <c r="D108" s="11">
+      <c r="D108" s="35">
         <v>4</v>
       </c>
-      <c r="E108" s="12" t="str">
+      <c r="E108" s="36" t="str">
         <f t="shared" si="4"/>
         <v>4_10</v>
       </c>
-      <c r="F108" s="11" t="s">
+      <c r="F108" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="G108" s="11">
+      <c r="G108" s="35">
         <v>51</v>
       </c>
-      <c r="H108" s="11">
+      <c r="H108" s="35">
         <v>10</v>
       </c>
-      <c r="I108" s="11">
-        <v>0</v>
-      </c>
-      <c r="J108" s="11"/>
+      <c r="I108" s="35">
+        <v>0</v>
+      </c>
+      <c r="J108" s="35"/>
       <c r="L108">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A109" s="5">
         <v>44769</v>
       </c>
-      <c r="B109" s="17">
+      <c r="B109" s="34">
         <v>44784</v>
       </c>
-      <c r="C109" s="18" t="str">
+      <c r="C109" s="35" t="str">
         <f t="shared" si="3"/>
         <v>F(52/11)</v>
       </c>
-      <c r="D109" s="18">
+      <c r="D109" s="35">
         <v>4</v>
       </c>
-      <c r="E109" s="19" t="str">
+      <c r="E109" s="36" t="str">
         <f t="shared" si="4"/>
         <v>4_11</v>
       </c>
-      <c r="F109" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G109" s="18">
+      <c r="F109" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G109" s="35">
         <v>52</v>
       </c>
-      <c r="H109" s="18">
+      <c r="H109" s="35">
         <v>11</v>
       </c>
-      <c r="I109" s="18">
-        <v>0</v>
-      </c>
-      <c r="J109" s="18"/>
+      <c r="I109" s="35">
+        <v>0</v>
+      </c>
+      <c r="J109" s="35"/>
       <c r="L109">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A110" s="5">
         <v>44769</v>
       </c>
@@ -15631,7 +15940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A111" s="5">
         <v>44769</v>
       </c>
@@ -15667,7 +15976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A112" s="5">
         <v>44769</v>
       </c>
@@ -15703,7 +16012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A113" s="5">
         <v>44769</v>
       </c>
@@ -15739,7 +16048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A114" s="5">
         <v>44769</v>
       </c>
@@ -15774,11 +16083,11 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="M114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A115" s="5">
         <v>44769</v>
       </c>
@@ -15811,10 +16120,19 @@
       <c r="J115" s="6"/>
       <c r="L115">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="M115">
+        <v>5</v>
+      </c>
+      <c r="N115">
+        <v>7</v>
+      </c>
+      <c r="P115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A116" s="5">
         <v>44769</v>
       </c>
@@ -15850,7 +16168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A117" s="5">
         <v>44769</v>
       </c>
@@ -15886,7 +16204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A118" s="5">
         <v>44769</v>
       </c>
@@ -15922,7 +16240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A119" s="5">
         <v>44769</v>
       </c>
@@ -15958,7 +16276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A120" s="5">
         <v>44769</v>
       </c>
@@ -15994,7 +16312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A121" s="5">
         <v>44769</v>
       </c>
@@ -16030,7 +16348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A122" s="5">
         <v>44784</v>
       </c>
@@ -16066,7 +16384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A123" s="5">
         <v>44784</v>
       </c>
@@ -16102,7 +16420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A124" s="5">
         <v>44784</v>
       </c>
@@ -16138,7 +16456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A125" s="5">
         <v>44784</v>
       </c>
@@ -16174,7 +16492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A126" s="5">
         <v>44784</v>
       </c>
@@ -16210,7 +16528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A127" s="5">
         <v>44784</v>
       </c>
@@ -16248,7 +16566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A128" s="5">
         <v>44784</v>
       </c>
@@ -16281,10 +16599,13 @@
       <c r="J128" s="6"/>
       <c r="L128">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="O128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A129" s="5">
         <v>44784</v>
       </c>
@@ -16320,7 +16641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A130" s="5">
         <v>44784</v>
       </c>
@@ -16356,7 +16677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A131" s="5">
         <v>44784</v>
       </c>
@@ -16388,11 +16709,11 @@
       </c>
       <c r="J131" s="6"/>
       <c r="L131">
-        <f t="shared" ref="L131:L193" si="8">SUM(M131:BH131)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" ref="L131:L193" si="8">SUM(O131:BL131)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A132" s="5">
         <v>44784</v>
       </c>
@@ -16425,10 +16746,13 @@
       <c r="J132" s="6"/>
       <c r="L132">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="O132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A133" s="5">
         <v>44784</v>
       </c>
@@ -16461,10 +16785,19 @@
       <c r="J133" s="6"/>
       <c r="L133">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="N133">
+        <v>1</v>
+      </c>
+      <c r="O133">
+        <v>23</v>
+      </c>
+      <c r="R133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A134" s="5">
         <v>44784</v>
       </c>
@@ -16497,10 +16830,16 @@
       <c r="J134" s="6"/>
       <c r="L134">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="N134">
+        <v>1</v>
+      </c>
+      <c r="O134">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A135" s="5">
         <v>44784</v>
       </c>
@@ -16536,7 +16875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A136" s="5">
         <v>44784</v>
       </c>
@@ -16572,7 +16911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A137" s="5">
         <v>44784</v>
       </c>
@@ -16608,7 +16947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A138" s="5">
         <v>44784</v>
       </c>
@@ -16644,7 +16983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A139" s="5">
         <v>44784</v>
       </c>
@@ -16680,7 +17019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A140" s="5">
         <v>44784</v>
       </c>
@@ -16716,7 +17055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A141" s="5">
         <v>44784</v>
       </c>
@@ -16752,79 +17091,82 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A142" s="5">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A142" s="34">
         <v>44784</v>
       </c>
-      <c r="B142" s="5">
+      <c r="B142" s="34">
         <v>44796</v>
       </c>
-      <c r="C142" s="6" t="str">
+      <c r="C142" s="35" t="str">
         <f t="shared" si="6"/>
         <v>S(61/20)</v>
       </c>
-      <c r="D142" s="6">
-        <v>5</v>
-      </c>
-      <c r="E142" s="4" t="str">
+      <c r="D142" s="35">
+        <v>5</v>
+      </c>
+      <c r="E142" s="36" t="str">
         <f t="shared" si="7"/>
         <v>5_20</v>
       </c>
-      <c r="F142" s="6" t="s">
+      <c r="F142" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G142" s="6">
+      <c r="G142" s="35">
         <v>61</v>
       </c>
-      <c r="H142" s="6">
+      <c r="H142" s="35">
         <v>20</v>
       </c>
-      <c r="I142" s="6">
-        <v>0</v>
-      </c>
-      <c r="J142" s="6"/>
+      <c r="I142" s="35">
+        <v>0</v>
+      </c>
+      <c r="J142" s="35"/>
       <c r="L142">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A143" s="20">
+        <v>1</v>
+      </c>
+      <c r="O142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A143" s="34">
         <v>44784</v>
       </c>
-      <c r="B143" s="20">
+      <c r="B143" s="34">
         <v>44796</v>
       </c>
-      <c r="C143" s="21" t="str">
+      <c r="C143" s="35" t="str">
         <f t="shared" si="6"/>
         <v>F(62/21)</v>
       </c>
-      <c r="D143" s="21">
-        <v>5</v>
-      </c>
-      <c r="E143" s="22" t="str">
+      <c r="D143" s="35">
+        <v>5</v>
+      </c>
+      <c r="E143" s="36" t="str">
         <f t="shared" si="7"/>
         <v>5_21</v>
       </c>
-      <c r="F143" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="G143" s="21">
+      <c r="F143" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G143" s="35">
         <v>62</v>
       </c>
-      <c r="H143" s="21">
+      <c r="H143" s="35">
         <v>21</v>
       </c>
-      <c r="I143" s="21">
-        <v>0</v>
-      </c>
-      <c r="J143" s="21"/>
+      <c r="I143" s="35">
+        <v>0</v>
+      </c>
+      <c r="J143" s="35"/>
       <c r="L143">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A144" s="5">
         <v>44784</v>
       </c>
@@ -16860,7 +17202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A145" s="5">
         <v>44784</v>
       </c>
@@ -16893,10 +17235,13 @@
       <c r="J145" s="6"/>
       <c r="L145">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="O145">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A146" s="5">
         <v>44796</v>
       </c>
@@ -16932,7 +17277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A147" s="5">
         <v>44796</v>
       </c>
@@ -16968,7 +17313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A148" s="5">
         <v>44796</v>
       </c>
@@ -17004,7 +17349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A149" s="5">
         <v>44796</v>
       </c>
@@ -17040,7 +17385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A150" s="5">
         <v>44796</v>
       </c>
@@ -17076,7 +17421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A151" s="5">
         <v>44796</v>
       </c>
@@ -17112,7 +17457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A152" s="5">
         <v>44796</v>
       </c>
@@ -17148,7 +17493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A153" s="5">
         <v>44796</v>
       </c>
@@ -17183,8 +17528,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A154" s="5">
         <v>44796</v>
       </c>
@@ -17220,7 +17568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A155" s="5">
         <v>44796</v>
       </c>
@@ -17256,7 +17604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A156" s="5">
         <v>44796</v>
       </c>
@@ -17292,7 +17640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A157" s="5">
         <v>44796</v>
       </c>
@@ -17327,8 +17675,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N157">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A158" s="5">
         <v>44796</v>
       </c>
@@ -17364,7 +17715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A159" s="5">
         <v>44796</v>
       </c>
@@ -17400,7 +17751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A160" s="5">
         <v>44796</v>
       </c>
@@ -17436,7 +17787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A161" s="5">
         <v>44796</v>
       </c>
@@ -17472,7 +17823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A162" s="5">
         <v>44796</v>
       </c>
@@ -17508,7 +17859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A163" s="5">
         <v>44796</v>
       </c>
@@ -17544,7 +17895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A164" s="5">
         <v>44796</v>
       </c>
@@ -17580,7 +17931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A165" s="5">
         <v>44796</v>
       </c>
@@ -17615,8 +17966,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A166" s="5">
         <v>44796</v>
       </c>
@@ -17652,7 +18006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A167" s="5">
         <v>44796</v>
       </c>
@@ -17687,8 +18041,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A168" s="5">
         <v>44796</v>
       </c>
@@ -17724,7 +18081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A169" s="5">
         <v>44796</v>
       </c>
@@ -17760,7 +18117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A170" s="5">
         <v>44810</v>
       </c>
@@ -17796,7 +18153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A171" s="5">
         <v>44810</v>
       </c>
@@ -17832,7 +18189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A172" s="5">
         <v>44810</v>
       </c>
@@ -17868,7 +18225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A173" s="5">
         <v>44810</v>
       </c>
@@ -17904,7 +18261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A174" s="5">
         <v>44810</v>
       </c>
@@ -17940,7 +18297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A175" s="5">
         <v>44810</v>
       </c>
@@ -17976,7 +18333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A176" s="5">
         <v>44810</v>
       </c>
@@ -18012,7 +18369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A177" s="5">
         <v>44810</v>
       </c>
@@ -18050,7 +18407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A178" s="5">
         <v>44810</v>
       </c>
@@ -18086,7 +18443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A179" s="5">
         <v>44810</v>
       </c>
@@ -18121,10 +18478,13 @@
       </c>
       <c r="L179">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="O179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A180" s="5">
         <v>44810</v>
       </c>
@@ -18160,7 +18520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A181" s="5">
         <v>44810</v>
       </c>
@@ -18193,10 +18553,25 @@
       <c r="J181" s="6"/>
       <c r="L181">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="M181">
+        <v>2</v>
+      </c>
+      <c r="N181">
+        <v>3</v>
+      </c>
+      <c r="O181">
+        <v>34</v>
+      </c>
+      <c r="Q181">
+        <v>1</v>
+      </c>
+      <c r="R181">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A182" s="5">
         <v>44810</v>
       </c>
@@ -18229,10 +18604,16 @@
       <c r="J182" s="6"/>
       <c r="L182">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="O182">
+        <v>3</v>
+      </c>
+      <c r="Q182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A183" s="5">
         <v>44810</v>
       </c>
@@ -18265,10 +18646,13 @@
       <c r="J183" s="6"/>
       <c r="L183">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="Q183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A184" s="5">
         <v>44810</v>
       </c>
@@ -18304,7 +18688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A185" s="5">
         <v>44810</v>
       </c>
@@ -18340,7 +18724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A186" s="5">
         <v>44810</v>
       </c>
@@ -18376,7 +18760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A187" s="5">
         <v>44810</v>
       </c>
@@ -18409,10 +18793,16 @@
       <c r="J187" s="6"/>
       <c r="L187">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="N187">
+        <v>2</v>
+      </c>
+      <c r="O187">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="188" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A188" s="5">
         <v>44810</v>
       </c>
@@ -18447,10 +18837,13 @@
       </c>
       <c r="L188">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="O188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A189" s="5">
         <v>44810</v>
       </c>
@@ -18488,79 +18881,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A190" s="20">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A190" s="19">
         <v>44810</v>
       </c>
-      <c r="B190" s="20">
+      <c r="B190" s="19">
         <v>44824</v>
       </c>
-      <c r="C190" s="21" t="str">
+      <c r="C190" s="20" t="str">
         <f t="shared" si="6"/>
         <v>S(61/20)</v>
       </c>
-      <c r="D190" s="21">
+      <c r="D190" s="20">
         <v>7</v>
       </c>
-      <c r="E190" s="22" t="str">
+      <c r="E190" s="21" t="str">
         <f t="shared" si="7"/>
         <v>7_20</v>
       </c>
-      <c r="F190" s="21" t="s">
+      <c r="F190" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G190" s="21">
+      <c r="G190" s="20">
         <v>61</v>
       </c>
-      <c r="H190" s="21">
+      <c r="H190" s="20">
         <v>20</v>
       </c>
-      <c r="I190" s="21">
-        <v>0</v>
-      </c>
-      <c r="J190" s="21"/>
+      <c r="I190" s="20">
+        <v>0</v>
+      </c>
+      <c r="J190" s="20"/>
       <c r="L190">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A191" s="17">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A191" s="34">
         <v>44810</v>
       </c>
-      <c r="B191" s="17">
+      <c r="B191" s="34">
         <v>44824</v>
       </c>
-      <c r="C191" s="18" t="str">
+      <c r="C191" s="35" t="str">
         <f t="shared" si="6"/>
         <v>F(62/21)</v>
       </c>
-      <c r="D191" s="18">
+      <c r="D191" s="35">
         <v>7</v>
       </c>
-      <c r="E191" s="19" t="str">
+      <c r="E191" s="36" t="str">
         <f t="shared" si="7"/>
         <v>7_21</v>
       </c>
-      <c r="F191" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G191" s="18">
+      <c r="F191" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G191" s="35">
         <v>62</v>
       </c>
-      <c r="H191" s="18">
+      <c r="H191" s="35">
         <v>21</v>
       </c>
-      <c r="I191" s="18">
-        <v>0</v>
-      </c>
-      <c r="J191" s="18"/>
+      <c r="I191" s="35">
+        <v>0</v>
+      </c>
+      <c r="J191" s="35"/>
       <c r="L191">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A192" s="5">
         <v>44810</v>
       </c>
@@ -18593,10 +18986,13 @@
       <c r="J192" s="6"/>
       <c r="L192">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="O192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A193" s="5">
         <v>44810</v>
       </c>
@@ -18630,6 +19026,32 @@
       <c r="L193">
         <f t="shared" si="8"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="M194">
+        <f>SUM(M2:M193)</f>
+        <v>18</v>
+      </c>
+      <c r="N194">
+        <f>SUM(N2:N193)</f>
+        <v>38</v>
+      </c>
+      <c r="O194">
+        <f>SUM(O2:O193)</f>
+        <v>118</v>
+      </c>
+      <c r="P194">
+        <f>SUM(P2:P193)</f>
+        <v>1</v>
+      </c>
+      <c r="R194">
+        <f>SUM(R2:R193)</f>
+        <v>13</v>
+      </c>
+      <c r="S194">
+        <f>SUM(S2:S193)</f>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/PNR_Raw_Data/PNR2022_InvertebrateCommunity.xlsx
+++ b/PNR_Raw_Data/PNR2022_InvertebrateCommunity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/PNR_Beetles_github_folder/PNR_Raw_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2514" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75E2B14E-AA47-4BDF-935D-0F4510AE6EB9}"/>
+  <xr:revisionPtr revIDLastSave="2604" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{025B70F7-A669-44FF-A787-C2F0DEE84F57}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -471,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -569,15 +569,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -949,7 +940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F43E875-3D05-450D-A232-4115B14D5C30}">
   <dimension ref="A1:BH193"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="82" workbookViewId="0">
+    <sheetView zoomScale="83" zoomScaleNormal="82" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="AV2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -11642,11 +11633,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1205A642-CED4-42A7-927C-187F50D1C4EC}">
   <dimension ref="A1:S194"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="N101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I194" sqref="I194"/>
+      <selection pane="bottomRight" activeCell="T102" sqref="T102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13768,7 +13759,7 @@
       <c r="J53" s="6"/>
       <c r="L53">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M53">
         <v>2</v>
@@ -13781,6 +13772,9 @@
       </c>
       <c r="Q53">
         <v>1</v>
+      </c>
+      <c r="R53">
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.35">
@@ -13888,10 +13882,13 @@
       <c r="J56" s="6"/>
       <c r="L56">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N56">
         <v>1</v>
+      </c>
+      <c r="R56">
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.35">
@@ -14599,144 +14596,144 @@
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A76" s="34">
+      <c r="A76" s="5">
         <v>44755</v>
       </c>
-      <c r="B76" s="34">
+      <c r="B76" s="5">
         <v>44769</v>
       </c>
-      <c r="C76" s="35" t="str">
+      <c r="C76" s="6" t="str">
         <f t="shared" si="3"/>
         <v>W(43/2)</v>
       </c>
-      <c r="D76" s="35">
+      <c r="D76" s="6">
         <v>3</v>
       </c>
-      <c r="E76" s="36" t="str">
+      <c r="E76" s="4" t="str">
         <f t="shared" si="4"/>
         <v>3_2</v>
       </c>
-      <c r="F76" s="35" t="s">
+      <c r="F76" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G76" s="35">
+      <c r="G76" s="6">
         <v>43</v>
       </c>
-      <c r="H76" s="35">
-        <v>2</v>
-      </c>
-      <c r="I76" s="35">
-        <v>0</v>
-      </c>
-      <c r="J76" s="35"/>
+      <c r="H76" s="6">
+        <v>2</v>
+      </c>
+      <c r="I76" s="6">
+        <v>0</v>
+      </c>
+      <c r="J76" s="6"/>
       <c r="L76">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A77" s="34">
+      <c r="A77" s="5">
         <v>44755</v>
       </c>
-      <c r="B77" s="34">
+      <c r="B77" s="5">
         <v>44769</v>
       </c>
-      <c r="C77" s="35" t="str">
+      <c r="C77" s="6" t="str">
         <f t="shared" si="3"/>
         <v>F(44/3)</v>
       </c>
-      <c r="D77" s="35">
+      <c r="D77" s="6">
         <v>3</v>
       </c>
-      <c r="E77" s="36" t="str">
+      <c r="E77" s="4" t="str">
         <f t="shared" si="4"/>
         <v>3_3</v>
       </c>
-      <c r="F77" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="G77" s="35">
+      <c r="F77" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G77" s="6">
         <v>44</v>
       </c>
-      <c r="H77" s="35">
+      <c r="H77" s="6">
         <v>3</v>
       </c>
-      <c r="I77" s="35">
-        <v>0</v>
-      </c>
-      <c r="J77" s="35"/>
+      <c r="I77" s="6">
+        <v>0</v>
+      </c>
+      <c r="J77" s="6"/>
       <c r="L77">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A78" s="34">
+      <c r="A78" s="5">
         <v>44755</v>
       </c>
-      <c r="B78" s="34">
+      <c r="B78" s="5">
         <v>44769</v>
       </c>
-      <c r="C78" s="35" t="str">
+      <c r="C78" s="6" t="str">
         <f t="shared" si="3"/>
         <v>F(45/4)</v>
       </c>
-      <c r="D78" s="35">
+      <c r="D78" s="6">
         <v>3</v>
       </c>
-      <c r="E78" s="36" t="str">
+      <c r="E78" s="4" t="str">
         <f t="shared" si="4"/>
         <v>3_4</v>
       </c>
-      <c r="F78" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="G78" s="35">
+      <c r="F78" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G78" s="6">
         <v>45</v>
       </c>
-      <c r="H78" s="35">
+      <c r="H78" s="6">
         <v>4</v>
       </c>
-      <c r="I78" s="35">
-        <v>0</v>
-      </c>
-      <c r="J78" s="35"/>
+      <c r="I78" s="6">
+        <v>0</v>
+      </c>
+      <c r="J78" s="6"/>
       <c r="L78">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A79" s="34">
+      <c r="A79" s="5">
         <v>44755</v>
       </c>
-      <c r="B79" s="34">
+      <c r="B79" s="5">
         <v>44769</v>
       </c>
-      <c r="C79" s="35" t="str">
+      <c r="C79" s="6" t="str">
         <f t="shared" si="3"/>
         <v>S(46/5)</v>
       </c>
-      <c r="D79" s="35">
+      <c r="D79" s="6">
         <v>3</v>
       </c>
-      <c r="E79" s="36" t="str">
+      <c r="E79" s="4" t="str">
         <f t="shared" si="4"/>
         <v>3_5</v>
       </c>
-      <c r="F79" s="35" t="s">
+      <c r="F79" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G79" s="35">
+      <c r="G79" s="6">
         <v>46</v>
       </c>
-      <c r="H79" s="35">
-        <v>5</v>
-      </c>
-      <c r="I79" s="35">
-        <v>0</v>
-      </c>
-      <c r="J79" s="35"/>
+      <c r="H79" s="6">
+        <v>5</v>
+      </c>
+      <c r="I79" s="6">
+        <v>0</v>
+      </c>
+      <c r="J79" s="6"/>
       <c r="L79">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -14961,46 +14958,49 @@
       <c r="J85" s="6"/>
       <c r="L85">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N85">
         <v>1</v>
       </c>
       <c r="Q85">
         <v>1</v>
+      </c>
+      <c r="R85">
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A86" s="5">
         <v>44755</v>
       </c>
-      <c r="B86" s="34">
+      <c r="B86" s="5">
         <v>44769</v>
       </c>
-      <c r="C86" s="35" t="str">
+      <c r="C86" s="6" t="str">
         <f t="shared" si="3"/>
         <v>S(53/12)</v>
       </c>
-      <c r="D86" s="35">
+      <c r="D86" s="6">
         <v>3</v>
       </c>
-      <c r="E86" s="36" t="str">
+      <c r="E86" s="4" t="str">
         <f t="shared" si="4"/>
         <v>3_12</v>
       </c>
-      <c r="F86" s="35" t="s">
+      <c r="F86" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G86" s="35">
+      <c r="G86" s="6">
         <v>53</v>
       </c>
-      <c r="H86" s="35">
+      <c r="H86" s="6">
         <v>12</v>
       </c>
-      <c r="I86" s="35">
-        <v>0</v>
-      </c>
-      <c r="J86" s="35"/>
+      <c r="I86" s="6">
+        <v>0</v>
+      </c>
+      <c r="J86" s="6"/>
       <c r="L86">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -15010,33 +15010,33 @@
       <c r="A87" s="5">
         <v>44755</v>
       </c>
-      <c r="B87" s="34">
+      <c r="B87" s="5">
         <v>44769</v>
       </c>
-      <c r="C87" s="35" t="str">
+      <c r="C87" s="6" t="str">
         <f t="shared" si="3"/>
         <v>F(54/13)</v>
       </c>
-      <c r="D87" s="35">
+      <c r="D87" s="6">
         <v>3</v>
       </c>
-      <c r="E87" s="36" t="str">
+      <c r="E87" s="4" t="str">
         <f t="shared" si="4"/>
         <v>3_13</v>
       </c>
-      <c r="F87" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="G87" s="35">
+      <c r="F87" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G87" s="6">
         <v>54</v>
       </c>
-      <c r="H87" s="35">
+      <c r="H87" s="6">
         <v>13</v>
       </c>
-      <c r="I87" s="35">
-        <v>0</v>
-      </c>
-      <c r="J87" s="35"/>
+      <c r="I87" s="6">
+        <v>0</v>
+      </c>
+      <c r="J87" s="6"/>
       <c r="L87">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -15075,10 +15075,13 @@
       <c r="J88" s="6"/>
       <c r="L88">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N88">
         <v>1</v>
+      </c>
+      <c r="R88">
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.35">
@@ -15225,10 +15228,13 @@
       <c r="J92" s="6"/>
       <c r="L92">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q92">
         <v>1</v>
+      </c>
+      <c r="R92">
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.35">
@@ -15303,10 +15309,16 @@
       <c r="J94" s="6"/>
       <c r="L94">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N94">
         <v>7</v>
+      </c>
+      <c r="O94">
+        <v>3</v>
+      </c>
+      <c r="R94">
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.35">
@@ -15417,9 +15429,15 @@
       <c r="J97" s="6"/>
       <c r="L97">
         <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="O97">
         <v>1</v>
       </c>
       <c r="Q97">
+        <v>1</v>
+      </c>
+      <c r="R97">
         <v>1</v>
       </c>
     </row>
@@ -15456,10 +15474,13 @@
       <c r="J98" s="6"/>
       <c r="L98">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N98">
         <v>1</v>
+      </c>
+      <c r="R98">
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.35">
@@ -15836,33 +15857,33 @@
       <c r="A108" s="5">
         <v>44769</v>
       </c>
-      <c r="B108" s="34">
+      <c r="B108" s="5">
         <v>44784</v>
       </c>
-      <c r="C108" s="35" t="str">
+      <c r="C108" s="6" t="str">
         <f t="shared" si="3"/>
         <v>W(51/10)</v>
       </c>
-      <c r="D108" s="35">
+      <c r="D108" s="6">
         <v>4</v>
       </c>
-      <c r="E108" s="36" t="str">
+      <c r="E108" s="4" t="str">
         <f t="shared" si="4"/>
         <v>4_10</v>
       </c>
-      <c r="F108" s="35" t="s">
+      <c r="F108" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G108" s="35">
+      <c r="G108" s="6">
         <v>51</v>
       </c>
-      <c r="H108" s="35">
+      <c r="H108" s="6">
         <v>10</v>
       </c>
-      <c r="I108" s="35">
-        <v>0</v>
-      </c>
-      <c r="J108" s="35"/>
+      <c r="I108" s="6">
+        <v>0</v>
+      </c>
+      <c r="J108" s="6"/>
       <c r="L108">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -15872,33 +15893,33 @@
       <c r="A109" s="5">
         <v>44769</v>
       </c>
-      <c r="B109" s="34">
+      <c r="B109" s="5">
         <v>44784</v>
       </c>
-      <c r="C109" s="35" t="str">
+      <c r="C109" s="6" t="str">
         <f t="shared" si="3"/>
         <v>F(52/11)</v>
       </c>
-      <c r="D109" s="35">
+      <c r="D109" s="6">
         <v>4</v>
       </c>
-      <c r="E109" s="36" t="str">
+      <c r="E109" s="4" t="str">
         <f t="shared" si="4"/>
         <v>4_11</v>
       </c>
-      <c r="F109" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="G109" s="35">
+      <c r="F109" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G109" s="6">
         <v>52</v>
       </c>
-      <c r="H109" s="35">
+      <c r="H109" s="6">
         <v>11</v>
       </c>
-      <c r="I109" s="35">
-        <v>0</v>
-      </c>
-      <c r="J109" s="35"/>
+      <c r="I109" s="6">
+        <v>0</v>
+      </c>
+      <c r="J109" s="6"/>
       <c r="L109">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -15973,7 +15994,10 @@
       <c r="J111" s="6"/>
       <c r="L111">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="O111">
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.35">
@@ -16012,7 +16036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A113" s="5">
         <v>44769</v>
       </c>
@@ -16048,7 +16072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A114" s="5">
         <v>44769</v>
       </c>
@@ -16087,7 +16111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A115" s="5">
         <v>44769</v>
       </c>
@@ -16120,7 +16144,7 @@
       <c r="J115" s="6"/>
       <c r="L115">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="M115">
         <v>5</v>
@@ -16128,11 +16152,17 @@
       <c r="N115">
         <v>7</v>
       </c>
+      <c r="O115">
+        <v>22</v>
+      </c>
       <c r="P115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R115">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A116" s="5">
         <v>44769</v>
       </c>
@@ -16168,7 +16198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A117" s="5">
         <v>44769</v>
       </c>
@@ -16204,7 +16234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A118" s="5">
         <v>44769</v>
       </c>
@@ -16240,7 +16270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A119" s="5">
         <v>44769</v>
       </c>
@@ -16276,7 +16306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A120" s="5">
         <v>44769</v>
       </c>
@@ -16312,7 +16342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A121" s="5">
         <v>44769</v>
       </c>
@@ -16348,7 +16378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A122" s="5">
         <v>44784</v>
       </c>
@@ -16384,7 +16414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A123" s="5">
         <v>44784</v>
       </c>
@@ -16420,7 +16450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A124" s="5">
         <v>44784</v>
       </c>
@@ -16456,7 +16486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A125" s="5">
         <v>44784</v>
       </c>
@@ -16492,7 +16522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A126" s="5">
         <v>44784</v>
       </c>
@@ -16528,7 +16558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A127" s="5">
         <v>44784</v>
       </c>
@@ -16566,7 +16596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A128" s="5">
         <v>44784</v>
       </c>
@@ -17092,36 +17122,36 @@
       </c>
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A142" s="34">
+      <c r="A142" s="5">
         <v>44784</v>
       </c>
-      <c r="B142" s="34">
+      <c r="B142" s="5">
         <v>44796</v>
       </c>
-      <c r="C142" s="35" t="str">
+      <c r="C142" s="6" t="str">
         <f t="shared" si="6"/>
         <v>S(61/20)</v>
       </c>
-      <c r="D142" s="35">
-        <v>5</v>
-      </c>
-      <c r="E142" s="36" t="str">
+      <c r="D142" s="6">
+        <v>5</v>
+      </c>
+      <c r="E142" s="4" t="str">
         <f t="shared" si="7"/>
         <v>5_20</v>
       </c>
-      <c r="F142" s="35" t="s">
+      <c r="F142" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G142" s="35">
+      <c r="G142" s="6">
         <v>61</v>
       </c>
-      <c r="H142" s="35">
+      <c r="H142" s="6">
         <v>20</v>
       </c>
-      <c r="I142" s="35">
-        <v>0</v>
-      </c>
-      <c r="J142" s="35"/>
+      <c r="I142" s="6">
+        <v>0</v>
+      </c>
+      <c r="J142" s="6"/>
       <c r="L142">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -17131,36 +17161,36 @@
       </c>
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A143" s="34">
+      <c r="A143" s="5">
         <v>44784</v>
       </c>
-      <c r="B143" s="34">
+      <c r="B143" s="5">
         <v>44796</v>
       </c>
-      <c r="C143" s="35" t="str">
+      <c r="C143" s="6" t="str">
         <f t="shared" si="6"/>
         <v>F(62/21)</v>
       </c>
-      <c r="D143" s="35">
-        <v>5</v>
-      </c>
-      <c r="E143" s="36" t="str">
+      <c r="D143" s="6">
+        <v>5</v>
+      </c>
+      <c r="E143" s="4" t="str">
         <f t="shared" si="7"/>
         <v>5_21</v>
       </c>
-      <c r="F143" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="G143" s="35">
+      <c r="F143" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G143" s="6">
         <v>62</v>
       </c>
-      <c r="H143" s="35">
+      <c r="H143" s="6">
         <v>21</v>
       </c>
-      <c r="I143" s="35">
-        <v>0</v>
-      </c>
-      <c r="J143" s="35"/>
+      <c r="I143" s="6">
+        <v>0</v>
+      </c>
+      <c r="J143" s="6"/>
       <c r="L143">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -17202,7 +17232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A145" s="5">
         <v>44784</v>
       </c>
@@ -17241,7 +17271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A146" s="5">
         <v>44796</v>
       </c>
@@ -17277,7 +17307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A147" s="5">
         <v>44796</v>
       </c>
@@ -17313,7 +17343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A148" s="5">
         <v>44796</v>
       </c>
@@ -17349,7 +17379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A149" s="5">
         <v>44796</v>
       </c>
@@ -17385,7 +17415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A150" s="5">
         <v>44796</v>
       </c>
@@ -17421,7 +17451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A151" s="5">
         <v>44796</v>
       </c>
@@ -17457,7 +17487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A152" s="5">
         <v>44796</v>
       </c>
@@ -17493,7 +17523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A153" s="5">
         <v>44796</v>
       </c>
@@ -17526,13 +17556,16 @@
       <c r="J153" s="6"/>
       <c r="L153">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N153">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R153">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A154" s="5">
         <v>44796</v>
       </c>
@@ -17565,10 +17598,13 @@
       <c r="J154" s="6"/>
       <c r="L154">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="R154">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A155" s="5">
         <v>44796</v>
       </c>
@@ -17604,7 +17640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A156" s="5">
         <v>44796</v>
       </c>
@@ -17640,7 +17676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A157" s="5">
         <v>44796</v>
       </c>
@@ -17673,13 +17709,16 @@
       <c r="J157" s="6"/>
       <c r="L157">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N157">
         <v>4</v>
       </c>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R157">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A158" s="5">
         <v>44796</v>
       </c>
@@ -17712,10 +17751,13 @@
       <c r="J158" s="6"/>
       <c r="L158">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="O158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A159" s="5">
         <v>44796</v>
       </c>
@@ -17751,7 +17793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A160" s="5">
         <v>44796</v>
       </c>
@@ -17787,7 +17829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A161" s="5">
         <v>44796</v>
       </c>
@@ -17823,7 +17865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A162" s="5">
         <v>44796</v>
       </c>
@@ -17856,10 +17898,13 @@
       <c r="J162" s="6"/>
       <c r="L162">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="O162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A163" s="5">
         <v>44796</v>
       </c>
@@ -17895,7 +17940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A164" s="5">
         <v>44796</v>
       </c>
@@ -17928,10 +17973,13 @@
       <c r="J164" s="6"/>
       <c r="L164">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="R164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A165" s="5">
         <v>44796</v>
       </c>
@@ -17964,13 +18012,16 @@
       <c r="J165" s="6"/>
       <c r="L165">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="R165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A166" s="5">
         <v>44796</v>
       </c>
@@ -18006,7 +18057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A167" s="5">
         <v>44796</v>
       </c>
@@ -18039,13 +18090,16 @@
       <c r="J167" s="6"/>
       <c r="L167">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="R167">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A168" s="5">
         <v>44796</v>
       </c>
@@ -18081,7 +18135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A169" s="5">
         <v>44796</v>
       </c>
@@ -18114,10 +18168,13 @@
       <c r="J169" s="6"/>
       <c r="L169">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="R169">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A170" s="5">
         <v>44810</v>
       </c>
@@ -18153,7 +18210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A171" s="5">
         <v>44810</v>
       </c>
@@ -18189,7 +18246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A172" s="5">
         <v>44810</v>
       </c>
@@ -18225,7 +18282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A173" s="5">
         <v>44810</v>
       </c>
@@ -18258,10 +18315,13 @@
       <c r="J173" s="6"/>
       <c r="L173">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="R173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A174" s="5">
         <v>44810</v>
       </c>
@@ -18297,7 +18357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A175" s="5">
         <v>44810</v>
       </c>
@@ -18333,7 +18393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A176" s="5">
         <v>44810</v>
       </c>
@@ -18553,7 +18613,7 @@
       <c r="J181" s="6"/>
       <c r="L181">
         <f t="shared" si="8"/>
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="M181">
         <v>2</v>
@@ -18568,7 +18628,7 @@
         <v>1</v>
       </c>
       <c r="R181">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="182" spans="1:18" x14ac:dyDescent="0.35">
@@ -18604,13 +18664,16 @@
       <c r="J182" s="6"/>
       <c r="L182">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O182">
         <v>3</v>
       </c>
       <c r="Q182">
         <v>1</v>
+      </c>
+      <c r="R182">
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:18" x14ac:dyDescent="0.35">
@@ -18793,13 +18856,16 @@
       <c r="J187" s="6"/>
       <c r="L187">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="N187">
         <v>2</v>
       </c>
       <c r="O187">
         <v>11</v>
+      </c>
+      <c r="R187">
+        <v>13</v>
       </c>
     </row>
     <row r="188" spans="1:18" x14ac:dyDescent="0.35">
@@ -18878,7 +18944,10 @@
       </c>
       <c r="L189">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="R189">
+        <v>7</v>
       </c>
     </row>
     <row r="190" spans="1:18" x14ac:dyDescent="0.35">
@@ -18918,36 +18987,36 @@
       </c>
     </row>
     <row r="191" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A191" s="34">
+      <c r="A191" s="5">
         <v>44810</v>
       </c>
-      <c r="B191" s="34">
+      <c r="B191" s="5">
         <v>44824</v>
       </c>
-      <c r="C191" s="35" t="str">
+      <c r="C191" s="6" t="str">
         <f t="shared" si="6"/>
         <v>F(62/21)</v>
       </c>
-      <c r="D191" s="35">
+      <c r="D191" s="6">
         <v>7</v>
       </c>
-      <c r="E191" s="36" t="str">
+      <c r="E191" s="4" t="str">
         <f t="shared" si="7"/>
         <v>7_21</v>
       </c>
-      <c r="F191" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="G191" s="35">
+      <c r="F191" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G191" s="6">
         <v>62</v>
       </c>
-      <c r="H191" s="35">
+      <c r="H191" s="6">
         <v>21</v>
       </c>
-      <c r="I191" s="35">
-        <v>0</v>
-      </c>
-      <c r="J191" s="35"/>
+      <c r="I191" s="6">
+        <v>0</v>
+      </c>
+      <c r="J191" s="6"/>
       <c r="L191">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -18986,9 +19055,12 @@
       <c r="J192" s="6"/>
       <c r="L192">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O192">
+        <v>1</v>
+      </c>
+      <c r="R192">
         <v>1</v>
       </c>
     </row>
@@ -19039,7 +19111,7 @@
       </c>
       <c r="O194">
         <f>SUM(O2:O193)</f>
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="P194">
         <f>SUM(P2:P193)</f>
@@ -19047,7 +19119,7 @@
       </c>
       <c r="R194">
         <f>SUM(R2:R193)</f>
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="S194">
         <f>SUM(S2:S193)</f>

--- a/PNR_Raw_Data/PNR2022_InvertebrateCommunity.xlsx
+++ b/PNR_Raw_Data/PNR2022_InvertebrateCommunity.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/PNR_Beetles_github_folder/PNR_Raw_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2604" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{025B70F7-A669-44FF-A787-C2F0DEE84F57}"/>
+  <xr:revisionPtr revIDLastSave="2718" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03704521-96E9-4BCE-AE1E-369EBF3C8320}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -941,10 +941,10 @@
   <dimension ref="A1:BH193"/>
   <sheetViews>
     <sheetView zoomScale="83" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AV2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D166" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BF3" sqref="BF3"/>
+      <selection pane="bottomRight" activeCell="N170" sqref="N170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11634,10 +11634,10 @@
   <dimension ref="A1:S194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="N101" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="N185" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T102" sqref="T102"/>
+      <selection pane="bottomRight" activeCell="O193" sqref="O193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13109,10 +13109,13 @@
       </c>
       <c r="L37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N37">
         <v>1</v>
+      </c>
+      <c r="O37">
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.35">
@@ -13759,7 +13762,7 @@
       <c r="J53" s="6"/>
       <c r="L53">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M53">
         <v>2</v>
@@ -13768,7 +13771,7 @@
         <v>1</v>
       </c>
       <c r="O53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q53">
         <v>1</v>
@@ -13882,10 +13885,13 @@
       <c r="J56" s="6"/>
       <c r="L56">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N56">
         <v>1</v>
+      </c>
+      <c r="O56">
+        <v>2</v>
       </c>
       <c r="R56">
         <v>2</v>
@@ -14221,9 +14227,12 @@
       <c r="J65" s="6"/>
       <c r="L65">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65">
         <v>1</v>
       </c>
     </row>
@@ -14260,7 +14269,10 @@
       <c r="J66" s="6"/>
       <c r="L66">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="O66">
+        <v>4</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -14443,6 +14455,9 @@
       <c r="J71" s="6"/>
       <c r="L71">
         <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="O71">
         <v>1</v>
       </c>
       <c r="Q71">
@@ -14556,7 +14571,10 @@
       <c r="J74" s="6"/>
       <c r="L74">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="O74">
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.35">
@@ -14958,10 +14976,13 @@
       <c r="J85" s="6"/>
       <c r="L85">
         <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="O85">
         <v>6</v>
-      </c>
-      <c r="N85">
-        <v>1</v>
       </c>
       <c r="Q85">
         <v>1</v>
@@ -15075,10 +15096,13 @@
       <c r="J88" s="6"/>
       <c r="L88">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N88">
         <v>1</v>
+      </c>
+      <c r="O88">
+        <v>6</v>
       </c>
       <c r="R88">
         <v>2</v>
@@ -15117,7 +15141,10 @@
       <c r="J89" s="6"/>
       <c r="L89">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="O89">
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.35">
@@ -15153,9 +15180,12 @@
       <c r="J90" s="6"/>
       <c r="L90">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N90">
+        <v>1</v>
+      </c>
+      <c r="O90">
         <v>1</v>
       </c>
     </row>
@@ -15228,7 +15258,10 @@
       <c r="J92" s="6"/>
       <c r="L92">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="O92">
+        <v>7</v>
       </c>
       <c r="Q92">
         <v>1</v>
@@ -15309,13 +15342,13 @@
       <c r="J94" s="6"/>
       <c r="L94">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N94">
         <v>7</v>
       </c>
       <c r="O94">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R94">
         <v>1</v>
@@ -15429,10 +15462,10 @@
       <c r="J97" s="6"/>
       <c r="L97">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="O97">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q97">
         <v>1</v>
@@ -15474,10 +15507,13 @@
       <c r="J98" s="6"/>
       <c r="L98">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="N98">
         <v>1</v>
+      </c>
+      <c r="O98">
+        <v>10</v>
       </c>
       <c r="R98">
         <v>3</v>
@@ -15588,7 +15624,10 @@
       <c r="J101" s="6"/>
       <c r="L101">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="O101">
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.35">
@@ -15922,7 +15961,10 @@
       <c r="J109" s="6"/>
       <c r="L109">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="O109">
+        <v>4</v>
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.35">
@@ -15958,7 +16000,10 @@
       <c r="J110" s="6"/>
       <c r="L110">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="O110">
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.35">
@@ -15994,10 +16039,10 @@
       <c r="J111" s="6"/>
       <c r="L111">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O111">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.35">
@@ -16105,10 +16150,10 @@
       <c r="J114" s="6"/>
       <c r="L114">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="O114">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.35">
@@ -16144,7 +16189,7 @@
       <c r="J115" s="6"/>
       <c r="L115">
         <f t="shared" si="5"/>
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="M115">
         <v>5</v>
@@ -16153,7 +16198,7 @@
         <v>7</v>
       </c>
       <c r="O115">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="P115">
         <v>1</v>
@@ -16267,7 +16312,10 @@
       <c r="J118" s="6"/>
       <c r="L118">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="O118">
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.35">
@@ -17556,10 +17604,13 @@
       <c r="J153" s="6"/>
       <c r="L153">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N153">
         <v>1</v>
+      </c>
+      <c r="O153">
+        <v>5</v>
       </c>
       <c r="R153">
         <v>5</v>
@@ -17709,10 +17760,13 @@
       <c r="J157" s="6"/>
       <c r="L157">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N157">
         <v>4</v>
+      </c>
+      <c r="O157">
+        <v>10</v>
       </c>
       <c r="R157">
         <v>10</v>
@@ -17751,10 +17805,10 @@
       <c r="J158" s="6"/>
       <c r="L158">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O158">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.35">
@@ -17898,10 +17952,10 @@
       <c r="J162" s="6"/>
       <c r="L162">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O162">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:18" x14ac:dyDescent="0.35">
@@ -17937,7 +17991,10 @@
       <c r="J163" s="6"/>
       <c r="L163">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="O163">
+        <v>3</v>
       </c>
     </row>
     <row r="164" spans="1:18" x14ac:dyDescent="0.35">
@@ -17973,7 +18030,10 @@
       <c r="J164" s="6"/>
       <c r="L164">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="O164">
+        <v>11</v>
       </c>
       <c r="R164">
         <v>1</v>
@@ -18012,9 +18072,12 @@
       <c r="J165" s="6"/>
       <c r="L165">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N165">
+        <v>1</v>
+      </c>
+      <c r="O165">
         <v>1</v>
       </c>
       <c r="R165">
@@ -18090,10 +18153,13 @@
       <c r="J167" s="6"/>
       <c r="L167">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N167">
         <v>1</v>
+      </c>
+      <c r="O167">
+        <v>4</v>
       </c>
       <c r="R167">
         <v>10</v>
@@ -18168,6 +18234,9 @@
       <c r="J169" s="6"/>
       <c r="L169">
         <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="O169">
         <v>3</v>
       </c>
       <c r="R169">
@@ -18903,10 +18972,10 @@
       </c>
       <c r="L188">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O188">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:18" x14ac:dyDescent="0.35">
@@ -18944,7 +19013,10 @@
       </c>
       <c r="L189">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="O189">
+        <v>1</v>
       </c>
       <c r="R189">
         <v>7</v>
@@ -19111,7 +19183,7 @@
       </c>
       <c r="O194">
         <f>SUM(O2:O193)</f>
-        <v>147</v>
+        <v>302</v>
       </c>
       <c r="P194">
         <f>SUM(P2:P193)</f>

--- a/PNR_Raw_Data/PNR2022_InvertebrateCommunity.xlsx
+++ b/PNR_Raw_Data/PNR2022_InvertebrateCommunity.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/PNR_Beetles_github_folder/PNR_Raw_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2718" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03704521-96E9-4BCE-AE1E-369EBF3C8320}"/>
+  <xr:revisionPtr revIDLastSave="2828" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0005898A-8046-46A3-9E8E-5C8BED6D93C5}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
     <sheet name="Carabidae_RawCounts" sheetId="2" r:id="rId2"/>
     <sheet name="Silphidae_RawCounts" sheetId="3" r:id="rId3"/>
+    <sheet name="PinnedScarabs_RawCounts" sheetId="8" r:id="rId4"/>
+    <sheet name="Pinned_beetles_misc_RawCounts" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="115">
   <si>
     <t>Treatment</t>
   </si>
@@ -366,6 +368,24 @@
   <si>
     <t>Agonoleptus_thoracicus</t>
   </si>
+  <si>
+    <t>Pinned_Scarabs_RawCounts</t>
+  </si>
+  <si>
+    <t>Note: I pinned some Scarab beetles, including Geotrupidae, Scarabeidae, and Trogidae. However, I did not pin all of them. So this tally is just so that I can add them in to the family-level ID counts.</t>
+  </si>
+  <si>
+    <t>Pinned_beetles_misc_RawCounts</t>
+  </si>
+  <si>
+    <t>Geotrupidae_pinned</t>
+  </si>
+  <si>
+    <t>Scarabaeidae_pinned</t>
+  </si>
+  <si>
+    <t>Trogidae_pinned</t>
+  </si>
 </sst>
 </file>
 
@@ -471,7 +491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -568,6 +588,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -854,15 +880,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.90625" customWidth="1"/>
+    <col min="1" max="1" width="36.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -929,6 +955,21 @@
       </c>
       <c r="B9" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -941,10 +982,10 @@
   <dimension ref="A1:BH193"/>
   <sheetViews>
     <sheetView zoomScale="83" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D166" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D160" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N170" sqref="N170"/>
+      <selection pane="bottomRight" activeCell="A172" sqref="A172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11633,11 +11674,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1205A642-CED4-42A7-927C-187F50D1C4EC}">
   <dimension ref="A1:S194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="N185" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O193" sqref="O193"/>
+      <selection pane="bottomRight" activeCell="A172" sqref="A172:XFD172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19201,4 +19242,6401 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{014D223F-7CB0-4A5C-9D99-817CD0F45606}">
+  <dimension ref="A1:M194"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="J180" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="M189" sqref="M189"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.453125" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" customWidth="1"/>
+    <col min="11" max="11" width="11.90625" customWidth="1"/>
+    <col min="12" max="12" width="12.1796875" customWidth="1"/>
+    <col min="13" max="13" width="8.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="L1" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="M1" s="33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
+        <v>44713</v>
+      </c>
+      <c r="B2" s="7">
+        <v>44727</v>
+      </c>
+      <c r="C2" s="8" t="str">
+        <f t="shared" ref="C2:C65" si="0">_xlfn.CONCAT(F2, "(", G2, "/", H2, ")")</f>
+        <v>F(41/0)</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="str">
+        <f t="shared" ref="E2:E65" si="1">_xlfn.CONCAT(D2,"_",H2)</f>
+        <v>0_0</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="6">
+        <v>41</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
+        <v>1</v>
+      </c>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>44714</v>
+      </c>
+      <c r="B3" s="7">
+        <v>44727</v>
+      </c>
+      <c r="C3" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>S(42/1)</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0_1</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="6">
+        <v>42</v>
+      </c>
+      <c r="H3" s="6">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <v>44714</v>
+      </c>
+      <c r="B4" s="7">
+        <v>44727</v>
+      </c>
+      <c r="C4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>W(43/2)</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0_2</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="6">
+        <v>43</v>
+      </c>
+      <c r="H4" s="6">
+        <v>2</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="M4" s="35"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>44713</v>
+      </c>
+      <c r="B5" s="7">
+        <v>44727</v>
+      </c>
+      <c r="C5" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>F(44/3)</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0_3</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="6">
+        <v>44</v>
+      </c>
+      <c r="H5" s="6">
+        <v>3</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>44714</v>
+      </c>
+      <c r="B6" s="7">
+        <v>44727</v>
+      </c>
+      <c r="C6" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>F(45/4)</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0_4</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="6">
+        <v>45</v>
+      </c>
+      <c r="H6" s="6">
+        <v>4</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>44714</v>
+      </c>
+      <c r="B7" s="7">
+        <v>44727</v>
+      </c>
+      <c r="C7" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>S(46/5)</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0_5</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="6">
+        <v>46</v>
+      </c>
+      <c r="H7" s="6">
+        <v>5</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>44714</v>
+      </c>
+      <c r="B8" s="7">
+        <v>44727</v>
+      </c>
+      <c r="C8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>W(47/6)</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0_6</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="6">
+        <v>47</v>
+      </c>
+      <c r="H8" s="6">
+        <v>6</v>
+      </c>
+      <c r="I8" s="6">
+        <v>1</v>
+      </c>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="15"/>
+      <c r="B9" s="14">
+        <v>44727</v>
+      </c>
+      <c r="C9" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>F(48/7)</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0</v>
+      </c>
+      <c r="E9" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>0_7</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="15">
+        <v>48</v>
+      </c>
+      <c r="H9" s="15">
+        <v>7</v>
+      </c>
+      <c r="I9" s="15">
+        <v>2</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>44714</v>
+      </c>
+      <c r="B10" s="7">
+        <v>44727</v>
+      </c>
+      <c r="C10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>S(49/8)</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0_8</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="6">
+        <v>49</v>
+      </c>
+      <c r="H10" s="6">
+        <v>8</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>44714</v>
+      </c>
+      <c r="B11" s="7">
+        <v>44727</v>
+      </c>
+      <c r="C11" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>F(50/9)</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0_9</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="6">
+        <v>50</v>
+      </c>
+      <c r="H11" s="6">
+        <v>9</v>
+      </c>
+      <c r="I11" s="6">
+        <v>1</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>44714</v>
+      </c>
+      <c r="B12" s="7">
+        <v>44727</v>
+      </c>
+      <c r="C12" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>W(51/10)</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0_10</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="6">
+        <v>51</v>
+      </c>
+      <c r="H12" s="6">
+        <v>10</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="11"/>
+      <c r="B13" s="10">
+        <v>44727</v>
+      </c>
+      <c r="C13" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>F(52/11)</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>0_11</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="11">
+        <v>52</v>
+      </c>
+      <c r="H13" s="11">
+        <v>11</v>
+      </c>
+      <c r="I13" s="11">
+        <v>1</v>
+      </c>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <v>44713</v>
+      </c>
+      <c r="B14" s="7">
+        <v>44727</v>
+      </c>
+      <c r="C14" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>S(53/12)</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0_12</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="6">
+        <v>53</v>
+      </c>
+      <c r="H14" s="6">
+        <v>12</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>44713</v>
+      </c>
+      <c r="B15" s="7">
+        <v>44727</v>
+      </c>
+      <c r="C15" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>F(54/13)</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0_13</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="6">
+        <v>54</v>
+      </c>
+      <c r="H15" s="6">
+        <v>13</v>
+      </c>
+      <c r="I15" s="6">
+        <v>1</v>
+      </c>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
+        <v>44713</v>
+      </c>
+      <c r="B16" s="7">
+        <v>44727</v>
+      </c>
+      <c r="C16" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>W(55/14)</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0_14</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="6">
+        <v>55</v>
+      </c>
+      <c r="H16" s="6">
+        <v>14</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0</v>
+      </c>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
+        <v>44713</v>
+      </c>
+      <c r="B17" s="7">
+        <v>44727</v>
+      </c>
+      <c r="C17" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>F(56/15)</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0_15</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="6">
+        <v>56</v>
+      </c>
+      <c r="H17" s="6">
+        <v>15</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0</v>
+      </c>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
+        <v>44713</v>
+      </c>
+      <c r="B18" s="7">
+        <v>44727</v>
+      </c>
+      <c r="C18" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>S(57/16)</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0_16</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="6">
+        <v>57</v>
+      </c>
+      <c r="H18" s="6">
+        <v>16</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
+        <v>44713</v>
+      </c>
+      <c r="B19" s="7">
+        <v>44727</v>
+      </c>
+      <c r="C19" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>F(58/17)</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0_17</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="6">
+        <v>58</v>
+      </c>
+      <c r="H19" s="6">
+        <v>17</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
+        <v>44713</v>
+      </c>
+      <c r="B20" s="7">
+        <v>44727</v>
+      </c>
+      <c r="C20" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>W(59/18)</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0_18</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="6">
+        <v>59</v>
+      </c>
+      <c r="H20" s="6">
+        <v>18</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0</v>
+      </c>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <v>44713</v>
+      </c>
+      <c r="B21" s="7">
+        <v>44727</v>
+      </c>
+      <c r="C21" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>F(60/19)</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0_19</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="6">
+        <v>60</v>
+      </c>
+      <c r="H21" s="6">
+        <v>19</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="5">
+        <v>44713</v>
+      </c>
+      <c r="B22" s="7">
+        <v>44727</v>
+      </c>
+      <c r="C22" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>S(61/20)</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0_20</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="6">
+        <v>61</v>
+      </c>
+      <c r="H22" s="6">
+        <v>20</v>
+      </c>
+      <c r="I22" s="6">
+        <v>0</v>
+      </c>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="15"/>
+      <c r="B23" s="14">
+        <v>44727</v>
+      </c>
+      <c r="C23" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>F(62/21)</v>
+      </c>
+      <c r="D23" s="15">
+        <v>0</v>
+      </c>
+      <c r="E23" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>0_21</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="15">
+        <v>62</v>
+      </c>
+      <c r="H23" s="15">
+        <v>21</v>
+      </c>
+      <c r="I23" s="15">
+        <v>2</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="5">
+        <v>44713</v>
+      </c>
+      <c r="B24" s="7">
+        <v>44727</v>
+      </c>
+      <c r="C24" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>W(63/22)</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0_22</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="6">
+        <v>63</v>
+      </c>
+      <c r="H24" s="6">
+        <v>22</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0</v>
+      </c>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="5">
+        <v>44713</v>
+      </c>
+      <c r="B25" s="7">
+        <v>44727</v>
+      </c>
+      <c r="C25" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>F(64/23)</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0_23</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="6">
+        <v>64</v>
+      </c>
+      <c r="H25" s="6">
+        <v>23</v>
+      </c>
+      <c r="I25" s="6">
+        <v>0</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="5">
+        <v>44727</v>
+      </c>
+      <c r="B26" s="5">
+        <v>44741</v>
+      </c>
+      <c r="C26" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>F(41/0)</v>
+      </c>
+      <c r="D26" s="6">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>1_0</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="6">
+        <v>41</v>
+      </c>
+      <c r="H26" s="6">
+        <v>0</v>
+      </c>
+      <c r="I26" s="6">
+        <v>1</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="5">
+        <v>44727</v>
+      </c>
+      <c r="B27" s="5">
+        <v>44741</v>
+      </c>
+      <c r="C27" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>S(42/1)</v>
+      </c>
+      <c r="D27" s="6">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>1_1</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="6">
+        <v>42</v>
+      </c>
+      <c r="H27" s="6">
+        <v>1</v>
+      </c>
+      <c r="I27" s="6">
+        <v>0</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="5">
+        <v>44727</v>
+      </c>
+      <c r="B28" s="5">
+        <v>44741</v>
+      </c>
+      <c r="C28" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>W(43/2)</v>
+      </c>
+      <c r="D28" s="6">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>1_2</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="6">
+        <v>43</v>
+      </c>
+      <c r="H28" s="6">
+        <v>2</v>
+      </c>
+      <c r="I28" s="6">
+        <v>0</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="5">
+        <v>44727</v>
+      </c>
+      <c r="B29" s="5">
+        <v>44741</v>
+      </c>
+      <c r="C29" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>F(44/3)</v>
+      </c>
+      <c r="D29" s="6">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>1_3</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="6">
+        <v>44</v>
+      </c>
+      <c r="H29" s="6">
+        <v>3</v>
+      </c>
+      <c r="I29" s="6">
+        <v>1</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="5">
+        <v>44727</v>
+      </c>
+      <c r="B30" s="5">
+        <v>44741</v>
+      </c>
+      <c r="C30" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>F(45/4)</v>
+      </c>
+      <c r="D30" s="6">
+        <v>1</v>
+      </c>
+      <c r="E30" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>1_4</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="6">
+        <v>45</v>
+      </c>
+      <c r="H30" s="6">
+        <v>4</v>
+      </c>
+      <c r="I30" s="6">
+        <v>0</v>
+      </c>
+      <c r="J30" s="6"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="5">
+        <v>44727</v>
+      </c>
+      <c r="B31" s="5">
+        <v>44741</v>
+      </c>
+      <c r="C31" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>S(46/5)</v>
+      </c>
+      <c r="D31" s="6">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>1_5</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="6">
+        <v>46</v>
+      </c>
+      <c r="H31" s="6">
+        <v>5</v>
+      </c>
+      <c r="I31" s="6">
+        <v>0</v>
+      </c>
+      <c r="J31" s="6"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" s="5">
+        <v>44727</v>
+      </c>
+      <c r="B32" s="5">
+        <v>44741</v>
+      </c>
+      <c r="C32" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>W(47/6)</v>
+      </c>
+      <c r="D32" s="6">
+        <v>1</v>
+      </c>
+      <c r="E32" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>1_6</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="6">
+        <v>47</v>
+      </c>
+      <c r="H32" s="6">
+        <v>6</v>
+      </c>
+      <c r="I32" s="6">
+        <v>0</v>
+      </c>
+      <c r="J32" s="6"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" s="5">
+        <v>44727</v>
+      </c>
+      <c r="B33" s="5">
+        <v>44741</v>
+      </c>
+      <c r="C33" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>F(48/7)</v>
+      </c>
+      <c r="D33" s="6">
+        <v>1</v>
+      </c>
+      <c r="E33" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>1_7</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="6">
+        <v>48</v>
+      </c>
+      <c r="H33" s="6">
+        <v>7</v>
+      </c>
+      <c r="I33" s="6">
+        <v>0</v>
+      </c>
+      <c r="J33" s="6"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34" s="5">
+        <v>44727</v>
+      </c>
+      <c r="B34" s="5">
+        <v>44741</v>
+      </c>
+      <c r="C34" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>S(49/8)</v>
+      </c>
+      <c r="D34" s="6">
+        <v>1</v>
+      </c>
+      <c r="E34" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>1_8</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="6">
+        <v>49</v>
+      </c>
+      <c r="H34" s="6">
+        <v>8</v>
+      </c>
+      <c r="I34" s="6">
+        <v>0</v>
+      </c>
+      <c r="J34" s="6"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A35" s="5">
+        <v>44727</v>
+      </c>
+      <c r="B35" s="5">
+        <v>44741</v>
+      </c>
+      <c r="C35" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>F(50/9)</v>
+      </c>
+      <c r="D35" s="6">
+        <v>1</v>
+      </c>
+      <c r="E35" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>1_9</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="6">
+        <v>50</v>
+      </c>
+      <c r="H35" s="6">
+        <v>9</v>
+      </c>
+      <c r="I35" s="6">
+        <v>0</v>
+      </c>
+      <c r="J35" s="6"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36" s="5">
+        <v>44727</v>
+      </c>
+      <c r="B36" s="5">
+        <v>44741</v>
+      </c>
+      <c r="C36" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>W(51/10)</v>
+      </c>
+      <c r="D36" s="6">
+        <v>1</v>
+      </c>
+      <c r="E36" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>1_10</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="6">
+        <v>51</v>
+      </c>
+      <c r="H36" s="6">
+        <v>10</v>
+      </c>
+      <c r="I36" s="6">
+        <v>0</v>
+      </c>
+      <c r="J36" s="6"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A37" s="5">
+        <v>44727</v>
+      </c>
+      <c r="B37" s="5">
+        <v>44741</v>
+      </c>
+      <c r="C37" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>F(52/11)</v>
+      </c>
+      <c r="D37" s="6">
+        <v>1</v>
+      </c>
+      <c r="E37" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>1_11</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37" s="6">
+        <v>52</v>
+      </c>
+      <c r="H37" s="6">
+        <v>11</v>
+      </c>
+      <c r="I37" s="6">
+        <v>0</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K37" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A38" s="5">
+        <v>44727</v>
+      </c>
+      <c r="B38" s="5">
+        <v>44741</v>
+      </c>
+      <c r="C38" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>S(53/12)</v>
+      </c>
+      <c r="D38" s="6">
+        <v>1</v>
+      </c>
+      <c r="E38" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>1_12</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" s="6">
+        <v>53</v>
+      </c>
+      <c r="H38" s="6">
+        <v>12</v>
+      </c>
+      <c r="I38" s="6">
+        <v>0</v>
+      </c>
+      <c r="J38" s="6"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A39" s="14">
+        <v>44727</v>
+      </c>
+      <c r="B39" s="14">
+        <v>44741</v>
+      </c>
+      <c r="C39" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>F(54/13)</v>
+      </c>
+      <c r="D39" s="15">
+        <v>1</v>
+      </c>
+      <c r="E39" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>1_13</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" s="15">
+        <v>54</v>
+      </c>
+      <c r="H39" s="15">
+        <v>13</v>
+      </c>
+      <c r="I39" s="15">
+        <v>2</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A40" s="5">
+        <v>44727</v>
+      </c>
+      <c r="B40" s="5">
+        <v>44741</v>
+      </c>
+      <c r="C40" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>W(55/14)</v>
+      </c>
+      <c r="D40" s="6">
+        <v>1</v>
+      </c>
+      <c r="E40" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>1_14</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="6">
+        <v>55</v>
+      </c>
+      <c r="H40" s="6">
+        <v>14</v>
+      </c>
+      <c r="I40" s="6">
+        <v>0</v>
+      </c>
+      <c r="J40" s="6"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A41" s="5">
+        <v>44727</v>
+      </c>
+      <c r="B41" s="5">
+        <v>44741</v>
+      </c>
+      <c r="C41" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>F(56/15)</v>
+      </c>
+      <c r="D41" s="6">
+        <v>1</v>
+      </c>
+      <c r="E41" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>1_15</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="6">
+        <v>56</v>
+      </c>
+      <c r="H41" s="6">
+        <v>15</v>
+      </c>
+      <c r="I41" s="6">
+        <v>0</v>
+      </c>
+      <c r="J41" s="6"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A42" s="5">
+        <v>44727</v>
+      </c>
+      <c r="B42" s="5">
+        <v>44741</v>
+      </c>
+      <c r="C42" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>S(57/16)</v>
+      </c>
+      <c r="D42" s="6">
+        <v>1</v>
+      </c>
+      <c r="E42" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>1_16</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42" s="6">
+        <v>57</v>
+      </c>
+      <c r="H42" s="6">
+        <v>16</v>
+      </c>
+      <c r="I42" s="6">
+        <v>0</v>
+      </c>
+      <c r="J42" s="6"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A43" s="5">
+        <v>44727</v>
+      </c>
+      <c r="B43" s="5">
+        <v>44741</v>
+      </c>
+      <c r="C43" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>F(58/17)</v>
+      </c>
+      <c r="D43" s="6">
+        <v>1</v>
+      </c>
+      <c r="E43" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>1_17</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="6">
+        <v>58</v>
+      </c>
+      <c r="H43" s="6">
+        <v>17</v>
+      </c>
+      <c r="I43" s="6">
+        <v>0</v>
+      </c>
+      <c r="J43" s="6"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A44" s="5">
+        <v>44727</v>
+      </c>
+      <c r="B44" s="5">
+        <v>44741</v>
+      </c>
+      <c r="C44" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>W(59/18)</v>
+      </c>
+      <c r="D44" s="6">
+        <v>1</v>
+      </c>
+      <c r="E44" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>1_18</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" s="6">
+        <v>59</v>
+      </c>
+      <c r="H44" s="6">
+        <v>18</v>
+      </c>
+      <c r="I44" s="6">
+        <v>0</v>
+      </c>
+      <c r="J44" s="6"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A45" s="5">
+        <v>44727</v>
+      </c>
+      <c r="B45" s="5">
+        <v>44741</v>
+      </c>
+      <c r="C45" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>F(60/19)</v>
+      </c>
+      <c r="D45" s="6">
+        <v>1</v>
+      </c>
+      <c r="E45" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>1_19</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="6">
+        <v>60</v>
+      </c>
+      <c r="H45" s="6">
+        <v>19</v>
+      </c>
+      <c r="I45" s="6">
+        <v>0</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A46" s="5">
+        <v>44727</v>
+      </c>
+      <c r="B46" s="5">
+        <v>44741</v>
+      </c>
+      <c r="C46" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>S(61/20)</v>
+      </c>
+      <c r="D46" s="6">
+        <v>1</v>
+      </c>
+      <c r="E46" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>1_20</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="6">
+        <v>61</v>
+      </c>
+      <c r="H46" s="6">
+        <v>20</v>
+      </c>
+      <c r="I46" s="6">
+        <v>1</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A47" s="14">
+        <v>44727</v>
+      </c>
+      <c r="B47" s="14">
+        <v>44741</v>
+      </c>
+      <c r="C47" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>F(62/21)</v>
+      </c>
+      <c r="D47" s="15">
+        <v>1</v>
+      </c>
+      <c r="E47" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>1_21</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="15">
+        <v>62</v>
+      </c>
+      <c r="H47" s="15">
+        <v>21</v>
+      </c>
+      <c r="I47" s="15">
+        <v>2</v>
+      </c>
+      <c r="J47" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A48" s="5">
+        <v>44727</v>
+      </c>
+      <c r="B48" s="5">
+        <v>44741</v>
+      </c>
+      <c r="C48" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>W(63/22)</v>
+      </c>
+      <c r="D48" s="6">
+        <v>1</v>
+      </c>
+      <c r="E48" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>1_22</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" s="6">
+        <v>63</v>
+      </c>
+      <c r="H48" s="6">
+        <v>22</v>
+      </c>
+      <c r="I48" s="6">
+        <v>0</v>
+      </c>
+      <c r="J48" s="6"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A49" s="5">
+        <v>44727</v>
+      </c>
+      <c r="B49" s="5">
+        <v>44741</v>
+      </c>
+      <c r="C49" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>F(64/23)</v>
+      </c>
+      <c r="D49" s="6">
+        <v>1</v>
+      </c>
+      <c r="E49" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>1_23</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="6">
+        <v>64</v>
+      </c>
+      <c r="H49" s="6">
+        <v>23</v>
+      </c>
+      <c r="I49" s="6">
+        <v>0</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A50" s="5">
+        <v>44741</v>
+      </c>
+      <c r="B50" s="7">
+        <v>44755</v>
+      </c>
+      <c r="C50" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>F(41/0)</v>
+      </c>
+      <c r="D50" s="6">
+        <v>2</v>
+      </c>
+      <c r="E50" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2_0</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G50" s="6">
+        <v>41</v>
+      </c>
+      <c r="H50" s="6">
+        <v>0</v>
+      </c>
+      <c r="I50" s="6">
+        <v>0</v>
+      </c>
+      <c r="J50" s="6"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A51" s="5">
+        <v>44741</v>
+      </c>
+      <c r="B51" s="7">
+        <v>44755</v>
+      </c>
+      <c r="C51" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>S(42/1)</v>
+      </c>
+      <c r="D51" s="6">
+        <v>2</v>
+      </c>
+      <c r="E51" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2_1</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G51" s="6">
+        <v>42</v>
+      </c>
+      <c r="H51" s="6">
+        <v>1</v>
+      </c>
+      <c r="I51" s="6">
+        <v>0</v>
+      </c>
+      <c r="J51" s="6"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A52" s="5">
+        <v>44741</v>
+      </c>
+      <c r="B52" s="7">
+        <v>44755</v>
+      </c>
+      <c r="C52" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>W(43/2)</v>
+      </c>
+      <c r="D52" s="6">
+        <v>2</v>
+      </c>
+      <c r="E52" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2_2</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52" s="6">
+        <v>43</v>
+      </c>
+      <c r="H52" s="6">
+        <v>2</v>
+      </c>
+      <c r="I52" s="6">
+        <v>0</v>
+      </c>
+      <c r="J52" s="6"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A53" s="5">
+        <v>44741</v>
+      </c>
+      <c r="B53" s="7">
+        <v>44755</v>
+      </c>
+      <c r="C53" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>F(44/3)</v>
+      </c>
+      <c r="D53" s="6">
+        <v>2</v>
+      </c>
+      <c r="E53" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2_3</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G53" s="6">
+        <v>44</v>
+      </c>
+      <c r="H53" s="6">
+        <v>3</v>
+      </c>
+      <c r="I53" s="6">
+        <v>0</v>
+      </c>
+      <c r="J53" s="6"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A54" s="5">
+        <v>44741</v>
+      </c>
+      <c r="B54" s="7">
+        <v>44755</v>
+      </c>
+      <c r="C54" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>F(45/4)</v>
+      </c>
+      <c r="D54" s="6">
+        <v>2</v>
+      </c>
+      <c r="E54" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2_4</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="6">
+        <v>45</v>
+      </c>
+      <c r="H54" s="6">
+        <v>4</v>
+      </c>
+      <c r="I54" s="6">
+        <v>0</v>
+      </c>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A55" s="5">
+        <v>44741</v>
+      </c>
+      <c r="B55" s="7">
+        <v>44755</v>
+      </c>
+      <c r="C55" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>S(46/5)</v>
+      </c>
+      <c r="D55" s="6">
+        <v>2</v>
+      </c>
+      <c r="E55" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2_5</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" s="6">
+        <v>46</v>
+      </c>
+      <c r="H55" s="6">
+        <v>5</v>
+      </c>
+      <c r="I55" s="6">
+        <v>0</v>
+      </c>
+      <c r="J55" s="6"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A56" s="5">
+        <v>44741</v>
+      </c>
+      <c r="B56" s="7">
+        <v>44755</v>
+      </c>
+      <c r="C56" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>W(47/6)</v>
+      </c>
+      <c r="D56" s="6">
+        <v>2</v>
+      </c>
+      <c r="E56" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2_6</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G56" s="6">
+        <v>47</v>
+      </c>
+      <c r="H56" s="6">
+        <v>6</v>
+      </c>
+      <c r="I56" s="6">
+        <v>0</v>
+      </c>
+      <c r="J56" s="6"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A57" s="5">
+        <v>44741</v>
+      </c>
+      <c r="B57" s="7">
+        <v>44755</v>
+      </c>
+      <c r="C57" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>F(48/7)</v>
+      </c>
+      <c r="D57" s="6">
+        <v>2</v>
+      </c>
+      <c r="E57" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2_7</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="6">
+        <v>48</v>
+      </c>
+      <c r="H57" s="6">
+        <v>7</v>
+      </c>
+      <c r="I57" s="6">
+        <v>1</v>
+      </c>
+      <c r="J57" s="6"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A58" s="5">
+        <v>44741</v>
+      </c>
+      <c r="B58" s="7">
+        <v>44755</v>
+      </c>
+      <c r="C58" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>S(49/8)</v>
+      </c>
+      <c r="D58" s="6">
+        <v>2</v>
+      </c>
+      <c r="E58" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2_8</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G58" s="6">
+        <v>49</v>
+      </c>
+      <c r="H58" s="6">
+        <v>8</v>
+      </c>
+      <c r="I58" s="6">
+        <v>0</v>
+      </c>
+      <c r="J58" s="6"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A59" s="5">
+        <v>44741</v>
+      </c>
+      <c r="B59" s="7">
+        <v>44755</v>
+      </c>
+      <c r="C59" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>F(50/9)</v>
+      </c>
+      <c r="D59" s="6">
+        <v>2</v>
+      </c>
+      <c r="E59" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2_9</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="6">
+        <v>50</v>
+      </c>
+      <c r="H59" s="6">
+        <v>9</v>
+      </c>
+      <c r="I59" s="6">
+        <v>0</v>
+      </c>
+      <c r="J59" s="6"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A60" s="5">
+        <v>44741</v>
+      </c>
+      <c r="B60" s="7">
+        <v>44755</v>
+      </c>
+      <c r="C60" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>W(51/10)</v>
+      </c>
+      <c r="D60" s="6">
+        <v>2</v>
+      </c>
+      <c r="E60" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2_10</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G60" s="6">
+        <v>51</v>
+      </c>
+      <c r="H60" s="6">
+        <v>10</v>
+      </c>
+      <c r="I60" s="6">
+        <v>0</v>
+      </c>
+      <c r="J60" s="6"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A61" s="5">
+        <v>44741</v>
+      </c>
+      <c r="B61" s="7">
+        <v>44755</v>
+      </c>
+      <c r="C61" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>F(52/11)</v>
+      </c>
+      <c r="D61" s="6">
+        <v>2</v>
+      </c>
+      <c r="E61" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2_11</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G61" s="6">
+        <v>52</v>
+      </c>
+      <c r="H61" s="6">
+        <v>11</v>
+      </c>
+      <c r="I61" s="6">
+        <v>0</v>
+      </c>
+      <c r="J61" s="6"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A62" s="5">
+        <v>44741</v>
+      </c>
+      <c r="B62" s="7">
+        <v>44755</v>
+      </c>
+      <c r="C62" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>S(53/12)</v>
+      </c>
+      <c r="D62" s="6">
+        <v>2</v>
+      </c>
+      <c r="E62" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2_12</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G62" s="6">
+        <v>53</v>
+      </c>
+      <c r="H62" s="6">
+        <v>12</v>
+      </c>
+      <c r="I62" s="6">
+        <v>0</v>
+      </c>
+      <c r="J62" s="6"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A63" s="5">
+        <v>44741</v>
+      </c>
+      <c r="B63" s="7">
+        <v>44755</v>
+      </c>
+      <c r="C63" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>F(54/13)</v>
+      </c>
+      <c r="D63" s="6">
+        <v>2</v>
+      </c>
+      <c r="E63" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2_13</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G63" s="6">
+        <v>54</v>
+      </c>
+      <c r="H63" s="6">
+        <v>13</v>
+      </c>
+      <c r="I63" s="6">
+        <v>0</v>
+      </c>
+      <c r="J63" s="6"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A64" s="5">
+        <v>44741</v>
+      </c>
+      <c r="B64" s="7">
+        <v>44755</v>
+      </c>
+      <c r="C64" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>W(55/14)</v>
+      </c>
+      <c r="D64" s="6">
+        <v>2</v>
+      </c>
+      <c r="E64" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2_14</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G64" s="6">
+        <v>55</v>
+      </c>
+      <c r="H64" s="6">
+        <v>14</v>
+      </c>
+      <c r="I64" s="6">
+        <v>0</v>
+      </c>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A65" s="5">
+        <v>44741</v>
+      </c>
+      <c r="B65" s="7">
+        <v>44755</v>
+      </c>
+      <c r="C65" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>F(56/15)</v>
+      </c>
+      <c r="D65" s="6">
+        <v>2</v>
+      </c>
+      <c r="E65" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2_15</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G65" s="6">
+        <v>56</v>
+      </c>
+      <c r="H65" s="6">
+        <v>15</v>
+      </c>
+      <c r="I65" s="6">
+        <v>0</v>
+      </c>
+      <c r="J65" s="6"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A66" s="5">
+        <v>44741</v>
+      </c>
+      <c r="B66" s="7">
+        <v>44755</v>
+      </c>
+      <c r="C66" s="8" t="str">
+        <f t="shared" ref="C66:C129" si="2">_xlfn.CONCAT(F66, "(", G66, "/", H66, ")")</f>
+        <v>S(57/16)</v>
+      </c>
+      <c r="D66" s="6">
+        <v>2</v>
+      </c>
+      <c r="E66" s="4" t="str">
+        <f t="shared" ref="E66:E129" si="3">_xlfn.CONCAT(D66,"_",H66)</f>
+        <v>2_16</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G66" s="6">
+        <v>57</v>
+      </c>
+      <c r="H66" s="6">
+        <v>16</v>
+      </c>
+      <c r="I66" s="6">
+        <v>0</v>
+      </c>
+      <c r="J66" s="6"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A67" s="5">
+        <v>44741</v>
+      </c>
+      <c r="B67" s="7">
+        <v>44755</v>
+      </c>
+      <c r="C67" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>F(58/17)</v>
+      </c>
+      <c r="D67" s="6">
+        <v>2</v>
+      </c>
+      <c r="E67" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>2_17</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G67" s="6">
+        <v>58</v>
+      </c>
+      <c r="H67" s="6">
+        <v>17</v>
+      </c>
+      <c r="I67" s="6">
+        <v>0</v>
+      </c>
+      <c r="J67" s="6"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A68" s="5">
+        <v>44741</v>
+      </c>
+      <c r="B68" s="7">
+        <v>44755</v>
+      </c>
+      <c r="C68" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>W(59/18)</v>
+      </c>
+      <c r="D68" s="6">
+        <v>2</v>
+      </c>
+      <c r="E68" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>2_18</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G68" s="6">
+        <v>59</v>
+      </c>
+      <c r="H68" s="6">
+        <v>18</v>
+      </c>
+      <c r="I68" s="6">
+        <v>0</v>
+      </c>
+      <c r="J68" s="6"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A69" s="5">
+        <v>44741</v>
+      </c>
+      <c r="B69" s="7">
+        <v>44755</v>
+      </c>
+      <c r="C69" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>F(60/19)</v>
+      </c>
+      <c r="D69" s="6">
+        <v>2</v>
+      </c>
+      <c r="E69" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>2_19</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G69" s="6">
+        <v>60</v>
+      </c>
+      <c r="H69" s="6">
+        <v>19</v>
+      </c>
+      <c r="I69" s="6">
+        <v>0</v>
+      </c>
+      <c r="J69" s="6"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A70" s="5">
+        <v>44741</v>
+      </c>
+      <c r="B70" s="7">
+        <v>44755</v>
+      </c>
+      <c r="C70" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>S(61/20)</v>
+      </c>
+      <c r="D70" s="6">
+        <v>2</v>
+      </c>
+      <c r="E70" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>2_20</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G70" s="6">
+        <v>61</v>
+      </c>
+      <c r="H70" s="6">
+        <v>20</v>
+      </c>
+      <c r="I70" s="6">
+        <v>1</v>
+      </c>
+      <c r="J70" s="6"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A71" s="5">
+        <v>44741</v>
+      </c>
+      <c r="B71" s="7">
+        <v>44755</v>
+      </c>
+      <c r="C71" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>F(62/21)</v>
+      </c>
+      <c r="D71" s="6">
+        <v>2</v>
+      </c>
+      <c r="E71" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>2_21</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G71" s="6">
+        <v>62</v>
+      </c>
+      <c r="H71" s="6">
+        <v>21</v>
+      </c>
+      <c r="I71" s="6">
+        <v>0</v>
+      </c>
+      <c r="J71" s="6"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A72" s="5">
+        <v>44741</v>
+      </c>
+      <c r="B72" s="7">
+        <v>44755</v>
+      </c>
+      <c r="C72" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>W(63/22)</v>
+      </c>
+      <c r="D72" s="6">
+        <v>2</v>
+      </c>
+      <c r="E72" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>2_22</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G72" s="6">
+        <v>63</v>
+      </c>
+      <c r="H72" s="6">
+        <v>22</v>
+      </c>
+      <c r="I72" s="6">
+        <v>0</v>
+      </c>
+      <c r="J72" s="6"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A73" s="5">
+        <v>44741</v>
+      </c>
+      <c r="B73" s="7">
+        <v>44755</v>
+      </c>
+      <c r="C73" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>F(64/23)</v>
+      </c>
+      <c r="D73" s="6">
+        <v>2</v>
+      </c>
+      <c r="E73" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>2_23</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G73" s="6">
+        <v>64</v>
+      </c>
+      <c r="H73" s="6">
+        <v>23</v>
+      </c>
+      <c r="I73" s="6">
+        <v>0</v>
+      </c>
+      <c r="J73" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A74" s="5">
+        <v>44755</v>
+      </c>
+      <c r="B74" s="5">
+        <v>44769</v>
+      </c>
+      <c r="C74" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>F(41/0)</v>
+      </c>
+      <c r="D74" s="6">
+        <v>3</v>
+      </c>
+      <c r="E74" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>3_0</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G74" s="6">
+        <v>41</v>
+      </c>
+      <c r="H74" s="6">
+        <v>0</v>
+      </c>
+      <c r="I74" s="6">
+        <v>0</v>
+      </c>
+      <c r="J74" s="6"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A75" s="5">
+        <v>44755</v>
+      </c>
+      <c r="B75" s="5">
+        <v>44769</v>
+      </c>
+      <c r="C75" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>S(42/1)</v>
+      </c>
+      <c r="D75" s="6">
+        <v>3</v>
+      </c>
+      <c r="E75" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>3_1</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G75" s="6">
+        <v>42</v>
+      </c>
+      <c r="H75" s="6">
+        <v>1</v>
+      </c>
+      <c r="I75" s="6">
+        <v>0</v>
+      </c>
+      <c r="J75" s="6"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A76" s="5">
+        <v>44755</v>
+      </c>
+      <c r="B76" s="5">
+        <v>44769</v>
+      </c>
+      <c r="C76" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>W(43/2)</v>
+      </c>
+      <c r="D76" s="6">
+        <v>3</v>
+      </c>
+      <c r="E76" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>3_2</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G76" s="6">
+        <v>43</v>
+      </c>
+      <c r="H76" s="6">
+        <v>2</v>
+      </c>
+      <c r="I76" s="6">
+        <v>0</v>
+      </c>
+      <c r="J76" s="6"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A77" s="5">
+        <v>44755</v>
+      </c>
+      <c r="B77" s="5">
+        <v>44769</v>
+      </c>
+      <c r="C77" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>F(44/3)</v>
+      </c>
+      <c r="D77" s="6">
+        <v>3</v>
+      </c>
+      <c r="E77" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>3_3</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G77" s="6">
+        <v>44</v>
+      </c>
+      <c r="H77" s="6">
+        <v>3</v>
+      </c>
+      <c r="I77" s="6">
+        <v>0</v>
+      </c>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A78" s="5">
+        <v>44755</v>
+      </c>
+      <c r="B78" s="5">
+        <v>44769</v>
+      </c>
+      <c r="C78" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>F(45/4)</v>
+      </c>
+      <c r="D78" s="6">
+        <v>3</v>
+      </c>
+      <c r="E78" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>3_4</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G78" s="6">
+        <v>45</v>
+      </c>
+      <c r="H78" s="6">
+        <v>4</v>
+      </c>
+      <c r="I78" s="6">
+        <v>0</v>
+      </c>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A79" s="5">
+        <v>44755</v>
+      </c>
+      <c r="B79" s="5">
+        <v>44769</v>
+      </c>
+      <c r="C79" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>S(46/5)</v>
+      </c>
+      <c r="D79" s="6">
+        <v>3</v>
+      </c>
+      <c r="E79" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>3_5</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G79" s="6">
+        <v>46</v>
+      </c>
+      <c r="H79" s="6">
+        <v>5</v>
+      </c>
+      <c r="I79" s="6">
+        <v>0</v>
+      </c>
+      <c r="J79" s="6"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A80" s="5">
+        <v>44755</v>
+      </c>
+      <c r="B80" s="5">
+        <v>44769</v>
+      </c>
+      <c r="C80" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>W(47/6)</v>
+      </c>
+      <c r="D80" s="6">
+        <v>3</v>
+      </c>
+      <c r="E80" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>3_6</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G80" s="6">
+        <v>47</v>
+      </c>
+      <c r="H80" s="6">
+        <v>6</v>
+      </c>
+      <c r="I80" s="6">
+        <v>0</v>
+      </c>
+      <c r="J80" s="6"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A81" s="5">
+        <v>44755</v>
+      </c>
+      <c r="B81" s="5">
+        <v>44769</v>
+      </c>
+      <c r="C81" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>F(48/7)</v>
+      </c>
+      <c r="D81" s="6">
+        <v>3</v>
+      </c>
+      <c r="E81" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>3_7</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" s="6">
+        <v>48</v>
+      </c>
+      <c r="H81" s="6">
+        <v>7</v>
+      </c>
+      <c r="I81" s="6">
+        <v>0</v>
+      </c>
+      <c r="J81" s="6"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A82" s="5">
+        <v>44755</v>
+      </c>
+      <c r="B82" s="5">
+        <v>44769</v>
+      </c>
+      <c r="C82" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>S(49/8)</v>
+      </c>
+      <c r="D82" s="6">
+        <v>3</v>
+      </c>
+      <c r="E82" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>3_8</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G82" s="6">
+        <v>49</v>
+      </c>
+      <c r="H82" s="6">
+        <v>8</v>
+      </c>
+      <c r="I82" s="6">
+        <v>0</v>
+      </c>
+      <c r="J82" s="6"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A83" s="5">
+        <v>44755</v>
+      </c>
+      <c r="B83" s="5">
+        <v>44769</v>
+      </c>
+      <c r="C83" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>F(50/9)</v>
+      </c>
+      <c r="D83" s="6">
+        <v>3</v>
+      </c>
+      <c r="E83" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>3_9</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" s="6">
+        <v>50</v>
+      </c>
+      <c r="H83" s="6">
+        <v>9</v>
+      </c>
+      <c r="I83" s="6">
+        <v>0</v>
+      </c>
+      <c r="J83" s="6"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A84" s="5">
+        <v>44755</v>
+      </c>
+      <c r="B84" s="5">
+        <v>44769</v>
+      </c>
+      <c r="C84" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>W(51/10)</v>
+      </c>
+      <c r="D84" s="6">
+        <v>3</v>
+      </c>
+      <c r="E84" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>3_10</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G84" s="6">
+        <v>51</v>
+      </c>
+      <c r="H84" s="6">
+        <v>10</v>
+      </c>
+      <c r="I84" s="6">
+        <v>0</v>
+      </c>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A85" s="5">
+        <v>44755</v>
+      </c>
+      <c r="B85" s="5">
+        <v>44769</v>
+      </c>
+      <c r="C85" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>F(52/11)</v>
+      </c>
+      <c r="D85" s="6">
+        <v>3</v>
+      </c>
+      <c r="E85" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>3_11</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G85" s="6">
+        <v>52</v>
+      </c>
+      <c r="H85" s="6">
+        <v>11</v>
+      </c>
+      <c r="I85" s="6">
+        <v>0</v>
+      </c>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A86" s="5">
+        <v>44755</v>
+      </c>
+      <c r="B86" s="5">
+        <v>44769</v>
+      </c>
+      <c r="C86" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>S(53/12)</v>
+      </c>
+      <c r="D86" s="6">
+        <v>3</v>
+      </c>
+      <c r="E86" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>3_12</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G86" s="6">
+        <v>53</v>
+      </c>
+      <c r="H86" s="6">
+        <v>12</v>
+      </c>
+      <c r="I86" s="6">
+        <v>0</v>
+      </c>
+      <c r="J86" s="6"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A87" s="5">
+        <v>44755</v>
+      </c>
+      <c r="B87" s="5">
+        <v>44769</v>
+      </c>
+      <c r="C87" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>F(54/13)</v>
+      </c>
+      <c r="D87" s="6">
+        <v>3</v>
+      </c>
+      <c r="E87" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>3_13</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G87" s="6">
+        <v>54</v>
+      </c>
+      <c r="H87" s="6">
+        <v>13</v>
+      </c>
+      <c r="I87" s="6">
+        <v>0</v>
+      </c>
+      <c r="J87" s="6"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A88" s="5">
+        <v>44755</v>
+      </c>
+      <c r="B88" s="5">
+        <v>44769</v>
+      </c>
+      <c r="C88" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>W(55/14)</v>
+      </c>
+      <c r="D88" s="6">
+        <v>3</v>
+      </c>
+      <c r="E88" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>3_14</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G88" s="6">
+        <v>55</v>
+      </c>
+      <c r="H88" s="6">
+        <v>14</v>
+      </c>
+      <c r="I88" s="6">
+        <v>0</v>
+      </c>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A89" s="5">
+        <v>44755</v>
+      </c>
+      <c r="B89" s="5">
+        <v>44769</v>
+      </c>
+      <c r="C89" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>F(56/15)</v>
+      </c>
+      <c r="D89" s="6">
+        <v>3</v>
+      </c>
+      <c r="E89" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>3_15</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" s="6">
+        <v>56</v>
+      </c>
+      <c r="H89" s="6">
+        <v>15</v>
+      </c>
+      <c r="I89" s="6">
+        <v>0</v>
+      </c>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A90" s="5">
+        <v>44755</v>
+      </c>
+      <c r="B90" s="5">
+        <v>44769</v>
+      </c>
+      <c r="C90" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>S(57/16)</v>
+      </c>
+      <c r="D90" s="6">
+        <v>3</v>
+      </c>
+      <c r="E90" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>3_16</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G90" s="6">
+        <v>57</v>
+      </c>
+      <c r="H90" s="6">
+        <v>16</v>
+      </c>
+      <c r="I90" s="6">
+        <v>1</v>
+      </c>
+      <c r="J90" s="6"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A91" s="5">
+        <v>44755</v>
+      </c>
+      <c r="B91" s="5">
+        <v>44769</v>
+      </c>
+      <c r="C91" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>F(58/17)</v>
+      </c>
+      <c r="D91" s="6">
+        <v>3</v>
+      </c>
+      <c r="E91" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>3_17</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" s="6">
+        <v>58</v>
+      </c>
+      <c r="H91" s="6">
+        <v>17</v>
+      </c>
+      <c r="I91" s="6">
+        <v>0</v>
+      </c>
+      <c r="J91" s="6"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A92" s="5">
+        <v>44755</v>
+      </c>
+      <c r="B92" s="5">
+        <v>44769</v>
+      </c>
+      <c r="C92" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>W(59/18)</v>
+      </c>
+      <c r="D92" s="6">
+        <v>3</v>
+      </c>
+      <c r="E92" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>3_18</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G92" s="6">
+        <v>59</v>
+      </c>
+      <c r="H92" s="6">
+        <v>18</v>
+      </c>
+      <c r="I92" s="6">
+        <v>0</v>
+      </c>
+      <c r="J92" s="6"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A93" s="5">
+        <v>44755</v>
+      </c>
+      <c r="B93" s="5">
+        <v>44769</v>
+      </c>
+      <c r="C93" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>F(60/19)</v>
+      </c>
+      <c r="D93" s="6">
+        <v>3</v>
+      </c>
+      <c r="E93" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>3_19</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G93" s="6">
+        <v>60</v>
+      </c>
+      <c r="H93" s="6">
+        <v>19</v>
+      </c>
+      <c r="I93" s="6">
+        <v>0</v>
+      </c>
+      <c r="J93" s="6"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A94" s="5">
+        <v>44755</v>
+      </c>
+      <c r="B94" s="5">
+        <v>44769</v>
+      </c>
+      <c r="C94" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>S(61/20)</v>
+      </c>
+      <c r="D94" s="6">
+        <v>3</v>
+      </c>
+      <c r="E94" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>3_20</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G94" s="6">
+        <v>61</v>
+      </c>
+      <c r="H94" s="6">
+        <v>20</v>
+      </c>
+      <c r="I94" s="6">
+        <v>0</v>
+      </c>
+      <c r="J94" s="6"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A95" s="5">
+        <v>44755</v>
+      </c>
+      <c r="B95" s="5">
+        <v>44769</v>
+      </c>
+      <c r="C95" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>F(62/21)</v>
+      </c>
+      <c r="D95" s="6">
+        <v>3</v>
+      </c>
+      <c r="E95" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>3_21</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G95" s="6">
+        <v>62</v>
+      </c>
+      <c r="H95" s="6">
+        <v>21</v>
+      </c>
+      <c r="I95" s="6">
+        <v>0</v>
+      </c>
+      <c r="J95" s="6"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A96" s="5">
+        <v>44755</v>
+      </c>
+      <c r="B96" s="5">
+        <v>44769</v>
+      </c>
+      <c r="C96" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>W(63/22)</v>
+      </c>
+      <c r="D96" s="6">
+        <v>3</v>
+      </c>
+      <c r="E96" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>3_22</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G96" s="6">
+        <v>63</v>
+      </c>
+      <c r="H96" s="6">
+        <v>22</v>
+      </c>
+      <c r="I96" s="6">
+        <v>0</v>
+      </c>
+      <c r="J96" s="6"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A97" s="5">
+        <v>44755</v>
+      </c>
+      <c r="B97" s="5">
+        <v>44769</v>
+      </c>
+      <c r="C97" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>F(64/23)</v>
+      </c>
+      <c r="D97" s="6">
+        <v>3</v>
+      </c>
+      <c r="E97" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>3_23</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G97" s="6">
+        <v>64</v>
+      </c>
+      <c r="H97" s="6">
+        <v>23</v>
+      </c>
+      <c r="I97" s="6">
+        <v>0</v>
+      </c>
+      <c r="J97" s="6"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A98" s="5">
+        <v>44769</v>
+      </c>
+      <c r="B98" s="7">
+        <v>44784</v>
+      </c>
+      <c r="C98" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>F(41/0)</v>
+      </c>
+      <c r="D98" s="6">
+        <v>4</v>
+      </c>
+      <c r="E98" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>4_0</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G98" s="6">
+        <v>41</v>
+      </c>
+      <c r="H98" s="6">
+        <v>0</v>
+      </c>
+      <c r="I98" s="6">
+        <v>0</v>
+      </c>
+      <c r="J98" s="6"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A99" s="5">
+        <v>44769</v>
+      </c>
+      <c r="B99" s="7">
+        <v>44784</v>
+      </c>
+      <c r="C99" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>S(42/1)</v>
+      </c>
+      <c r="D99" s="6">
+        <v>4</v>
+      </c>
+      <c r="E99" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>4_1</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G99" s="6">
+        <v>42</v>
+      </c>
+      <c r="H99" s="6">
+        <v>1</v>
+      </c>
+      <c r="I99" s="6">
+        <v>0</v>
+      </c>
+      <c r="J99" s="6"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A100" s="5">
+        <v>44769</v>
+      </c>
+      <c r="B100" s="7">
+        <v>44784</v>
+      </c>
+      <c r="C100" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>W(43/2)</v>
+      </c>
+      <c r="D100" s="6">
+        <v>4</v>
+      </c>
+      <c r="E100" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>4_2</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G100" s="6">
+        <v>43</v>
+      </c>
+      <c r="H100" s="6">
+        <v>2</v>
+      </c>
+      <c r="I100" s="6">
+        <v>0</v>
+      </c>
+      <c r="J100" s="6"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A101" s="5">
+        <v>44769</v>
+      </c>
+      <c r="B101" s="7">
+        <v>44784</v>
+      </c>
+      <c r="C101" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>F(44/3)</v>
+      </c>
+      <c r="D101" s="6">
+        <v>4</v>
+      </c>
+      <c r="E101" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>4_3</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G101" s="6">
+        <v>44</v>
+      </c>
+      <c r="H101" s="6">
+        <v>3</v>
+      </c>
+      <c r="I101" s="6">
+        <v>0</v>
+      </c>
+      <c r="J101" s="6"/>
+      <c r="K101" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A102" s="10">
+        <v>44769</v>
+      </c>
+      <c r="B102" s="10">
+        <v>44784</v>
+      </c>
+      <c r="C102" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>F(45/4)</v>
+      </c>
+      <c r="D102" s="11">
+        <v>4</v>
+      </c>
+      <c r="E102" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>4_4</v>
+      </c>
+      <c r="F102" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102" s="11">
+        <v>45</v>
+      </c>
+      <c r="H102" s="11">
+        <v>4</v>
+      </c>
+      <c r="I102" s="11">
+        <v>0</v>
+      </c>
+      <c r="J102" s="11"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A103" s="5">
+        <v>44769</v>
+      </c>
+      <c r="B103" s="7">
+        <v>44784</v>
+      </c>
+      <c r="C103" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>S(46/5)</v>
+      </c>
+      <c r="D103" s="6">
+        <v>4</v>
+      </c>
+      <c r="E103" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>4_5</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G103" s="6">
+        <v>46</v>
+      </c>
+      <c r="H103" s="6">
+        <v>5</v>
+      </c>
+      <c r="I103" s="6">
+        <v>0</v>
+      </c>
+      <c r="J103" s="6"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A104" s="5">
+        <v>44769</v>
+      </c>
+      <c r="B104" s="7">
+        <v>44784</v>
+      </c>
+      <c r="C104" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>W(47/6)</v>
+      </c>
+      <c r="D104" s="6">
+        <v>4</v>
+      </c>
+      <c r="E104" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>4_6</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G104" s="6">
+        <v>47</v>
+      </c>
+      <c r="H104" s="6">
+        <v>6</v>
+      </c>
+      <c r="I104" s="6">
+        <v>0</v>
+      </c>
+      <c r="J104" s="6"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A105" s="5">
+        <v>44769</v>
+      </c>
+      <c r="B105" s="7">
+        <v>44784</v>
+      </c>
+      <c r="C105" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>F(48/7)</v>
+      </c>
+      <c r="D105" s="6">
+        <v>4</v>
+      </c>
+      <c r="E105" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>4_7</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G105" s="6">
+        <v>48</v>
+      </c>
+      <c r="H105" s="6">
+        <v>7</v>
+      </c>
+      <c r="I105" s="6">
+        <v>0</v>
+      </c>
+      <c r="J105" s="6"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A106" s="5">
+        <v>44769</v>
+      </c>
+      <c r="B106" s="7">
+        <v>44784</v>
+      </c>
+      <c r="C106" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>S(49/8)</v>
+      </c>
+      <c r="D106" s="6">
+        <v>4</v>
+      </c>
+      <c r="E106" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>4_8</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G106" s="6">
+        <v>49</v>
+      </c>
+      <c r="H106" s="6">
+        <v>8</v>
+      </c>
+      <c r="I106" s="6">
+        <v>0</v>
+      </c>
+      <c r="J106" s="6"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A107" s="5">
+        <v>44769</v>
+      </c>
+      <c r="B107" s="10">
+        <v>44784</v>
+      </c>
+      <c r="C107" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>F(50/9)</v>
+      </c>
+      <c r="D107" s="11">
+        <v>4</v>
+      </c>
+      <c r="E107" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>4_9</v>
+      </c>
+      <c r="F107" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G107" s="11">
+        <v>50</v>
+      </c>
+      <c r="H107" s="11">
+        <v>9</v>
+      </c>
+      <c r="I107" s="11">
+        <v>0</v>
+      </c>
+      <c r="J107" s="11"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A108" s="5">
+        <v>44769</v>
+      </c>
+      <c r="B108" s="5">
+        <v>44784</v>
+      </c>
+      <c r="C108" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>W(51/10)</v>
+      </c>
+      <c r="D108" s="6">
+        <v>4</v>
+      </c>
+      <c r="E108" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>4_10</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G108" s="6">
+        <v>51</v>
+      </c>
+      <c r="H108" s="6">
+        <v>10</v>
+      </c>
+      <c r="I108" s="6">
+        <v>0</v>
+      </c>
+      <c r="J108" s="6"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A109" s="5">
+        <v>44769</v>
+      </c>
+      <c r="B109" s="5">
+        <v>44784</v>
+      </c>
+      <c r="C109" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>F(52/11)</v>
+      </c>
+      <c r="D109" s="6">
+        <v>4</v>
+      </c>
+      <c r="E109" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>4_11</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G109" s="6">
+        <v>52</v>
+      </c>
+      <c r="H109" s="6">
+        <v>11</v>
+      </c>
+      <c r="I109" s="6">
+        <v>0</v>
+      </c>
+      <c r="J109" s="6"/>
+      <c r="K109" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A110" s="5">
+        <v>44769</v>
+      </c>
+      <c r="B110" s="7">
+        <v>44784</v>
+      </c>
+      <c r="C110" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>S(53/12)</v>
+      </c>
+      <c r="D110" s="6">
+        <v>4</v>
+      </c>
+      <c r="E110" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>4_12</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G110" s="6">
+        <v>53</v>
+      </c>
+      <c r="H110" s="6">
+        <v>12</v>
+      </c>
+      <c r="I110" s="6">
+        <v>0</v>
+      </c>
+      <c r="J110" s="6"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A111" s="5">
+        <v>44769</v>
+      </c>
+      <c r="B111" s="7">
+        <v>44784</v>
+      </c>
+      <c r="C111" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>F(54/13)</v>
+      </c>
+      <c r="D111" s="6">
+        <v>4</v>
+      </c>
+      <c r="E111" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>4_13</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G111" s="6">
+        <v>54</v>
+      </c>
+      <c r="H111" s="6">
+        <v>13</v>
+      </c>
+      <c r="I111" s="6">
+        <v>0</v>
+      </c>
+      <c r="J111" s="6"/>
+      <c r="K111" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A112" s="5">
+        <v>44769</v>
+      </c>
+      <c r="B112" s="7">
+        <v>44784</v>
+      </c>
+      <c r="C112" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>W(55/14)</v>
+      </c>
+      <c r="D112" s="6">
+        <v>4</v>
+      </c>
+      <c r="E112" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>4_14</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G112" s="6">
+        <v>55</v>
+      </c>
+      <c r="H112" s="6">
+        <v>14</v>
+      </c>
+      <c r="I112" s="6">
+        <v>0</v>
+      </c>
+      <c r="J112" s="6"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A113" s="5">
+        <v>44769</v>
+      </c>
+      <c r="B113" s="7">
+        <v>44784</v>
+      </c>
+      <c r="C113" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>F(56/15)</v>
+      </c>
+      <c r="D113" s="6">
+        <v>4</v>
+      </c>
+      <c r="E113" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>4_15</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G113" s="6">
+        <v>56</v>
+      </c>
+      <c r="H113" s="6">
+        <v>15</v>
+      </c>
+      <c r="I113" s="6">
+        <v>0</v>
+      </c>
+      <c r="J113" s="6"/>
+      <c r="K113" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A114" s="5">
+        <v>44769</v>
+      </c>
+      <c r="B114" s="7">
+        <v>44784</v>
+      </c>
+      <c r="C114" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>S(57/16)</v>
+      </c>
+      <c r="D114" s="6">
+        <v>4</v>
+      </c>
+      <c r="E114" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>4_16</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G114" s="6">
+        <v>57</v>
+      </c>
+      <c r="H114" s="6">
+        <v>16</v>
+      </c>
+      <c r="I114" s="6">
+        <v>0</v>
+      </c>
+      <c r="J114" s="6"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A115" s="5">
+        <v>44769</v>
+      </c>
+      <c r="B115" s="7">
+        <v>44784</v>
+      </c>
+      <c r="C115" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>F(58/17)</v>
+      </c>
+      <c r="D115" s="6">
+        <v>4</v>
+      </c>
+      <c r="E115" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>4_17</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G115" s="6">
+        <v>58</v>
+      </c>
+      <c r="H115" s="6">
+        <v>17</v>
+      </c>
+      <c r="I115" s="6">
+        <v>0</v>
+      </c>
+      <c r="J115" s="6"/>
+      <c r="K115" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A116" s="5">
+        <v>44769</v>
+      </c>
+      <c r="B116" s="7">
+        <v>44784</v>
+      </c>
+      <c r="C116" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>W(59/18)</v>
+      </c>
+      <c r="D116" s="6">
+        <v>4</v>
+      </c>
+      <c r="E116" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>4_18</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G116" s="6">
+        <v>59</v>
+      </c>
+      <c r="H116" s="6">
+        <v>18</v>
+      </c>
+      <c r="I116" s="6">
+        <v>0</v>
+      </c>
+      <c r="J116" s="6"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A117" s="5">
+        <v>44769</v>
+      </c>
+      <c r="B117" s="7">
+        <v>44784</v>
+      </c>
+      <c r="C117" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>F(60/19)</v>
+      </c>
+      <c r="D117" s="6">
+        <v>4</v>
+      </c>
+      <c r="E117" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>4_19</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G117" s="6">
+        <v>60</v>
+      </c>
+      <c r="H117" s="6">
+        <v>19</v>
+      </c>
+      <c r="I117" s="6">
+        <v>0</v>
+      </c>
+      <c r="J117" s="6"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A118" s="5">
+        <v>44769</v>
+      </c>
+      <c r="B118" s="7">
+        <v>44784</v>
+      </c>
+      <c r="C118" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>S(61/20)</v>
+      </c>
+      <c r="D118" s="6">
+        <v>4</v>
+      </c>
+      <c r="E118" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>4_20</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G118" s="6">
+        <v>61</v>
+      </c>
+      <c r="H118" s="6">
+        <v>20</v>
+      </c>
+      <c r="I118" s="6">
+        <v>0</v>
+      </c>
+      <c r="J118" s="6"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A119" s="5">
+        <v>44769</v>
+      </c>
+      <c r="B119" s="7">
+        <v>44784</v>
+      </c>
+      <c r="C119" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>F(62/21)</v>
+      </c>
+      <c r="D119" s="6">
+        <v>4</v>
+      </c>
+      <c r="E119" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>4_21</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G119" s="6">
+        <v>62</v>
+      </c>
+      <c r="H119" s="6">
+        <v>21</v>
+      </c>
+      <c r="I119" s="6">
+        <v>1</v>
+      </c>
+      <c r="J119" s="6"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A120" s="5">
+        <v>44769</v>
+      </c>
+      <c r="B120" s="7">
+        <v>44784</v>
+      </c>
+      <c r="C120" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>W(63/22)</v>
+      </c>
+      <c r="D120" s="6">
+        <v>4</v>
+      </c>
+      <c r="E120" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>4_22</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G120" s="6">
+        <v>63</v>
+      </c>
+      <c r="H120" s="6">
+        <v>22</v>
+      </c>
+      <c r="I120" s="6">
+        <v>0</v>
+      </c>
+      <c r="J120" s="6"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A121" s="5">
+        <v>44769</v>
+      </c>
+      <c r="B121" s="7">
+        <v>44784</v>
+      </c>
+      <c r="C121" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>F(64/23)</v>
+      </c>
+      <c r="D121" s="6">
+        <v>4</v>
+      </c>
+      <c r="E121" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>4_23</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G121" s="6">
+        <v>64</v>
+      </c>
+      <c r="H121" s="6">
+        <v>23</v>
+      </c>
+      <c r="I121" s="6">
+        <v>0</v>
+      </c>
+      <c r="J121" s="6"/>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A122" s="5">
+        <v>44784</v>
+      </c>
+      <c r="B122" s="5">
+        <v>44796</v>
+      </c>
+      <c r="C122" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>F(41/0)</v>
+      </c>
+      <c r="D122" s="6">
+        <v>5</v>
+      </c>
+      <c r="E122" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>5_0</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G122" s="6">
+        <v>41</v>
+      </c>
+      <c r="H122" s="6">
+        <v>0</v>
+      </c>
+      <c r="I122" s="6">
+        <v>0</v>
+      </c>
+      <c r="J122" s="6"/>
+      <c r="K122" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A123" s="5">
+        <v>44784</v>
+      </c>
+      <c r="B123" s="5">
+        <v>44796</v>
+      </c>
+      <c r="C123" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>S(42/1)</v>
+      </c>
+      <c r="D123" s="6">
+        <v>5</v>
+      </c>
+      <c r="E123" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>5_1</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G123" s="6">
+        <v>42</v>
+      </c>
+      <c r="H123" s="6">
+        <v>1</v>
+      </c>
+      <c r="I123" s="6">
+        <v>0</v>
+      </c>
+      <c r="J123" s="6"/>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A124" s="5">
+        <v>44784</v>
+      </c>
+      <c r="B124" s="5">
+        <v>44796</v>
+      </c>
+      <c r="C124" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>W(43/2)</v>
+      </c>
+      <c r="D124" s="6">
+        <v>5</v>
+      </c>
+      <c r="E124" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>5_2</v>
+      </c>
+      <c r="F124" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G124" s="6">
+        <v>43</v>
+      </c>
+      <c r="H124" s="6">
+        <v>2</v>
+      </c>
+      <c r="I124" s="6">
+        <v>0</v>
+      </c>
+      <c r="J124" s="6"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A125" s="5">
+        <v>44784</v>
+      </c>
+      <c r="B125" s="5">
+        <v>44796</v>
+      </c>
+      <c r="C125" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>F(44/3)</v>
+      </c>
+      <c r="D125" s="6">
+        <v>5</v>
+      </c>
+      <c r="E125" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>5_3</v>
+      </c>
+      <c r="F125" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G125" s="6">
+        <v>44</v>
+      </c>
+      <c r="H125" s="6">
+        <v>3</v>
+      </c>
+      <c r="I125" s="6">
+        <v>0</v>
+      </c>
+      <c r="J125" s="6"/>
+      <c r="K125" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A126" s="5">
+        <v>44784</v>
+      </c>
+      <c r="B126" s="5">
+        <v>44796</v>
+      </c>
+      <c r="C126" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>F(45/4)</v>
+      </c>
+      <c r="D126" s="6">
+        <v>5</v>
+      </c>
+      <c r="E126" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>5_4</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G126" s="6">
+        <v>45</v>
+      </c>
+      <c r="H126" s="6">
+        <v>4</v>
+      </c>
+      <c r="I126" s="6">
+        <v>0</v>
+      </c>
+      <c r="J126" s="6"/>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A127" s="5">
+        <v>44784</v>
+      </c>
+      <c r="B127" s="5">
+        <v>44796</v>
+      </c>
+      <c r="C127" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>S(46/5)</v>
+      </c>
+      <c r="D127" s="6">
+        <v>5</v>
+      </c>
+      <c r="E127" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>5_5</v>
+      </c>
+      <c r="F127" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G127" s="6">
+        <v>46</v>
+      </c>
+      <c r="H127" s="6">
+        <v>5</v>
+      </c>
+      <c r="I127" s="6">
+        <v>0</v>
+      </c>
+      <c r="J127" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A128" s="5">
+        <v>44784</v>
+      </c>
+      <c r="B128" s="5">
+        <v>44796</v>
+      </c>
+      <c r="C128" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>W(47/6)</v>
+      </c>
+      <c r="D128" s="6">
+        <v>5</v>
+      </c>
+      <c r="E128" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>5_6</v>
+      </c>
+      <c r="F128" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G128" s="6">
+        <v>47</v>
+      </c>
+      <c r="H128" s="6">
+        <v>6</v>
+      </c>
+      <c r="I128" s="6">
+        <v>0</v>
+      </c>
+      <c r="J128" s="6"/>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A129" s="5">
+        <v>44784</v>
+      </c>
+      <c r="B129" s="5">
+        <v>44796</v>
+      </c>
+      <c r="C129" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>F(48/7)</v>
+      </c>
+      <c r="D129" s="6">
+        <v>5</v>
+      </c>
+      <c r="E129" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>5_7</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G129" s="6">
+        <v>48</v>
+      </c>
+      <c r="H129" s="6">
+        <v>7</v>
+      </c>
+      <c r="I129" s="6">
+        <v>0</v>
+      </c>
+      <c r="J129" s="6"/>
+      <c r="K129" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A130" s="5">
+        <v>44784</v>
+      </c>
+      <c r="B130" s="5">
+        <v>44796</v>
+      </c>
+      <c r="C130" s="6" t="str">
+        <f t="shared" ref="C130:C193" si="4">_xlfn.CONCAT(F130, "(", G130, "/", H130, ")")</f>
+        <v>S(49/8)</v>
+      </c>
+      <c r="D130" s="6">
+        <v>5</v>
+      </c>
+      <c r="E130" s="4" t="str">
+        <f t="shared" ref="E130:E193" si="5">_xlfn.CONCAT(D130,"_",H130)</f>
+        <v>5_8</v>
+      </c>
+      <c r="F130" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G130" s="6">
+        <v>49</v>
+      </c>
+      <c r="H130" s="6">
+        <v>8</v>
+      </c>
+      <c r="I130" s="6">
+        <v>0</v>
+      </c>
+      <c r="J130" s="6"/>
+      <c r="K130" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A131" s="5">
+        <v>44784</v>
+      </c>
+      <c r="B131" s="5">
+        <v>44796</v>
+      </c>
+      <c r="C131" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>F(50/9)</v>
+      </c>
+      <c r="D131" s="6">
+        <v>5</v>
+      </c>
+      <c r="E131" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>5_9</v>
+      </c>
+      <c r="F131" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G131" s="6">
+        <v>50</v>
+      </c>
+      <c r="H131" s="6">
+        <v>9</v>
+      </c>
+      <c r="I131" s="6">
+        <v>0</v>
+      </c>
+      <c r="J131" s="6"/>
+      <c r="K131" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A132" s="5">
+        <v>44784</v>
+      </c>
+      <c r="B132" s="5">
+        <v>44796</v>
+      </c>
+      <c r="C132" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>W(51/10)</v>
+      </c>
+      <c r="D132" s="6">
+        <v>5</v>
+      </c>
+      <c r="E132" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>5_10</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G132" s="6">
+        <v>51</v>
+      </c>
+      <c r="H132" s="6">
+        <v>10</v>
+      </c>
+      <c r="I132" s="6">
+        <v>0</v>
+      </c>
+      <c r="J132" s="6"/>
+      <c r="K132" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A133" s="5">
+        <v>44784</v>
+      </c>
+      <c r="B133" s="5">
+        <v>44796</v>
+      </c>
+      <c r="C133" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>F(52/11)</v>
+      </c>
+      <c r="D133" s="6">
+        <v>5</v>
+      </c>
+      <c r="E133" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>5_11</v>
+      </c>
+      <c r="F133" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G133" s="6">
+        <v>52</v>
+      </c>
+      <c r="H133" s="6">
+        <v>11</v>
+      </c>
+      <c r="I133" s="6">
+        <v>0</v>
+      </c>
+      <c r="J133" s="6"/>
+      <c r="K133" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A134" s="5">
+        <v>44784</v>
+      </c>
+      <c r="B134" s="5">
+        <v>44796</v>
+      </c>
+      <c r="C134" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>S(53/12)</v>
+      </c>
+      <c r="D134" s="6">
+        <v>5</v>
+      </c>
+      <c r="E134" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>5_12</v>
+      </c>
+      <c r="F134" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G134" s="6">
+        <v>53</v>
+      </c>
+      <c r="H134" s="6">
+        <v>12</v>
+      </c>
+      <c r="I134" s="6">
+        <v>0</v>
+      </c>
+      <c r="J134" s="6"/>
+      <c r="K134" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A135" s="5">
+        <v>44784</v>
+      </c>
+      <c r="B135" s="5">
+        <v>44796</v>
+      </c>
+      <c r="C135" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>F(54/13)</v>
+      </c>
+      <c r="D135" s="6">
+        <v>5</v>
+      </c>
+      <c r="E135" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>5_13</v>
+      </c>
+      <c r="F135" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G135" s="6">
+        <v>54</v>
+      </c>
+      <c r="H135" s="6">
+        <v>13</v>
+      </c>
+      <c r="I135" s="6">
+        <v>0</v>
+      </c>
+      <c r="J135" s="6"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A136" s="5">
+        <v>44784</v>
+      </c>
+      <c r="B136" s="5">
+        <v>44796</v>
+      </c>
+      <c r="C136" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>W(55/14)</v>
+      </c>
+      <c r="D136" s="6">
+        <v>5</v>
+      </c>
+      <c r="E136" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>5_14</v>
+      </c>
+      <c r="F136" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G136" s="6">
+        <v>55</v>
+      </c>
+      <c r="H136" s="6">
+        <v>14</v>
+      </c>
+      <c r="I136" s="6">
+        <v>0</v>
+      </c>
+      <c r="J136" s="6"/>
+      <c r="K136" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A137" s="5">
+        <v>44784</v>
+      </c>
+      <c r="B137" s="5">
+        <v>44796</v>
+      </c>
+      <c r="C137" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>F(56/15)</v>
+      </c>
+      <c r="D137" s="6">
+        <v>5</v>
+      </c>
+      <c r="E137" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>5_15</v>
+      </c>
+      <c r="F137" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G137" s="6">
+        <v>56</v>
+      </c>
+      <c r="H137" s="6">
+        <v>15</v>
+      </c>
+      <c r="I137" s="6">
+        <v>0</v>
+      </c>
+      <c r="J137" s="6"/>
+      <c r="K137" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A138" s="5">
+        <v>44784</v>
+      </c>
+      <c r="B138" s="5">
+        <v>44796</v>
+      </c>
+      <c r="C138" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>S(57/16)</v>
+      </c>
+      <c r="D138" s="6">
+        <v>5</v>
+      </c>
+      <c r="E138" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>5_16</v>
+      </c>
+      <c r="F138" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G138" s="6">
+        <v>57</v>
+      </c>
+      <c r="H138" s="6">
+        <v>16</v>
+      </c>
+      <c r="I138" s="6">
+        <v>0</v>
+      </c>
+      <c r="J138" s="6"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A139" s="5">
+        <v>44784</v>
+      </c>
+      <c r="B139" s="5">
+        <v>44796</v>
+      </c>
+      <c r="C139" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>F(58/17)</v>
+      </c>
+      <c r="D139" s="6">
+        <v>5</v>
+      </c>
+      <c r="E139" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>5_17</v>
+      </c>
+      <c r="F139" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G139" s="6">
+        <v>58</v>
+      </c>
+      <c r="H139" s="6">
+        <v>17</v>
+      </c>
+      <c r="I139" s="6">
+        <v>0</v>
+      </c>
+      <c r="J139" s="6"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A140" s="5">
+        <v>44784</v>
+      </c>
+      <c r="B140" s="5">
+        <v>44796</v>
+      </c>
+      <c r="C140" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>W(59/18)</v>
+      </c>
+      <c r="D140" s="6">
+        <v>5</v>
+      </c>
+      <c r="E140" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>5_18</v>
+      </c>
+      <c r="F140" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G140" s="6">
+        <v>59</v>
+      </c>
+      <c r="H140" s="6">
+        <v>18</v>
+      </c>
+      <c r="I140" s="6">
+        <v>0</v>
+      </c>
+      <c r="J140" s="6"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A141" s="5">
+        <v>44784</v>
+      </c>
+      <c r="B141" s="5">
+        <v>44796</v>
+      </c>
+      <c r="C141" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>F(60/19)</v>
+      </c>
+      <c r="D141" s="6">
+        <v>5</v>
+      </c>
+      <c r="E141" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>5_19</v>
+      </c>
+      <c r="F141" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G141" s="6">
+        <v>60</v>
+      </c>
+      <c r="H141" s="6">
+        <v>19</v>
+      </c>
+      <c r="I141" s="6">
+        <v>0</v>
+      </c>
+      <c r="J141" s="6"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A142" s="5">
+        <v>44784</v>
+      </c>
+      <c r="B142" s="5">
+        <v>44796</v>
+      </c>
+      <c r="C142" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>S(61/20)</v>
+      </c>
+      <c r="D142" s="6">
+        <v>5</v>
+      </c>
+      <c r="E142" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>5_20</v>
+      </c>
+      <c r="F142" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G142" s="6">
+        <v>61</v>
+      </c>
+      <c r="H142" s="6">
+        <v>20</v>
+      </c>
+      <c r="I142" s="6">
+        <v>0</v>
+      </c>
+      <c r="J142" s="6"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A143" s="5">
+        <v>44784</v>
+      </c>
+      <c r="B143" s="5">
+        <v>44796</v>
+      </c>
+      <c r="C143" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>F(62/21)</v>
+      </c>
+      <c r="D143" s="6">
+        <v>5</v>
+      </c>
+      <c r="E143" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>5_21</v>
+      </c>
+      <c r="F143" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G143" s="6">
+        <v>62</v>
+      </c>
+      <c r="H143" s="6">
+        <v>21</v>
+      </c>
+      <c r="I143" s="6">
+        <v>0</v>
+      </c>
+      <c r="J143" s="6"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A144" s="5">
+        <v>44784</v>
+      </c>
+      <c r="B144" s="5">
+        <v>44796</v>
+      </c>
+      <c r="C144" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>W(63/22)</v>
+      </c>
+      <c r="D144" s="6">
+        <v>5</v>
+      </c>
+      <c r="E144" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>5_22</v>
+      </c>
+      <c r="F144" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G144" s="6">
+        <v>63</v>
+      </c>
+      <c r="H144" s="6">
+        <v>22</v>
+      </c>
+      <c r="I144" s="6">
+        <v>0</v>
+      </c>
+      <c r="J144" s="6"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A145" s="5">
+        <v>44784</v>
+      </c>
+      <c r="B145" s="5">
+        <v>44796</v>
+      </c>
+      <c r="C145" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>F(64/23)</v>
+      </c>
+      <c r="D145" s="6">
+        <v>5</v>
+      </c>
+      <c r="E145" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>5_23</v>
+      </c>
+      <c r="F145" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G145" s="6">
+        <v>64</v>
+      </c>
+      <c r="H145" s="6">
+        <v>23</v>
+      </c>
+      <c r="I145" s="6">
+        <v>0</v>
+      </c>
+      <c r="J145" s="6"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A146" s="5">
+        <v>44796</v>
+      </c>
+      <c r="B146" s="7">
+        <v>44810</v>
+      </c>
+      <c r="C146" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>F(41/0)</v>
+      </c>
+      <c r="D146" s="6">
+        <v>6</v>
+      </c>
+      <c r="E146" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>6_0</v>
+      </c>
+      <c r="F146" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G146" s="6">
+        <v>41</v>
+      </c>
+      <c r="H146" s="6">
+        <v>0</v>
+      </c>
+      <c r="I146" s="6">
+        <v>0</v>
+      </c>
+      <c r="J146" s="6"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A147" s="5">
+        <v>44796</v>
+      </c>
+      <c r="B147" s="7">
+        <v>44810</v>
+      </c>
+      <c r="C147" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>S(42/1)</v>
+      </c>
+      <c r="D147" s="6">
+        <v>6</v>
+      </c>
+      <c r="E147" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>6_1</v>
+      </c>
+      <c r="F147" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G147" s="6">
+        <v>42</v>
+      </c>
+      <c r="H147" s="6">
+        <v>1</v>
+      </c>
+      <c r="I147" s="6">
+        <v>0</v>
+      </c>
+      <c r="J147" s="6"/>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A148" s="5">
+        <v>44796</v>
+      </c>
+      <c r="B148" s="7">
+        <v>44810</v>
+      </c>
+      <c r="C148" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>W(43/2)</v>
+      </c>
+      <c r="D148" s="6">
+        <v>6</v>
+      </c>
+      <c r="E148" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>6_2</v>
+      </c>
+      <c r="F148" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G148" s="6">
+        <v>43</v>
+      </c>
+      <c r="H148" s="6">
+        <v>2</v>
+      </c>
+      <c r="I148" s="6">
+        <v>0</v>
+      </c>
+      <c r="J148" s="6"/>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A149" s="5">
+        <v>44796</v>
+      </c>
+      <c r="B149" s="7">
+        <v>44810</v>
+      </c>
+      <c r="C149" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>F(44/3)</v>
+      </c>
+      <c r="D149" s="6">
+        <v>6</v>
+      </c>
+      <c r="E149" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>6_3</v>
+      </c>
+      <c r="F149" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G149" s="6">
+        <v>44</v>
+      </c>
+      <c r="H149" s="6">
+        <v>3</v>
+      </c>
+      <c r="I149" s="6">
+        <v>0</v>
+      </c>
+      <c r="J149" s="6"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A150" s="5">
+        <v>44796</v>
+      </c>
+      <c r="B150" s="7">
+        <v>44810</v>
+      </c>
+      <c r="C150" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>F(45/4)</v>
+      </c>
+      <c r="D150" s="6">
+        <v>6</v>
+      </c>
+      <c r="E150" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>6_4</v>
+      </c>
+      <c r="F150" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G150" s="6">
+        <v>45</v>
+      </c>
+      <c r="H150" s="6">
+        <v>4</v>
+      </c>
+      <c r="I150" s="6">
+        <v>0</v>
+      </c>
+      <c r="J150" s="6"/>
+      <c r="K150" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A151" s="5">
+        <v>44796</v>
+      </c>
+      <c r="B151" s="7">
+        <v>44810</v>
+      </c>
+      <c r="C151" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>S(46/5)</v>
+      </c>
+      <c r="D151" s="6">
+        <v>6</v>
+      </c>
+      <c r="E151" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>6_5</v>
+      </c>
+      <c r="F151" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G151" s="6">
+        <v>46</v>
+      </c>
+      <c r="H151" s="6">
+        <v>5</v>
+      </c>
+      <c r="I151" s="6">
+        <v>0</v>
+      </c>
+      <c r="J151" s="6"/>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A152" s="5">
+        <v>44796</v>
+      </c>
+      <c r="B152" s="7">
+        <v>44810</v>
+      </c>
+      <c r="C152" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>W(47/6)</v>
+      </c>
+      <c r="D152" s="6">
+        <v>6</v>
+      </c>
+      <c r="E152" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>6_6</v>
+      </c>
+      <c r="F152" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G152" s="6">
+        <v>47</v>
+      </c>
+      <c r="H152" s="6">
+        <v>6</v>
+      </c>
+      <c r="I152" s="6">
+        <v>0</v>
+      </c>
+      <c r="J152" s="6"/>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A153" s="5">
+        <v>44796</v>
+      </c>
+      <c r="B153" s="7">
+        <v>44810</v>
+      </c>
+      <c r="C153" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>F(48/7)</v>
+      </c>
+      <c r="D153" s="6">
+        <v>6</v>
+      </c>
+      <c r="E153" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>6_7</v>
+      </c>
+      <c r="F153" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G153" s="6">
+        <v>48</v>
+      </c>
+      <c r="H153" s="6">
+        <v>7</v>
+      </c>
+      <c r="I153" s="6">
+        <v>0</v>
+      </c>
+      <c r="J153" s="6"/>
+      <c r="K153" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A154" s="5">
+        <v>44796</v>
+      </c>
+      <c r="B154" s="7">
+        <v>44810</v>
+      </c>
+      <c r="C154" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>S(49/8)</v>
+      </c>
+      <c r="D154" s="6">
+        <v>6</v>
+      </c>
+      <c r="E154" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>6_8</v>
+      </c>
+      <c r="F154" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G154" s="6">
+        <v>49</v>
+      </c>
+      <c r="H154" s="6">
+        <v>8</v>
+      </c>
+      <c r="I154" s="6">
+        <v>0</v>
+      </c>
+      <c r="J154" s="6"/>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A155" s="5">
+        <v>44796</v>
+      </c>
+      <c r="B155" s="7">
+        <v>44810</v>
+      </c>
+      <c r="C155" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>F(50/9)</v>
+      </c>
+      <c r="D155" s="6">
+        <v>6</v>
+      </c>
+      <c r="E155" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>6_9</v>
+      </c>
+      <c r="F155" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G155" s="6">
+        <v>50</v>
+      </c>
+      <c r="H155" s="6">
+        <v>9</v>
+      </c>
+      <c r="I155" s="6">
+        <v>0</v>
+      </c>
+      <c r="J155" s="6"/>
+      <c r="K155" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A156" s="5">
+        <v>44796</v>
+      </c>
+      <c r="B156" s="7">
+        <v>44810</v>
+      </c>
+      <c r="C156" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>W(51/10)</v>
+      </c>
+      <c r="D156" s="6">
+        <v>6</v>
+      </c>
+      <c r="E156" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>6_10</v>
+      </c>
+      <c r="F156" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G156" s="6">
+        <v>51</v>
+      </c>
+      <c r="H156" s="6">
+        <v>10</v>
+      </c>
+      <c r="I156" s="6">
+        <v>0</v>
+      </c>
+      <c r="J156" s="6"/>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A157" s="5">
+        <v>44796</v>
+      </c>
+      <c r="B157" s="7">
+        <v>44810</v>
+      </c>
+      <c r="C157" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>F(52/11)</v>
+      </c>
+      <c r="D157" s="6">
+        <v>6</v>
+      </c>
+      <c r="E157" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>6_11</v>
+      </c>
+      <c r="F157" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G157" s="6">
+        <v>52</v>
+      </c>
+      <c r="H157" s="6">
+        <v>11</v>
+      </c>
+      <c r="I157" s="6">
+        <v>0</v>
+      </c>
+      <c r="J157" s="6"/>
+      <c r="K157" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A158" s="5">
+        <v>44796</v>
+      </c>
+      <c r="B158" s="7">
+        <v>44810</v>
+      </c>
+      <c r="C158" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>S(53/12)</v>
+      </c>
+      <c r="D158" s="6">
+        <v>6</v>
+      </c>
+      <c r="E158" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>6_12</v>
+      </c>
+      <c r="F158" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G158" s="6">
+        <v>53</v>
+      </c>
+      <c r="H158" s="6">
+        <v>12</v>
+      </c>
+      <c r="I158" s="6">
+        <v>0</v>
+      </c>
+      <c r="J158" s="6"/>
+      <c r="K158" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A159" s="5">
+        <v>44796</v>
+      </c>
+      <c r="B159" s="7">
+        <v>44810</v>
+      </c>
+      <c r="C159" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>F(54/13)</v>
+      </c>
+      <c r="D159" s="6">
+        <v>6</v>
+      </c>
+      <c r="E159" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>6_13</v>
+      </c>
+      <c r="F159" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G159" s="6">
+        <v>54</v>
+      </c>
+      <c r="H159" s="6">
+        <v>13</v>
+      </c>
+      <c r="I159" s="6">
+        <v>0</v>
+      </c>
+      <c r="J159" s="6"/>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A160" s="5">
+        <v>44796</v>
+      </c>
+      <c r="B160" s="7">
+        <v>44810</v>
+      </c>
+      <c r="C160" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>W(55/14)</v>
+      </c>
+      <c r="D160" s="6">
+        <v>6</v>
+      </c>
+      <c r="E160" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>6_14</v>
+      </c>
+      <c r="F160" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G160" s="6">
+        <v>55</v>
+      </c>
+      <c r="H160" s="6">
+        <v>14</v>
+      </c>
+      <c r="I160" s="6">
+        <v>0</v>
+      </c>
+      <c r="J160" s="6"/>
+      <c r="K160" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A161" s="5">
+        <v>44796</v>
+      </c>
+      <c r="B161" s="7">
+        <v>44810</v>
+      </c>
+      <c r="C161" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>F(56/15)</v>
+      </c>
+      <c r="D161" s="6">
+        <v>6</v>
+      </c>
+      <c r="E161" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>6_15</v>
+      </c>
+      <c r="F161" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G161" s="6">
+        <v>56</v>
+      </c>
+      <c r="H161" s="6">
+        <v>15</v>
+      </c>
+      <c r="I161" s="6">
+        <v>0</v>
+      </c>
+      <c r="J161" s="6"/>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A162" s="5">
+        <v>44796</v>
+      </c>
+      <c r="B162" s="7">
+        <v>44810</v>
+      </c>
+      <c r="C162" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>S(57/16)</v>
+      </c>
+      <c r="D162" s="6">
+        <v>6</v>
+      </c>
+      <c r="E162" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>6_16</v>
+      </c>
+      <c r="F162" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G162" s="6">
+        <v>57</v>
+      </c>
+      <c r="H162" s="6">
+        <v>16</v>
+      </c>
+      <c r="I162" s="6">
+        <v>0</v>
+      </c>
+      <c r="J162" s="6"/>
+      <c r="K162" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A163" s="5">
+        <v>44796</v>
+      </c>
+      <c r="B163" s="7">
+        <v>44810</v>
+      </c>
+      <c r="C163" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>F(58/17)</v>
+      </c>
+      <c r="D163" s="6">
+        <v>6</v>
+      </c>
+      <c r="E163" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>6_17</v>
+      </c>
+      <c r="F163" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G163" s="6">
+        <v>58</v>
+      </c>
+      <c r="H163" s="6">
+        <v>17</v>
+      </c>
+      <c r="I163" s="6">
+        <v>0</v>
+      </c>
+      <c r="J163" s="6"/>
+      <c r="K163" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A164" s="5">
+        <v>44796</v>
+      </c>
+      <c r="B164" s="7">
+        <v>44810</v>
+      </c>
+      <c r="C164" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>W(59/18)</v>
+      </c>
+      <c r="D164" s="6">
+        <v>6</v>
+      </c>
+      <c r="E164" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>6_18</v>
+      </c>
+      <c r="F164" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G164" s="6">
+        <v>59</v>
+      </c>
+      <c r="H164" s="6">
+        <v>18</v>
+      </c>
+      <c r="I164" s="6">
+        <v>0</v>
+      </c>
+      <c r="J164" s="6"/>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A165" s="5">
+        <v>44796</v>
+      </c>
+      <c r="B165" s="7">
+        <v>44810</v>
+      </c>
+      <c r="C165" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>F(60/19)</v>
+      </c>
+      <c r="D165" s="6">
+        <v>6</v>
+      </c>
+      <c r="E165" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>6_19</v>
+      </c>
+      <c r="F165" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G165" s="6">
+        <v>60</v>
+      </c>
+      <c r="H165" s="6">
+        <v>19</v>
+      </c>
+      <c r="I165" s="6">
+        <v>0</v>
+      </c>
+      <c r="J165" s="6"/>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A166" s="5">
+        <v>44796</v>
+      </c>
+      <c r="B166" s="7">
+        <v>44810</v>
+      </c>
+      <c r="C166" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>S(61/20)</v>
+      </c>
+      <c r="D166" s="6">
+        <v>6</v>
+      </c>
+      <c r="E166" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>6_20</v>
+      </c>
+      <c r="F166" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G166" s="6">
+        <v>61</v>
+      </c>
+      <c r="H166" s="6">
+        <v>20</v>
+      </c>
+      <c r="I166" s="6">
+        <v>0</v>
+      </c>
+      <c r="J166" s="6"/>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A167" s="5">
+        <v>44796</v>
+      </c>
+      <c r="B167" s="7">
+        <v>44810</v>
+      </c>
+      <c r="C167" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>F(62/21)</v>
+      </c>
+      <c r="D167" s="6">
+        <v>6</v>
+      </c>
+      <c r="E167" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>6_21</v>
+      </c>
+      <c r="F167" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G167" s="6">
+        <v>62</v>
+      </c>
+      <c r="H167" s="6">
+        <v>21</v>
+      </c>
+      <c r="I167" s="6">
+        <v>0</v>
+      </c>
+      <c r="J167" s="6"/>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A168" s="5">
+        <v>44796</v>
+      </c>
+      <c r="B168" s="7">
+        <v>44810</v>
+      </c>
+      <c r="C168" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>W(63/22)</v>
+      </c>
+      <c r="D168" s="6">
+        <v>6</v>
+      </c>
+      <c r="E168" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>6_22</v>
+      </c>
+      <c r="F168" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G168" s="6">
+        <v>63</v>
+      </c>
+      <c r="H168" s="6">
+        <v>22</v>
+      </c>
+      <c r="I168" s="6">
+        <v>0</v>
+      </c>
+      <c r="J168" s="6"/>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A169" s="5">
+        <v>44796</v>
+      </c>
+      <c r="B169" s="7">
+        <v>44810</v>
+      </c>
+      <c r="C169" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>F(64/23)</v>
+      </c>
+      <c r="D169" s="6">
+        <v>6</v>
+      </c>
+      <c r="E169" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>6_23</v>
+      </c>
+      <c r="F169" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G169" s="6">
+        <v>64</v>
+      </c>
+      <c r="H169" s="6">
+        <v>23</v>
+      </c>
+      <c r="I169" s="6">
+        <v>0</v>
+      </c>
+      <c r="J169" s="6"/>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A170" s="5">
+        <v>44810</v>
+      </c>
+      <c r="B170" s="5">
+        <v>44824</v>
+      </c>
+      <c r="C170" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>F(41/0)</v>
+      </c>
+      <c r="D170" s="6">
+        <v>7</v>
+      </c>
+      <c r="E170" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>7_0</v>
+      </c>
+      <c r="F170" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G170" s="6">
+        <v>41</v>
+      </c>
+      <c r="H170" s="6">
+        <v>0</v>
+      </c>
+      <c r="I170" s="6">
+        <v>0</v>
+      </c>
+      <c r="J170" s="6"/>
+      <c r="K170" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A171" s="5">
+        <v>44810</v>
+      </c>
+      <c r="B171" s="5">
+        <v>44824</v>
+      </c>
+      <c r="C171" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>S(42/1)</v>
+      </c>
+      <c r="D171" s="6">
+        <v>7</v>
+      </c>
+      <c r="E171" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>7_1</v>
+      </c>
+      <c r="F171" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G171" s="6">
+        <v>42</v>
+      </c>
+      <c r="H171" s="6">
+        <v>1</v>
+      </c>
+      <c r="I171" s="6">
+        <v>0</v>
+      </c>
+      <c r="J171" s="6"/>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A172" s="5">
+        <v>44810</v>
+      </c>
+      <c r="B172" s="5">
+        <v>44824</v>
+      </c>
+      <c r="C172" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>W(43/2)</v>
+      </c>
+      <c r="D172" s="6">
+        <v>7</v>
+      </c>
+      <c r="E172" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>7_2</v>
+      </c>
+      <c r="F172" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G172" s="6">
+        <v>43</v>
+      </c>
+      <c r="H172" s="6">
+        <v>2</v>
+      </c>
+      <c r="I172" s="6">
+        <v>0</v>
+      </c>
+      <c r="J172" s="6"/>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A173" s="5">
+        <v>44810</v>
+      </c>
+      <c r="B173" s="5">
+        <v>44824</v>
+      </c>
+      <c r="C173" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>F(44/3)</v>
+      </c>
+      <c r="D173" s="6">
+        <v>7</v>
+      </c>
+      <c r="E173" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>7_3</v>
+      </c>
+      <c r="F173" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G173" s="6">
+        <v>44</v>
+      </c>
+      <c r="H173" s="6">
+        <v>3</v>
+      </c>
+      <c r="I173" s="6">
+        <v>0</v>
+      </c>
+      <c r="J173" s="6"/>
+      <c r="K173" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A174" s="5">
+        <v>44810</v>
+      </c>
+      <c r="B174" s="5">
+        <v>44824</v>
+      </c>
+      <c r="C174" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>F(45/4)</v>
+      </c>
+      <c r="D174" s="6">
+        <v>7</v>
+      </c>
+      <c r="E174" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>7_4</v>
+      </c>
+      <c r="F174" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G174" s="6">
+        <v>45</v>
+      </c>
+      <c r="H174" s="6">
+        <v>4</v>
+      </c>
+      <c r="I174" s="6">
+        <v>0</v>
+      </c>
+      <c r="J174" s="6"/>
+      <c r="K174" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A175" s="5">
+        <v>44810</v>
+      </c>
+      <c r="B175" s="5">
+        <v>44824</v>
+      </c>
+      <c r="C175" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>S(46/5)</v>
+      </c>
+      <c r="D175" s="6">
+        <v>7</v>
+      </c>
+      <c r="E175" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>7_5</v>
+      </c>
+      <c r="F175" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G175" s="6">
+        <v>46</v>
+      </c>
+      <c r="H175" s="6">
+        <v>5</v>
+      </c>
+      <c r="I175" s="6">
+        <v>0</v>
+      </c>
+      <c r="J175" s="6"/>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A176" s="5">
+        <v>44810</v>
+      </c>
+      <c r="B176" s="5">
+        <v>44824</v>
+      </c>
+      <c r="C176" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>W(47/6)</v>
+      </c>
+      <c r="D176" s="6">
+        <v>7</v>
+      </c>
+      <c r="E176" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>7_6</v>
+      </c>
+      <c r="F176" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G176" s="6">
+        <v>47</v>
+      </c>
+      <c r="H176" s="6">
+        <v>6</v>
+      </c>
+      <c r="I176" s="6">
+        <v>0</v>
+      </c>
+      <c r="J176" s="6"/>
+      <c r="K176" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A177" s="5">
+        <v>44810</v>
+      </c>
+      <c r="B177" s="5">
+        <v>44824</v>
+      </c>
+      <c r="C177" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>F(48/7)</v>
+      </c>
+      <c r="D177" s="6">
+        <v>7</v>
+      </c>
+      <c r="E177" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>7_7</v>
+      </c>
+      <c r="F177" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G177" s="6">
+        <v>48</v>
+      </c>
+      <c r="H177" s="6">
+        <v>7</v>
+      </c>
+      <c r="I177" s="6">
+        <v>0</v>
+      </c>
+      <c r="J177" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K177" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A178" s="5">
+        <v>44810</v>
+      </c>
+      <c r="B178" s="5">
+        <v>44824</v>
+      </c>
+      <c r="C178" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>S(49/8)</v>
+      </c>
+      <c r="D178" s="6">
+        <v>7</v>
+      </c>
+      <c r="E178" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>7_8</v>
+      </c>
+      <c r="F178" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G178" s="6">
+        <v>49</v>
+      </c>
+      <c r="H178" s="6">
+        <v>8</v>
+      </c>
+      <c r="I178" s="6">
+        <v>0</v>
+      </c>
+      <c r="J178" s="6"/>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A179" s="5">
+        <v>44810</v>
+      </c>
+      <c r="B179" s="5">
+        <v>44824</v>
+      </c>
+      <c r="C179" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>F(50/9)</v>
+      </c>
+      <c r="D179" s="6">
+        <v>7</v>
+      </c>
+      <c r="E179" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>7_9</v>
+      </c>
+      <c r="F179" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G179" s="6">
+        <v>50</v>
+      </c>
+      <c r="H179" s="6">
+        <v>9</v>
+      </c>
+      <c r="I179" s="6">
+        <v>0</v>
+      </c>
+      <c r="J179" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K179" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A180" s="5">
+        <v>44810</v>
+      </c>
+      <c r="B180" s="5">
+        <v>44824</v>
+      </c>
+      <c r="C180" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>W(51/10)</v>
+      </c>
+      <c r="D180" s="6">
+        <v>7</v>
+      </c>
+      <c r="E180" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>7_10</v>
+      </c>
+      <c r="F180" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G180" s="6">
+        <v>51</v>
+      </c>
+      <c r="H180" s="6">
+        <v>10</v>
+      </c>
+      <c r="I180" s="6">
+        <v>0</v>
+      </c>
+      <c r="J180" s="6"/>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A181" s="5">
+        <v>44810</v>
+      </c>
+      <c r="B181" s="5">
+        <v>44824</v>
+      </c>
+      <c r="C181" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>F(52/11)</v>
+      </c>
+      <c r="D181" s="6">
+        <v>7</v>
+      </c>
+      <c r="E181" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>7_11</v>
+      </c>
+      <c r="F181" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G181" s="6">
+        <v>52</v>
+      </c>
+      <c r="H181" s="6">
+        <v>11</v>
+      </c>
+      <c r="I181" s="6">
+        <v>0</v>
+      </c>
+      <c r="J181" s="6"/>
+      <c r="K181" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A182" s="5">
+        <v>44810</v>
+      </c>
+      <c r="B182" s="5">
+        <v>44824</v>
+      </c>
+      <c r="C182" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>S(53/12)</v>
+      </c>
+      <c r="D182" s="6">
+        <v>7</v>
+      </c>
+      <c r="E182" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>7_12</v>
+      </c>
+      <c r="F182" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G182" s="6">
+        <v>53</v>
+      </c>
+      <c r="H182" s="6">
+        <v>12</v>
+      </c>
+      <c r="I182" s="6">
+        <v>0</v>
+      </c>
+      <c r="J182" s="6"/>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A183" s="5">
+        <v>44810</v>
+      </c>
+      <c r="B183" s="5">
+        <v>44824</v>
+      </c>
+      <c r="C183" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>F(54/13)</v>
+      </c>
+      <c r="D183" s="6">
+        <v>7</v>
+      </c>
+      <c r="E183" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>7_13</v>
+      </c>
+      <c r="F183" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G183" s="6">
+        <v>54</v>
+      </c>
+      <c r="H183" s="6">
+        <v>13</v>
+      </c>
+      <c r="I183" s="6">
+        <v>0</v>
+      </c>
+      <c r="J183" s="6"/>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A184" s="5">
+        <v>44810</v>
+      </c>
+      <c r="B184" s="5">
+        <v>44824</v>
+      </c>
+      <c r="C184" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>W(55/14)</v>
+      </c>
+      <c r="D184" s="6">
+        <v>7</v>
+      </c>
+      <c r="E184" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>7_14</v>
+      </c>
+      <c r="F184" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G184" s="6">
+        <v>55</v>
+      </c>
+      <c r="H184" s="6">
+        <v>14</v>
+      </c>
+      <c r="I184" s="6">
+        <v>0</v>
+      </c>
+      <c r="J184" s="6"/>
+      <c r="K184" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A185" s="5">
+        <v>44810</v>
+      </c>
+      <c r="B185" s="5">
+        <v>44824</v>
+      </c>
+      <c r="C185" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>F(56/15)</v>
+      </c>
+      <c r="D185" s="6">
+        <v>7</v>
+      </c>
+      <c r="E185" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>7_15</v>
+      </c>
+      <c r="F185" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G185" s="6">
+        <v>56</v>
+      </c>
+      <c r="H185" s="6">
+        <v>15</v>
+      </c>
+      <c r="I185" s="6">
+        <v>0</v>
+      </c>
+      <c r="J185" s="6"/>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A186" s="5">
+        <v>44810</v>
+      </c>
+      <c r="B186" s="5">
+        <v>44824</v>
+      </c>
+      <c r="C186" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>S(57/16)</v>
+      </c>
+      <c r="D186" s="6">
+        <v>7</v>
+      </c>
+      <c r="E186" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>7_16</v>
+      </c>
+      <c r="F186" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G186" s="6">
+        <v>57</v>
+      </c>
+      <c r="H186" s="6">
+        <v>16</v>
+      </c>
+      <c r="I186" s="6">
+        <v>0</v>
+      </c>
+      <c r="J186" s="6"/>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A187" s="5">
+        <v>44810</v>
+      </c>
+      <c r="B187" s="5">
+        <v>44824</v>
+      </c>
+      <c r="C187" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>F(58/17)</v>
+      </c>
+      <c r="D187" s="6">
+        <v>7</v>
+      </c>
+      <c r="E187" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>7_17</v>
+      </c>
+      <c r="F187" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G187" s="6">
+        <v>58</v>
+      </c>
+      <c r="H187" s="6">
+        <v>17</v>
+      </c>
+      <c r="I187" s="6">
+        <v>0</v>
+      </c>
+      <c r="J187" s="6"/>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A188" s="5">
+        <v>44810</v>
+      </c>
+      <c r="B188" s="5">
+        <v>44824</v>
+      </c>
+      <c r="C188" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>W(59/18)</v>
+      </c>
+      <c r="D188" s="6">
+        <v>7</v>
+      </c>
+      <c r="E188" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>7_18</v>
+      </c>
+      <c r="F188" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G188" s="6">
+        <v>59</v>
+      </c>
+      <c r="H188" s="6">
+        <v>18</v>
+      </c>
+      <c r="I188" s="6">
+        <v>0</v>
+      </c>
+      <c r="J188" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A189" s="5">
+        <v>44810</v>
+      </c>
+      <c r="B189" s="5">
+        <v>44824</v>
+      </c>
+      <c r="C189" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>F(60/19)</v>
+      </c>
+      <c r="D189" s="6">
+        <v>7</v>
+      </c>
+      <c r="E189" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>7_19</v>
+      </c>
+      <c r="F189" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G189" s="6">
+        <v>60</v>
+      </c>
+      <c r="H189" s="6">
+        <v>19</v>
+      </c>
+      <c r="I189" s="6">
+        <v>0</v>
+      </c>
+      <c r="J189" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A190" s="19">
+        <v>44810</v>
+      </c>
+      <c r="B190" s="19">
+        <v>44824</v>
+      </c>
+      <c r="C190" s="20" t="str">
+        <f t="shared" si="4"/>
+        <v>S(61/20)</v>
+      </c>
+      <c r="D190" s="20">
+        <v>7</v>
+      </c>
+      <c r="E190" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>7_20</v>
+      </c>
+      <c r="F190" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G190" s="20">
+        <v>61</v>
+      </c>
+      <c r="H190" s="20">
+        <v>20</v>
+      </c>
+      <c r="I190" s="20">
+        <v>0</v>
+      </c>
+      <c r="J190" s="20"/>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A191" s="5">
+        <v>44810</v>
+      </c>
+      <c r="B191" s="5">
+        <v>44824</v>
+      </c>
+      <c r="C191" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>F(62/21)</v>
+      </c>
+      <c r="D191" s="6">
+        <v>7</v>
+      </c>
+      <c r="E191" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>7_21</v>
+      </c>
+      <c r="F191" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G191" s="6">
+        <v>62</v>
+      </c>
+      <c r="H191" s="6">
+        <v>21</v>
+      </c>
+      <c r="I191" s="6">
+        <v>0</v>
+      </c>
+      <c r="J191" s="6"/>
+      <c r="K191" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A192" s="5">
+        <v>44810</v>
+      </c>
+      <c r="B192" s="5">
+        <v>44824</v>
+      </c>
+      <c r="C192" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>W(63/22)</v>
+      </c>
+      <c r="D192" s="6">
+        <v>7</v>
+      </c>
+      <c r="E192" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>7_22</v>
+      </c>
+      <c r="F192" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G192" s="6">
+        <v>63</v>
+      </c>
+      <c r="H192" s="6">
+        <v>22</v>
+      </c>
+      <c r="I192" s="6">
+        <v>0</v>
+      </c>
+      <c r="J192" s="6"/>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A193" s="5">
+        <v>44810</v>
+      </c>
+      <c r="B193" s="5">
+        <v>44824</v>
+      </c>
+      <c r="C193" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>F(64/23)</v>
+      </c>
+      <c r="D193" s="6">
+        <v>7</v>
+      </c>
+      <c r="E193" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>7_23</v>
+      </c>
+      <c r="F193" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G193" s="6">
+        <v>64</v>
+      </c>
+      <c r="H193" s="6">
+        <v>23</v>
+      </c>
+      <c r="I193" s="6">
+        <v>0</v>
+      </c>
+      <c r="J193" s="6"/>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K194">
+        <f>SUM(K2:K193)</f>
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360FB64F-B302-44D5-A77B-4E338F43A285}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PNR_Raw_Data/PNR2022_InvertebrateCommunity.xlsx
+++ b/PNR_Raw_Data/PNR2022_InvertebrateCommunity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/PNR_Beetles_github_folder/PNR_Raw_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3055" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{950F3794-B28F-415A-A90A-E47BE713D40F}"/>
+  <xr:revisionPtr revIDLastSave="3110" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29E8BB35-5002-4561-8989-D5D1D44D9312}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="137">
   <si>
     <t>Treatment</t>
   </si>
@@ -447,7 +447,10 @@
     <t>Cerambycidae_pinned</t>
   </si>
   <si>
-    <t>Total_pinned_misc_beetles_except_Scarabs_and_Carabids</t>
+    <t>Total_pinned_misc_beetles_except_Scarabs_Silphids_and_Carabids</t>
+  </si>
+  <si>
+    <t>Total_pinned_Scarab_beetles</t>
   </si>
 </sst>
 </file>
@@ -554,7 +557,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -659,13 +662,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1057,10 +1053,10 @@
   <dimension ref="A1:BH193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D169" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AD181" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A172" sqref="A172:XFD172"/>
+      <selection pane="bottomRight" activeCell="A186" sqref="A186:XFD186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11750,10 +11746,10 @@
   <dimension ref="A1:S194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D167" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D185" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A172" sqref="A172:XFD172"/>
+      <selection pane="bottomRight" activeCell="L196" sqref="L196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16903,7 +16899,7 @@
       </c>
       <c r="J131" s="6"/>
       <c r="L131">
-        <f t="shared" ref="L131:L193" si="8">SUM(O131:BL131)</f>
+        <f t="shared" ref="L131:L194" si="8">SUM(O131:BL131)</f>
         <v>0</v>
       </c>
     </row>
@@ -19289,6 +19285,10 @@
       </c>
     </row>
     <row r="194" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="L194">
+        <f t="shared" si="8"/>
+        <v>434</v>
+      </c>
       <c r="M194">
         <f>SUM(M2:M193)</f>
         <v>18</v>
@@ -19321,25 +19321,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{014D223F-7CB0-4A5C-9D99-817CD0F45606}">
-  <dimension ref="A1:M194"/>
+  <dimension ref="A1:N194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D164" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D180" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A172" sqref="A172:XFD172"/>
+      <selection pane="bottomRight" activeCell="F193" sqref="F193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.453125" customWidth="1"/>
     <col min="2" max="2" width="10.1796875" customWidth="1"/>
-    <col min="11" max="11" width="11.90625" customWidth="1"/>
-    <col min="12" max="12" width="12.1796875" customWidth="1"/>
-    <col min="13" max="13" width="8.7265625" customWidth="1"/>
+    <col min="11" max="12" width="11.90625" customWidth="1"/>
+    <col min="13" max="13" width="12.1796875" customWidth="1"/>
+    <col min="14" max="14" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -19370,17 +19370,20 @@
       <c r="J1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="L1" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="M1" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="N1" s="33" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>44713</v>
       </c>
@@ -19411,9 +19414,13 @@
         <v>1</v>
       </c>
       <c r="J2" s="6"/>
-      <c r="M2" s="4"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K2" s="6">
+        <f>SUM(L2:O2)</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>44714</v>
       </c>
@@ -19444,9 +19451,13 @@
         <v>0</v>
       </c>
       <c r="J3" s="6"/>
-      <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K3" s="6">
+        <f t="shared" ref="K3:K66" si="2">SUM(L3:O3)</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>44714</v>
       </c>
@@ -19477,9 +19488,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="6"/>
-      <c r="M4" s="34"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K4" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N4" s="34"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>44713</v>
       </c>
@@ -19512,11 +19527,15 @@
       <c r="J5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K5" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>44714</v>
       </c>
@@ -19547,9 +19566,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="6"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K6" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>44714</v>
       </c>
@@ -19580,9 +19603,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="6"/>
-      <c r="M7" s="4"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K7" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>44714</v>
       </c>
@@ -19613,12 +19640,16 @@
         <v>1</v>
       </c>
       <c r="J8" s="6"/>
-      <c r="L8" s="6">
-        <v>1</v>
-      </c>
-      <c r="M8" s="4"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K8" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M8" s="6">
+        <v>1</v>
+      </c>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="15"/>
       <c r="B9" s="14">
         <v>44727</v>
@@ -19649,9 +19680,13 @@
       <c r="J9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="M9" s="4"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K9" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>44714</v>
       </c>
@@ -19682,12 +19717,16 @@
         <v>0</v>
       </c>
       <c r="J10" s="6"/>
-      <c r="L10" s="6">
-        <v>1</v>
-      </c>
-      <c r="M10" s="4"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K10" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M10" s="6">
+        <v>1</v>
+      </c>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>44714</v>
       </c>
@@ -19720,9 +19759,13 @@
       <c r="J11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="4"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K11" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>44714</v>
       </c>
@@ -19753,9 +19796,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="6"/>
-      <c r="M12" s="4"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K12" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
       <c r="B13" s="10">
         <v>44727</v>
@@ -19784,9 +19831,13 @@
         <v>1</v>
       </c>
       <c r="J13" s="11"/>
-      <c r="M13" s="4"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K13" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>44713</v>
       </c>
@@ -19817,9 +19868,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="6"/>
-      <c r="M14" s="4"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K14" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>44713</v>
       </c>
@@ -19850,9 +19905,13 @@
         <v>1</v>
       </c>
       <c r="J15" s="6"/>
-      <c r="M15" s="4"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K15" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>44713</v>
       </c>
@@ -19883,9 +19942,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="6"/>
-      <c r="M16" s="4"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K16" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>44713</v>
       </c>
@@ -19916,9 +19979,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="6"/>
-      <c r="M17" s="4"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K17" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>44713</v>
       </c>
@@ -19951,9 +20018,13 @@
       <c r="J18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="4"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K18" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>44713</v>
       </c>
@@ -19986,9 +20057,13 @@
       <c r="J19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="4"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K19" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>44713</v>
       </c>
@@ -20019,9 +20094,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="6"/>
-      <c r="M20" s="4"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K20" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>44713</v>
       </c>
@@ -20054,9 +20133,13 @@
       <c r="J21" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="4"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K21" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>44713</v>
       </c>
@@ -20087,9 +20170,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="6"/>
-      <c r="M22" s="4"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K22" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="15"/>
       <c r="B23" s="14">
         <v>44727</v>
@@ -20120,9 +20207,13 @@
       <c r="J23" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="M23" s="4"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K23" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>44713</v>
       </c>
@@ -20153,9 +20244,13 @@
         <v>0</v>
       </c>
       <c r="J24" s="6"/>
-      <c r="M24" s="4"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K24" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="4"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>44713</v>
       </c>
@@ -20188,9 +20283,13 @@
       <c r="J25" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M25" s="4"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K25" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="4"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>44727</v>
       </c>
@@ -20223,9 +20322,13 @@
       <c r="J26" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M26" s="4"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K26" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="4"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>44727</v>
       </c>
@@ -20258,9 +20361,13 @@
       <c r="J27" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M27" s="4"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K27" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="4"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>44727</v>
       </c>
@@ -20293,12 +20400,16 @@
       <c r="J28" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L28" s="6">
-        <v>1</v>
-      </c>
-      <c r="M28" s="4"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K28" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M28" s="6">
+        <v>1</v>
+      </c>
+      <c r="N28" s="4"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>44727</v>
       </c>
@@ -20331,9 +20442,13 @@
       <c r="J29" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="4"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K29" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="4"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>44727</v>
       </c>
@@ -20364,9 +20479,13 @@
         <v>0</v>
       </c>
       <c r="J30" s="6"/>
-      <c r="M30" s="4"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K30" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="4"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>44727</v>
       </c>
@@ -20397,9 +20516,13 @@
         <v>0</v>
       </c>
       <c r="J31" s="6"/>
-      <c r="M31" s="4"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K31" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="4"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>44727</v>
       </c>
@@ -20430,9 +20553,13 @@
         <v>0</v>
       </c>
       <c r="J32" s="6"/>
-      <c r="M32" s="4"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K32" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="4"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>44727</v>
       </c>
@@ -20463,9 +20590,13 @@
         <v>0</v>
       </c>
       <c r="J33" s="6"/>
-      <c r="M33" s="4"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K33" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="4"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>44727</v>
       </c>
@@ -20496,9 +20627,13 @@
         <v>0</v>
       </c>
       <c r="J34" s="6"/>
-      <c r="M34" s="4"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K34" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="4"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>44727</v>
       </c>
@@ -20529,9 +20664,13 @@
         <v>0</v>
       </c>
       <c r="J35" s="6"/>
-      <c r="M35" s="4"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K35" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="4"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <v>44727</v>
       </c>
@@ -20562,9 +20701,13 @@
         <v>0</v>
       </c>
       <c r="J36" s="6"/>
-      <c r="M36" s="4"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K36" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="4"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <v>44727</v>
       </c>
@@ -20598,14 +20741,18 @@
         <v>8</v>
       </c>
       <c r="K37" s="6">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="L37" s="6">
+        <v>1</v>
+      </c>
+      <c r="M37" s="6">
         <v>15</v>
       </c>
-      <c r="M37" s="4"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N37" s="4"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>44727</v>
       </c>
@@ -20636,11 +20783,15 @@
         <v>0</v>
       </c>
       <c r="J38" s="6"/>
-      <c r="M38" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K38" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N38" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="14">
         <v>44727</v>
       </c>
@@ -20673,9 +20824,13 @@
       <c r="J39" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="M39" s="4"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K39" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N39" s="4"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>44727</v>
       </c>
@@ -20706,9 +20861,13 @@
         <v>0</v>
       </c>
       <c r="J40" s="6"/>
-      <c r="M40" s="4"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K40" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N40" s="4"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
         <v>44727</v>
       </c>
@@ -20739,11 +20898,15 @@
         <v>0</v>
       </c>
       <c r="J41" s="6"/>
-      <c r="M41" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K41" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N41" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <v>44727</v>
       </c>
@@ -20774,9 +20937,13 @@
         <v>0</v>
       </c>
       <c r="J42" s="6"/>
-      <c r="M42" s="4"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K42" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N42" s="4"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
         <v>44727</v>
       </c>
@@ -20807,9 +20974,13 @@
         <v>0</v>
       </c>
       <c r="J43" s="6"/>
-      <c r="M43" s="4"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K43" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N43" s="4"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <v>44727</v>
       </c>
@@ -20840,9 +21011,13 @@
         <v>0</v>
       </c>
       <c r="J44" s="6"/>
-      <c r="M44" s="4"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K44" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N44" s="4"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
         <v>44727</v>
       </c>
@@ -20875,9 +21050,13 @@
       <c r="J45" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M45" s="4"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K45" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N45" s="4"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
         <v>44727</v>
       </c>
@@ -20910,9 +21089,13 @@
       <c r="J46" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M46" s="4"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K46" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N46" s="4"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="14">
         <v>44727</v>
       </c>
@@ -20945,9 +21128,13 @@
       <c r="J47" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="M47" s="4"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K47" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N47" s="4"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
         <v>44727</v>
       </c>
@@ -20978,9 +21165,13 @@
         <v>0</v>
       </c>
       <c r="J48" s="6"/>
-      <c r="M48" s="4"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K48" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N48" s="4"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
         <v>44727</v>
       </c>
@@ -21013,9 +21204,13 @@
       <c r="J49" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M49" s="4"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K49" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N49" s="4"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
         <v>44741</v>
       </c>
@@ -21046,9 +21241,13 @@
         <v>0</v>
       </c>
       <c r="J50" s="6"/>
-      <c r="M50" s="4"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K50" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N50" s="4"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="5">
         <v>44741</v>
       </c>
@@ -21079,11 +21278,15 @@
         <v>0</v>
       </c>
       <c r="J51" s="6"/>
-      <c r="M51" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K51" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N51" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
         <v>44741</v>
       </c>
@@ -21114,9 +21317,13 @@
         <v>0</v>
       </c>
       <c r="J52" s="6"/>
-      <c r="M52" s="4"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K52" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N52" s="4"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="5">
         <v>44741</v>
       </c>
@@ -21147,12 +21354,16 @@
         <v>0</v>
       </c>
       <c r="J53" s="6"/>
-      <c r="L53" s="6">
-        <v>1</v>
-      </c>
-      <c r="M53" s="4"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K53" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M53" s="6">
+        <v>1</v>
+      </c>
+      <c r="N53" s="4"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
         <v>44741</v>
       </c>
@@ -21184,11 +21395,15 @@
       </c>
       <c r="J54" s="6"/>
       <c r="K54" s="6">
-        <v>1</v>
-      </c>
-      <c r="M54" s="4"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L54" s="6">
+        <v>1</v>
+      </c>
+      <c r="N54" s="4"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
         <v>44741</v>
       </c>
@@ -21219,9 +21434,13 @@
         <v>0</v>
       </c>
       <c r="J55" s="6"/>
-      <c r="M55" s="4"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K55" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N55" s="4"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" s="5">
         <v>44741</v>
       </c>
@@ -21252,9 +21471,13 @@
         <v>0</v>
       </c>
       <c r="J56" s="6"/>
-      <c r="M56" s="4"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K56" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N56" s="4"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
         <v>44741</v>
       </c>
@@ -21285,12 +21508,16 @@
         <v>1</v>
       </c>
       <c r="J57" s="6"/>
-      <c r="L57" s="6">
+      <c r="K57" s="6">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="M57" s="4"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M57" s="6">
+        <v>3</v>
+      </c>
+      <c r="N57" s="4"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" s="5">
         <v>44741</v>
       </c>
@@ -21321,9 +21548,13 @@
         <v>0</v>
       </c>
       <c r="J58" s="6"/>
-      <c r="M58" s="4"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K58" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N58" s="4"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="5">
         <v>44741</v>
       </c>
@@ -21354,9 +21585,13 @@
         <v>0</v>
       </c>
       <c r="J59" s="6"/>
-      <c r="M59" s="4"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K59" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N59" s="4"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="5">
         <v>44741</v>
       </c>
@@ -21387,9 +21622,13 @@
         <v>0</v>
       </c>
       <c r="J60" s="6"/>
-      <c r="M60" s="4"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K60" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N60" s="4"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" s="5">
         <v>44741</v>
       </c>
@@ -21420,12 +21659,16 @@
         <v>0</v>
       </c>
       <c r="J61" s="6"/>
-      <c r="L61" s="6">
-        <v>1</v>
-      </c>
-      <c r="M61" s="4"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K61" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M61" s="6">
+        <v>1</v>
+      </c>
+      <c r="N61" s="4"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" s="5">
         <v>44741</v>
       </c>
@@ -21456,9 +21699,13 @@
         <v>0</v>
       </c>
       <c r="J62" s="6"/>
-      <c r="M62" s="4"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K62" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N62" s="4"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" s="5">
         <v>44741</v>
       </c>
@@ -21489,9 +21736,13 @@
         <v>0</v>
       </c>
       <c r="J63" s="6"/>
-      <c r="M63" s="4"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K63" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N63" s="4"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" s="5">
         <v>44741</v>
       </c>
@@ -21523,11 +21774,15 @@
       </c>
       <c r="J64" s="6"/>
       <c r="K64" s="6">
-        <v>1</v>
-      </c>
-      <c r="M64" s="4"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L64" s="6">
+        <v>1</v>
+      </c>
+      <c r="N64" s="4"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
         <v>44741</v>
       </c>
@@ -21558,12 +21813,16 @@
         <v>0</v>
       </c>
       <c r="J65" s="6"/>
-      <c r="L65" s="6">
-        <v>1</v>
-      </c>
-      <c r="M65" s="4"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K65" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M65" s="6">
+        <v>1</v>
+      </c>
+      <c r="N65" s="4"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" s="5">
         <v>44741</v>
       </c>
@@ -21571,14 +21830,14 @@
         <v>44755</v>
       </c>
       <c r="C66" s="8" t="str">
-        <f t="shared" ref="C66:C129" si="2">_xlfn.CONCAT(F66, "(", G66, "/", H66, ")")</f>
+        <f t="shared" ref="C66:C129" si="3">_xlfn.CONCAT(F66, "(", G66, "/", H66, ")")</f>
         <v>S(57/16)</v>
       </c>
       <c r="D66" s="6">
         <v>2</v>
       </c>
       <c r="E66" s="4" t="str">
-        <f t="shared" ref="E66:E129" si="3">_xlfn.CONCAT(D66,"_",H66)</f>
+        <f t="shared" ref="E66:E129" si="4">_xlfn.CONCAT(D66,"_",H66)</f>
         <v>2_16</v>
       </c>
       <c r="F66" s="6" t="s">
@@ -21594,9 +21853,13 @@
         <v>0</v>
       </c>
       <c r="J66" s="6"/>
-      <c r="M66" s="4"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K66" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N66" s="4"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" s="5">
         <v>44741</v>
       </c>
@@ -21604,14 +21867,14 @@
         <v>44755</v>
       </c>
       <c r="C67" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F(58/17)</v>
       </c>
       <c r="D67" s="6">
         <v>2</v>
       </c>
       <c r="E67" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2_17</v>
       </c>
       <c r="F67" s="6" t="s">
@@ -21627,9 +21890,13 @@
         <v>0</v>
       </c>
       <c r="J67" s="6"/>
-      <c r="M67" s="4"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K67" s="6">
+        <f t="shared" ref="K67:K130" si="5">SUM(L67:O67)</f>
+        <v>0</v>
+      </c>
+      <c r="N67" s="4"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" s="5">
         <v>44741</v>
       </c>
@@ -21637,14 +21904,14 @@
         <v>44755</v>
       </c>
       <c r="C68" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>W(59/18)</v>
       </c>
       <c r="D68" s="6">
         <v>2</v>
       </c>
       <c r="E68" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2_18</v>
       </c>
       <c r="F68" s="6" t="s">
@@ -21660,9 +21927,13 @@
         <v>0</v>
       </c>
       <c r="J68" s="6"/>
-      <c r="M68" s="4"/>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K68" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N68" s="4"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" s="5">
         <v>44741</v>
       </c>
@@ -21670,14 +21941,14 @@
         <v>44755</v>
       </c>
       <c r="C69" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F(60/19)</v>
       </c>
       <c r="D69" s="6">
         <v>2</v>
       </c>
       <c r="E69" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2_19</v>
       </c>
       <c r="F69" s="6" t="s">
@@ -21693,9 +21964,13 @@
         <v>0</v>
       </c>
       <c r="J69" s="6"/>
-      <c r="M69" s="4"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K69" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N69" s="4"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70" s="5">
         <v>44741</v>
       </c>
@@ -21703,14 +21978,14 @@
         <v>44755</v>
       </c>
       <c r="C70" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>S(61/20)</v>
       </c>
       <c r="D70" s="6">
         <v>2</v>
       </c>
       <c r="E70" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2_20</v>
       </c>
       <c r="F70" s="6" t="s">
@@ -21726,9 +22001,13 @@
         <v>1</v>
       </c>
       <c r="J70" s="6"/>
-      <c r="M70" s="4"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K70" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N70" s="4"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
         <v>44741</v>
       </c>
@@ -21736,14 +22015,14 @@
         <v>44755</v>
       </c>
       <c r="C71" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F(62/21)</v>
       </c>
       <c r="D71" s="6">
         <v>2</v>
       </c>
       <c r="E71" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2_21</v>
       </c>
       <c r="F71" s="6" t="s">
@@ -21759,11 +22038,15 @@
         <v>0</v>
       </c>
       <c r="J71" s="6"/>
-      <c r="M71" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K71" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N71" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72" s="5">
         <v>44741</v>
       </c>
@@ -21771,14 +22054,14 @@
         <v>44755</v>
       </c>
       <c r="C72" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>W(63/22)</v>
       </c>
       <c r="D72" s="6">
         <v>2</v>
       </c>
       <c r="E72" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2_22</v>
       </c>
       <c r="F72" s="6" t="s">
@@ -21794,9 +22077,13 @@
         <v>0</v>
       </c>
       <c r="J72" s="6"/>
-      <c r="M72" s="4"/>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K72" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N72" s="4"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" s="5">
         <v>44741</v>
       </c>
@@ -21804,14 +22091,14 @@
         <v>44755</v>
       </c>
       <c r="C73" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F(64/23)</v>
       </c>
       <c r="D73" s="6">
         <v>2</v>
       </c>
       <c r="E73" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2_23</v>
       </c>
       <c r="F73" s="6" t="s">
@@ -21829,9 +22116,13 @@
       <c r="J73" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M73" s="4"/>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K73" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N73" s="4"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A74" s="5">
         <v>44755</v>
       </c>
@@ -21839,14 +22130,14 @@
         <v>44769</v>
       </c>
       <c r="C74" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F(41/0)</v>
       </c>
       <c r="D74" s="6">
         <v>3</v>
       </c>
       <c r="E74" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3_0</v>
       </c>
       <c r="F74" s="6" t="s">
@@ -21862,9 +22153,13 @@
         <v>0</v>
       </c>
       <c r="J74" s="6"/>
-      <c r="M74" s="4"/>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K74" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N74" s="4"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A75" s="5">
         <v>44755</v>
       </c>
@@ -21872,14 +22167,14 @@
         <v>44769</v>
       </c>
       <c r="C75" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>S(42/1)</v>
       </c>
       <c r="D75" s="6">
         <v>3</v>
       </c>
       <c r="E75" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3_1</v>
       </c>
       <c r="F75" s="6" t="s">
@@ -21895,9 +22190,13 @@
         <v>0</v>
       </c>
       <c r="J75" s="6"/>
-      <c r="M75" s="4"/>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K75" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N75" s="4"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A76" s="5">
         <v>44755</v>
       </c>
@@ -21905,14 +22204,14 @@
         <v>44769</v>
       </c>
       <c r="C76" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>W(43/2)</v>
       </c>
       <c r="D76" s="6">
         <v>3</v>
       </c>
       <c r="E76" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3_2</v>
       </c>
       <c r="F76" s="6" t="s">
@@ -21928,9 +22227,13 @@
         <v>0</v>
       </c>
       <c r="J76" s="6"/>
-      <c r="M76" s="4"/>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K76" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N76" s="4"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A77" s="5">
         <v>44755</v>
       </c>
@@ -21938,14 +22241,14 @@
         <v>44769</v>
       </c>
       <c r="C77" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F(44/3)</v>
       </c>
       <c r="D77" s="6">
         <v>3</v>
       </c>
       <c r="E77" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3_3</v>
       </c>
       <c r="F77" s="6" t="s">
@@ -21962,14 +22265,18 @@
       </c>
       <c r="J77" s="6"/>
       <c r="K77" s="6">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
       <c r="L77" s="6">
+        <v>1</v>
+      </c>
+      <c r="M77" s="6">
         <v>2</v>
       </c>
-      <c r="M77" s="4"/>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N77" s="4"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78" s="5">
         <v>44755</v>
       </c>
@@ -21977,14 +22284,14 @@
         <v>44769</v>
       </c>
       <c r="C78" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F(45/4)</v>
       </c>
       <c r="D78" s="6">
         <v>3</v>
       </c>
       <c r="E78" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3_4</v>
       </c>
       <c r="F78" s="6" t="s">
@@ -22001,11 +22308,15 @@
       </c>
       <c r="J78" s="6"/>
       <c r="K78" s="6">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="M78" s="4"/>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L78" s="6">
+        <v>2</v>
+      </c>
+      <c r="N78" s="4"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A79" s="5">
         <v>44755</v>
       </c>
@@ -22013,14 +22324,14 @@
         <v>44769</v>
       </c>
       <c r="C79" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>S(46/5)</v>
       </c>
       <c r="D79" s="6">
         <v>3</v>
       </c>
       <c r="E79" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3_5</v>
       </c>
       <c r="F79" s="6" t="s">
@@ -22036,9 +22347,13 @@
         <v>0</v>
       </c>
       <c r="J79" s="6"/>
-      <c r="M79" s="4"/>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K79" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N79" s="4"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" s="5">
         <v>44755</v>
       </c>
@@ -22046,14 +22361,14 @@
         <v>44769</v>
       </c>
       <c r="C80" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>W(47/6)</v>
       </c>
       <c r="D80" s="6">
         <v>3</v>
       </c>
       <c r="E80" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3_6</v>
       </c>
       <c r="F80" s="6" t="s">
@@ -22069,12 +22384,16 @@
         <v>0</v>
       </c>
       <c r="J80" s="6"/>
-      <c r="L80" s="6">
-        <v>1</v>
-      </c>
-      <c r="M80" s="4"/>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K80" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M80" s="6">
+        <v>1</v>
+      </c>
+      <c r="N80" s="4"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81" s="5">
         <v>44755</v>
       </c>
@@ -22082,14 +22401,14 @@
         <v>44769</v>
       </c>
       <c r="C81" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F(48/7)</v>
       </c>
       <c r="D81" s="6">
         <v>3</v>
       </c>
       <c r="E81" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3_7</v>
       </c>
       <c r="F81" s="6" t="s">
@@ -22105,9 +22424,13 @@
         <v>0</v>
       </c>
       <c r="J81" s="6"/>
-      <c r="M81" s="4"/>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K81" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N81" s="4"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82" s="5">
         <v>44755</v>
       </c>
@@ -22115,14 +22438,14 @@
         <v>44769</v>
       </c>
       <c r="C82" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>S(49/8)</v>
       </c>
       <c r="D82" s="6">
         <v>3</v>
       </c>
       <c r="E82" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3_8</v>
       </c>
       <c r="F82" s="6" t="s">
@@ -22138,9 +22461,13 @@
         <v>0</v>
       </c>
       <c r="J82" s="6"/>
-      <c r="M82" s="4"/>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K82" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N82" s="4"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A83" s="5">
         <v>44755</v>
       </c>
@@ -22148,14 +22475,14 @@
         <v>44769</v>
       </c>
       <c r="C83" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F(50/9)</v>
       </c>
       <c r="D83" s="6">
         <v>3</v>
       </c>
       <c r="E83" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3_9</v>
       </c>
       <c r="F83" s="6" t="s">
@@ -22171,9 +22498,13 @@
         <v>0</v>
       </c>
       <c r="J83" s="6"/>
-      <c r="M83" s="4"/>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K83" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N83" s="4"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84" s="5">
         <v>44755</v>
       </c>
@@ -22181,14 +22512,14 @@
         <v>44769</v>
       </c>
       <c r="C84" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>W(51/10)</v>
       </c>
       <c r="D84" s="6">
         <v>3</v>
       </c>
       <c r="E84" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3_10</v>
       </c>
       <c r="F84" s="6" t="s">
@@ -22205,11 +22536,15 @@
       </c>
       <c r="J84" s="6"/>
       <c r="K84" s="6">
-        <v>1</v>
-      </c>
-      <c r="M84" s="4"/>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L84" s="6">
+        <v>1</v>
+      </c>
+      <c r="N84" s="4"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85" s="5">
         <v>44755</v>
       </c>
@@ -22217,14 +22552,14 @@
         <v>44769</v>
       </c>
       <c r="C85" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F(52/11)</v>
       </c>
       <c r="D85" s="6">
         <v>3</v>
       </c>
       <c r="E85" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3_11</v>
       </c>
       <c r="F85" s="6" t="s">
@@ -22241,11 +22576,15 @@
       </c>
       <c r="J85" s="6"/>
       <c r="K85" s="6">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="M85" s="4"/>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L85" s="6">
+        <v>3</v>
+      </c>
+      <c r="N85" s="4"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86" s="5">
         <v>44755</v>
       </c>
@@ -22253,14 +22592,14 @@
         <v>44769</v>
       </c>
       <c r="C86" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>S(53/12)</v>
       </c>
       <c r="D86" s="6">
         <v>3</v>
       </c>
       <c r="E86" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3_12</v>
       </c>
       <c r="F86" s="6" t="s">
@@ -22276,9 +22615,13 @@
         <v>0</v>
       </c>
       <c r="J86" s="6"/>
-      <c r="M86" s="4"/>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K86" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N86" s="4"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" s="5">
         <v>44755</v>
       </c>
@@ -22286,14 +22629,14 @@
         <v>44769</v>
       </c>
       <c r="C87" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F(54/13)</v>
       </c>
       <c r="D87" s="6">
         <v>3</v>
       </c>
       <c r="E87" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3_13</v>
       </c>
       <c r="F87" s="6" t="s">
@@ -22309,9 +22652,13 @@
         <v>0</v>
       </c>
       <c r="J87" s="6"/>
-      <c r="M87" s="4"/>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K87" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N87" s="4"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88" s="5">
         <v>44755</v>
       </c>
@@ -22319,14 +22666,14 @@
         <v>44769</v>
       </c>
       <c r="C88" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>W(55/14)</v>
       </c>
       <c r="D88" s="6">
         <v>3</v>
       </c>
       <c r="E88" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3_14</v>
       </c>
       <c r="F88" s="6" t="s">
@@ -22343,13 +22690,17 @@
       </c>
       <c r="J88" s="6"/>
       <c r="K88" s="6">
-        <v>1</v>
-      </c>
-      <c r="M88" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="L88" s="6">
+        <v>1</v>
+      </c>
+      <c r="N88" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89" s="5">
         <v>44755</v>
       </c>
@@ -22357,14 +22708,14 @@
         <v>44769</v>
       </c>
       <c r="C89" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F(56/15)</v>
       </c>
       <c r="D89" s="6">
         <v>3</v>
       </c>
       <c r="E89" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3_15</v>
       </c>
       <c r="F89" s="6" t="s">
@@ -22381,11 +22732,15 @@
       </c>
       <c r="J89" s="6"/>
       <c r="K89" s="6">
-        <v>1</v>
-      </c>
-      <c r="M89" s="4"/>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L89" s="6">
+        <v>1</v>
+      </c>
+      <c r="N89" s="4"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A90" s="5">
         <v>44755</v>
       </c>
@@ -22393,14 +22748,14 @@
         <v>44769</v>
       </c>
       <c r="C90" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>S(57/16)</v>
       </c>
       <c r="D90" s="6">
         <v>3</v>
       </c>
       <c r="E90" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3_16</v>
       </c>
       <c r="F90" s="6" t="s">
@@ -22416,9 +22771,13 @@
         <v>1</v>
       </c>
       <c r="J90" s="6"/>
-      <c r="M90" s="4"/>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K90" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N90" s="4"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91" s="5">
         <v>44755</v>
       </c>
@@ -22426,14 +22785,14 @@
         <v>44769</v>
       </c>
       <c r="C91" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F(58/17)</v>
       </c>
       <c r="D91" s="6">
         <v>3</v>
       </c>
       <c r="E91" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3_17</v>
       </c>
       <c r="F91" s="6" t="s">
@@ -22449,9 +22808,13 @@
         <v>0</v>
       </c>
       <c r="J91" s="6"/>
-      <c r="M91" s="4"/>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K91" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N91" s="4"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92" s="5">
         <v>44755</v>
       </c>
@@ -22459,14 +22822,14 @@
         <v>44769</v>
       </c>
       <c r="C92" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>W(59/18)</v>
       </c>
       <c r="D92" s="6">
         <v>3</v>
       </c>
       <c r="E92" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3_18</v>
       </c>
       <c r="F92" s="6" t="s">
@@ -22482,11 +22845,15 @@
         <v>0</v>
       </c>
       <c r="J92" s="6"/>
-      <c r="M92" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K92" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N92" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93" s="5">
         <v>44755</v>
       </c>
@@ -22494,14 +22861,14 @@
         <v>44769</v>
       </c>
       <c r="C93" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F(60/19)</v>
       </c>
       <c r="D93" s="6">
         <v>3</v>
       </c>
       <c r="E93" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3_19</v>
       </c>
       <c r="F93" s="6" t="s">
@@ -22517,9 +22884,13 @@
         <v>0</v>
       </c>
       <c r="J93" s="6"/>
-      <c r="M93" s="4"/>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K93" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N93" s="4"/>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" s="5">
         <v>44755</v>
       </c>
@@ -22527,14 +22898,14 @@
         <v>44769</v>
       </c>
       <c r="C94" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>S(61/20)</v>
       </c>
       <c r="D94" s="6">
         <v>3</v>
       </c>
       <c r="E94" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3_20</v>
       </c>
       <c r="F94" s="6" t="s">
@@ -22550,9 +22921,13 @@
         <v>0</v>
       </c>
       <c r="J94" s="6"/>
-      <c r="M94" s="4"/>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K94" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N94" s="4"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A95" s="5">
         <v>44755</v>
       </c>
@@ -22560,14 +22935,14 @@
         <v>44769</v>
       </c>
       <c r="C95" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F(62/21)</v>
       </c>
       <c r="D95" s="6">
         <v>3</v>
       </c>
       <c r="E95" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3_21</v>
       </c>
       <c r="F95" s="6" t="s">
@@ -22583,9 +22958,13 @@
         <v>0</v>
       </c>
       <c r="J95" s="6"/>
-      <c r="M95" s="4"/>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K95" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N95" s="4"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96" s="5">
         <v>44755</v>
       </c>
@@ -22593,14 +22972,14 @@
         <v>44769</v>
       </c>
       <c r="C96" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>W(63/22)</v>
       </c>
       <c r="D96" s="6">
         <v>3</v>
       </c>
       <c r="E96" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3_22</v>
       </c>
       <c r="F96" s="6" t="s">
@@ -22616,9 +22995,13 @@
         <v>0</v>
       </c>
       <c r="J96" s="6"/>
-      <c r="M96" s="4"/>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K96" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N96" s="4"/>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97" s="5">
         <v>44755</v>
       </c>
@@ -22626,14 +23009,14 @@
         <v>44769</v>
       </c>
       <c r="C97" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F(64/23)</v>
       </c>
       <c r="D97" s="6">
         <v>3</v>
       </c>
       <c r="E97" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3_23</v>
       </c>
       <c r="F97" s="6" t="s">
@@ -22649,9 +23032,13 @@
         <v>0</v>
       </c>
       <c r="J97" s="6"/>
-      <c r="M97" s="4"/>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K97" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N97" s="4"/>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98" s="5">
         <v>44769</v>
       </c>
@@ -22659,14 +23046,14 @@
         <v>44784</v>
       </c>
       <c r="C98" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F(41/0)</v>
       </c>
       <c r="D98" s="6">
         <v>4</v>
       </c>
       <c r="E98" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4_0</v>
       </c>
       <c r="F98" s="6" t="s">
@@ -22682,9 +23069,13 @@
         <v>0</v>
       </c>
       <c r="J98" s="6"/>
-      <c r="M98" s="4"/>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K98" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N98" s="4"/>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A99" s="5">
         <v>44769</v>
       </c>
@@ -22692,14 +23083,14 @@
         <v>44784</v>
       </c>
       <c r="C99" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>S(42/1)</v>
       </c>
       <c r="D99" s="6">
         <v>4</v>
       </c>
       <c r="E99" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4_1</v>
       </c>
       <c r="F99" s="6" t="s">
@@ -22715,9 +23106,13 @@
         <v>0</v>
       </c>
       <c r="J99" s="6"/>
-      <c r="M99" s="4"/>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K99" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N99" s="4"/>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100" s="5">
         <v>44769</v>
       </c>
@@ -22725,14 +23120,14 @@
         <v>44784</v>
       </c>
       <c r="C100" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>W(43/2)</v>
       </c>
       <c r="D100" s="6">
         <v>4</v>
       </c>
       <c r="E100" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4_2</v>
       </c>
       <c r="F100" s="6" t="s">
@@ -22748,9 +23143,13 @@
         <v>0</v>
       </c>
       <c r="J100" s="6"/>
-      <c r="M100" s="4"/>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K100" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N100" s="4"/>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" s="5">
         <v>44769</v>
       </c>
@@ -22758,14 +23157,14 @@
         <v>44784</v>
       </c>
       <c r="C101" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F(44/3)</v>
       </c>
       <c r="D101" s="6">
         <v>4</v>
       </c>
       <c r="E101" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4_3</v>
       </c>
       <c r="F101" s="6" t="s">
@@ -22782,11 +23181,15 @@
       </c>
       <c r="J101" s="6"/>
       <c r="K101" s="6">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="M101" s="4"/>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L101" s="6">
+        <v>2</v>
+      </c>
+      <c r="N101" s="4"/>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A102" s="10">
         <v>44769</v>
       </c>
@@ -22794,14 +23197,14 @@
         <v>44784</v>
       </c>
       <c r="C102" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F(45/4)</v>
       </c>
       <c r="D102" s="11">
         <v>4</v>
       </c>
       <c r="E102" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4_4</v>
       </c>
       <c r="F102" s="11" t="s">
@@ -22817,9 +23220,13 @@
         <v>0</v>
       </c>
       <c r="J102" s="11"/>
-      <c r="M102" s="4"/>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K102" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N102" s="4"/>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A103" s="5">
         <v>44769</v>
       </c>
@@ -22827,14 +23234,14 @@
         <v>44784</v>
       </c>
       <c r="C103" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>S(46/5)</v>
       </c>
       <c r="D103" s="6">
         <v>4</v>
       </c>
       <c r="E103" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4_5</v>
       </c>
       <c r="F103" s="6" t="s">
@@ -22850,9 +23257,13 @@
         <v>0</v>
       </c>
       <c r="J103" s="6"/>
-      <c r="M103" s="4"/>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K103" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N103" s="4"/>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A104" s="5">
         <v>44769</v>
       </c>
@@ -22860,14 +23271,14 @@
         <v>44784</v>
       </c>
       <c r="C104" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>W(47/6)</v>
       </c>
       <c r="D104" s="6">
         <v>4</v>
       </c>
       <c r="E104" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4_6</v>
       </c>
       <c r="F104" s="6" t="s">
@@ -22883,9 +23294,13 @@
         <v>0</v>
       </c>
       <c r="J104" s="6"/>
-      <c r="M104" s="4"/>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K104" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N104" s="4"/>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A105" s="5">
         <v>44769</v>
       </c>
@@ -22893,14 +23308,14 @@
         <v>44784</v>
       </c>
       <c r="C105" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F(48/7)</v>
       </c>
       <c r="D105" s="6">
         <v>4</v>
       </c>
       <c r="E105" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4_7</v>
       </c>
       <c r="F105" s="6" t="s">
@@ -22916,9 +23331,13 @@
         <v>0</v>
       </c>
       <c r="J105" s="6"/>
-      <c r="M105" s="4"/>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K105" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N105" s="4"/>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A106" s="5">
         <v>44769</v>
       </c>
@@ -22926,14 +23345,14 @@
         <v>44784</v>
       </c>
       <c r="C106" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>S(49/8)</v>
       </c>
       <c r="D106" s="6">
         <v>4</v>
       </c>
       <c r="E106" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4_8</v>
       </c>
       <c r="F106" s="6" t="s">
@@ -22949,9 +23368,13 @@
         <v>0</v>
       </c>
       <c r="J106" s="6"/>
-      <c r="M106" s="4"/>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K106" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N106" s="4"/>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A107" s="5">
         <v>44769</v>
       </c>
@@ -22959,14 +23382,14 @@
         <v>44784</v>
       </c>
       <c r="C107" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F(50/9)</v>
       </c>
       <c r="D107" s="11">
         <v>4</v>
       </c>
       <c r="E107" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4_9</v>
       </c>
       <c r="F107" s="11" t="s">
@@ -22982,9 +23405,13 @@
         <v>0</v>
       </c>
       <c r="J107" s="11"/>
-      <c r="M107" s="4"/>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K107" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N107" s="4"/>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A108" s="5">
         <v>44769</v>
       </c>
@@ -22992,14 +23419,14 @@
         <v>44784</v>
       </c>
       <c r="C108" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>W(51/10)</v>
       </c>
       <c r="D108" s="6">
         <v>4</v>
       </c>
       <c r="E108" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4_10</v>
       </c>
       <c r="F108" s="6" t="s">
@@ -23015,9 +23442,13 @@
         <v>0</v>
       </c>
       <c r="J108" s="6"/>
-      <c r="M108" s="4"/>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K108" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N108" s="4"/>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A109" s="5">
         <v>44769</v>
       </c>
@@ -23025,14 +23456,14 @@
         <v>44784</v>
       </c>
       <c r="C109" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F(52/11)</v>
       </c>
       <c r="D109" s="6">
         <v>4</v>
       </c>
       <c r="E109" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4_11</v>
       </c>
       <c r="F109" s="6" t="s">
@@ -23049,14 +23480,18 @@
       </c>
       <c r="J109" s="6"/>
       <c r="K109" s="6">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L109" s="6">
         <v>2</v>
       </c>
-      <c r="L109" s="6">
-        <v>1</v>
-      </c>
-      <c r="M109" s="4"/>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M109" s="6">
+        <v>1</v>
+      </c>
+      <c r="N109" s="4"/>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A110" s="5">
         <v>44769</v>
       </c>
@@ -23064,14 +23499,14 @@
         <v>44784</v>
       </c>
       <c r="C110" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>S(53/12)</v>
       </c>
       <c r="D110" s="6">
         <v>4</v>
       </c>
       <c r="E110" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4_12</v>
       </c>
       <c r="F110" s="6" t="s">
@@ -23087,11 +23522,15 @@
         <v>0</v>
       </c>
       <c r="J110" s="6"/>
-      <c r="M110" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K110" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N110" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A111" s="5">
         <v>44769</v>
       </c>
@@ -23099,14 +23538,14 @@
         <v>44784</v>
       </c>
       <c r="C111" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F(54/13)</v>
       </c>
       <c r="D111" s="6">
         <v>4</v>
       </c>
       <c r="E111" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4_13</v>
       </c>
       <c r="F111" s="6" t="s">
@@ -23123,11 +23562,15 @@
       </c>
       <c r="J111" s="6"/>
       <c r="K111" s="6">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="M111" s="4"/>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L111" s="6">
+        <v>2</v>
+      </c>
+      <c r="N111" s="4"/>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A112" s="5">
         <v>44769</v>
       </c>
@@ -23135,14 +23578,14 @@
         <v>44784</v>
       </c>
       <c r="C112" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>W(55/14)</v>
       </c>
       <c r="D112" s="6">
         <v>4</v>
       </c>
       <c r="E112" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4_14</v>
       </c>
       <c r="F112" s="6" t="s">
@@ -23158,9 +23601,13 @@
         <v>0</v>
       </c>
       <c r="J112" s="6"/>
-      <c r="M112" s="4"/>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K112" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N112" s="4"/>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A113" s="5">
         <v>44769</v>
       </c>
@@ -23168,14 +23615,14 @@
         <v>44784</v>
       </c>
       <c r="C113" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F(56/15)</v>
       </c>
       <c r="D113" s="6">
         <v>4</v>
       </c>
       <c r="E113" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4_15</v>
       </c>
       <c r="F113" s="6" t="s">
@@ -23192,11 +23639,15 @@
       </c>
       <c r="J113" s="6"/>
       <c r="K113" s="6">
-        <v>1</v>
-      </c>
-      <c r="M113" s="4"/>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L113" s="6">
+        <v>1</v>
+      </c>
+      <c r="N113" s="4"/>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A114" s="5">
         <v>44769</v>
       </c>
@@ -23204,14 +23655,14 @@
         <v>44784</v>
       </c>
       <c r="C114" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>S(57/16)</v>
       </c>
       <c r="D114" s="6">
         <v>4</v>
       </c>
       <c r="E114" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4_16</v>
       </c>
       <c r="F114" s="6" t="s">
@@ -23227,9 +23678,13 @@
         <v>0</v>
       </c>
       <c r="J114" s="6"/>
-      <c r="M114" s="4"/>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K114" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N114" s="4"/>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A115" s="5">
         <v>44769</v>
       </c>
@@ -23237,14 +23692,14 @@
         <v>44784</v>
       </c>
       <c r="C115" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F(58/17)</v>
       </c>
       <c r="D115" s="6">
         <v>4</v>
       </c>
       <c r="E115" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4_17</v>
       </c>
       <c r="F115" s="6" t="s">
@@ -23261,11 +23716,15 @@
       </c>
       <c r="J115" s="6"/>
       <c r="K115" s="6">
-        <v>1</v>
-      </c>
-      <c r="M115" s="4"/>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L115" s="6">
+        <v>1</v>
+      </c>
+      <c r="N115" s="4"/>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A116" s="5">
         <v>44769</v>
       </c>
@@ -23273,14 +23732,14 @@
         <v>44784</v>
       </c>
       <c r="C116" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>W(59/18)</v>
       </c>
       <c r="D116" s="6">
         <v>4</v>
       </c>
       <c r="E116" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4_18</v>
       </c>
       <c r="F116" s="6" t="s">
@@ -23296,9 +23755,13 @@
         <v>0</v>
       </c>
       <c r="J116" s="6"/>
-      <c r="M116" s="4"/>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K116" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N116" s="4"/>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A117" s="5">
         <v>44769</v>
       </c>
@@ -23306,14 +23769,14 @@
         <v>44784</v>
       </c>
       <c r="C117" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F(60/19)</v>
       </c>
       <c r="D117" s="6">
         <v>4</v>
       </c>
       <c r="E117" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4_19</v>
       </c>
       <c r="F117" s="6" t="s">
@@ -23329,9 +23792,13 @@
         <v>0</v>
       </c>
       <c r="J117" s="6"/>
-      <c r="M117" s="4"/>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K117" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N117" s="4"/>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A118" s="5">
         <v>44769</v>
       </c>
@@ -23339,14 +23806,14 @@
         <v>44784</v>
       </c>
       <c r="C118" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>S(61/20)</v>
       </c>
       <c r="D118" s="6">
         <v>4</v>
       </c>
       <c r="E118" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4_20</v>
       </c>
       <c r="F118" s="6" t="s">
@@ -23362,9 +23829,13 @@
         <v>0</v>
       </c>
       <c r="J118" s="6"/>
-      <c r="M118" s="4"/>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K118" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N118" s="4"/>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A119" s="5">
         <v>44769</v>
       </c>
@@ -23372,14 +23843,14 @@
         <v>44784</v>
       </c>
       <c r="C119" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F(62/21)</v>
       </c>
       <c r="D119" s="6">
         <v>4</v>
       </c>
       <c r="E119" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4_21</v>
       </c>
       <c r="F119" s="6" t="s">
@@ -23395,9 +23866,13 @@
         <v>1</v>
       </c>
       <c r="J119" s="6"/>
-      <c r="M119" s="4"/>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K119" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N119" s="4"/>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A120" s="5">
         <v>44769</v>
       </c>
@@ -23405,14 +23880,14 @@
         <v>44784</v>
       </c>
       <c r="C120" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>W(63/22)</v>
       </c>
       <c r="D120" s="6">
         <v>4</v>
       </c>
       <c r="E120" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4_22</v>
       </c>
       <c r="F120" s="6" t="s">
@@ -23428,9 +23903,13 @@
         <v>0</v>
       </c>
       <c r="J120" s="6"/>
-      <c r="M120" s="4"/>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K120" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N120" s="4"/>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A121" s="5">
         <v>44769</v>
       </c>
@@ -23438,14 +23917,14 @@
         <v>44784</v>
       </c>
       <c r="C121" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F(64/23)</v>
       </c>
       <c r="D121" s="6">
         <v>4</v>
       </c>
       <c r="E121" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4_23</v>
       </c>
       <c r="F121" s="6" t="s">
@@ -23461,9 +23940,13 @@
         <v>0</v>
       </c>
       <c r="J121" s="6"/>
-      <c r="M121" s="4"/>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K121" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N121" s="4"/>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A122" s="5">
         <v>44784</v>
       </c>
@@ -23471,14 +23954,14 @@
         <v>44796</v>
       </c>
       <c r="C122" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F(41/0)</v>
       </c>
       <c r="D122" s="6">
         <v>5</v>
       </c>
       <c r="E122" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5_0</v>
       </c>
       <c r="F122" s="6" t="s">
@@ -23495,11 +23978,15 @@
       </c>
       <c r="J122" s="6"/>
       <c r="K122" s="6">
-        <v>1</v>
-      </c>
-      <c r="M122" s="4"/>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L122" s="6">
+        <v>1</v>
+      </c>
+      <c r="N122" s="4"/>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A123" s="5">
         <v>44784</v>
       </c>
@@ -23507,14 +23994,14 @@
         <v>44796</v>
       </c>
       <c r="C123" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>S(42/1)</v>
       </c>
       <c r="D123" s="6">
         <v>5</v>
       </c>
       <c r="E123" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5_1</v>
       </c>
       <c r="F123" s="6" t="s">
@@ -23530,9 +24017,13 @@
         <v>0</v>
       </c>
       <c r="J123" s="6"/>
-      <c r="M123" s="4"/>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K123" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N123" s="4"/>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A124" s="5">
         <v>44784</v>
       </c>
@@ -23540,14 +24031,14 @@
         <v>44796</v>
       </c>
       <c r="C124" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>W(43/2)</v>
       </c>
       <c r="D124" s="6">
         <v>5</v>
       </c>
       <c r="E124" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5_2</v>
       </c>
       <c r="F124" s="6" t="s">
@@ -23563,9 +24054,13 @@
         <v>0</v>
       </c>
       <c r="J124" s="6"/>
-      <c r="M124" s="4"/>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K124" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N124" s="4"/>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A125" s="5">
         <v>44784</v>
       </c>
@@ -23573,14 +24068,14 @@
         <v>44796</v>
       </c>
       <c r="C125" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F(44/3)</v>
       </c>
       <c r="D125" s="6">
         <v>5</v>
       </c>
       <c r="E125" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5_3</v>
       </c>
       <c r="F125" s="6" t="s">
@@ -23597,11 +24092,15 @@
       </c>
       <c r="J125" s="6"/>
       <c r="K125" s="6">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="M125" s="4"/>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L125" s="6">
+        <v>4</v>
+      </c>
+      <c r="N125" s="4"/>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A126" s="5">
         <v>44784</v>
       </c>
@@ -23609,14 +24108,14 @@
         <v>44796</v>
       </c>
       <c r="C126" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F(45/4)</v>
       </c>
       <c r="D126" s="6">
         <v>5</v>
       </c>
       <c r="E126" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5_4</v>
       </c>
       <c r="F126" s="6" t="s">
@@ -23632,9 +24131,13 @@
         <v>0</v>
       </c>
       <c r="J126" s="6"/>
-      <c r="M126" s="4"/>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K126" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N126" s="4"/>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A127" s="5">
         <v>44784</v>
       </c>
@@ -23642,14 +24145,14 @@
         <v>44796</v>
       </c>
       <c r="C127" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>S(46/5)</v>
       </c>
       <c r="D127" s="6">
         <v>5</v>
       </c>
       <c r="E127" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5_5</v>
       </c>
       <c r="F127" s="6" t="s">
@@ -23667,9 +24170,13 @@
       <c r="J127" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M127" s="4"/>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K127" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N127" s="4"/>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A128" s="5">
         <v>44784</v>
       </c>
@@ -23677,14 +24184,14 @@
         <v>44796</v>
       </c>
       <c r="C128" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>W(47/6)</v>
       </c>
       <c r="D128" s="6">
         <v>5</v>
       </c>
       <c r="E128" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5_6</v>
       </c>
       <c r="F128" s="6" t="s">
@@ -23700,12 +24207,16 @@
         <v>0</v>
       </c>
       <c r="J128" s="6"/>
-      <c r="L128" s="6">
-        <v>1</v>
-      </c>
-      <c r="M128" s="4"/>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K128" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M128" s="6">
+        <v>1</v>
+      </c>
+      <c r="N128" s="4"/>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A129" s="5">
         <v>44784</v>
       </c>
@@ -23713,14 +24224,14 @@
         <v>44796</v>
       </c>
       <c r="C129" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F(48/7)</v>
       </c>
       <c r="D129" s="6">
         <v>5</v>
       </c>
       <c r="E129" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5_7</v>
       </c>
       <c r="F129" s="6" t="s">
@@ -23737,11 +24248,15 @@
       </c>
       <c r="J129" s="6"/>
       <c r="K129" s="6">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="M129" s="4"/>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L129" s="6">
+        <v>6</v>
+      </c>
+      <c r="N129" s="4"/>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A130" s="5">
         <v>44784</v>
       </c>
@@ -23749,14 +24264,14 @@
         <v>44796</v>
       </c>
       <c r="C130" s="6" t="str">
-        <f t="shared" ref="C130:C193" si="4">_xlfn.CONCAT(F130, "(", G130, "/", H130, ")")</f>
+        <f t="shared" ref="C130:C193" si="6">_xlfn.CONCAT(F130, "(", G130, "/", H130, ")")</f>
         <v>S(49/8)</v>
       </c>
       <c r="D130" s="6">
         <v>5</v>
       </c>
       <c r="E130" s="4" t="str">
-        <f t="shared" ref="E130:E193" si="5">_xlfn.CONCAT(D130,"_",H130)</f>
+        <f t="shared" ref="E130:E193" si="7">_xlfn.CONCAT(D130,"_",H130)</f>
         <v>5_8</v>
       </c>
       <c r="F130" s="6" t="s">
@@ -23773,11 +24288,15 @@
       </c>
       <c r="J130" s="6"/>
       <c r="K130" s="6">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="M130" s="4"/>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L130" s="6">
+        <v>2</v>
+      </c>
+      <c r="N130" s="4"/>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A131" s="5">
         <v>44784</v>
       </c>
@@ -23785,14 +24304,14 @@
         <v>44796</v>
       </c>
       <c r="C131" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>F(50/9)</v>
       </c>
       <c r="D131" s="6">
         <v>5</v>
       </c>
       <c r="E131" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5_9</v>
       </c>
       <c r="F131" s="6" t="s">
@@ -23809,11 +24328,15 @@
       </c>
       <c r="J131" s="6"/>
       <c r="K131" s="6">
+        <f t="shared" ref="K131:K194" si="8">SUM(L131:O131)</f>
         <v>3</v>
       </c>
-      <c r="M131" s="4"/>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L131" s="6">
+        <v>3</v>
+      </c>
+      <c r="N131" s="4"/>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A132" s="5">
         <v>44784</v>
       </c>
@@ -23821,14 +24344,14 @@
         <v>44796</v>
       </c>
       <c r="C132" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>W(51/10)</v>
       </c>
       <c r="D132" s="6">
         <v>5</v>
       </c>
       <c r="E132" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5_10</v>
       </c>
       <c r="F132" s="6" t="s">
@@ -23845,11 +24368,15 @@
       </c>
       <c r="J132" s="6"/>
       <c r="K132" s="6">
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="M132" s="4"/>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L132" s="6">
+        <v>4</v>
+      </c>
+      <c r="N132" s="4"/>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A133" s="5">
         <v>44784</v>
       </c>
@@ -23857,14 +24384,14 @@
         <v>44796</v>
       </c>
       <c r="C133" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>F(52/11)</v>
       </c>
       <c r="D133" s="6">
         <v>5</v>
       </c>
       <c r="E133" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5_11</v>
       </c>
       <c r="F133" s="6" t="s">
@@ -23881,11 +24408,15 @@
       </c>
       <c r="J133" s="6"/>
       <c r="K133" s="6">
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="M133" s="4"/>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L133" s="6">
+        <v>3</v>
+      </c>
+      <c r="N133" s="4"/>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A134" s="5">
         <v>44784</v>
       </c>
@@ -23893,14 +24424,14 @@
         <v>44796</v>
       </c>
       <c r="C134" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>S(53/12)</v>
       </c>
       <c r="D134" s="6">
         <v>5</v>
       </c>
       <c r="E134" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5_12</v>
       </c>
       <c r="F134" s="6" t="s">
@@ -23917,11 +24448,15 @@
       </c>
       <c r="J134" s="6"/>
       <c r="K134" s="6">
-        <v>1</v>
-      </c>
-      <c r="M134" s="4"/>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="L134" s="6">
+        <v>1</v>
+      </c>
+      <c r="N134" s="4"/>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A135" s="5">
         <v>44784</v>
       </c>
@@ -23929,14 +24464,14 @@
         <v>44796</v>
       </c>
       <c r="C135" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>F(54/13)</v>
       </c>
       <c r="D135" s="6">
         <v>5</v>
       </c>
       <c r="E135" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5_13</v>
       </c>
       <c r="F135" s="6" t="s">
@@ -23952,9 +24487,13 @@
         <v>0</v>
       </c>
       <c r="J135" s="6"/>
-      <c r="M135" s="4"/>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K135" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N135" s="4"/>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A136" s="5">
         <v>44784</v>
       </c>
@@ -23962,14 +24501,14 @@
         <v>44796</v>
       </c>
       <c r="C136" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>W(55/14)</v>
       </c>
       <c r="D136" s="6">
         <v>5</v>
       </c>
       <c r="E136" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5_14</v>
       </c>
       <c r="F136" s="6" t="s">
@@ -23986,14 +24525,18 @@
       </c>
       <c r="J136" s="6"/>
       <c r="K136" s="6">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="L136" s="6">
         <v>4</v>
       </c>
-      <c r="L136" s="6">
-        <v>1</v>
-      </c>
-      <c r="M136" s="4"/>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M136" s="6">
+        <v>1</v>
+      </c>
+      <c r="N136" s="4"/>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A137" s="5">
         <v>44784</v>
       </c>
@@ -24001,14 +24544,14 @@
         <v>44796</v>
       </c>
       <c r="C137" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>F(56/15)</v>
       </c>
       <c r="D137" s="6">
         <v>5</v>
       </c>
       <c r="E137" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5_15</v>
       </c>
       <c r="F137" s="6" t="s">
@@ -24025,11 +24568,15 @@
       </c>
       <c r="J137" s="6"/>
       <c r="K137" s="6">
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="M137" s="4"/>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L137" s="6">
+        <v>3</v>
+      </c>
+      <c r="N137" s="4"/>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A138" s="5">
         <v>44784</v>
       </c>
@@ -24037,14 +24584,14 @@
         <v>44796</v>
       </c>
       <c r="C138" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>S(57/16)</v>
       </c>
       <c r="D138" s="6">
         <v>5</v>
       </c>
       <c r="E138" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5_16</v>
       </c>
       <c r="F138" s="6" t="s">
@@ -24060,9 +24607,13 @@
         <v>0</v>
       </c>
       <c r="J138" s="6"/>
-      <c r="M138" s="4"/>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K138" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N138" s="4"/>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A139" s="5">
         <v>44784</v>
       </c>
@@ -24070,14 +24621,14 @@
         <v>44796</v>
       </c>
       <c r="C139" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>F(58/17)</v>
       </c>
       <c r="D139" s="6">
         <v>5</v>
       </c>
       <c r="E139" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5_17</v>
       </c>
       <c r="F139" s="6" t="s">
@@ -24093,9 +24644,13 @@
         <v>0</v>
       </c>
       <c r="J139" s="6"/>
-      <c r="M139" s="4"/>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K139" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N139" s="4"/>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A140" s="5">
         <v>44784</v>
       </c>
@@ -24103,14 +24658,14 @@
         <v>44796</v>
       </c>
       <c r="C140" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>W(59/18)</v>
       </c>
       <c r="D140" s="6">
         <v>5</v>
       </c>
       <c r="E140" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5_18</v>
       </c>
       <c r="F140" s="6" t="s">
@@ -24126,9 +24681,13 @@
         <v>0</v>
       </c>
       <c r="J140" s="6"/>
-      <c r="M140" s="4"/>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K140" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N140" s="4"/>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A141" s="5">
         <v>44784</v>
       </c>
@@ -24136,14 +24695,14 @@
         <v>44796</v>
       </c>
       <c r="C141" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>F(60/19)</v>
       </c>
       <c r="D141" s="6">
         <v>5</v>
       </c>
       <c r="E141" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5_19</v>
       </c>
       <c r="F141" s="6" t="s">
@@ -24159,9 +24718,13 @@
         <v>0</v>
       </c>
       <c r="J141" s="6"/>
-      <c r="M141" s="4"/>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K141" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N141" s="4"/>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A142" s="5">
         <v>44784</v>
       </c>
@@ -24169,14 +24732,14 @@
         <v>44796</v>
       </c>
       <c r="C142" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>S(61/20)</v>
       </c>
       <c r="D142" s="6">
         <v>5</v>
       </c>
       <c r="E142" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5_20</v>
       </c>
       <c r="F142" s="6" t="s">
@@ -24192,9 +24755,13 @@
         <v>0</v>
       </c>
       <c r="J142" s="6"/>
-      <c r="M142" s="4"/>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K142" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N142" s="4"/>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A143" s="5">
         <v>44784</v>
       </c>
@@ -24202,14 +24769,14 @@
         <v>44796</v>
       </c>
       <c r="C143" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>F(62/21)</v>
       </c>
       <c r="D143" s="6">
         <v>5</v>
       </c>
       <c r="E143" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5_21</v>
       </c>
       <c r="F143" s="6" t="s">
@@ -24225,9 +24792,13 @@
         <v>0</v>
       </c>
       <c r="J143" s="6"/>
-      <c r="M143" s="4"/>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K143" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N143" s="4"/>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A144" s="5">
         <v>44784</v>
       </c>
@@ -24235,14 +24806,14 @@
         <v>44796</v>
       </c>
       <c r="C144" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>W(63/22)</v>
       </c>
       <c r="D144" s="6">
         <v>5</v>
       </c>
       <c r="E144" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5_22</v>
       </c>
       <c r="F144" s="6" t="s">
@@ -24258,9 +24829,13 @@
         <v>0</v>
       </c>
       <c r="J144" s="6"/>
-      <c r="M144" s="4"/>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K144" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N144" s="4"/>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A145" s="5">
         <v>44784</v>
       </c>
@@ -24268,14 +24843,14 @@
         <v>44796</v>
       </c>
       <c r="C145" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>F(64/23)</v>
       </c>
       <c r="D145" s="6">
         <v>5</v>
       </c>
       <c r="E145" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5_23</v>
       </c>
       <c r="F145" s="6" t="s">
@@ -24291,9 +24866,13 @@
         <v>0</v>
       </c>
       <c r="J145" s="6"/>
-      <c r="M145" s="4"/>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K145" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N145" s="4"/>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A146" s="5">
         <v>44796</v>
       </c>
@@ -24301,14 +24880,14 @@
         <v>44810</v>
       </c>
       <c r="C146" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>F(41/0)</v>
       </c>
       <c r="D146" s="6">
         <v>6</v>
       </c>
       <c r="E146" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6_0</v>
       </c>
       <c r="F146" s="6" t="s">
@@ -24324,9 +24903,13 @@
         <v>0</v>
       </c>
       <c r="J146" s="6"/>
-      <c r="M146" s="4"/>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K146" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N146" s="4"/>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A147" s="5">
         <v>44796</v>
       </c>
@@ -24334,14 +24917,14 @@
         <v>44810</v>
       </c>
       <c r="C147" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>S(42/1)</v>
       </c>
       <c r="D147" s="6">
         <v>6</v>
       </c>
       <c r="E147" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6_1</v>
       </c>
       <c r="F147" s="6" t="s">
@@ -24357,9 +24940,13 @@
         <v>0</v>
       </c>
       <c r="J147" s="6"/>
-      <c r="M147" s="4"/>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K147" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N147" s="4"/>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A148" s="5">
         <v>44796</v>
       </c>
@@ -24367,14 +24954,14 @@
         <v>44810</v>
       </c>
       <c r="C148" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>W(43/2)</v>
       </c>
       <c r="D148" s="6">
         <v>6</v>
       </c>
       <c r="E148" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6_2</v>
       </c>
       <c r="F148" s="6" t="s">
@@ -24390,9 +24977,13 @@
         <v>0</v>
       </c>
       <c r="J148" s="6"/>
-      <c r="M148" s="4"/>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K148" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N148" s="4"/>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A149" s="5">
         <v>44796</v>
       </c>
@@ -24400,14 +24991,14 @@
         <v>44810</v>
       </c>
       <c r="C149" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>F(44/3)</v>
       </c>
       <c r="D149" s="6">
         <v>6</v>
       </c>
       <c r="E149" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6_3</v>
       </c>
       <c r="F149" s="6" t="s">
@@ -24423,12 +25014,16 @@
         <v>0</v>
       </c>
       <c r="J149" s="6"/>
-      <c r="L149" s="6">
-        <v>1</v>
-      </c>
-      <c r="M149" s="4"/>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K149" s="6">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="M149" s="6">
+        <v>1</v>
+      </c>
+      <c r="N149" s="4"/>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A150" s="5">
         <v>44796</v>
       </c>
@@ -24436,14 +25031,14 @@
         <v>44810</v>
       </c>
       <c r="C150" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>F(45/4)</v>
       </c>
       <c r="D150" s="6">
         <v>6</v>
       </c>
       <c r="E150" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6_4</v>
       </c>
       <c r="F150" s="6" t="s">
@@ -24460,11 +25055,15 @@
       </c>
       <c r="J150" s="6"/>
       <c r="K150" s="6">
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="M150" s="4"/>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L150" s="6">
+        <v>4</v>
+      </c>
+      <c r="N150" s="4"/>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A151" s="5">
         <v>44796</v>
       </c>
@@ -24472,14 +25071,14 @@
         <v>44810</v>
       </c>
       <c r="C151" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>S(46/5)</v>
       </c>
       <c r="D151" s="6">
         <v>6</v>
       </c>
       <c r="E151" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6_5</v>
       </c>
       <c r="F151" s="6" t="s">
@@ -24495,9 +25094,13 @@
         <v>0</v>
       </c>
       <c r="J151" s="6"/>
-      <c r="M151" s="4"/>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K151" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N151" s="4"/>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A152" s="5">
         <v>44796</v>
       </c>
@@ -24505,14 +25108,14 @@
         <v>44810</v>
       </c>
       <c r="C152" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>W(47/6)</v>
       </c>
       <c r="D152" s="6">
         <v>6</v>
       </c>
       <c r="E152" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6_6</v>
       </c>
       <c r="F152" s="6" t="s">
@@ -24528,9 +25131,13 @@
         <v>0</v>
       </c>
       <c r="J152" s="6"/>
-      <c r="M152" s="4"/>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K152" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N152" s="4"/>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A153" s="5">
         <v>44796</v>
       </c>
@@ -24538,14 +25145,14 @@
         <v>44810</v>
       </c>
       <c r="C153" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>F(48/7)</v>
       </c>
       <c r="D153" s="6">
         <v>6</v>
       </c>
       <c r="E153" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6_7</v>
       </c>
       <c r="F153" s="6" t="s">
@@ -24562,16 +25169,20 @@
       </c>
       <c r="J153" s="6"/>
       <c r="K153" s="6">
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>7</v>
       </c>
       <c r="L153" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M153" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="N153" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A154" s="5">
         <v>44796</v>
       </c>
@@ -24579,14 +25190,14 @@
         <v>44810</v>
       </c>
       <c r="C154" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>S(49/8)</v>
       </c>
       <c r="D154" s="6">
         <v>6</v>
       </c>
       <c r="E154" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6_8</v>
       </c>
       <c r="F154" s="6" t="s">
@@ -24602,9 +25213,13 @@
         <v>0</v>
       </c>
       <c r="J154" s="6"/>
-      <c r="M154" s="4"/>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K154" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N154" s="4"/>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A155" s="5">
         <v>44796</v>
       </c>
@@ -24612,14 +25227,14 @@
         <v>44810</v>
       </c>
       <c r="C155" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>F(50/9)</v>
       </c>
       <c r="D155" s="6">
         <v>6</v>
       </c>
       <c r="E155" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6_9</v>
       </c>
       <c r="F155" s="6" t="s">
@@ -24636,11 +25251,15 @@
       </c>
       <c r="J155" s="6"/>
       <c r="K155" s="6">
-        <v>1</v>
-      </c>
-      <c r="M155" s="4"/>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="L155" s="6">
+        <v>1</v>
+      </c>
+      <c r="N155" s="4"/>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A156" s="5">
         <v>44796</v>
       </c>
@@ -24648,14 +25267,14 @@
         <v>44810</v>
       </c>
       <c r="C156" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>W(51/10)</v>
       </c>
       <c r="D156" s="6">
         <v>6</v>
       </c>
       <c r="E156" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6_10</v>
       </c>
       <c r="F156" s="6" t="s">
@@ -24671,12 +25290,16 @@
         <v>0</v>
       </c>
       <c r="J156" s="6"/>
-      <c r="L156" s="6">
-        <v>1</v>
-      </c>
-      <c r="M156" s="4"/>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K156" s="6">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="M156" s="6">
+        <v>1</v>
+      </c>
+      <c r="N156" s="4"/>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A157" s="5">
         <v>44796</v>
       </c>
@@ -24684,14 +25307,14 @@
         <v>44810</v>
       </c>
       <c r="C157" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>F(52/11)</v>
       </c>
       <c r="D157" s="6">
         <v>6</v>
       </c>
       <c r="E157" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6_11</v>
       </c>
       <c r="F157" s="6" t="s">
@@ -24708,14 +25331,18 @@
       </c>
       <c r="J157" s="6"/>
       <c r="K157" s="6">
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="L157" s="6">
         <v>1</v>
       </c>
-      <c r="M157" s="4"/>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M157" s="6">
+        <v>1</v>
+      </c>
+      <c r="N157" s="4"/>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A158" s="5">
         <v>44796</v>
       </c>
@@ -24723,14 +25350,14 @@
         <v>44810</v>
       </c>
       <c r="C158" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>S(53/12)</v>
       </c>
       <c r="D158" s="6">
         <v>6</v>
       </c>
       <c r="E158" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6_12</v>
       </c>
       <c r="F158" s="6" t="s">
@@ -24747,11 +25374,15 @@
       </c>
       <c r="J158" s="6"/>
       <c r="K158" s="6">
-        <v>1</v>
-      </c>
-      <c r="M158" s="4"/>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="L158" s="6">
+        <v>1</v>
+      </c>
+      <c r="N158" s="4"/>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A159" s="5">
         <v>44796</v>
       </c>
@@ -24759,14 +25390,14 @@
         <v>44810</v>
       </c>
       <c r="C159" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>F(54/13)</v>
       </c>
       <c r="D159" s="6">
         <v>6</v>
       </c>
       <c r="E159" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6_13</v>
       </c>
       <c r="F159" s="6" t="s">
@@ -24782,9 +25413,13 @@
         <v>0</v>
       </c>
       <c r="J159" s="6"/>
-      <c r="M159" s="4"/>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K159" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N159" s="4"/>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A160" s="5">
         <v>44796</v>
       </c>
@@ -24792,14 +25427,14 @@
         <v>44810</v>
       </c>
       <c r="C160" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>W(55/14)</v>
       </c>
       <c r="D160" s="6">
         <v>6</v>
       </c>
       <c r="E160" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6_14</v>
       </c>
       <c r="F160" s="6" t="s">
@@ -24816,11 +25451,15 @@
       </c>
       <c r="J160" s="6"/>
       <c r="K160" s="6">
-        <v>1</v>
-      </c>
-      <c r="M160" s="4"/>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="L160" s="6">
+        <v>1</v>
+      </c>
+      <c r="N160" s="4"/>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A161" s="5">
         <v>44796</v>
       </c>
@@ -24828,14 +25467,14 @@
         <v>44810</v>
       </c>
       <c r="C161" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>F(56/15)</v>
       </c>
       <c r="D161" s="6">
         <v>6</v>
       </c>
       <c r="E161" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6_15</v>
       </c>
       <c r="F161" s="6" t="s">
@@ -24851,9 +25490,13 @@
         <v>0</v>
       </c>
       <c r="J161" s="6"/>
-      <c r="M161" s="4"/>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K161" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N161" s="4"/>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A162" s="5">
         <v>44796</v>
       </c>
@@ -24861,14 +25504,14 @@
         <v>44810</v>
       </c>
       <c r="C162" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>S(57/16)</v>
       </c>
       <c r="D162" s="6">
         <v>6</v>
       </c>
       <c r="E162" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6_16</v>
       </c>
       <c r="F162" s="6" t="s">
@@ -24885,11 +25528,15 @@
       </c>
       <c r="J162" s="6"/>
       <c r="K162" s="6">
-        <v>1</v>
-      </c>
-      <c r="M162" s="4"/>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="L162" s="6">
+        <v>1</v>
+      </c>
+      <c r="N162" s="4"/>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A163" s="5">
         <v>44796</v>
       </c>
@@ -24897,14 +25544,14 @@
         <v>44810</v>
       </c>
       <c r="C163" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>F(58/17)</v>
       </c>
       <c r="D163" s="6">
         <v>6</v>
       </c>
       <c r="E163" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6_17</v>
       </c>
       <c r="F163" s="6" t="s">
@@ -24921,11 +25568,15 @@
       </c>
       <c r="J163" s="6"/>
       <c r="K163" s="6">
-        <v>1</v>
-      </c>
-      <c r="M163" s="4"/>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="L163" s="6">
+        <v>1</v>
+      </c>
+      <c r="N163" s="4"/>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A164" s="5">
         <v>44796</v>
       </c>
@@ -24933,14 +25584,14 @@
         <v>44810</v>
       </c>
       <c r="C164" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>W(59/18)</v>
       </c>
       <c r="D164" s="6">
         <v>6</v>
       </c>
       <c r="E164" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6_18</v>
       </c>
       <c r="F164" s="6" t="s">
@@ -24956,12 +25607,16 @@
         <v>0</v>
       </c>
       <c r="J164" s="6"/>
-      <c r="L164" s="6">
-        <v>1</v>
-      </c>
-      <c r="M164" s="4"/>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K164" s="6">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="M164" s="6">
+        <v>1</v>
+      </c>
+      <c r="N164" s="4"/>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A165" s="5">
         <v>44796</v>
       </c>
@@ -24969,14 +25624,14 @@
         <v>44810</v>
       </c>
       <c r="C165" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>F(60/19)</v>
       </c>
       <c r="D165" s="6">
         <v>6</v>
       </c>
       <c r="E165" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6_19</v>
       </c>
       <c r="F165" s="6" t="s">
@@ -24992,9 +25647,13 @@
         <v>0</v>
       </c>
       <c r="J165" s="6"/>
-      <c r="M165" s="4"/>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K165" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N165" s="4"/>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A166" s="5">
         <v>44796</v>
       </c>
@@ -25002,14 +25661,14 @@
         <v>44810</v>
       </c>
       <c r="C166" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>S(61/20)</v>
       </c>
       <c r="D166" s="6">
         <v>6</v>
       </c>
       <c r="E166" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6_20</v>
       </c>
       <c r="F166" s="6" t="s">
@@ -25025,9 +25684,13 @@
         <v>0</v>
       </c>
       <c r="J166" s="6"/>
-      <c r="M166" s="4"/>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K166" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N166" s="4"/>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A167" s="5">
         <v>44796</v>
       </c>
@@ -25035,14 +25698,14 @@
         <v>44810</v>
       </c>
       <c r="C167" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>F(62/21)</v>
       </c>
       <c r="D167" s="6">
         <v>6</v>
       </c>
       <c r="E167" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6_21</v>
       </c>
       <c r="F167" s="6" t="s">
@@ -25058,9 +25721,13 @@
         <v>0</v>
       </c>
       <c r="J167" s="6"/>
-      <c r="M167" s="4"/>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K167" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N167" s="4"/>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A168" s="5">
         <v>44796</v>
       </c>
@@ -25068,14 +25735,14 @@
         <v>44810</v>
       </c>
       <c r="C168" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>W(63/22)</v>
       </c>
       <c r="D168" s="6">
         <v>6</v>
       </c>
       <c r="E168" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6_22</v>
       </c>
       <c r="F168" s="6" t="s">
@@ -25091,9 +25758,13 @@
         <v>0</v>
       </c>
       <c r="J168" s="6"/>
-      <c r="M168" s="4"/>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K168" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N168" s="4"/>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A169" s="5">
         <v>44796</v>
       </c>
@@ -25101,14 +25772,14 @@
         <v>44810</v>
       </c>
       <c r="C169" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>F(64/23)</v>
       </c>
       <c r="D169" s="6">
         <v>6</v>
       </c>
       <c r="E169" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6_23</v>
       </c>
       <c r="F169" s="6" t="s">
@@ -25124,9 +25795,13 @@
         <v>0</v>
       </c>
       <c r="J169" s="6"/>
-      <c r="M169" s="4"/>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K169" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N169" s="4"/>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A170" s="5">
         <v>44810</v>
       </c>
@@ -25134,14 +25809,14 @@
         <v>44824</v>
       </c>
       <c r="C170" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>F(41/0)</v>
       </c>
       <c r="D170" s="6">
         <v>7</v>
       </c>
       <c r="E170" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7_0</v>
       </c>
       <c r="F170" s="6" t="s">
@@ -25158,11 +25833,15 @@
       </c>
       <c r="J170" s="6"/>
       <c r="K170" s="6">
-        <v>1</v>
-      </c>
-      <c r="M170" s="4"/>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="L170" s="6">
+        <v>1</v>
+      </c>
+      <c r="N170" s="4"/>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A171" s="5">
         <v>44810</v>
       </c>
@@ -25170,14 +25849,14 @@
         <v>44824</v>
       </c>
       <c r="C171" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>S(42/1)</v>
       </c>
       <c r="D171" s="6">
         <v>7</v>
       </c>
       <c r="E171" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7_1</v>
       </c>
       <c r="F171" s="6" t="s">
@@ -25193,9 +25872,13 @@
         <v>0</v>
       </c>
       <c r="J171" s="6"/>
-      <c r="M171" s="4"/>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K171" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N171" s="4"/>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A172" s="5">
         <v>44810</v>
       </c>
@@ -25203,14 +25886,14 @@
         <v>44824</v>
       </c>
       <c r="C172" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>W(43/2)</v>
       </c>
       <c r="D172" s="6">
         <v>7</v>
       </c>
       <c r="E172" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7_2</v>
       </c>
       <c r="F172" s="6" t="s">
@@ -25226,9 +25909,13 @@
         <v>0</v>
       </c>
       <c r="J172" s="6"/>
-      <c r="M172" s="4"/>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K172" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N172" s="4"/>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A173" s="5">
         <v>44810</v>
       </c>
@@ -25236,14 +25923,14 @@
         <v>44824</v>
       </c>
       <c r="C173" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>F(44/3)</v>
       </c>
       <c r="D173" s="6">
         <v>7</v>
       </c>
       <c r="E173" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7_3</v>
       </c>
       <c r="F173" s="6" t="s">
@@ -25260,11 +25947,15 @@
       </c>
       <c r="J173" s="6"/>
       <c r="K173" s="6">
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="M173" s="4"/>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L173" s="6">
+        <v>4</v>
+      </c>
+      <c r="N173" s="4"/>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A174" s="5">
         <v>44810</v>
       </c>
@@ -25272,14 +25963,14 @@
         <v>44824</v>
       </c>
       <c r="C174" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>F(45/4)</v>
       </c>
       <c r="D174" s="6">
         <v>7</v>
       </c>
       <c r="E174" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7_4</v>
       </c>
       <c r="F174" s="6" t="s">
@@ -25296,14 +25987,18 @@
       </c>
       <c r="J174" s="6"/>
       <c r="K174" s="6">
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="L174" s="6">
         <v>1</v>
       </c>
-      <c r="M174" s="4"/>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M174" s="6">
+        <v>1</v>
+      </c>
+      <c r="N174" s="4"/>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A175" s="5">
         <v>44810</v>
       </c>
@@ -25311,14 +26006,14 @@
         <v>44824</v>
       </c>
       <c r="C175" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>S(46/5)</v>
       </c>
       <c r="D175" s="6">
         <v>7</v>
       </c>
       <c r="E175" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7_5</v>
       </c>
       <c r="F175" s="6" t="s">
@@ -25334,9 +26029,13 @@
         <v>0</v>
       </c>
       <c r="J175" s="6"/>
-      <c r="M175" s="4"/>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K175" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N175" s="4"/>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A176" s="5">
         <v>44810</v>
       </c>
@@ -25344,14 +26043,14 @@
         <v>44824</v>
       </c>
       <c r="C176" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>W(47/6)</v>
       </c>
       <c r="D176" s="6">
         <v>7</v>
       </c>
       <c r="E176" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7_6</v>
       </c>
       <c r="F176" s="6" t="s">
@@ -25368,11 +26067,15 @@
       </c>
       <c r="J176" s="6"/>
       <c r="K176" s="6">
-        <v>1</v>
-      </c>
-      <c r="M176" s="4"/>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="L176" s="6">
+        <v>1</v>
+      </c>
+      <c r="N176" s="4"/>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A177" s="5">
         <v>44810</v>
       </c>
@@ -25380,14 +26083,14 @@
         <v>44824</v>
       </c>
       <c r="C177" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>F(48/7)</v>
       </c>
       <c r="D177" s="6">
         <v>7</v>
       </c>
       <c r="E177" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7_7</v>
       </c>
       <c r="F177" s="6" t="s">
@@ -25406,11 +26109,15 @@
         <v>12</v>
       </c>
       <c r="K177" s="6">
-        <v>1</v>
-      </c>
-      <c r="M177" s="4"/>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="L177" s="6">
+        <v>1</v>
+      </c>
+      <c r="N177" s="4"/>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A178" s="5">
         <v>44810</v>
       </c>
@@ -25418,14 +26125,14 @@
         <v>44824</v>
       </c>
       <c r="C178" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>S(49/8)</v>
       </c>
       <c r="D178" s="6">
         <v>7</v>
       </c>
       <c r="E178" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7_8</v>
       </c>
       <c r="F178" s="6" t="s">
@@ -25441,9 +26148,13 @@
         <v>0</v>
       </c>
       <c r="J178" s="6"/>
-      <c r="M178" s="4"/>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K178" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N178" s="4"/>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A179" s="5">
         <v>44810</v>
       </c>
@@ -25451,14 +26162,14 @@
         <v>44824</v>
       </c>
       <c r="C179" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>F(50/9)</v>
       </c>
       <c r="D179" s="6">
         <v>7</v>
       </c>
       <c r="E179" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7_9</v>
       </c>
       <c r="F179" s="6" t="s">
@@ -25477,11 +26188,15 @@
         <v>12</v>
       </c>
       <c r="K179" s="6">
-        <v>1</v>
-      </c>
-      <c r="M179" s="4"/>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="L179" s="6">
+        <v>1</v>
+      </c>
+      <c r="N179" s="4"/>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A180" s="5">
         <v>44810</v>
       </c>
@@ -25489,14 +26204,14 @@
         <v>44824</v>
       </c>
       <c r="C180" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>W(51/10)</v>
       </c>
       <c r="D180" s="6">
         <v>7</v>
       </c>
       <c r="E180" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7_10</v>
       </c>
       <c r="F180" s="6" t="s">
@@ -25512,9 +26227,13 @@
         <v>0</v>
       </c>
       <c r="J180" s="6"/>
-      <c r="M180" s="4"/>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K180" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N180" s="4"/>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A181" s="5">
         <v>44810</v>
       </c>
@@ -25522,14 +26241,14 @@
         <v>44824</v>
       </c>
       <c r="C181" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>F(52/11)</v>
       </c>
       <c r="D181" s="6">
         <v>7</v>
       </c>
       <c r="E181" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7_11</v>
       </c>
       <c r="F181" s="6" t="s">
@@ -25546,16 +26265,20 @@
       </c>
       <c r="J181" s="6"/>
       <c r="K181" s="6">
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>13</v>
       </c>
       <c r="L181" s="6">
+        <v>5</v>
+      </c>
+      <c r="M181" s="6">
         <v>3</v>
       </c>
-      <c r="M181" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N181" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A182" s="5">
         <v>44810</v>
       </c>
@@ -25563,14 +26286,14 @@
         <v>44824</v>
       </c>
       <c r="C182" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>S(53/12)</v>
       </c>
       <c r="D182" s="6">
         <v>7</v>
       </c>
       <c r="E182" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7_12</v>
       </c>
       <c r="F182" s="6" t="s">
@@ -25586,9 +26309,13 @@
         <v>0</v>
       </c>
       <c r="J182" s="6"/>
-      <c r="M182" s="4"/>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K182" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N182" s="4"/>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A183" s="5">
         <v>44810</v>
       </c>
@@ -25596,14 +26323,14 @@
         <v>44824</v>
       </c>
       <c r="C183" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>F(54/13)</v>
       </c>
       <c r="D183" s="6">
         <v>7</v>
       </c>
       <c r="E183" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7_13</v>
       </c>
       <c r="F183" s="6" t="s">
@@ -25619,9 +26346,13 @@
         <v>0</v>
       </c>
       <c r="J183" s="6"/>
-      <c r="M183" s="4"/>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K183" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N183" s="4"/>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A184" s="5">
         <v>44810</v>
       </c>
@@ -25629,14 +26360,14 @@
         <v>44824</v>
       </c>
       <c r="C184" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>W(55/14)</v>
       </c>
       <c r="D184" s="6">
         <v>7</v>
       </c>
       <c r="E184" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7_14</v>
       </c>
       <c r="F184" s="6" t="s">
@@ -25653,11 +26384,15 @@
       </c>
       <c r="J184" s="6"/>
       <c r="K184" s="6">
-        <v>1</v>
-      </c>
-      <c r="M184" s="4"/>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="L184" s="6">
+        <v>1</v>
+      </c>
+      <c r="N184" s="4"/>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A185" s="5">
         <v>44810</v>
       </c>
@@ -25665,14 +26400,14 @@
         <v>44824</v>
       </c>
       <c r="C185" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>F(56/15)</v>
       </c>
       <c r="D185" s="6">
         <v>7</v>
       </c>
       <c r="E185" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7_15</v>
       </c>
       <c r="F185" s="6" t="s">
@@ -25688,9 +26423,13 @@
         <v>0</v>
       </c>
       <c r="J185" s="6"/>
-      <c r="M185" s="4"/>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K185" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N185" s="4"/>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A186" s="5">
         <v>44810</v>
       </c>
@@ -25698,14 +26437,14 @@
         <v>44824</v>
       </c>
       <c r="C186" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>S(57/16)</v>
       </c>
       <c r="D186" s="6">
         <v>7</v>
       </c>
       <c r="E186" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7_16</v>
       </c>
       <c r="F186" s="6" t="s">
@@ -25721,9 +26460,13 @@
         <v>0</v>
       </c>
       <c r="J186" s="6"/>
-      <c r="M186" s="4"/>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K186" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N186" s="4"/>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A187" s="5">
         <v>44810</v>
       </c>
@@ -25731,14 +26474,14 @@
         <v>44824</v>
       </c>
       <c r="C187" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>F(58/17)</v>
       </c>
       <c r="D187" s="6">
         <v>7</v>
       </c>
       <c r="E187" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7_17</v>
       </c>
       <c r="F187" s="6" t="s">
@@ -25754,9 +26497,13 @@
         <v>0</v>
       </c>
       <c r="J187" s="6"/>
-      <c r="M187" s="4"/>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K187" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N187" s="4"/>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A188" s="5">
         <v>44810</v>
       </c>
@@ -25764,14 +26511,14 @@
         <v>44824</v>
       </c>
       <c r="C188" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>W(59/18)</v>
       </c>
       <c r="D188" s="6">
         <v>7</v>
       </c>
       <c r="E188" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7_18</v>
       </c>
       <c r="F188" s="6" t="s">
@@ -25789,9 +26536,13 @@
       <c r="J188" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M188" s="4"/>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K188" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N188" s="4"/>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A189" s="5">
         <v>44810</v>
       </c>
@@ -25799,14 +26550,14 @@
         <v>44824</v>
       </c>
       <c r="C189" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>F(60/19)</v>
       </c>
       <c r="D189" s="6">
         <v>7</v>
       </c>
       <c r="E189" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7_19</v>
       </c>
       <c r="F189" s="6" t="s">
@@ -25824,9 +26575,13 @@
       <c r="J189" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M189" s="4"/>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K189" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N189" s="4"/>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A190" s="19">
         <v>44810</v>
       </c>
@@ -25834,14 +26589,14 @@
         <v>44824</v>
       </c>
       <c r="C190" s="20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>S(61/20)</v>
       </c>
       <c r="D190" s="20">
         <v>7</v>
       </c>
       <c r="E190" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7_20</v>
       </c>
       <c r="F190" s="20" t="s">
@@ -25857,9 +26612,13 @@
         <v>0</v>
       </c>
       <c r="J190" s="20"/>
-      <c r="M190" s="4"/>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K190" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N190" s="4"/>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A191" s="5">
         <v>44810</v>
       </c>
@@ -25867,14 +26626,14 @@
         <v>44824</v>
       </c>
       <c r="C191" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>F(62/21)</v>
       </c>
       <c r="D191" s="6">
         <v>7</v>
       </c>
       <c r="E191" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7_21</v>
       </c>
       <c r="F191" s="6" t="s">
@@ -25891,11 +26650,15 @@
       </c>
       <c r="J191" s="6"/>
       <c r="K191" s="6">
-        <v>1</v>
-      </c>
-      <c r="M191" s="4"/>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="L191" s="6">
+        <v>1</v>
+      </c>
+      <c r="N191" s="4"/>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A192" s="5">
         <v>44810</v>
       </c>
@@ -25903,14 +26666,14 @@
         <v>44824</v>
       </c>
       <c r="C192" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>W(63/22)</v>
       </c>
       <c r="D192" s="6">
         <v>7</v>
       </c>
       <c r="E192" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7_22</v>
       </c>
       <c r="F192" s="6" t="s">
@@ -25926,9 +26689,13 @@
         <v>0</v>
       </c>
       <c r="J192" s="6"/>
-      <c r="M192" s="4"/>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K192" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N192" s="4"/>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A193" s="5">
         <v>44810</v>
       </c>
@@ -25936,14 +26703,14 @@
         <v>44824</v>
       </c>
       <c r="C193" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>F(64/23)</v>
       </c>
       <c r="D193" s="6">
         <v>7</v>
       </c>
       <c r="E193" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7_23</v>
       </c>
       <c r="F193" s="6" t="s">
@@ -25959,19 +26726,27 @@
         <v>0</v>
       </c>
       <c r="J193" s="6"/>
-      <c r="M193" s="4"/>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="K194">
-        <f>SUM(K2:K193)</f>
+      <c r="K193" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N193" s="4"/>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K194" s="6">
+        <f t="shared" si="8"/>
+        <v>135</v>
+      </c>
+      <c r="L194">
+        <f>SUM(L2:L193)</f>
         <v>78</v>
       </c>
-      <c r="L194">
-        <f t="shared" ref="L194:M194" si="6">SUM(L2:L193)</f>
+      <c r="M194">
+        <f t="shared" ref="M194:N194" si="9">SUM(M2:M193)</f>
         <v>43</v>
       </c>
-      <c r="M194">
-        <f t="shared" si="6"/>
+      <c r="N194">
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
     </row>
@@ -25986,10 +26761,10 @@
   <dimension ref="A1:AO194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D167" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D185" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A172" sqref="A172:XFD172"/>
+      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26012,7 +26787,7 @@
     <col min="26" max="26" width="13.54296875" customWidth="1"/>
     <col min="27" max="28" width="10.7265625" customWidth="1"/>
     <col min="29" max="29" width="12.1796875" customWidth="1"/>
-    <col min="30" max="30" width="12.7265625" style="38" customWidth="1"/>
+    <col min="30" max="30" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -26046,19 +26821,19 @@
       <c r="J1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="L1" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="M1" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="N1" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="O1" s="35" t="s">
+      <c r="O1" s="23" t="s">
         <v>132</v>
       </c>
       <c r="P1" s="23" t="s">
@@ -26103,7 +26878,7 @@
       <c r="AC1" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="AD1" s="36" t="s">
+      <c r="AD1" s="33" t="s">
         <v>130</v>
       </c>
       <c r="AE1" s="33"/>
@@ -26149,8 +26924,8 @@
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6">
-        <f>SUM(L2:AD2)</f>
-        <v>0</v>
+        <f>SUM(L2:BB2)</f>
+        <v>1</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
@@ -26165,8 +26940,10 @@
       <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="37"/>
+      <c r="AC2" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="4"/>
       <c r="AE2" s="4"/>
       <c r="AF2" s="4"/>
       <c r="AG2" s="4"/>
@@ -26211,7 +26988,7 @@
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6">
-        <f t="shared" ref="K3:K66" si="2">SUM(L3:AD3)</f>
+        <f t="shared" ref="K3:K66" si="2">SUM(L3:BB3)</f>
         <v>0</v>
       </c>
       <c r="L3" s="6"/>
@@ -26228,7 +27005,7 @@
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
-      <c r="AD3" s="37"/>
+      <c r="AD3" s="4"/>
       <c r="AE3" s="4"/>
       <c r="AF3" s="4"/>
       <c r="AG3" s="4"/>
@@ -26274,7 +27051,7 @@
       <c r="J4" s="6"/>
       <c r="K4" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
@@ -26289,8 +27066,10 @@
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="37"/>
+      <c r="AC4" s="4">
+        <v>5</v>
+      </c>
+      <c r="AD4" s="4"/>
       <c r="AE4" s="4"/>
       <c r="AF4" s="4"/>
       <c r="AG4" s="4"/>
@@ -26359,7 +27138,7 @@
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
-      <c r="AD5" s="37"/>
+      <c r="AD5" s="4"/>
       <c r="AE5" s="4"/>
       <c r="AF5" s="4"/>
       <c r="AG5" s="4"/>
@@ -26421,7 +27200,7 @@
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
-      <c r="AD6" s="37">
+      <c r="AD6" s="4">
         <v>1</v>
       </c>
       <c r="AE6" s="4"/>
@@ -26485,7 +27264,7 @@
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
-      <c r="AD7" s="37"/>
+      <c r="AD7" s="4"/>
       <c r="AE7" s="4"/>
       <c r="AF7" s="4"/>
       <c r="AG7" s="4"/>
@@ -26548,7 +27327,7 @@
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
-      <c r="AD8" s="37"/>
+      <c r="AD8" s="4"/>
       <c r="AE8" s="4"/>
       <c r="AF8" s="4"/>
       <c r="AG8" s="4"/>
@@ -26610,7 +27389,7 @@
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
-      <c r="AD9" s="37"/>
+      <c r="AD9" s="4"/>
       <c r="AE9" s="4"/>
       <c r="AF9" s="4"/>
       <c r="AG9" s="4"/>
@@ -26673,7 +27452,7 @@
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
-      <c r="AD10" s="37"/>
+      <c r="AD10" s="4"/>
       <c r="AE10" s="4"/>
       <c r="AF10" s="4"/>
       <c r="AG10" s="4"/>
@@ -26737,7 +27516,7 @@
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
-      <c r="AD11" s="37"/>
+      <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
       <c r="AF11" s="4"/>
       <c r="AG11" s="4"/>
@@ -26799,7 +27578,7 @@
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
-      <c r="AD12" s="37"/>
+      <c r="AD12" s="4"/>
       <c r="AE12" s="4"/>
       <c r="AF12" s="4"/>
       <c r="AG12" s="4"/>
@@ -26859,7 +27638,7 @@
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
-      <c r="AD13" s="37"/>
+      <c r="AD13" s="4"/>
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
       <c r="AG13" s="4"/>
@@ -26921,7 +27700,7 @@
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
-      <c r="AD14" s="37">
+      <c r="AD14" s="4">
         <v>1</v>
       </c>
       <c r="AE14" s="4"/>
@@ -26985,7 +27764,7 @@
       <c r="AA15" s="4"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
-      <c r="AD15" s="37"/>
+      <c r="AD15" s="4"/>
       <c r="AE15" s="4"/>
       <c r="AF15" s="4"/>
       <c r="AG15" s="4"/>
@@ -27047,7 +27826,7 @@
       <c r="AA16" s="4"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
-      <c r="AD16" s="37">
+      <c r="AD16" s="4">
         <v>1</v>
       </c>
       <c r="AE16" s="4"/>
@@ -27095,7 +27874,7 @@
       <c r="J17" s="6"/>
       <c r="K17" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
@@ -27110,8 +27889,10 @@
       <c r="Z17" s="4"/>
       <c r="AA17" s="4"/>
       <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="37"/>
+      <c r="AC17" s="4">
+        <v>7</v>
+      </c>
+      <c r="AD17" s="4"/>
       <c r="AE17" s="4"/>
       <c r="AF17" s="4"/>
       <c r="AG17" s="4"/>
@@ -27175,7 +27956,7 @@
       <c r="AA18" s="4"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
-      <c r="AD18" s="37"/>
+      <c r="AD18" s="4"/>
       <c r="AE18" s="4"/>
       <c r="AF18" s="4"/>
       <c r="AG18" s="4"/>
@@ -27239,7 +28020,7 @@
       <c r="AA19" s="4"/>
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
-      <c r="AD19" s="37"/>
+      <c r="AD19" s="4"/>
       <c r="AE19" s="4"/>
       <c r="AF19" s="4"/>
       <c r="AG19" s="4"/>
@@ -27304,7 +28085,7 @@
       <c r="AA20" s="4"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
-      <c r="AD20" s="37"/>
+      <c r="AD20" s="4"/>
       <c r="AE20" s="4"/>
       <c r="AF20" s="4"/>
       <c r="AG20" s="4"/>
@@ -27368,7 +28149,7 @@
       <c r="AA21" s="4"/>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
-      <c r="AD21" s="37"/>
+      <c r="AD21" s="4"/>
       <c r="AE21" s="4"/>
       <c r="AF21" s="4"/>
       <c r="AG21" s="4"/>
@@ -27430,7 +28211,7 @@
       <c r="AA22" s="4"/>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
-      <c r="AD22" s="37"/>
+      <c r="AD22" s="4"/>
       <c r="AE22" s="4"/>
       <c r="AF22" s="4"/>
       <c r="AG22" s="4"/>
@@ -27492,7 +28273,7 @@
       <c r="AA23" s="4"/>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
-      <c r="AD23" s="37"/>
+      <c r="AD23" s="4"/>
       <c r="AE23" s="4"/>
       <c r="AF23" s="4"/>
       <c r="AG23" s="4"/>
@@ -27554,7 +28335,7 @@
       <c r="AA24" s="4"/>
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
-      <c r="AD24" s="37"/>
+      <c r="AD24" s="4"/>
       <c r="AE24" s="4"/>
       <c r="AF24" s="4"/>
       <c r="AG24" s="4"/>
@@ -27618,7 +28399,7 @@
       <c r="AA25" s="4"/>
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
-      <c r="AD25" s="37"/>
+      <c r="AD25" s="4"/>
       <c r="AE25" s="4"/>
       <c r="AF25" s="4"/>
       <c r="AG25" s="4"/>
@@ -27682,7 +28463,7 @@
       <c r="AA26" s="4"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
-      <c r="AD26" s="37"/>
+      <c r="AD26" s="4"/>
       <c r="AE26" s="4"/>
       <c r="AF26" s="4"/>
       <c r="AG26" s="4"/>
@@ -27746,7 +28527,7 @@
       <c r="AA27" s="4"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
-      <c r="AD27" s="37"/>
+      <c r="AD27" s="4"/>
       <c r="AE27" s="4"/>
       <c r="AF27" s="4"/>
       <c r="AG27" s="4"/>
@@ -27811,7 +28592,7 @@
       <c r="AA28" s="4"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
-      <c r="AD28" s="37"/>
+      <c r="AD28" s="4"/>
       <c r="AE28" s="4"/>
       <c r="AF28" s="4"/>
       <c r="AG28" s="4"/>
@@ -27875,7 +28656,7 @@
       <c r="AA29" s="4"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
-      <c r="AD29" s="37"/>
+      <c r="AD29" s="4"/>
       <c r="AE29" s="4"/>
       <c r="AF29" s="4"/>
       <c r="AG29" s="4"/>
@@ -27937,7 +28718,7 @@
       <c r="AA30" s="4"/>
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
-      <c r="AD30" s="37"/>
+      <c r="AD30" s="4"/>
       <c r="AE30" s="4"/>
       <c r="AF30" s="4"/>
       <c r="AG30" s="4"/>
@@ -27999,7 +28780,7 @@
       <c r="AA31" s="4"/>
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
-      <c r="AD31" s="37"/>
+      <c r="AD31" s="4"/>
       <c r="AE31" s="4"/>
       <c r="AF31" s="4"/>
       <c r="AG31" s="4"/>
@@ -28061,7 +28842,7 @@
       <c r="AA32" s="4"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
-      <c r="AD32" s="37"/>
+      <c r="AD32" s="4"/>
       <c r="AE32" s="4"/>
       <c r="AF32" s="4"/>
       <c r="AG32" s="4"/>
@@ -28123,7 +28904,7 @@
       <c r="AA33" s="4"/>
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
-      <c r="AD33" s="37">
+      <c r="AD33" s="4">
         <v>1</v>
       </c>
       <c r="AE33" s="4"/>
@@ -28171,7 +28952,7 @@
       <c r="J34" s="6"/>
       <c r="K34" s="6">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L34" s="6"/>
       <c r="M34" s="6">
@@ -28190,8 +28971,10 @@
       <c r="Z34" s="4"/>
       <c r="AA34" s="4"/>
       <c r="AB34" s="4"/>
-      <c r="AC34" s="4"/>
-      <c r="AD34" s="37"/>
+      <c r="AC34" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD34" s="4"/>
       <c r="AE34" s="4"/>
       <c r="AF34" s="4"/>
       <c r="AG34" s="4"/>
@@ -28237,7 +29020,7 @@
       <c r="J35" s="6"/>
       <c r="K35" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
@@ -28252,8 +29035,10 @@
       <c r="Z35" s="4"/>
       <c r="AA35" s="4"/>
       <c r="AB35" s="4"/>
-      <c r="AC35" s="4"/>
-      <c r="AD35" s="37"/>
+      <c r="AC35" s="4">
+        <v>3</v>
+      </c>
+      <c r="AD35" s="4"/>
       <c r="AE35" s="4"/>
       <c r="AF35" s="4"/>
       <c r="AG35" s="4"/>
@@ -28315,7 +29100,7 @@
       <c r="AA36" s="4"/>
       <c r="AB36" s="4"/>
       <c r="AC36" s="4"/>
-      <c r="AD36" s="37"/>
+      <c r="AD36" s="4"/>
       <c r="AE36" s="4"/>
       <c r="AF36" s="4"/>
       <c r="AG36" s="4"/>
@@ -28383,7 +29168,7 @@
       <c r="AA37" s="4"/>
       <c r="AB37" s="4"/>
       <c r="AC37" s="4"/>
-      <c r="AD37" s="37"/>
+      <c r="AD37" s="4"/>
       <c r="AE37" s="4"/>
       <c r="AF37" s="4"/>
       <c r="AG37" s="4"/>
@@ -28448,7 +29233,7 @@
       <c r="AA38" s="4"/>
       <c r="AB38" s="4"/>
       <c r="AC38" s="4"/>
-      <c r="AD38" s="37"/>
+      <c r="AD38" s="4"/>
       <c r="AE38" s="4"/>
       <c r="AF38" s="4"/>
       <c r="AG38" s="4"/>
@@ -28512,7 +29297,7 @@
       <c r="AA39" s="4"/>
       <c r="AB39" s="4"/>
       <c r="AC39" s="4"/>
-      <c r="AD39" s="37"/>
+      <c r="AD39" s="4"/>
       <c r="AE39" s="4"/>
       <c r="AF39" s="4"/>
       <c r="AG39" s="4"/>
@@ -28574,7 +29359,7 @@
       <c r="AA40" s="4"/>
       <c r="AB40" s="4"/>
       <c r="AC40" s="4"/>
-      <c r="AD40" s="37"/>
+      <c r="AD40" s="4"/>
       <c r="AE40" s="4"/>
       <c r="AF40" s="4"/>
       <c r="AG40" s="4"/>
@@ -28643,7 +29428,7 @@
       <c r="AA41" s="4"/>
       <c r="AB41" s="4"/>
       <c r="AC41" s="4"/>
-      <c r="AD41" s="37">
+      <c r="AD41" s="4">
         <v>1</v>
       </c>
       <c r="AE41" s="4"/>
@@ -28707,7 +29492,7 @@
       <c r="AA42" s="4"/>
       <c r="AB42" s="4"/>
       <c r="AC42" s="4"/>
-      <c r="AD42" s="37">
+      <c r="AD42" s="4">
         <v>1</v>
       </c>
       <c r="AE42" s="4"/>
@@ -28771,7 +29556,7 @@
       <c r="AA43" s="4"/>
       <c r="AB43" s="4"/>
       <c r="AC43" s="4"/>
-      <c r="AD43" s="37">
+      <c r="AD43" s="4">
         <v>1</v>
       </c>
       <c r="AE43" s="4"/>
@@ -28835,7 +29620,7 @@
       <c r="AA44" s="4"/>
       <c r="AB44" s="4"/>
       <c r="AC44" s="4"/>
-      <c r="AD44" s="37"/>
+      <c r="AD44" s="4"/>
       <c r="AE44" s="4"/>
       <c r="AF44" s="4"/>
       <c r="AG44" s="4"/>
@@ -28899,7 +29684,7 @@
       <c r="AA45" s="4"/>
       <c r="AB45" s="4"/>
       <c r="AC45" s="4"/>
-      <c r="AD45" s="37"/>
+      <c r="AD45" s="4"/>
       <c r="AE45" s="4"/>
       <c r="AF45" s="4"/>
       <c r="AG45" s="4"/>
@@ -28963,7 +29748,7 @@
       <c r="AA46" s="4"/>
       <c r="AB46" s="4"/>
       <c r="AC46" s="4"/>
-      <c r="AD46" s="37">
+      <c r="AD46" s="4">
         <v>1</v>
       </c>
       <c r="AE46" s="4"/>
@@ -29029,7 +29814,7 @@
       <c r="AA47" s="4"/>
       <c r="AB47" s="4"/>
       <c r="AC47" s="4"/>
-      <c r="AD47" s="37"/>
+      <c r="AD47" s="4"/>
       <c r="AE47" s="4"/>
       <c r="AF47" s="4"/>
       <c r="AG47" s="4"/>
@@ -29094,7 +29879,7 @@
       <c r="AA48" s="4"/>
       <c r="AB48" s="4"/>
       <c r="AC48" s="4"/>
-      <c r="AD48" s="37"/>
+      <c r="AD48" s="4"/>
       <c r="AE48" s="4"/>
       <c r="AF48" s="4"/>
       <c r="AG48" s="4"/>
@@ -29158,7 +29943,7 @@
       <c r="AA49" s="4"/>
       <c r="AB49" s="4"/>
       <c r="AC49" s="4"/>
-      <c r="AD49" s="37"/>
+      <c r="AD49" s="4"/>
       <c r="AE49" s="4"/>
       <c r="AF49" s="4"/>
       <c r="AG49" s="4"/>
@@ -29220,7 +30005,7 @@
       <c r="AA50" s="4"/>
       <c r="AB50" s="4"/>
       <c r="AC50" s="4"/>
-      <c r="AD50" s="37"/>
+      <c r="AD50" s="4"/>
       <c r="AE50" s="4"/>
       <c r="AF50" s="4"/>
       <c r="AG50" s="4"/>
@@ -29282,7 +30067,7 @@
       <c r="AA51" s="4"/>
       <c r="AB51" s="4"/>
       <c r="AC51" s="4"/>
-      <c r="AD51" s="37"/>
+      <c r="AD51" s="4"/>
       <c r="AE51" s="4"/>
       <c r="AF51" s="4"/>
       <c r="AG51" s="4"/>
@@ -29346,7 +30131,7 @@
       <c r="AA52" s="4"/>
       <c r="AB52" s="4"/>
       <c r="AC52" s="4"/>
-      <c r="AD52" s="37"/>
+      <c r="AD52" s="4"/>
       <c r="AE52" s="4"/>
       <c r="AF52" s="4"/>
       <c r="AG52" s="4"/>
@@ -29409,7 +30194,7 @@
       <c r="AA53" s="4"/>
       <c r="AB53" s="4"/>
       <c r="AC53" s="4"/>
-      <c r="AD53" s="37">
+      <c r="AD53" s="4">
         <v>1</v>
       </c>
       <c r="AE53" s="4"/>
@@ -29476,7 +30261,7 @@
       <c r="AA54" s="4"/>
       <c r="AB54" s="4"/>
       <c r="AC54" s="4"/>
-      <c r="AD54" s="37"/>
+      <c r="AD54" s="4"/>
       <c r="AE54" s="4"/>
       <c r="AF54" s="4"/>
       <c r="AG54" s="4"/>
@@ -29538,7 +30323,7 @@
       <c r="AA55" s="4"/>
       <c r="AB55" s="4"/>
       <c r="AC55" s="4"/>
-      <c r="AD55" s="37"/>
+      <c r="AD55" s="4"/>
       <c r="AE55" s="4"/>
       <c r="AF55" s="4"/>
       <c r="AG55" s="4"/>
@@ -29600,7 +30385,7 @@
       <c r="AA56" s="4"/>
       <c r="AB56" s="4"/>
       <c r="AC56" s="4"/>
-      <c r="AD56" s="37"/>
+      <c r="AD56" s="4"/>
       <c r="AE56" s="4"/>
       <c r="AF56" s="4"/>
       <c r="AG56" s="4"/>
@@ -29667,7 +30452,7 @@
         <v>1</v>
       </c>
       <c r="AC57" s="4"/>
-      <c r="AD57" s="37"/>
+      <c r="AD57" s="4"/>
       <c r="AE57" s="4"/>
       <c r="AF57" s="4"/>
       <c r="AG57" s="4"/>
@@ -29733,7 +30518,7 @@
       <c r="AA58" s="4"/>
       <c r="AB58" s="4"/>
       <c r="AC58" s="4"/>
-      <c r="AD58" s="37"/>
+      <c r="AD58" s="4"/>
       <c r="AE58" s="4"/>
       <c r="AF58" s="4"/>
       <c r="AG58" s="4"/>
@@ -29800,7 +30585,7 @@
       <c r="AA59" s="4"/>
       <c r="AB59" s="4"/>
       <c r="AC59" s="4"/>
-      <c r="AD59" s="37"/>
+      <c r="AD59" s="4"/>
       <c r="AE59" s="4"/>
       <c r="AF59" s="4"/>
       <c r="AG59" s="4"/>
@@ -29862,7 +30647,7 @@
       <c r="AA60" s="4"/>
       <c r="AB60" s="4"/>
       <c r="AC60" s="4"/>
-      <c r="AD60" s="37"/>
+      <c r="AD60" s="4"/>
       <c r="AE60" s="4"/>
       <c r="AF60" s="4"/>
       <c r="AG60" s="4"/>
@@ -29908,7 +30693,7 @@
       <c r="J61" s="6"/>
       <c r="K61" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L61" s="6"/>
       <c r="M61" s="6"/>
@@ -29924,8 +30709,10 @@
       <c r="Z61" s="4"/>
       <c r="AA61" s="4"/>
       <c r="AB61" s="4"/>
-      <c r="AC61" s="4"/>
-      <c r="AD61" s="37"/>
+      <c r="AC61" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD61" s="4"/>
       <c r="AE61" s="4"/>
       <c r="AF61" s="4"/>
       <c r="AG61" s="4"/>
@@ -29987,7 +30774,7 @@
       <c r="AA62" s="4"/>
       <c r="AB62" s="4"/>
       <c r="AC62" s="4"/>
-      <c r="AD62" s="37"/>
+      <c r="AD62" s="4"/>
       <c r="AE62" s="4"/>
       <c r="AF62" s="4"/>
       <c r="AG62" s="4"/>
@@ -30049,7 +30836,7 @@
       <c r="AA63" s="4"/>
       <c r="AB63" s="4"/>
       <c r="AC63" s="4"/>
-      <c r="AD63" s="37"/>
+      <c r="AD63" s="4"/>
       <c r="AE63" s="4"/>
       <c r="AF63" s="4"/>
       <c r="AG63" s="4"/>
@@ -30116,7 +30903,7 @@
       </c>
       <c r="AB64" s="4"/>
       <c r="AC64" s="4"/>
-      <c r="AD64" s="37"/>
+      <c r="AD64" s="4"/>
       <c r="AE64" s="4"/>
       <c r="AF64" s="4"/>
       <c r="AG64" s="4"/>
@@ -30179,7 +30966,7 @@
       <c r="AA65" s="4"/>
       <c r="AB65" s="4"/>
       <c r="AC65" s="4"/>
-      <c r="AD65" s="37"/>
+      <c r="AD65" s="4"/>
       <c r="AE65" s="4"/>
       <c r="AF65" s="4"/>
       <c r="AG65" s="4"/>
@@ -30243,7 +31030,7 @@
       <c r="AA66" s="4"/>
       <c r="AB66" s="4"/>
       <c r="AC66" s="4"/>
-      <c r="AD66" s="37"/>
+      <c r="AD66" s="4"/>
       <c r="AE66" s="4"/>
       <c r="AF66" s="4"/>
       <c r="AG66" s="4"/>
@@ -30288,7 +31075,7 @@
       </c>
       <c r="J67" s="6"/>
       <c r="K67" s="6">
-        <f t="shared" ref="K67:K130" si="5">SUM(L67:AD67)</f>
+        <f t="shared" ref="K67:K130" si="5">SUM(L67:BB67)</f>
         <v>2</v>
       </c>
       <c r="L67" s="6"/>
@@ -30310,7 +31097,7 @@
       <c r="AA67" s="4"/>
       <c r="AB67" s="4"/>
       <c r="AC67" s="4"/>
-      <c r="AD67" s="37">
+      <c r="AD67" s="4">
         <v>1</v>
       </c>
       <c r="AE67" s="4"/>
@@ -30374,7 +31161,7 @@
       <c r="AA68" s="4"/>
       <c r="AB68" s="4"/>
       <c r="AC68" s="4"/>
-      <c r="AD68" s="37"/>
+      <c r="AD68" s="4"/>
       <c r="AE68" s="4"/>
       <c r="AF68" s="4"/>
       <c r="AG68" s="4"/>
@@ -30436,7 +31223,7 @@
       <c r="AA69" s="4"/>
       <c r="AB69" s="4"/>
       <c r="AC69" s="4"/>
-      <c r="AD69" s="37"/>
+      <c r="AD69" s="4"/>
       <c r="AE69" s="4"/>
       <c r="AF69" s="4"/>
       <c r="AG69" s="4"/>
@@ -30498,7 +31285,7 @@
       <c r="AA70" s="4"/>
       <c r="AB70" s="4"/>
       <c r="AC70" s="4"/>
-      <c r="AD70" s="37"/>
+      <c r="AD70" s="4"/>
       <c r="AE70" s="4"/>
       <c r="AF70" s="4"/>
       <c r="AG70" s="4"/>
@@ -30567,7 +31354,7 @@
       </c>
       <c r="AB71" s="4"/>
       <c r="AC71" s="4"/>
-      <c r="AD71" s="37"/>
+      <c r="AD71" s="4"/>
       <c r="AE71" s="4"/>
       <c r="AF71" s="4"/>
       <c r="AG71" s="4"/>
@@ -30629,7 +31416,7 @@
       <c r="AA72" s="4"/>
       <c r="AB72" s="4"/>
       <c r="AC72" s="4"/>
-      <c r="AD72" s="37"/>
+      <c r="AD72" s="4"/>
       <c r="AE72" s="4"/>
       <c r="AF72" s="4"/>
       <c r="AG72" s="4"/>
@@ -30693,7 +31480,7 @@
       <c r="AA73" s="4"/>
       <c r="AB73" s="4"/>
       <c r="AC73" s="4"/>
-      <c r="AD73" s="37">
+      <c r="AD73" s="4">
         <v>1</v>
       </c>
       <c r="AE73" s="4"/>
@@ -30757,7 +31544,7 @@
       <c r="AA74" s="4"/>
       <c r="AB74" s="4"/>
       <c r="AC74" s="4"/>
-      <c r="AD74" s="37"/>
+      <c r="AD74" s="4"/>
       <c r="AE74" s="4"/>
       <c r="AF74" s="4"/>
       <c r="AG74" s="4"/>
@@ -30819,7 +31606,7 @@
       <c r="AA75" s="4"/>
       <c r="AB75" s="4"/>
       <c r="AC75" s="4"/>
-      <c r="AD75" s="37"/>
+      <c r="AD75" s="4"/>
       <c r="AE75" s="4"/>
       <c r="AF75" s="4"/>
       <c r="AG75" s="4"/>
@@ -30881,7 +31668,7 @@
       <c r="AA76" s="4"/>
       <c r="AB76" s="4"/>
       <c r="AC76" s="4"/>
-      <c r="AD76" s="37"/>
+      <c r="AD76" s="4"/>
       <c r="AE76" s="4"/>
       <c r="AF76" s="4"/>
       <c r="AG76" s="4"/>
@@ -30947,7 +31734,7 @@
       <c r="AA77" s="4"/>
       <c r="AB77" s="4"/>
       <c r="AC77" s="4"/>
-      <c r="AD77" s="37"/>
+      <c r="AD77" s="4"/>
       <c r="AE77" s="4"/>
       <c r="AF77" s="4"/>
       <c r="AG77" s="4"/>
@@ -31012,7 +31799,7 @@
       <c r="AA78" s="4"/>
       <c r="AB78" s="4"/>
       <c r="AC78" s="4"/>
-      <c r="AD78" s="37"/>
+      <c r="AD78" s="4"/>
       <c r="AE78" s="4"/>
       <c r="AF78" s="4"/>
       <c r="AG78" s="4"/>
@@ -31076,7 +31863,7 @@
       <c r="AA79" s="4"/>
       <c r="AB79" s="4"/>
       <c r="AC79" s="4"/>
-      <c r="AD79" s="37"/>
+      <c r="AD79" s="4"/>
       <c r="AE79" s="4"/>
       <c r="AF79" s="4"/>
       <c r="AG79" s="4"/>
@@ -31139,7 +31926,7 @@
       <c r="AA80" s="4"/>
       <c r="AB80" s="4"/>
       <c r="AC80" s="4"/>
-      <c r="AD80" s="37"/>
+      <c r="AD80" s="4"/>
       <c r="AE80" s="4"/>
       <c r="AF80" s="4"/>
       <c r="AG80" s="4"/>
@@ -31201,7 +31988,7 @@
       <c r="AA81" s="4"/>
       <c r="AB81" s="4"/>
       <c r="AC81" s="4"/>
-      <c r="AD81" s="37"/>
+      <c r="AD81" s="4"/>
       <c r="AE81" s="4"/>
       <c r="AF81" s="4"/>
       <c r="AG81" s="4"/>
@@ -31263,7 +32050,7 @@
       <c r="AA82" s="4"/>
       <c r="AB82" s="4"/>
       <c r="AC82" s="4"/>
-      <c r="AD82" s="37"/>
+      <c r="AD82" s="4"/>
       <c r="AE82" s="4"/>
       <c r="AF82" s="4"/>
       <c r="AG82" s="4"/>
@@ -31325,7 +32112,7 @@
       <c r="AA83" s="4"/>
       <c r="AB83" s="4"/>
       <c r="AC83" s="4"/>
-      <c r="AD83" s="37"/>
+      <c r="AD83" s="4"/>
       <c r="AE83" s="4"/>
       <c r="AF83" s="4"/>
       <c r="AG83" s="4"/>
@@ -31371,7 +32158,7 @@
       <c r="J84" s="6"/>
       <c r="K84" s="6">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L84" s="6"/>
       <c r="M84" s="6"/>
@@ -31394,8 +32181,10 @@
       <c r="Z84" s="4"/>
       <c r="AA84" s="4"/>
       <c r="AB84" s="4"/>
-      <c r="AC84" s="4"/>
-      <c r="AD84" s="37"/>
+      <c r="AC84" s="4">
+        <v>3</v>
+      </c>
+      <c r="AD84" s="4"/>
       <c r="AE84" s="4"/>
       <c r="AF84" s="4"/>
       <c r="AG84" s="4"/>
@@ -31462,7 +32251,7 @@
       <c r="AA85" s="4"/>
       <c r="AB85" s="4"/>
       <c r="AC85" s="4"/>
-      <c r="AD85" s="37"/>
+      <c r="AD85" s="4"/>
       <c r="AE85" s="4"/>
       <c r="AF85" s="4"/>
       <c r="AG85" s="4"/>
@@ -31524,7 +32313,7 @@
       <c r="AA86" s="4"/>
       <c r="AB86" s="4"/>
       <c r="AC86" s="4"/>
-      <c r="AD86" s="37"/>
+      <c r="AD86" s="4"/>
       <c r="AE86" s="4"/>
       <c r="AF86" s="4"/>
       <c r="AG86" s="4"/>
@@ -31586,7 +32375,7 @@
       <c r="AA87" s="4"/>
       <c r="AB87" s="4"/>
       <c r="AC87" s="4"/>
-      <c r="AD87" s="37"/>
+      <c r="AD87" s="4"/>
       <c r="AE87" s="4"/>
       <c r="AF87" s="4"/>
       <c r="AG87" s="4"/>
@@ -31651,7 +32440,7 @@
       <c r="AA88" s="4"/>
       <c r="AB88" s="4"/>
       <c r="AC88" s="4"/>
-      <c r="AD88" s="37"/>
+      <c r="AD88" s="4"/>
       <c r="AE88" s="4"/>
       <c r="AF88" s="4"/>
       <c r="AG88" s="4"/>
@@ -31716,7 +32505,7 @@
       <c r="AA89" s="4"/>
       <c r="AB89" s="4"/>
       <c r="AC89" s="4"/>
-      <c r="AD89" s="37"/>
+      <c r="AD89" s="4"/>
       <c r="AE89" s="4"/>
       <c r="AF89" s="4"/>
       <c r="AG89" s="4"/>
@@ -31778,7 +32567,7 @@
       <c r="AA90" s="4"/>
       <c r="AB90" s="4"/>
       <c r="AC90" s="4"/>
-      <c r="AD90" s="37"/>
+      <c r="AD90" s="4"/>
       <c r="AE90" s="4"/>
       <c r="AF90" s="4"/>
       <c r="AG90" s="4"/>
@@ -31840,7 +32629,7 @@
       <c r="AA91" s="4"/>
       <c r="AB91" s="4"/>
       <c r="AC91" s="4"/>
-      <c r="AD91" s="37"/>
+      <c r="AD91" s="4"/>
       <c r="AE91" s="4"/>
       <c r="AF91" s="4"/>
       <c r="AG91" s="4"/>
@@ -31904,7 +32693,7 @@
       <c r="AA92" s="4"/>
       <c r="AB92" s="4"/>
       <c r="AC92" s="4"/>
-      <c r="AD92" s="37"/>
+      <c r="AD92" s="4"/>
       <c r="AE92" s="4"/>
       <c r="AF92" s="4"/>
       <c r="AG92" s="4"/>
@@ -31966,7 +32755,7 @@
       <c r="AA93" s="4"/>
       <c r="AB93" s="4"/>
       <c r="AC93" s="4"/>
-      <c r="AD93" s="37"/>
+      <c r="AD93" s="4"/>
       <c r="AE93" s="4"/>
       <c r="AF93" s="4"/>
       <c r="AG93" s="4"/>
@@ -32028,7 +32817,7 @@
       <c r="AA94" s="4"/>
       <c r="AB94" s="4"/>
       <c r="AC94" s="4"/>
-      <c r="AD94" s="37"/>
+      <c r="AD94" s="4"/>
       <c r="AE94" s="4"/>
       <c r="AF94" s="4"/>
       <c r="AG94" s="4"/>
@@ -32090,7 +32879,7 @@
       <c r="AA95" s="4"/>
       <c r="AB95" s="4"/>
       <c r="AC95" s="4"/>
-      <c r="AD95" s="37">
+      <c r="AD95" s="4">
         <v>1</v>
       </c>
       <c r="AE95" s="4"/>
@@ -32159,7 +32948,7 @@
       <c r="AA96" s="4"/>
       <c r="AB96" s="4"/>
       <c r="AC96" s="4"/>
-      <c r="AD96" s="37"/>
+      <c r="AD96" s="4"/>
       <c r="AE96" s="4"/>
       <c r="AF96" s="4"/>
       <c r="AG96" s="4"/>
@@ -32221,7 +33010,7 @@
       <c r="AA97" s="4"/>
       <c r="AB97" s="4"/>
       <c r="AC97" s="4"/>
-      <c r="AD97" s="37"/>
+      <c r="AD97" s="4"/>
       <c r="AE97" s="4"/>
       <c r="AF97" s="4"/>
       <c r="AG97" s="4"/>
@@ -32283,7 +33072,7 @@
       <c r="AA98" s="4"/>
       <c r="AB98" s="4"/>
       <c r="AC98" s="4"/>
-      <c r="AD98" s="37"/>
+      <c r="AD98" s="4"/>
       <c r="AE98" s="4"/>
       <c r="AF98" s="4"/>
       <c r="AG98" s="4"/>
@@ -32345,7 +33134,7 @@
       <c r="AA99" s="4"/>
       <c r="AB99" s="4"/>
       <c r="AC99" s="4"/>
-      <c r="AD99" s="37"/>
+      <c r="AD99" s="4"/>
       <c r="AE99" s="4"/>
       <c r="AF99" s="4"/>
       <c r="AG99" s="4"/>
@@ -32407,7 +33196,7 @@
       <c r="AA100" s="4"/>
       <c r="AB100" s="4"/>
       <c r="AC100" s="4"/>
-      <c r="AD100" s="37"/>
+      <c r="AD100" s="4"/>
       <c r="AE100" s="4"/>
       <c r="AF100" s="4"/>
       <c r="AG100" s="4"/>
@@ -32472,7 +33261,7 @@
       <c r="AA101" s="4"/>
       <c r="AB101" s="4"/>
       <c r="AC101" s="4"/>
-      <c r="AD101" s="37"/>
+      <c r="AD101" s="4"/>
       <c r="AE101" s="4"/>
       <c r="AF101" s="4"/>
       <c r="AG101" s="4"/>
@@ -32534,7 +33323,7 @@
       <c r="AA102" s="4"/>
       <c r="AB102" s="4"/>
       <c r="AC102" s="4"/>
-      <c r="AD102" s="37"/>
+      <c r="AD102" s="4"/>
       <c r="AE102" s="4"/>
       <c r="AF102" s="4"/>
       <c r="AG102" s="4"/>
@@ -32596,7 +33385,7 @@
       <c r="AA103" s="4"/>
       <c r="AB103" s="4"/>
       <c r="AC103" s="4"/>
-      <c r="AD103" s="37"/>
+      <c r="AD103" s="4"/>
       <c r="AE103" s="4"/>
       <c r="AF103" s="4"/>
       <c r="AG103" s="4"/>
@@ -32663,7 +33452,7 @@
       <c r="AA104" s="4"/>
       <c r="AB104" s="4"/>
       <c r="AC104" s="4"/>
-      <c r="AD104" s="37"/>
+      <c r="AD104" s="4"/>
       <c r="AE104" s="4"/>
       <c r="AF104" s="4"/>
       <c r="AG104" s="4"/>
@@ -32725,7 +33514,7 @@
       <c r="AA105" s="4"/>
       <c r="AB105" s="4"/>
       <c r="AC105" s="4"/>
-      <c r="AD105" s="37"/>
+      <c r="AD105" s="4"/>
       <c r="AE105" s="4"/>
       <c r="AF105" s="4"/>
       <c r="AG105" s="4"/>
@@ -32787,7 +33576,7 @@
       <c r="AA106" s="4"/>
       <c r="AB106" s="4"/>
       <c r="AC106" s="4"/>
-      <c r="AD106" s="37"/>
+      <c r="AD106" s="4"/>
       <c r="AE106" s="4"/>
       <c r="AF106" s="4"/>
       <c r="AG106" s="4"/>
@@ -32849,7 +33638,7 @@
       <c r="AA107" s="4"/>
       <c r="AB107" s="4"/>
       <c r="AC107" s="4"/>
-      <c r="AD107" s="37"/>
+      <c r="AD107" s="4"/>
       <c r="AE107" s="4"/>
       <c r="AF107" s="4"/>
       <c r="AG107" s="4"/>
@@ -32911,7 +33700,7 @@
       <c r="AA108" s="4"/>
       <c r="AB108" s="4"/>
       <c r="AC108" s="4"/>
-      <c r="AD108" s="37"/>
+      <c r="AD108" s="4"/>
       <c r="AE108" s="4"/>
       <c r="AF108" s="4"/>
       <c r="AG108" s="4"/>
@@ -32981,7 +33770,7 @@
       <c r="AA109" s="4"/>
       <c r="AB109" s="4"/>
       <c r="AC109" s="4"/>
-      <c r="AD109" s="37">
+      <c r="AD109" s="4">
         <v>2</v>
       </c>
       <c r="AE109" s="4"/>
@@ -33029,7 +33818,7 @@
       <c r="J110" s="6"/>
       <c r="K110" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L110" s="6"/>
       <c r="M110" s="6"/>
@@ -33044,8 +33833,10 @@
       <c r="Z110" s="4"/>
       <c r="AA110" s="4"/>
       <c r="AB110" s="4"/>
-      <c r="AC110" s="4"/>
-      <c r="AD110" s="37"/>
+      <c r="AC110" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD110" s="4"/>
       <c r="AE110" s="4"/>
       <c r="AF110" s="4"/>
       <c r="AG110" s="4"/>
@@ -33110,7 +33901,7 @@
       <c r="AA111" s="4"/>
       <c r="AB111" s="4"/>
       <c r="AC111" s="4"/>
-      <c r="AD111" s="37"/>
+      <c r="AD111" s="4"/>
       <c r="AE111" s="4"/>
       <c r="AF111" s="4"/>
       <c r="AG111" s="4"/>
@@ -33172,7 +33963,7 @@
       <c r="AA112" s="4"/>
       <c r="AB112" s="4"/>
       <c r="AC112" s="4"/>
-      <c r="AD112" s="37"/>
+      <c r="AD112" s="4"/>
       <c r="AE112" s="4"/>
       <c r="AF112" s="4"/>
       <c r="AG112" s="4"/>
@@ -33237,7 +34028,7 @@
       <c r="AA113" s="4"/>
       <c r="AB113" s="4"/>
       <c r="AC113" s="4"/>
-      <c r="AD113" s="37"/>
+      <c r="AD113" s="4"/>
       <c r="AE113" s="4"/>
       <c r="AF113" s="4"/>
       <c r="AG113" s="4"/>
@@ -33299,7 +34090,7 @@
       <c r="AA114" s="4"/>
       <c r="AB114" s="4"/>
       <c r="AC114" s="4"/>
-      <c r="AD114" s="37"/>
+      <c r="AD114" s="4"/>
       <c r="AE114" s="4"/>
       <c r="AF114" s="4"/>
       <c r="AG114" s="4"/>
@@ -33345,7 +34136,7 @@
       <c r="J115" s="6"/>
       <c r="K115" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L115" s="6"/>
       <c r="M115" s="6"/>
@@ -33363,8 +34154,10 @@
       <c r="Z115" s="4"/>
       <c r="AA115" s="4"/>
       <c r="AB115" s="4"/>
-      <c r="AC115" s="4"/>
-      <c r="AD115" s="37"/>
+      <c r="AC115" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD115" s="4"/>
       <c r="AE115" s="4"/>
       <c r="AF115" s="4"/>
       <c r="AG115" s="4"/>
@@ -33426,7 +34219,7 @@
       <c r="AA116" s="4"/>
       <c r="AB116" s="4"/>
       <c r="AC116" s="4"/>
-      <c r="AD116" s="37"/>
+      <c r="AD116" s="4"/>
       <c r="AE116" s="4"/>
       <c r="AF116" s="4"/>
       <c r="AG116" s="4"/>
@@ -33488,7 +34281,7 @@
       <c r="AA117" s="4"/>
       <c r="AB117" s="4"/>
       <c r="AC117" s="4"/>
-      <c r="AD117" s="37"/>
+      <c r="AD117" s="4"/>
       <c r="AE117" s="4"/>
       <c r="AF117" s="4"/>
       <c r="AG117" s="4"/>
@@ -33550,7 +34343,7 @@
       <c r="AA118" s="4"/>
       <c r="AB118" s="4"/>
       <c r="AC118" s="4"/>
-      <c r="AD118" s="37"/>
+      <c r="AD118" s="4"/>
       <c r="AE118" s="4"/>
       <c r="AF118" s="4"/>
       <c r="AG118" s="4"/>
@@ -33612,7 +34405,7 @@
       <c r="AA119" s="4"/>
       <c r="AB119" s="4"/>
       <c r="AC119" s="4"/>
-      <c r="AD119" s="37"/>
+      <c r="AD119" s="4"/>
       <c r="AE119" s="4"/>
       <c r="AF119" s="4"/>
       <c r="AG119" s="4"/>
@@ -33679,7 +34472,7 @@
       <c r="AA120" s="4"/>
       <c r="AB120" s="4"/>
       <c r="AC120" s="4"/>
-      <c r="AD120" s="37"/>
+      <c r="AD120" s="4"/>
       <c r="AE120" s="4"/>
       <c r="AF120" s="4"/>
       <c r="AG120" s="4"/>
@@ -33741,7 +34534,7 @@
       <c r="AA121" s="4"/>
       <c r="AB121" s="4"/>
       <c r="AC121" s="4"/>
-      <c r="AD121" s="37"/>
+      <c r="AD121" s="4"/>
       <c r="AE121" s="4"/>
       <c r="AF121" s="4"/>
       <c r="AG121" s="4"/>
@@ -33806,7 +34599,7 @@
       <c r="AA122" s="4"/>
       <c r="AB122" s="4"/>
       <c r="AC122" s="4"/>
-      <c r="AD122" s="37"/>
+      <c r="AD122" s="4"/>
       <c r="AE122" s="4"/>
       <c r="AF122" s="4"/>
       <c r="AG122" s="4"/>
@@ -33868,7 +34661,7 @@
       <c r="AA123" s="4"/>
       <c r="AB123" s="4"/>
       <c r="AC123" s="4"/>
-      <c r="AD123" s="37"/>
+      <c r="AD123" s="4"/>
       <c r="AE123" s="4"/>
       <c r="AF123" s="4"/>
       <c r="AG123" s="4"/>
@@ -33930,7 +34723,7 @@
       <c r="AA124" s="4"/>
       <c r="AB124" s="4"/>
       <c r="AC124" s="4"/>
-      <c r="AD124" s="37"/>
+      <c r="AD124" s="4"/>
       <c r="AE124" s="4"/>
       <c r="AF124" s="4"/>
       <c r="AG124" s="4"/>
@@ -33995,7 +34788,7 @@
       <c r="AA125" s="4"/>
       <c r="AB125" s="4"/>
       <c r="AC125" s="4"/>
-      <c r="AD125" s="37"/>
+      <c r="AD125" s="4"/>
       <c r="AE125" s="4"/>
       <c r="AF125" s="4"/>
       <c r="AG125" s="4"/>
@@ -34061,7 +34854,7 @@
       <c r="AA126" s="4"/>
       <c r="AB126" s="4"/>
       <c r="AC126" s="4"/>
-      <c r="AD126" s="37"/>
+      <c r="AD126" s="4"/>
       <c r="AE126" s="4"/>
       <c r="AF126" s="4"/>
       <c r="AG126" s="4"/>
@@ -34125,7 +34918,7 @@
       <c r="AA127" s="4"/>
       <c r="AB127" s="4"/>
       <c r="AC127" s="4"/>
-      <c r="AD127" s="37"/>
+      <c r="AD127" s="4"/>
       <c r="AE127" s="4"/>
       <c r="AF127" s="4"/>
       <c r="AG127" s="4"/>
@@ -34188,7 +34981,7 @@
       <c r="AA128" s="4"/>
       <c r="AB128" s="4"/>
       <c r="AC128" s="4"/>
-      <c r="AD128" s="37"/>
+      <c r="AD128" s="4"/>
       <c r="AE128" s="4"/>
       <c r="AF128" s="4"/>
       <c r="AG128" s="4"/>
@@ -34253,7 +35046,7 @@
       <c r="AA129" s="4"/>
       <c r="AB129" s="4"/>
       <c r="AC129" s="4"/>
-      <c r="AD129" s="37"/>
+      <c r="AD129" s="4"/>
       <c r="AE129" s="4"/>
       <c r="AF129" s="4"/>
       <c r="AG129" s="4"/>
@@ -34299,7 +35092,7 @@
       <c r="J130" s="6"/>
       <c r="K130" s="6">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L130" s="6"/>
       <c r="M130" s="6"/>
@@ -34319,8 +35112,10 @@
       <c r="AB130" s="4">
         <v>1</v>
       </c>
-      <c r="AC130" s="4"/>
-      <c r="AD130" s="37"/>
+      <c r="AC130" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD130" s="4"/>
       <c r="AE130" s="4"/>
       <c r="AF130" s="4"/>
       <c r="AG130" s="4"/>
@@ -34365,7 +35160,7 @@
       </c>
       <c r="J131" s="6"/>
       <c r="K131" s="6">
-        <f t="shared" ref="K131:K193" si="8">SUM(L131:AD131)</f>
+        <f t="shared" ref="K131:K194" si="8">SUM(L131:BB131)</f>
         <v>0</v>
       </c>
       <c r="L131" s="6"/>
@@ -34385,7 +35180,7 @@
       <c r="AA131" s="4"/>
       <c r="AB131" s="4"/>
       <c r="AC131" s="4"/>
-      <c r="AD131" s="37"/>
+      <c r="AD131" s="4"/>
       <c r="AE131" s="4"/>
       <c r="AF131" s="4"/>
       <c r="AG131" s="4"/>
@@ -34452,7 +35247,7 @@
       <c r="AA132" s="4"/>
       <c r="AB132" s="4"/>
       <c r="AC132" s="4"/>
-      <c r="AD132" s="37"/>
+      <c r="AD132" s="4"/>
       <c r="AE132" s="4"/>
       <c r="AF132" s="4"/>
       <c r="AG132" s="4"/>
@@ -34498,7 +35293,7 @@
       <c r="J133" s="6"/>
       <c r="K133" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L133" s="6"/>
       <c r="M133" s="6"/>
@@ -34516,8 +35311,10 @@
       <c r="Z133" s="4"/>
       <c r="AA133" s="4"/>
       <c r="AB133" s="4"/>
-      <c r="AC133" s="4"/>
-      <c r="AD133" s="37"/>
+      <c r="AC133" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD133" s="4"/>
       <c r="AE133" s="4"/>
       <c r="AF133" s="4"/>
       <c r="AG133" s="4"/>
@@ -34563,7 +35360,7 @@
       <c r="J134" s="6"/>
       <c r="K134" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L134" s="6"/>
       <c r="M134" s="6"/>
@@ -34581,8 +35378,10 @@
       <c r="Z134" s="4"/>
       <c r="AA134" s="4"/>
       <c r="AB134" s="4"/>
-      <c r="AC134" s="4"/>
-      <c r="AD134" s="37"/>
+      <c r="AC134" s="4">
+        <v>9</v>
+      </c>
+      <c r="AD134" s="4"/>
       <c r="AE134" s="4"/>
       <c r="AF134" s="4"/>
       <c r="AG134" s="4"/>
@@ -34644,7 +35443,7 @@
       <c r="AA135" s="4"/>
       <c r="AB135" s="4"/>
       <c r="AC135" s="4"/>
-      <c r="AD135" s="37"/>
+      <c r="AD135" s="4"/>
       <c r="AE135" s="4"/>
       <c r="AF135" s="4"/>
       <c r="AG135" s="4"/>
@@ -34710,7 +35509,7 @@
       <c r="AA136" s="4"/>
       <c r="AB136" s="4"/>
       <c r="AC136" s="4"/>
-      <c r="AD136" s="37"/>
+      <c r="AD136" s="4"/>
       <c r="AE136" s="4"/>
       <c r="AF136" s="4"/>
       <c r="AG136" s="4"/>
@@ -34756,7 +35555,7 @@
       <c r="J137" s="6"/>
       <c r="K137" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L137" s="6"/>
       <c r="M137" s="6"/>
@@ -34774,8 +35573,10 @@
       <c r="Z137" s="4"/>
       <c r="AA137" s="4"/>
       <c r="AB137" s="4"/>
-      <c r="AC137" s="4"/>
-      <c r="AD137" s="37"/>
+      <c r="AC137" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD137" s="4"/>
       <c r="AE137" s="4"/>
       <c r="AF137" s="4"/>
       <c r="AG137" s="4"/>
@@ -34837,7 +35638,7 @@
       <c r="AA138" s="4"/>
       <c r="AB138" s="4"/>
       <c r="AC138" s="4"/>
-      <c r="AD138" s="37"/>
+      <c r="AD138" s="4"/>
       <c r="AE138" s="4"/>
       <c r="AF138" s="4"/>
       <c r="AG138" s="4"/>
@@ -34899,7 +35700,7 @@
       <c r="AA139" s="4"/>
       <c r="AB139" s="4"/>
       <c r="AC139" s="4"/>
-      <c r="AD139" s="37"/>
+      <c r="AD139" s="4"/>
       <c r="AE139" s="4"/>
       <c r="AF139" s="4"/>
       <c r="AG139" s="4"/>
@@ -34961,7 +35762,7 @@
       <c r="AA140" s="4"/>
       <c r="AB140" s="4"/>
       <c r="AC140" s="4"/>
-      <c r="AD140" s="37"/>
+      <c r="AD140" s="4"/>
       <c r="AE140" s="4"/>
       <c r="AF140" s="4"/>
       <c r="AG140" s="4"/>
@@ -35023,7 +35824,7 @@
       <c r="AA141" s="4"/>
       <c r="AB141" s="4"/>
       <c r="AC141" s="4"/>
-      <c r="AD141" s="37"/>
+      <c r="AD141" s="4"/>
       <c r="AE141" s="4"/>
       <c r="AF141" s="4"/>
       <c r="AG141" s="4"/>
@@ -35085,7 +35886,7 @@
       <c r="AA142" s="4"/>
       <c r="AB142" s="4"/>
       <c r="AC142" s="4"/>
-      <c r="AD142" s="37"/>
+      <c r="AD142" s="4"/>
       <c r="AE142" s="4"/>
       <c r="AF142" s="4"/>
       <c r="AG142" s="4"/>
@@ -35147,7 +35948,7 @@
       <c r="AA143" s="4"/>
       <c r="AB143" s="4"/>
       <c r="AC143" s="4"/>
-      <c r="AD143" s="37"/>
+      <c r="AD143" s="4"/>
       <c r="AE143" s="4"/>
       <c r="AF143" s="4"/>
       <c r="AG143" s="4"/>
@@ -35209,7 +36010,7 @@
       <c r="AA144" s="4"/>
       <c r="AB144" s="4"/>
       <c r="AC144" s="4"/>
-      <c r="AD144" s="37"/>
+      <c r="AD144" s="4"/>
       <c r="AE144" s="4"/>
       <c r="AF144" s="4"/>
       <c r="AG144" s="4"/>
@@ -35271,7 +36072,7 @@
       <c r="AA145" s="4"/>
       <c r="AB145" s="4"/>
       <c r="AC145" s="4"/>
-      <c r="AD145" s="37"/>
+      <c r="AD145" s="4"/>
       <c r="AE145" s="4"/>
       <c r="AF145" s="4"/>
       <c r="AG145" s="4"/>
@@ -35335,7 +36136,7 @@
       <c r="AA146" s="4"/>
       <c r="AB146" s="4"/>
       <c r="AC146" s="4"/>
-      <c r="AD146" s="37"/>
+      <c r="AD146" s="4"/>
       <c r="AE146" s="4"/>
       <c r="AF146" s="4"/>
       <c r="AG146" s="4"/>
@@ -35397,7 +36198,7 @@
       <c r="AA147" s="4"/>
       <c r="AB147" s="4"/>
       <c r="AC147" s="4"/>
-      <c r="AD147" s="37"/>
+      <c r="AD147" s="4"/>
       <c r="AE147" s="4"/>
       <c r="AF147" s="4"/>
       <c r="AG147" s="4"/>
@@ -35459,7 +36260,7 @@
       <c r="AA148" s="4"/>
       <c r="AB148" s="4"/>
       <c r="AC148" s="4"/>
-      <c r="AD148" s="37"/>
+      <c r="AD148" s="4"/>
       <c r="AE148" s="4"/>
       <c r="AF148" s="4"/>
       <c r="AG148" s="4"/>
@@ -35522,7 +36323,7 @@
       <c r="AA149" s="4"/>
       <c r="AB149" s="4"/>
       <c r="AC149" s="4"/>
-      <c r="AD149" s="37"/>
+      <c r="AD149" s="4"/>
       <c r="AE149" s="4"/>
       <c r="AF149" s="4"/>
       <c r="AG149" s="4"/>
@@ -35587,7 +36388,7 @@
       <c r="AA150" s="4"/>
       <c r="AB150" s="4"/>
       <c r="AC150" s="4"/>
-      <c r="AD150" s="37"/>
+      <c r="AD150" s="4"/>
       <c r="AE150" s="4"/>
       <c r="AF150" s="4"/>
       <c r="AG150" s="4"/>
@@ -35649,7 +36450,7 @@
       <c r="AA151" s="4"/>
       <c r="AB151" s="4"/>
       <c r="AC151" s="4"/>
-      <c r="AD151" s="37"/>
+      <c r="AD151" s="4"/>
       <c r="AE151" s="4"/>
       <c r="AF151" s="4"/>
       <c r="AG151" s="4"/>
@@ -35715,7 +36516,7 @@
       <c r="AA152" s="4"/>
       <c r="AB152" s="4"/>
       <c r="AC152" s="4"/>
-      <c r="AD152" s="37"/>
+      <c r="AD152" s="4"/>
       <c r="AE152" s="4"/>
       <c r="AF152" s="4"/>
       <c r="AG152" s="4"/>
@@ -35781,7 +36582,7 @@
       <c r="AA153" s="4"/>
       <c r="AB153" s="4"/>
       <c r="AC153" s="4"/>
-      <c r="AD153" s="37"/>
+      <c r="AD153" s="4"/>
       <c r="AE153" s="4"/>
       <c r="AF153" s="4"/>
       <c r="AG153" s="4"/>
@@ -35843,7 +36644,7 @@
       <c r="AA154" s="4"/>
       <c r="AB154" s="4"/>
       <c r="AC154" s="4"/>
-      <c r="AD154" s="37"/>
+      <c r="AD154" s="4"/>
       <c r="AE154" s="4"/>
       <c r="AF154" s="4"/>
       <c r="AG154" s="4"/>
@@ -35908,7 +36709,7 @@
       <c r="AA155" s="4"/>
       <c r="AB155" s="4"/>
       <c r="AC155" s="4"/>
-      <c r="AD155" s="37"/>
+      <c r="AD155" s="4"/>
       <c r="AE155" s="4"/>
       <c r="AF155" s="4"/>
       <c r="AG155" s="4"/>
@@ -35971,7 +36772,7 @@
       <c r="AA156" s="4"/>
       <c r="AB156" s="4"/>
       <c r="AC156" s="4"/>
-      <c r="AD156" s="37"/>
+      <c r="AD156" s="4"/>
       <c r="AE156" s="4"/>
       <c r="AF156" s="4"/>
       <c r="AG156" s="4"/>
@@ -36041,7 +36842,7 @@
       <c r="AA157" s="4"/>
       <c r="AB157" s="4"/>
       <c r="AC157" s="4"/>
-      <c r="AD157" s="37"/>
+      <c r="AD157" s="4"/>
       <c r="AE157" s="4"/>
       <c r="AF157" s="4"/>
       <c r="AG157" s="4"/>
@@ -36106,7 +36907,7 @@
       <c r="AA158" s="4"/>
       <c r="AB158" s="4"/>
       <c r="AC158" s="4"/>
-      <c r="AD158" s="37"/>
+      <c r="AD158" s="4"/>
       <c r="AE158" s="4"/>
       <c r="AF158" s="4"/>
       <c r="AG158" s="4"/>
@@ -36168,7 +36969,7 @@
       <c r="AA159" s="4"/>
       <c r="AB159" s="4"/>
       <c r="AC159" s="4"/>
-      <c r="AD159" s="37"/>
+      <c r="AD159" s="4"/>
       <c r="AE159" s="4"/>
       <c r="AF159" s="4"/>
       <c r="AG159" s="4"/>
@@ -36233,7 +37034,7 @@
       <c r="AA160" s="4"/>
       <c r="AB160" s="4"/>
       <c r="AC160" s="4"/>
-      <c r="AD160" s="37"/>
+      <c r="AD160" s="4"/>
       <c r="AE160" s="4"/>
       <c r="AF160" s="4"/>
       <c r="AG160" s="4"/>
@@ -36299,7 +37100,7 @@
       <c r="AA161" s="4"/>
       <c r="AB161" s="4"/>
       <c r="AC161" s="4"/>
-      <c r="AD161" s="37"/>
+      <c r="AD161" s="4"/>
       <c r="AE161" s="4"/>
       <c r="AF161" s="4"/>
       <c r="AG161" s="4"/>
@@ -36370,7 +37171,7 @@
       <c r="AA162" s="4"/>
       <c r="AB162" s="4"/>
       <c r="AC162" s="4"/>
-      <c r="AD162" s="37"/>
+      <c r="AD162" s="4"/>
       <c r="AE162" s="4"/>
       <c r="AF162" s="4"/>
       <c r="AG162" s="4"/>
@@ -36435,7 +37236,7 @@
       <c r="AA163" s="4"/>
       <c r="AB163" s="4"/>
       <c r="AC163" s="4"/>
-      <c r="AD163" s="37">
+      <c r="AD163" s="4">
         <v>1</v>
       </c>
       <c r="AE163" s="4"/>
@@ -36500,7 +37301,7 @@
       <c r="AA164" s="4"/>
       <c r="AB164" s="4"/>
       <c r="AC164" s="4"/>
-      <c r="AD164" s="37"/>
+      <c r="AD164" s="4"/>
       <c r="AE164" s="4"/>
       <c r="AF164" s="4"/>
       <c r="AG164" s="4"/>
@@ -36562,7 +37363,7 @@
       <c r="AA165" s="4"/>
       <c r="AB165" s="4"/>
       <c r="AC165" s="4"/>
-      <c r="AD165" s="37"/>
+      <c r="AD165" s="4"/>
       <c r="AE165" s="4"/>
       <c r="AF165" s="4"/>
       <c r="AG165" s="4"/>
@@ -36624,7 +37425,7 @@
       <c r="AA166" s="4"/>
       <c r="AB166" s="4"/>
       <c r="AC166" s="4"/>
-      <c r="AD166" s="37"/>
+      <c r="AD166" s="4"/>
       <c r="AE166" s="4"/>
       <c r="AF166" s="4"/>
       <c r="AG166" s="4"/>
@@ -36686,7 +37487,7 @@
       <c r="AA167" s="4"/>
       <c r="AB167" s="4"/>
       <c r="AC167" s="4"/>
-      <c r="AD167" s="37"/>
+      <c r="AD167" s="4"/>
       <c r="AE167" s="4"/>
       <c r="AF167" s="4"/>
       <c r="AG167" s="4"/>
@@ -36748,7 +37549,7 @@
       <c r="AA168" s="4"/>
       <c r="AB168" s="4"/>
       <c r="AC168" s="4"/>
-      <c r="AD168" s="37"/>
+      <c r="AD168" s="4"/>
       <c r="AE168" s="4"/>
       <c r="AF168" s="4"/>
       <c r="AG168" s="4"/>
@@ -36810,7 +37611,7 @@
       <c r="AA169" s="4"/>
       <c r="AB169" s="4"/>
       <c r="AC169" s="4"/>
-      <c r="AD169" s="37"/>
+      <c r="AD169" s="4"/>
       <c r="AE169" s="4"/>
       <c r="AF169" s="4"/>
       <c r="AG169" s="4"/>
@@ -36875,7 +37676,7 @@
       <c r="AA170" s="4"/>
       <c r="AB170" s="4"/>
       <c r="AC170" s="4"/>
-      <c r="AD170" s="37"/>
+      <c r="AD170" s="4"/>
       <c r="AE170" s="4"/>
       <c r="AF170" s="4"/>
       <c r="AG170" s="4"/>
@@ -36921,7 +37722,7 @@
       <c r="J171" s="6"/>
       <c r="K171" s="6">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L171" s="6"/>
       <c r="M171" s="6"/>
@@ -36937,9 +37738,9 @@
       </c>
       <c r="AB171" s="4"/>
       <c r="AC171" s="4">
-        <v>1</v>
-      </c>
-      <c r="AD171" s="37"/>
+        <v>3</v>
+      </c>
+      <c r="AD171" s="4"/>
       <c r="AE171" s="4"/>
       <c r="AF171" s="4"/>
       <c r="AG171" s="4"/>
@@ -37001,7 +37802,7 @@
       <c r="AA172" s="4"/>
       <c r="AB172" s="4"/>
       <c r="AC172" s="4"/>
-      <c r="AD172" s="37"/>
+      <c r="AD172" s="4"/>
       <c r="AE172" s="4"/>
       <c r="AF172" s="4"/>
       <c r="AG172" s="4"/>
@@ -37066,7 +37867,7 @@
       <c r="AA173" s="4"/>
       <c r="AB173" s="4"/>
       <c r="AC173" s="4"/>
-      <c r="AD173" s="37"/>
+      <c r="AD173" s="4"/>
       <c r="AE173" s="4"/>
       <c r="AF173" s="4"/>
       <c r="AG173" s="4"/>
@@ -37132,7 +37933,7 @@
       <c r="AA174" s="4"/>
       <c r="AB174" s="4"/>
       <c r="AC174" s="4"/>
-      <c r="AD174" s="37"/>
+      <c r="AD174" s="4"/>
       <c r="AE174" s="4"/>
       <c r="AF174" s="4"/>
       <c r="AG174" s="4"/>
@@ -37194,7 +37995,7 @@
       <c r="AA175" s="4"/>
       <c r="AB175" s="4"/>
       <c r="AC175" s="4"/>
-      <c r="AD175" s="37"/>
+      <c r="AD175" s="4"/>
       <c r="AE175" s="4"/>
       <c r="AF175" s="4"/>
       <c r="AG175" s="4"/>
@@ -37259,7 +38060,7 @@
       <c r="AA176" s="4"/>
       <c r="AB176" s="4"/>
       <c r="AC176" s="4"/>
-      <c r="AD176" s="37"/>
+      <c r="AD176" s="4"/>
       <c r="AE176" s="4"/>
       <c r="AF176" s="4"/>
       <c r="AG176" s="4"/>
@@ -37326,7 +38127,7 @@
       <c r="AA177" s="4"/>
       <c r="AB177" s="4"/>
       <c r="AC177" s="4"/>
-      <c r="AD177" s="37"/>
+      <c r="AD177" s="4"/>
       <c r="AE177" s="4"/>
       <c r="AF177" s="4"/>
       <c r="AG177" s="4"/>
@@ -37372,7 +38173,7 @@
       <c r="J178" s="6"/>
       <c r="K178" s="6">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L178" s="6"/>
       <c r="M178" s="6"/>
@@ -37389,8 +38190,10 @@
       <c r="Z178" s="4"/>
       <c r="AA178" s="4"/>
       <c r="AB178" s="4"/>
-      <c r="AC178" s="4"/>
-      <c r="AD178" s="37"/>
+      <c r="AC178" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD178" s="4"/>
       <c r="AE178" s="4"/>
       <c r="AF178" s="4"/>
       <c r="AG178" s="4"/>
@@ -37457,7 +38260,7 @@
       <c r="AA179" s="4"/>
       <c r="AB179" s="4"/>
       <c r="AC179" s="4"/>
-      <c r="AD179" s="37"/>
+      <c r="AD179" s="4"/>
       <c r="AE179" s="4"/>
       <c r="AF179" s="4"/>
       <c r="AG179" s="4"/>
@@ -37519,7 +38322,7 @@
       <c r="AA180" s="4"/>
       <c r="AB180" s="4"/>
       <c r="AC180" s="4"/>
-      <c r="AD180" s="37"/>
+      <c r="AD180" s="4"/>
       <c r="AE180" s="4"/>
       <c r="AF180" s="4"/>
       <c r="AG180" s="4"/>
@@ -37585,7 +38388,7 @@
       <c r="AA181" s="4"/>
       <c r="AB181" s="4"/>
       <c r="AC181" s="4"/>
-      <c r="AD181" s="37"/>
+      <c r="AD181" s="4"/>
       <c r="AE181" s="4"/>
       <c r="AF181" s="4"/>
       <c r="AG181" s="4"/>
@@ -37647,7 +38450,7 @@
       <c r="AA182" s="4"/>
       <c r="AB182" s="4"/>
       <c r="AC182" s="4"/>
-      <c r="AD182" s="37"/>
+      <c r="AD182" s="4"/>
       <c r="AE182" s="4"/>
       <c r="AF182" s="4"/>
       <c r="AG182" s="4"/>
@@ -37693,7 +38496,7 @@
       <c r="J183" s="6"/>
       <c r="K183" s="6">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L183" s="6"/>
       <c r="M183" s="6"/>
@@ -37712,8 +38515,10 @@
       <c r="Z183" s="4"/>
       <c r="AA183" s="4"/>
       <c r="AB183" s="4"/>
-      <c r="AC183" s="4"/>
-      <c r="AD183" s="37"/>
+      <c r="AC183" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD183" s="4"/>
       <c r="AE183" s="4"/>
       <c r="AF183" s="4"/>
       <c r="AG183" s="4"/>
@@ -37778,7 +38583,7 @@
       <c r="AA184" s="4"/>
       <c r="AB184" s="4"/>
       <c r="AC184" s="4"/>
-      <c r="AD184" s="37"/>
+      <c r="AD184" s="4"/>
       <c r="AE184" s="4"/>
       <c r="AF184" s="4"/>
       <c r="AG184" s="4"/>
@@ -37840,7 +38645,7 @@
       <c r="AA185" s="4"/>
       <c r="AB185" s="4"/>
       <c r="AC185" s="4"/>
-      <c r="AD185" s="37"/>
+      <c r="AD185" s="4"/>
       <c r="AE185" s="4"/>
       <c r="AF185" s="4"/>
       <c r="AG185" s="4"/>
@@ -37886,7 +38691,7 @@
       <c r="J186" s="6"/>
       <c r="K186" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L186" s="6"/>
       <c r="M186" s="6"/>
@@ -37901,8 +38706,10 @@
       <c r="Z186" s="4"/>
       <c r="AA186" s="4"/>
       <c r="AB186" s="4"/>
-      <c r="AC186" s="4"/>
-      <c r="AD186" s="37"/>
+      <c r="AC186" s="4">
+        <v>3</v>
+      </c>
+      <c r="AD186" s="4"/>
       <c r="AE186" s="4"/>
       <c r="AF186" s="4"/>
       <c r="AG186" s="4"/>
@@ -37964,7 +38771,7 @@
       <c r="AA187" s="4"/>
       <c r="AB187" s="4"/>
       <c r="AC187" s="4"/>
-      <c r="AD187" s="37"/>
+      <c r="AD187" s="4"/>
       <c r="AE187" s="4"/>
       <c r="AF187" s="4"/>
       <c r="AG187" s="4"/>
@@ -38012,7 +38819,7 @@
       </c>
       <c r="K188" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L188" s="6"/>
       <c r="M188" s="6"/>
@@ -38027,8 +38834,10 @@
       <c r="Z188" s="4"/>
       <c r="AA188" s="4"/>
       <c r="AB188" s="4"/>
-      <c r="AC188" s="4"/>
-      <c r="AD188" s="37"/>
+      <c r="AC188" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD188" s="4"/>
       <c r="AE188" s="4"/>
       <c r="AF188" s="4"/>
       <c r="AG188" s="4"/>
@@ -38092,7 +38901,7 @@
       <c r="AA189" s="4"/>
       <c r="AB189" s="4"/>
       <c r="AC189" s="4"/>
-      <c r="AD189" s="37"/>
+      <c r="AD189" s="4"/>
       <c r="AE189" s="4"/>
       <c r="AF189" s="4"/>
       <c r="AG189" s="4"/>
@@ -38158,7 +38967,7 @@
       <c r="AA190" s="4"/>
       <c r="AB190" s="4"/>
       <c r="AC190" s="4"/>
-      <c r="AD190" s="37"/>
+      <c r="AD190" s="4"/>
       <c r="AE190" s="4"/>
       <c r="AF190" s="4"/>
       <c r="AG190" s="4"/>
@@ -38223,7 +39032,7 @@
       <c r="AA191" s="4"/>
       <c r="AB191" s="4"/>
       <c r="AC191" s="4"/>
-      <c r="AD191" s="37"/>
+      <c r="AD191" s="4"/>
       <c r="AE191" s="4"/>
       <c r="AF191" s="4"/>
       <c r="AG191" s="4"/>
@@ -38269,7 +39078,7 @@
       <c r="J192" s="6"/>
       <c r="K192" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L192" s="6"/>
       <c r="M192" s="6"/>
@@ -38284,8 +39093,10 @@
       <c r="Z192" s="4"/>
       <c r="AA192" s="4"/>
       <c r="AB192" s="4"/>
-      <c r="AC192" s="4"/>
-      <c r="AD192" s="37"/>
+      <c r="AC192" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD192" s="4"/>
       <c r="AE192" s="4"/>
       <c r="AF192" s="4"/>
       <c r="AG192" s="4"/>
@@ -38347,7 +39158,7 @@
       <c r="AA193" s="4"/>
       <c r="AB193" s="4"/>
       <c r="AC193" s="4"/>
-      <c r="AD193" s="37"/>
+      <c r="AD193" s="4"/>
       <c r="AE193" s="4"/>
       <c r="AF193" s="4"/>
       <c r="AG193" s="4"/>
@@ -38362,8 +39173,8 @@
     </row>
     <row r="194" spans="1:41" x14ac:dyDescent="0.35">
       <c r="K194" s="6">
-        <f>SUM(K2:K193)</f>
-        <v>73</v>
+        <f t="shared" si="8"/>
+        <v>121</v>
       </c>
       <c r="L194">
         <f>SUM(L2:L193)</f>
@@ -38435,9 +39246,9 @@
       </c>
       <c r="AC194">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AD194" s="38">
+        <v>49</v>
+      </c>
+      <c r="AD194">
         <f>SUM(AD2:AD193)</f>
         <v>15</v>
       </c>

--- a/PNR_Raw_Data/PNR2022_InvertebrateCommunity.xlsx
+++ b/PNR_Raw_Data/PNR2022_InvertebrateCommunity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/PNR_Beetles_github_folder/PNR_Raw_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3110" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29E8BB35-5002-4561-8989-D5D1D44D9312}"/>
+  <xr:revisionPtr revIDLastSave="3111" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A56D122-C9FF-4D48-A85C-F77A34D20098}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -282,9 +282,6 @@
     <t>Trichotichnus_autumnalis</t>
   </si>
   <si>
-    <t>Amarini_unkown</t>
-  </si>
-  <si>
     <t>Anisodactylus_melanopus</t>
   </si>
   <si>
@@ -452,6 +449,9 @@
   <si>
     <t>Total_pinned_Scarab_beetles</t>
   </si>
+  <si>
+    <t>Amarini_unknown</t>
+  </si>
 </sst>
 </file>
 
@@ -557,7 +557,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -657,9 +657,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1025,22 +1022,22 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1053,10 +1050,10 @@
   <dimension ref="A1:BH193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AD181" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="I181" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A186" sqref="A186:XFD186"/>
+      <selection pane="bottomRight" activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1139,7 +1136,7 @@
         <v>14</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>15</v>
@@ -1157,16 +1154,16 @@
         <v>75</v>
       </c>
       <c r="P1" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="R1" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="Q1" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="R1" s="23" t="s">
+      <c r="S1" s="23" t="s">
         <v>81</v>
-      </c>
-      <c r="S1" s="23" t="s">
-        <v>82</v>
       </c>
       <c r="T1" s="23" t="s">
         <v>43</v>
@@ -1202,7 +1199,7 @@
         <v>47</v>
       </c>
       <c r="AE1" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AF1" s="23" t="s">
         <v>30</v>
@@ -1214,7 +1211,7 @@
         <v>74</v>
       </c>
       <c r="AI1" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AJ1" s="23" t="s">
         <v>46</v>
@@ -1283,7 +1280,7 @@
         <v>59</v>
       </c>
       <c r="BF1" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BG1" s="24" t="s">
         <v>45</v>
@@ -1417,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="4" t="s">
@@ -1661,151 +1658,151 @@
         <v>9</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N9" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O9" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P9" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R9" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S9" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T9" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U9" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V9" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="W9" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="X9" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Y9" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z9" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AA9" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AB9" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AC9" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD9" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE9" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF9" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AG9" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AH9" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AI9" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ9" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK9" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL9" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AM9" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AN9" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AO9" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AP9" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AQ9" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AR9" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AS9" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AT9" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AU9" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AV9" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AW9" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AX9" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AY9" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AZ9" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BA9" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BB9" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BC9" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BD9" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BE9" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BF9" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BG9" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BH9" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:60" x14ac:dyDescent="0.35">
@@ -1985,155 +1982,155 @@
         <v>1</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K13" s="11"/>
       <c r="L13" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P13" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q13" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R13" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S13" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U13" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V13" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="W13" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="X13" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Y13" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z13" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AA13" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AB13" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AC13" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD13" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE13" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF13" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AG13" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AH13" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AI13" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ13" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK13" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL13" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AM13" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AN13" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AO13" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AP13" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AQ13" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AR13" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AS13" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AT13" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AU13" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AV13" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AW13" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AX13" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AY13" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AZ13" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BA13" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BB13" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BC13" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BD13" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BE13" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BF13" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BG13" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BH13" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:60" x14ac:dyDescent="0.35">
@@ -2608,151 +2605,151 @@
         <v>9</v>
       </c>
       <c r="L23" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M23" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N23" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O23" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P23" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q23" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R23" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S23" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T23" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U23" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V23" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="W23" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="X23" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Y23" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z23" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AA23" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AB23" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AC23" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD23" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE23" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF23" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AG23" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AH23" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AI23" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ23" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK23" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL23" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AM23" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AN23" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AO23" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AP23" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AQ23" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AR23" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AS23" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AT23" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AU23" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AV23" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AW23" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AX23" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AY23" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AZ23" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BA23" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BB23" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BC23" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BD23" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BE23" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BF23" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BG23" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BH23" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:60" x14ac:dyDescent="0.35">
@@ -3088,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K30" s="17"/>
       <c r="L30" s="18" t="s">
@@ -3301,7 +3298,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K34" s="6"/>
       <c r="L34" s="4" t="s">
@@ -3566,151 +3563,151 @@
         <v>9</v>
       </c>
       <c r="L39" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M39" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N39" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O39" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P39" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q39" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R39" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S39" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T39" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U39" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V39" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="W39" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="X39" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Y39" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z39" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AA39" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AB39" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AC39" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD39" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE39" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF39" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AG39" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AH39" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AI39" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ39" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK39" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL39" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AM39" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AN39" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AO39" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AP39" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AQ39" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AR39" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AS39" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AT39" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AU39" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AV39" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AW39" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AX39" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AY39" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AZ39" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BA39" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BB39" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BC39" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BD39" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BE39" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BF39" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BG39" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BH39" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:60" x14ac:dyDescent="0.35">
@@ -4091,151 +4088,151 @@
         <v>9</v>
       </c>
       <c r="L47" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M47" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N47" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O47" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P47" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q47" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R47" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S47" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T47" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U47" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V47" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="W47" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="X47" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Y47" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z47" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AA47" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AB47" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AC47" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD47" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE47" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF47" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AG47" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AH47" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AI47" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ47" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK47" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL47" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AM47" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AN47" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AO47" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AP47" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AQ47" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AR47" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AS47" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AT47" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AU47" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AV47" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AW47" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AX47" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AY47" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AZ47" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BA47" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BB47" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BC47" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BD47" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BE47" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BF47" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BG47" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BH47" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:60" x14ac:dyDescent="0.35">
@@ -5674,7 +5671,7 @@
         <v>0</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K77" s="6"/>
       <c r="L77" s="4" t="s">
@@ -5768,7 +5765,7 @@
         <v>0</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K79" s="6"/>
       <c r="L79" s="4" t="s">
@@ -6896,155 +6893,155 @@
         <v>0</v>
       </c>
       <c r="J102" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K102" s="11"/>
       <c r="L102" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M102" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N102" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O102" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P102" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q102" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R102" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S102" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T102" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U102" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V102" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="W102" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="X102" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Y102" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z102" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AA102" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AB102" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AC102" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD102" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE102" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF102" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AG102" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AH102" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AI102" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ102" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK102" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL102" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AM102" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AN102" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AO102" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AP102" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AQ102" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AR102" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AS102" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AT102" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AU102" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AV102" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AW102" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AX102" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AY102" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AZ102" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BA102" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BB102" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BC102" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BD102" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BE102" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BF102" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BG102" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BH102" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:60" x14ac:dyDescent="0.35">
@@ -7295,155 +7292,155 @@
         <v>0</v>
       </c>
       <c r="J107" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K107" s="11"/>
       <c r="L107" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M107" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N107" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O107" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P107" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q107" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R107" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S107" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T107" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U107" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V107" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="W107" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="X107" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Y107" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z107" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AA107" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AB107" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AC107" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD107" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE107" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF107" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AG107" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AH107" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AI107" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ107" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK107" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL107" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AM107" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AN107" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AO107" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AP107" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AQ107" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AR107" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AS107" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AT107" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AU107" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AV107" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AW107" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AX107" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AY107" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AZ107" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BA107" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BB107" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BC107" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BD107" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BE107" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BF107" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BG107" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BH107" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="108" spans="1:60" x14ac:dyDescent="0.35">
@@ -11554,11 +11551,11 @@
         <v>0</v>
       </c>
       <c r="J190" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K190" s="17"/>
       <c r="L190" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N190" s="18">
         <f t="shared" si="12"/>
@@ -11797,31 +11794,31 @@
         <v>15</v>
       </c>
       <c r="K1" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="M1" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="M1" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="N1" s="23" t="s">
+      <c r="P1" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="O1" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="P1" s="23" t="s">
+      <c r="Q1" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="R1" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="S1" s="33" t="s">
         <v>105</v>
-      </c>
-      <c r="R1" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="S1" s="33" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
@@ -12113,31 +12110,31 @@
         <v>9</v>
       </c>
       <c r="K9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
@@ -12280,31 +12277,31 @@
       </c>
       <c r="J13" s="11"/>
       <c r="K13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
@@ -12672,31 +12669,31 @@
         <v>9</v>
       </c>
       <c r="K23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
@@ -13300,31 +13297,31 @@
         <v>9</v>
       </c>
       <c r="K39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.35">
@@ -13629,31 +13626,31 @@
         <v>9</v>
       </c>
       <c r="K47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.35">
@@ -15774,31 +15771,31 @@
       </c>
       <c r="J102" s="11"/>
       <c r="K102" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L102" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M102" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N102" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O102" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P102" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q102" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R102" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S102" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.35">
@@ -15977,31 +15974,31 @@
       </c>
       <c r="J107" s="11"/>
       <c r="K107" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L107" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M107" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N107" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O107" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P107" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q107" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R107" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S107" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.35">
@@ -19370,17 +19367,17 @@
       <c r="J1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="35" t="s">
-        <v>136</v>
+      <c r="K1" s="23" t="s">
+        <v>135</v>
       </c>
       <c r="L1" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="M1" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="N1" s="33" t="s">
         <v>112</v>
-      </c>
-      <c r="N1" s="33" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -26822,64 +26819,64 @@
         <v>15</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L1" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M1" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="R1" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="S1" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="T1" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="U1" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="V1" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="W1" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="X1" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y1" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z1" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA1" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="N1" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="O1" s="23" t="s">
+      <c r="AB1" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="P1" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q1" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="R1" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="S1" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="T1" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="U1" s="33" t="s">
+      <c r="AC1" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD1" s="33" t="s">
         <v>129</v>
-      </c>
-      <c r="V1" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="W1" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="X1" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y1" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z1" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA1" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB1" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC1" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD1" s="33" t="s">
-        <v>130</v>
       </c>
       <c r="AE1" s="33"/>
       <c r="AF1" s="33"/>

--- a/PNR_Raw_Data/PNR2022_InvertebrateCommunity.xlsx
+++ b/PNR_Raw_Data/PNR2022_InvertebrateCommunity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/PNR_Beetles_github_folder/PNR_Raw_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3111" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A56D122-C9FF-4D48-A85C-F77A34D20098}"/>
+  <xr:revisionPtr revIDLastSave="3113" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9A12F11-F6AB-4CF5-B94F-9E608741CB70}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -1049,11 +1049,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F43E875-3D05-450D-A232-4115B14D5C30}">
   <dimension ref="A1:BH193"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I181" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="83" zoomScaleNormal="82" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="I176" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P1" sqref="P1"/>
+      <selection pane="bottomRight" activeCell="A193" sqref="A193:XFD193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11743,10 +11743,10 @@
   <dimension ref="A1:S194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D185" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D179" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L196" sqref="L196"/>
+      <selection pane="bottomRight" activeCell="A193" sqref="A193:XFD193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19324,7 +19324,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D180" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F193" sqref="F193"/>
+      <selection pane="bottomRight" activeCell="A193" sqref="A193:XFD193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26757,11 +26757,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD252C17-6716-4619-A9FC-BBA1451F607F}">
   <dimension ref="A1:AO194"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D185" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D182" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomRight" activeCell="H196" sqref="H196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
